--- a/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
+++ b/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>100_2_0.2_0.05</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>102_3_0.3_0.05</t>
+  </si>
+  <si>
+    <t>102_3_0.3_0.15</t>
   </si>
   <si>
     <t>102_3_0.3_0.10</t>
@@ -494,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,10 +552,13 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0.735320515039653</v>
@@ -576,36 +582,39 @@
         <v>0.5801681051888773</v>
       </c>
       <c r="I2">
+        <v>0.1411508981256023</v>
+      </c>
+      <c r="J2">
         <v>0.2845519335656161</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.1788519886671448</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.09849706821810114</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.9997999950505075</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.6473157708524364</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.3157024159685204</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.3238728362730644</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.1778119368419639</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.07844474836714005</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0.975407830422203</v>
@@ -629,36 +638,39 @@
         <v>0.9926144655361127</v>
       </c>
       <c r="I3">
+        <v>0.3227131503206044</v>
+      </c>
+      <c r="J3">
         <v>0.8582155444994095</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.4989695244794819</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.1702179529412083</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>0.9995999901010151</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.9800759016826686</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.9950655902325003</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.9228901916455381</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1887389755878106</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0.9652412916421541</v>
@@ -682,36 +694,39 @@
         <v>0.9908585929780466</v>
       </c>
       <c r="I4">
+        <v>0.2118266829274555</v>
+      </c>
+      <c r="J4">
         <v>0.6204203712952957</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.3185979987949843</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.1361657454109753</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>0.9993999851515227</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.7878003453013547</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.9215902010250591</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.4116824530884658</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.1183787093252108</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0.9722398142593204</v>
@@ -735,36 +750,39 @@
         <v>0.9931969338175428</v>
       </c>
       <c r="I5">
+        <v>0.4380535641441217</v>
+      </c>
+      <c r="J5">
         <v>0.9139210391451711</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.6016785963050344</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.2242763694178206</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>0.9997999950505075</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.987831865095947</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.9946236069386469</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.9784548876248178</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.4007927350610153</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0.7672480739315225</v>
@@ -788,36 +806,39 @@
         <v>0.6058039167060965</v>
       </c>
       <c r="I6">
+        <v>0.183049217080614</v>
+      </c>
+      <c r="J6">
         <v>0.3417329935401117</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.263753210586021</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.2313380643451642</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>0.7197613599687231</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.4141620939534228</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.3629178997816072</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.2332435095708405</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.2094848770583689</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0.9742158070041781</v>
@@ -841,36 +862,39 @@
         <v>0.9946749417066585</v>
       </c>
       <c r="I7">
+        <v>0.3783537841062696</v>
+      </c>
+      <c r="J7">
         <v>0.8413583194821609</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.487779680432736</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.3273095081701202</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>0.9995999901010151</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.9803141052526473</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.9935841373344743</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.9262706951967821</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.3407031926132443</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>0.9721832656890307</v>
@@ -894,36 +918,39 @@
         <v>0.9932013457813911</v>
       </c>
       <c r="I8">
+        <v>0.4654892395408373</v>
+      </c>
+      <c r="J8">
         <v>0.8917934945450109</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.6373139837349755</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.222936994484921</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>0.9997999950505075</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.9820739400684946</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.9943299709854503</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.9584835478176572</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.5398334830679027</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0.8128285858638675</v>
@@ -947,36 +974,39 @@
         <v>0.8734594122043869</v>
       </c>
       <c r="I9">
+        <v>0.2097911012850353</v>
+      </c>
+      <c r="J9">
         <v>0.4292827272484604</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.2823629827355467</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.1461803013651457</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>0.8416601818146212</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.5152969120652879</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.5184421221618808</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.3105178920697834</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.1255511580385049</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>0.7190242161803198</v>
@@ -1000,36 +1030,39 @@
         <v>0.5471607773335917</v>
       </c>
       <c r="I10">
+        <v>0.1720913081525689</v>
+      </c>
+      <c r="J10">
         <v>0.3096298630842652</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.2645005215907927</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.2275272249669986</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.9921080473598107</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.6373678976120118</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.3617276287192218</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.3427835303947043</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.2265507806831939</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0.1849596325904559</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>0.9753835711045237</v>
@@ -1053,36 +1086,39 @@
         <v>0.9943971659278786</v>
       </c>
       <c r="I11">
+        <v>0.3711080840448164</v>
+      </c>
+      <c r="J11">
         <v>0.8834156035005065</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.5841209385328352</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.1878505357847306</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>0.9997999950505075</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.980300023960133</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.9941747153296575</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.9540825011865283</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.2655775287071309</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>0.8786995990865555</v>
@@ -1106,36 +1142,39 @@
         <v>0.9465551508812724</v>
       </c>
       <c r="I12">
+        <v>0.2126753034713981</v>
+      </c>
+      <c r="J12">
         <v>0.468721810001079</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.2898574613866314</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.1424650201696372</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>0.8675521884618739</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0.5341421248946197</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.5687459121614179</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.3373256653490739</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.1317679236881338</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>0.9698800002187612</v>
@@ -1159,36 +1198,39 @@
         <v>0.9911366397183197</v>
       </c>
       <c r="I13">
+        <v>0.4985522030984138</v>
+      </c>
+      <c r="J13">
         <v>0.9240609350786717</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.6572660941416387</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.2450662172090255</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>0.9993999851515227</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0.9826659089009118</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.9940239371173201</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.9780429524466487</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.5353348337864118</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>0.957769846547577</v>
@@ -1212,36 +1254,39 @@
         <v>0.98966862186517</v>
       </c>
       <c r="I14">
+        <v>0.5299533315198515</v>
+      </c>
+      <c r="J14">
         <v>0.9021100434887245</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.6963692322404096</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.3062029892694463</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>0.9995999901010151</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0.9797040303288704</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.9923915466222113</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.9651621033350092</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.6400346765753911</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>0.9797273553283017</v>
@@ -1265,36 +1310,39 @@
         <v>0.9952749660926479</v>
       </c>
       <c r="I15">
+        <v>0.5060147776679391</v>
+      </c>
+      <c r="J15">
         <v>0.9182053176476149</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.6804196134324961</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.2777477106791654</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>0.9997999950505075</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.9860318187536184</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.9958115270823825</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.9735609050576283</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.5885144090745356</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>0.973407637737117</v>
@@ -1318,36 +1366,39 @@
         <v>0.993210080655607</v>
       </c>
       <c r="I16">
+        <v>0.3426643721395141</v>
+      </c>
+      <c r="J16">
         <v>0.8519355592192497</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.4604831592205045</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.1838610924146378</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>0.9997999950505075</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.9834739734966956</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.9949170846491274</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.9705729371427785</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.3477245418885831</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>0.9769675056007514</v>
@@ -1371,36 +1422,39 @@
         <v>0.9923101290840735</v>
       </c>
       <c r="I17">
+        <v>0.4213653190433447</v>
+      </c>
+      <c r="J17">
         <v>0.9050147397858472</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.5687306275077474</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.2055781265361567</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>0.9997999950505075</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.9880318746564737</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.9946224590905149</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.974088226073293</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.3611120522071911</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>0.9687042029370058</v>
@@ -1424,36 +1478,39 @@
         <v>0.9914408831525163</v>
       </c>
       <c r="I18">
+        <v>0.522704025634109</v>
+      </c>
+      <c r="J18">
         <v>0.913758960075</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.684553198023949</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.2666224912037533</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>0.9997999950505075</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.9846478658999943</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.9946235841321414</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.9748963088238705</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.6110065463276529</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>0.9714802421205192</v>
@@ -1477,36 +1534,39 @@
         <v>0.9920320863081626</v>
       </c>
       <c r="I19">
+        <v>0.4787011321570514</v>
+      </c>
+      <c r="J19">
         <v>0.9095362647351694</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.652522858659085</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.2273757550681532</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>0.9997999950505075</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.9856438736514262</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.995818378339527</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.9701253981419969</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.4093257476735596</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>0.9797354785541011</v>
@@ -1530,36 +1590,39 @@
         <v>0.9949705432844815</v>
       </c>
       <c r="I20">
+        <v>0.3908460144845483</v>
+      </c>
+      <c r="J20">
         <v>0.8956104643690084</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.5558691733254519</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.2460347684586324</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
         <v>0.9874298453101669</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.9959622596817087</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.9693747947799791</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.3216905274077511</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>0.9686960808975629</v>
@@ -1583,36 +1646,39 @@
         <v>0.9917237869607289</v>
       </c>
       <c r="I21">
+        <v>0.4533089810184958</v>
+      </c>
+      <c r="J21">
         <v>0.9164704854156086</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.6292664398218152</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.3457026074299467</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>0.9995999901010151</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.9846599287110713</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.9946258798284054</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.9722426091117079</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.3945023747675778</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>0.9678797913707924</v>
@@ -1636,36 +1702,39 @@
         <v>0.9911324961819215</v>
       </c>
       <c r="I22">
+        <v>0.4967454258729495</v>
+      </c>
+      <c r="J22">
         <v>0.9203690866799441</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.6659992204376561</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.2491640777582714</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
       <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>0.9995999901010151</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.9824759560594775</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.9941815109342409</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.9780396682825528</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.5417979650567853</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>0.9749996199188105</v>
@@ -1689,36 +1758,39 @@
         <v>0.9914321482783004</v>
       </c>
       <c r="I23">
+        <v>0.4116730741909235</v>
+      </c>
+      <c r="J23">
         <v>0.9087787208189883</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.5736088629720234</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.2118077687344403</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
       <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>0.9995999901010151</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.9880238282505822</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.9953683388824054</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.9781836092004614</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.3745805089479531</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>0.97341562961673</v>
@@ -1742,36 +1814,39 @@
         <v>0.992601500769371</v>
       </c>
       <c r="I24">
+        <v>0.4496572317046531</v>
+      </c>
+      <c r="J24">
         <v>0.9126186816752069</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.5896208151066251</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.2483829635929791</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
       <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
         <v>0.9995999901010151</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.9868298328616163</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.9944761923175391</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.9772629599968359</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.3912126034589346</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>0.9678797913707924</v>
@@ -1795,36 +1870,39 @@
         <v>0.9911324961819215</v>
       </c>
       <c r="I25">
+        <v>0.4980879091951872</v>
+      </c>
+      <c r="J25">
         <v>0.9185360513192892</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.6700104315395151</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.2522349300290788</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
       <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>0.9995999901010151</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.9824719368645292</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.9944751014439436</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.9784463817637866</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.5386089648904551</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>0.9745672765689645</v>
@@ -1848,30 +1926,33 @@
         <v>0.9928971023471941</v>
       </c>
       <c r="I26">
+        <v>0.4427672435066933</v>
+      </c>
+      <c r="J26">
         <v>0.9117134355827881</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.6020625617440808</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.2273362870679342</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
         <v>0.9995999901010151</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.9872258207637136</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.995370611772164</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.9769995291439152</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.3887881480612549</v>
       </c>
     </row>

--- a/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
+++ b/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>100_2_0.05_0.001</t>
   </si>
@@ -154,6 +154,9 @@
     <t>100_4_0.30_0.150</t>
   </si>
   <si>
+    <t>150_2_0.10_0.001</t>
+  </si>
+  <si>
     <t>150_3_0.10_0.001</t>
   </si>
   <si>
@@ -182,6 +185,24 @@
   </si>
   <si>
     <t>201_3_0.30_0.100</t>
+  </si>
+  <si>
+    <t>200_4_0.10_0.001</t>
+  </si>
+  <si>
+    <t>200_4_0.10_0.005</t>
+  </si>
+  <si>
+    <t>200_4_0.10_0.010</t>
+  </si>
+  <si>
+    <t>200_4_0.10_0.020</t>
+  </si>
+  <si>
+    <t>200_4_0.10_0.050</t>
+  </si>
+  <si>
+    <t>200_4_0.10_0.100</t>
   </si>
   <si>
     <t>200_4_0.30_0.100</t>
@@ -620,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG26"/>
+  <dimension ref="A1:BN26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:66">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,10 +822,31 @@
       <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:66">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>0.9637630729030069</v>
@@ -945,45 +987,66 @@
         <v>0.09738884064937885</v>
       </c>
       <c r="AV2">
+        <v>0.9997333216416557</v>
+      </c>
+      <c r="AW2">
         <v>0.9967952846470951</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>0.975327380663122</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>0.8440329599630847</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>0.2897864963015163</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>0.05122283276722361</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>0.02232763204907105</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>0.9909308405237996</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>0.6569928610699992</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <v>0.3114300669880454</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>0.3295579674177707</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
+        <v>0.9969165914032172</v>
+      </c>
+      <c r="BH2">
+        <v>0.9441361237575534</v>
+      </c>
+      <c r="BI2">
+        <v>0.6615499477729663</v>
+      </c>
+      <c r="BJ2">
+        <v>0.1615535829676643</v>
+      </c>
+      <c r="BK2">
+        <v>0.03487929122281073</v>
+      </c>
+      <c r="BL2">
+        <v>0.01428342100979789</v>
+      </c>
+      <c r="BM2">
         <v>0.180573136746276</v>
       </c>
-      <c r="BG2">
+      <c r="BN2">
         <v>0.07851135901753734</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:66">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>0.9094069535352416</v>
@@ -1124,45 +1187,66 @@
         <v>0.1698314685656082</v>
       </c>
       <c r="AV3">
+        <v>0.9997333216416557</v>
+      </c>
+      <c r="AW3">
         <v>0.9922696255373815</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>0.957887583893135</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>0.8889850002097155</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>0.637160165488049</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>0.08655805437008061</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>0.02203578506605368</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>1</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <v>0.9804879739419493</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>0.9950678743951148</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
+        <v>0.9863886309697759</v>
+      </c>
+      <c r="BH3">
+        <v>0.9306586356799963</v>
+      </c>
+      <c r="BI3">
+        <v>0.8330394420467792</v>
+      </c>
+      <c r="BJ3">
+        <v>0.4874808429108185</v>
+      </c>
+      <c r="BK3">
+        <v>0.058006083766369</v>
+      </c>
+      <c r="BL3">
+        <v>0.01419496698673787</v>
+      </c>
+      <c r="BM3">
         <v>0.920408727075117</v>
       </c>
-      <c r="BG3">
+      <c r="BN3">
         <v>0.1837670113590898</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:66">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>0.9065387393091242</v>
@@ -1303,45 +1387,66 @@
         <v>0.1387363484084348</v>
       </c>
       <c r="AV4">
+        <v>0.9997333216416557</v>
+      </c>
+      <c r="AW4">
         <v>0.9891033371286558</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>0.9438382314181004</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>0.8515456807115711</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>0.550850037546864</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>0.07353498438936895</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>0.01893914588009453</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>1</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <v>0.77972505925649</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>0.9251495648420902</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
+        <v>0.9731214201969496</v>
+      </c>
+      <c r="BH4">
+        <v>0.9102090202406775</v>
+      </c>
+      <c r="BI4">
+        <v>0.7808354281723168</v>
+      </c>
+      <c r="BJ4">
+        <v>0.3611228911221068</v>
+      </c>
+      <c r="BK4">
+        <v>0.04585470136190287</v>
+      </c>
+      <c r="BL4">
+        <v>0.01145188990612546</v>
+      </c>
+      <c r="BM4">
         <v>0.4206727553459844</v>
       </c>
-      <c r="BG4">
+      <c r="BN4">
         <v>0.1190681821654176</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:66">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>0.9453617996174155</v>
@@ -1482,45 +1587,66 @@
         <v>0.2261887366683209</v>
       </c>
       <c r="AV5">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW5">
         <v>0.9941865006665246</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>0.9727325866770054</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>0.9250543470928778</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>0.7553721781614621</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>0.1182458433010575</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>0.02313304038267702</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>1</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <v>0.9872378827463723</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>0.9955191172668674</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
+        <v>0.994646752344113</v>
+      </c>
+      <c r="BH5">
+        <v>0.9625875713947006</v>
+      </c>
+      <c r="BI5">
+        <v>0.9085258472653507</v>
+      </c>
+      <c r="BJ5">
+        <v>0.6804719299471677</v>
+      </c>
+      <c r="BK5">
+        <v>0.0836596804541747</v>
+      </c>
+      <c r="BL5">
+        <v>0.0167874856413665</v>
+      </c>
+      <c r="BM5">
         <v>0.978038795715463</v>
       </c>
-      <c r="BG5">
+      <c r="BN5">
         <v>0.3955129184763343</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:66">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>0.9676905978028074</v>
@@ -1661,45 +1787,66 @@
         <v>0.2172457901845333</v>
       </c>
       <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
         <v>0.9961953545403839</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <v>0.9735370824200688</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>0.8431420241049485</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>0.3070554179324931</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>0.1337530616171959</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>0.06038883884886161</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>1</v>
       </c>
-      <c r="BC6">
+      <c r="BD6">
         <v>0.7189422104465518</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <v>0.4021629526073812</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>0.3634425244558295</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
+        <v>0.9965280742354939</v>
+      </c>
+      <c r="BH6">
+        <v>0.94363459591424</v>
+      </c>
+      <c r="BI6">
+        <v>0.6557856909304134</v>
+      </c>
+      <c r="BJ6">
+        <v>0.1867712167802713</v>
+      </c>
+      <c r="BK6">
+        <v>0.09227686753790049</v>
+      </c>
+      <c r="BL6">
+        <v>0.04372167221789883</v>
+      </c>
+      <c r="BM6">
         <v>0.2313272048852544</v>
       </c>
-      <c r="BG6">
+      <c r="BN6">
         <v>0.2132430041045927</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:66">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>0.9641468988847035</v>
@@ -1840,45 +1987,66 @@
         <v>0.3272983050283574</v>
       </c>
       <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
         <v>0.997192646380856</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <v>0.9768850540143603</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>0.9194980535938487</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>0.6440098487822126</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>0.2244389383979003</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>0.1372051058684097</v>
       </c>
-      <c r="BB7">
+      <c r="BC7">
         <v>1</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <v>0.9801120934071256</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>0.9938834322166185</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
+        <v>0.9969259282465214</v>
+      </c>
+      <c r="BH7">
+        <v>0.96403549645121</v>
+      </c>
+      <c r="BI7">
+        <v>0.8752216713866423</v>
+      </c>
+      <c r="BJ7">
+        <v>0.4434134851995332</v>
+      </c>
+      <c r="BK7">
+        <v>0.1773603484864924</v>
+      </c>
+      <c r="BL7">
+        <v>0.1211106271230779</v>
+      </c>
+      <c r="BM7">
         <v>0.926508377146511</v>
       </c>
-      <c r="BG7">
+      <c r="BN7">
         <v>0.3404887253506378</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:66">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>0.961762753426727</v>
@@ -2019,45 +2187,66 @@
         <v>0.2247177945007964</v>
       </c>
       <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
         <v>0.9959926202419009</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>0.9770960449829786</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>0.9210501048553625</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>0.7118225609943566</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>0.09672990318361752</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>0.02680524950928695</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <v>1</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BD8">
+      <c r="BE8">
         <v>0.9836558825697428</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>0.9947732146684711</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
+        <v>0.99598266580908</v>
+      </c>
+      <c r="BH8">
+        <v>0.9653112249206492</v>
+      </c>
+      <c r="BI8">
+        <v>0.8945068258727146</v>
+      </c>
+      <c r="BJ8">
+        <v>0.6383223698317224</v>
+      </c>
+      <c r="BK8">
+        <v>0.07106611390483203</v>
+      </c>
+      <c r="BL8">
+        <v>0.01874757386993528</v>
+      </c>
+      <c r="BM8">
         <v>0.958064930220446</v>
       </c>
-      <c r="BG8">
+      <c r="BN8">
         <v>0.5298135121956674</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:66">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>0.8830235822542317</v>
@@ -2198,45 +2387,66 @@
         <v>0.1467598541569674</v>
       </c>
       <c r="AV9">
+        <v>0.9997333216416557</v>
+      </c>
+      <c r="AW9">
         <v>0.9735894446555801</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <v>0.8655275101715642</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>0.6346615780936334</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>0.289412998527052</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>0.07305522459755492</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>0.02033208021436642</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <v>1</v>
       </c>
-      <c r="BC9">
+      <c r="BD9">
         <v>0.8438370788670063</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <v>0.5166592260746014</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>0.5186884571188352</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
+        <v>0.9234016706646517</v>
+      </c>
+      <c r="BH9">
+        <v>0.7463103743356317</v>
+      </c>
+      <c r="BI9">
+        <v>0.4195094201676254</v>
+      </c>
+      <c r="BJ9">
+        <v>0.1865276659785612</v>
+      </c>
+      <c r="BK9">
+        <v>0.04842614711368523</v>
+      </c>
+      <c r="BL9">
+        <v>0.01357219024108321</v>
+      </c>
+      <c r="BM9">
         <v>0.3079838478999686</v>
       </c>
-      <c r="BG9">
+      <c r="BN9">
         <v>0.1263802266694816</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:66">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>0.9603409202900892</v>
@@ -2377,45 +2587,66 @@
         <v>0.2219378368297626</v>
       </c>
       <c r="AV10">
+        <v>0.9997333216416557</v>
+      </c>
+      <c r="AW10">
         <v>0.9953926347291053</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>0.9678874132064453</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>0.8030637939369646</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>0.2703048208776692</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>0.1404477226817118</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>0.06245555812130524</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <v>0.9691999114778638</v>
       </c>
-      <c r="BC10">
+      <c r="BD10">
         <v>0.6592302594979005</v>
       </c>
-      <c r="BD10">
+      <c r="BE10">
         <v>0.3591815411271408</v>
       </c>
-      <c r="BE10">
+      <c r="BF10">
         <v>0.3268349417803487</v>
       </c>
-      <c r="BF10">
+      <c r="BG10">
+        <v>0.995453296308074</v>
+      </c>
+      <c r="BH10">
+        <v>0.930664046932816</v>
+      </c>
+      <c r="BI10">
+        <v>0.5655554148906075</v>
+      </c>
+      <c r="BJ10">
+        <v>0.1635960017673818</v>
+      </c>
+      <c r="BK10">
+        <v>0.1142123123879254</v>
+      </c>
+      <c r="BL10">
+        <v>0.0451716818290927</v>
+      </c>
+      <c r="BM10">
         <v>0.2160070388816388</v>
       </c>
-      <c r="BG10">
+      <c r="BN10">
         <v>0.1964270695697202</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:66">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>0.9605218902920385</v>
@@ -2556,45 +2787,66 @@
         <v>0.1851455323801507</v>
       </c>
       <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
         <v>0.9955933146819249</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>0.9767072036303028</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>0.9233022115158341</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>0.7136392851292399</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>0.08856481128261257</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>0.02031165098638557</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>1</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <v>0.980093987766531</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>0.9943208013142053</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
+        <v>0.9959826470295405</v>
+      </c>
+      <c r="BH11">
+        <v>0.9655502890729598</v>
+      </c>
+      <c r="BI11">
+        <v>0.8938965923276447</v>
+      </c>
+      <c r="BJ11">
+        <v>0.6188263894715703</v>
+      </c>
+      <c r="BK11">
+        <v>0.06025379217139843</v>
+      </c>
+      <c r="BL11">
+        <v>0.0150646994717561</v>
+      </c>
+      <c r="BM11">
         <v>0.9543232134600107</v>
       </c>
-      <c r="BG11">
+      <c r="BN11">
         <v>0.2605061086291137</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:66">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>0.9683610781712814</v>
@@ -2735,45 +2987,66 @@
         <v>0.1410017233066609</v>
       </c>
       <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
         <v>0.9967932575768645</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>0.9762918381704441</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>0.883554552655455</v>
       </c>
-      <c r="AY12">
+      <c r="AZ12">
         <v>0.3849971910867198</v>
       </c>
-      <c r="AZ12">
+      <c r="BA12">
         <v>0.0744411263474265</v>
       </c>
-      <c r="BA12">
+      <c r="BB12">
         <v>0.02429722986148657</v>
       </c>
-      <c r="BB12">
+      <c r="BC12">
         <v>1</v>
       </c>
-      <c r="BC12">
+      <c r="BD12">
         <v>0.8655552227661317</v>
       </c>
-      <c r="BD12">
+      <c r="BE12">
         <v>0.5363356921264437</v>
       </c>
-      <c r="BE12">
+      <c r="BF12">
         <v>0.5739264246635893</v>
       </c>
-      <c r="BF12">
+      <c r="BG12">
+        <v>0.9958594791021533</v>
+      </c>
+      <c r="BH12">
+        <v>0.9574916720813305</v>
+      </c>
+      <c r="BI12">
+        <v>0.7165841909956773</v>
+      </c>
+      <c r="BJ12">
+        <v>0.2379056042389926</v>
+      </c>
+      <c r="BK12">
+        <v>0.05239781044722126</v>
+      </c>
+      <c r="BL12">
+        <v>0.01937221272534833</v>
+      </c>
+      <c r="BM12">
         <v>0.3384527085574912</v>
       </c>
-      <c r="BG12">
+      <c r="BN12">
         <v>0.1319519076333838</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:66">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>0.949216825037713</v>
@@ -2914,45 +3187,66 @@
         <v>0.245062345566344</v>
       </c>
       <c r="AV13">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW13">
         <v>0.9951858468526599</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>0.9715410807631999</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>0.9210607815611134</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
         <v>0.7494455617048975</v>
       </c>
-      <c r="AZ13">
+      <c r="BA13">
         <v>0.1300840172051062</v>
       </c>
-      <c r="BA13">
+      <c r="BB13">
         <v>0.02282372110935071</v>
       </c>
-      <c r="BB13">
+      <c r="BC13">
         <v>1</v>
       </c>
-      <c r="BC13">
+      <c r="BD13">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BD13">
+      <c r="BE13">
         <v>0.9822638881100805</v>
       </c>
-      <c r="BE13">
+      <c r="BF13">
         <v>0.9938743807647148</v>
       </c>
-      <c r="BF13">
+      <c r="BG13">
+        <v>0.9955846552207513</v>
+      </c>
+      <c r="BH13">
+        <v>0.9606392134056354</v>
+      </c>
+      <c r="BI13">
+        <v>0.9034927436479241</v>
+      </c>
+      <c r="BJ13">
+        <v>0.6902401240804785</v>
+      </c>
+      <c r="BK13">
+        <v>0.08683588040474816</v>
+      </c>
+      <c r="BL13">
+        <v>0.01760479673076406</v>
+      </c>
+      <c r="BM13">
         <v>0.979107867009006</v>
       </c>
-      <c r="BG13">
+      <c r="BN13">
         <v>0.5383034325082374</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:66">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>0.9428565882580945</v>
@@ -3093,45 +3387,66 @@
         <v>0.3121176245762534</v>
       </c>
       <c r="AV14">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW14">
         <v>0.9951878179543077</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>0.9703309684130511</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>0.9179478690958754</v>
       </c>
-      <c r="AY14">
+      <c r="AZ14">
         <v>0.7420216772335751</v>
       </c>
-      <c r="AZ14">
+      <c r="BA14">
         <v>0.1475778592963888</v>
       </c>
-      <c r="BA14">
+      <c r="BB14">
         <v>0.03839463599178881</v>
       </c>
-      <c r="BB14">
+      <c r="BC14">
         <v>1</v>
       </c>
-      <c r="BC14">
+      <c r="BD14">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BD14">
+      <c r="BE14">
         <v>0.9797040303288704</v>
       </c>
-      <c r="BE14">
+      <c r="BF14">
         <v>0.9923915466222113</v>
       </c>
-      <c r="BF14">
+      <c r="BG14">
+        <v>0.995452088795534</v>
+      </c>
+      <c r="BH14">
+        <v>0.9612352058413096</v>
+      </c>
+      <c r="BI14">
+        <v>0.8985169263372967</v>
+      </c>
+      <c r="BJ14">
+        <v>0.6856817286886158</v>
+      </c>
+      <c r="BK14">
+        <v>0.119020324869413</v>
+      </c>
+      <c r="BL14">
+        <v>0.03731895820239367</v>
+      </c>
+      <c r="BM14">
         <v>0.9643834371125928</v>
       </c>
-      <c r="BG14">
+      <c r="BN14">
         <v>0.6359514739353305</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:66">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>0.9436404747291145</v>
@@ -3272,45 +3587,66 @@
         <v>0.2773174905766692</v>
       </c>
       <c r="AV15">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW15">
         <v>0.9953926347291053</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>0.9786752560890684</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>0.9349985179829418</v>
       </c>
-      <c r="AY15">
+      <c r="AZ15">
         <v>0.7487171578975156</v>
       </c>
-      <c r="AZ15">
+      <c r="BA15">
         <v>0.1472880956119361</v>
       </c>
-      <c r="BA15">
+      <c r="BB15">
         <v>0.03858522841043706</v>
       </c>
-      <c r="BB15">
+      <c r="BC15">
         <v>1</v>
       </c>
-      <c r="BC15">
+      <c r="BD15">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BD15">
+      <c r="BE15">
         <v>0.9862358477100936</v>
       </c>
-      <c r="BE15">
+      <c r="BF15">
         <v>0.9952175619894361</v>
       </c>
-      <c r="BF15">
+      <c r="BG15">
+        <v>0.9959880791077411</v>
+      </c>
+      <c r="BH15">
+        <v>0.9685238385463478</v>
+      </c>
+      <c r="BI15">
+        <v>0.9072535032001448</v>
+      </c>
+      <c r="BJ15">
+        <v>0.6803528086047463</v>
+      </c>
+      <c r="BK15">
+        <v>0.1105864339642547</v>
+      </c>
+      <c r="BL15">
+        <v>0.03572801447038757</v>
+      </c>
+      <c r="BM15">
         <v>0.9738311238799138</v>
       </c>
-      <c r="BG15">
+      <c r="BN15">
         <v>0.590839628977808</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:66">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>0.9441052994701791</v>
@@ -3451,45 +3787,66 @@
         <v>0.1840801299322515</v>
       </c>
       <c r="AV16">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW16">
         <v>0.9943852095176965</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>0.9766970784070343</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>0.9289399411668394</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>0.7265787100339577</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>0.1149587032024183</v>
       </c>
-      <c r="BA16">
+      <c r="BB16">
         <v>0.02531831708879961</v>
       </c>
-      <c r="BB16">
+      <c r="BC16">
         <v>1</v>
       </c>
-      <c r="BC16">
+      <c r="BD16">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BD16">
+      <c r="BE16">
         <v>0.9840518756615299</v>
       </c>
-      <c r="BE16">
+      <c r="BF16">
         <v>0.9944717264911884</v>
       </c>
-      <c r="BF16">
+      <c r="BG16">
+        <v>0.9950569671055998</v>
+      </c>
+      <c r="BH16">
+        <v>0.9657608771023063</v>
+      </c>
+      <c r="BI16">
+        <v>0.8971301958407158</v>
+      </c>
+      <c r="BJ16">
+        <v>0.6440467949846129</v>
+      </c>
+      <c r="BK16">
+        <v>0.07923464908684433</v>
+      </c>
+      <c r="BL16">
+        <v>0.01812368752076735</v>
+      </c>
+      <c r="BM16">
         <v>0.9710753948935753</v>
       </c>
-      <c r="BG16">
+      <c r="BN16">
         <v>0.3461382065212954</v>
       </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:66">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>0.9441778646617313</v>
@@ -3630,45 +3987,66 @@
         <v>0.2068469121287884</v>
       </c>
       <c r="AV17">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW17">
         <v>0.9937892775828635</v>
       </c>
-      <c r="AW17">
+      <c r="AX17">
         <v>0.9737211969734867</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>0.9254652322201221</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>0.7500146941610393</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>0.1135352234575346</v>
       </c>
-      <c r="BA17">
+      <c r="BB17">
         <v>0.02129036749025407</v>
       </c>
-      <c r="BB17">
+      <c r="BC17">
         <v>1</v>
       </c>
-      <c r="BC17">
+      <c r="BD17">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BD17">
+      <c r="BE17">
         <v>0.9878318651081368</v>
       </c>
-      <c r="BE17">
+      <c r="BF17">
         <v>0.9950656472904917</v>
       </c>
-      <c r="BF17">
+      <c r="BG17">
+        <v>0.9943774133031127</v>
+      </c>
+      <c r="BH17">
+        <v>0.9620376917075388</v>
+      </c>
+      <c r="BI17">
+        <v>0.9073370992174812</v>
+      </c>
+      <c r="BJ17">
+        <v>0.6725817311980025</v>
+      </c>
+      <c r="BK17">
+        <v>0.07711567251692911</v>
+      </c>
+      <c r="BL17">
+        <v>0.01472129229869013</v>
+      </c>
+      <c r="BM17">
         <v>0.9729173712746263</v>
       </c>
-      <c r="BG17">
+      <c r="BN17">
         <v>0.3663415811102521</v>
       </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:66">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B18">
         <v>0.9350907684137644</v>
@@ -3809,45 +4187,66 @@
         <v>0.262873909547799</v>
       </c>
       <c r="AV18">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW18">
         <v>0.9935804913293379</v>
       </c>
-      <c r="AW18">
+      <c r="AX18">
         <v>0.9573391059330423</v>
       </c>
-      <c r="AX18">
+      <c r="AY18">
         <v>0.9020482632212241</v>
       </c>
-      <c r="AY18">
+      <c r="AZ18">
         <v>0.7375525631625863</v>
       </c>
-      <c r="AZ18">
+      <c r="BA18">
         <v>0.1234637171313173</v>
       </c>
-      <c r="BA18">
+      <c r="BB18">
         <v>0.02503454674821367</v>
       </c>
-      <c r="BB18">
+      <c r="BC18">
         <v>1</v>
       </c>
-      <c r="BC18">
+      <c r="BD18">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BD18">
+      <c r="BE18">
         <v>0.9846518883110845</v>
       </c>
-      <c r="BE18">
+      <c r="BF18">
         <v>0.9944750786374379</v>
       </c>
-      <c r="BF18">
+      <c r="BG18">
+        <v>0.9914693431475509</v>
+      </c>
+      <c r="BH18">
+        <v>0.9464334970444814</v>
+      </c>
+      <c r="BI18">
+        <v>0.8857781737701302</v>
+      </c>
+      <c r="BJ18">
+        <v>0.6830425692026182</v>
+      </c>
+      <c r="BK18">
+        <v>0.08696728074618967</v>
+      </c>
+      <c r="BL18">
+        <v>0.01868898448916305</v>
+      </c>
+      <c r="BM18">
         <v>0.974117766191425</v>
       </c>
-      <c r="BG18">
+      <c r="BN18">
         <v>0.6137607525918191</v>
       </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:66">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B19">
         <v>0.9350988597111926</v>
@@ -3988,45 +4387,66 @@
         <v>0.235614241521993</v>
       </c>
       <c r="AV19">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW19">
         <v>0.993584489501216</v>
       </c>
-      <c r="AW19">
+      <c r="AX19">
         <v>0.9581470031832434</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>0.9057199498250654</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>0.7349969737330807</v>
       </c>
-      <c r="AZ19">
+      <c r="BA19">
         <v>0.1155089283074334</v>
       </c>
-      <c r="BA19">
+      <c r="BB19">
         <v>0.02654588568242861</v>
       </c>
-      <c r="BB19">
+      <c r="BC19">
         <v>1</v>
       </c>
-      <c r="BC19">
+      <c r="BD19">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BD19">
+      <c r="BE19">
         <v>0.9854559311109895</v>
       </c>
-      <c r="BE19">
+      <c r="BF19">
         <v>0.994920595121548</v>
       </c>
-      <c r="BF19">
+      <c r="BG19">
+        <v>0.991603354348142</v>
+      </c>
+      <c r="BH19">
+        <v>0.9481955743298468</v>
+      </c>
+      <c r="BI19">
+        <v>0.8880501084940781</v>
+      </c>
+      <c r="BJ19">
+        <v>0.6760232287959481</v>
+      </c>
+      <c r="BK19">
+        <v>0.08124682403607722</v>
+      </c>
+      <c r="BL19">
+        <v>0.02152530674122039</v>
+      </c>
+      <c r="BM19">
         <v>0.9702897169046303</v>
       </c>
-      <c r="BG19">
+      <c r="BN19">
         <v>0.4122460814337736</v>
       </c>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:66">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>0.943842509940042</v>
@@ -4167,45 +4587,66 @@
         <v>0.2626384887169756</v>
       </c>
       <c r="AV20">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW20">
         <v>0.994989220477803</v>
       </c>
-      <c r="AW20">
+      <c r="AX20">
         <v>0.9752983376953327</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>0.9280901110532338</v>
       </c>
-      <c r="AY20">
+      <c r="AZ20">
         <v>0.7534551757053272</v>
       </c>
-      <c r="AZ20">
+      <c r="BA20">
         <v>0.1544528178266525</v>
       </c>
-      <c r="BA20">
+      <c r="BB20">
         <v>0.06429786448837561</v>
-      </c>
-      <c r="BB20">
-        <v>1</v>
       </c>
       <c r="BC20">
         <v>1</v>
       </c>
       <c r="BD20">
+        <v>1</v>
+      </c>
+      <c r="BE20">
         <v>0.9874298445061281</v>
       </c>
-      <c r="BE20">
+      <c r="BF20">
         <v>0.9956641236506755</v>
       </c>
-      <c r="BF20">
+      <c r="BG20">
+        <v>0.9945127411435221</v>
+      </c>
+      <c r="BH20">
+        <v>0.9633567136117311</v>
+      </c>
+      <c r="BI20">
+        <v>0.9085258134377218</v>
+      </c>
+      <c r="BJ20">
+        <v>0.6744159969450421</v>
+      </c>
+      <c r="BK20">
+        <v>0.115974631917495</v>
+      </c>
+      <c r="BL20">
+        <v>0.05531748575464013</v>
+      </c>
+      <c r="BM20">
         <v>0.968987630900756</v>
       </c>
-      <c r="BG20">
+      <c r="BN20">
         <v>0.3172772100005139</v>
       </c>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:66">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B21">
         <v>0.9424729210205292</v>
@@ -4346,45 +4787,66 @@
         <v>0.3541960748912891</v>
       </c>
       <c r="AV21">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW21">
         <v>0.9951878179543077</v>
       </c>
-      <c r="AW21">
+      <c r="AX21">
         <v>0.9715411885462081</v>
       </c>
-      <c r="AX21">
+      <c r="AY21">
         <v>0.9185369531515312</v>
       </c>
-      <c r="AY21">
+      <c r="AZ21">
         <v>0.7459094404264976</v>
       </c>
-      <c r="AZ21">
+      <c r="BA21">
         <v>0.214731601928251</v>
       </c>
-      <c r="BA21">
+      <c r="BB21">
         <v>0.1293472531068167</v>
       </c>
-      <c r="BB21">
+      <c r="BC21">
         <v>1</v>
       </c>
-      <c r="BC21">
+      <c r="BD21">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BD21">
+      <c r="BE21">
         <v>0.9842558978080567</v>
       </c>
-      <c r="BE21">
+      <c r="BF21">
         <v>0.9946258798284054</v>
       </c>
-      <c r="BF21">
+      <c r="BG21">
+        <v>0.9951841874316938</v>
+      </c>
+      <c r="BH21">
+        <v>0.9600857355652052</v>
+      </c>
+      <c r="BI21">
+        <v>0.8995182755634746</v>
+      </c>
+      <c r="BJ21">
+        <v>0.6877154090945778</v>
+      </c>
+      <c r="BK21">
+        <v>0.1585444262462216</v>
+      </c>
+      <c r="BL21">
+        <v>0.1137845180768132</v>
+      </c>
+      <c r="BM21">
         <v>0.9726240541574614</v>
       </c>
-      <c r="BG21">
+      <c r="BN21">
         <v>0.3981321517534917</v>
       </c>
     </row>
-    <row r="22" spans="1:59">
+    <row r="22" spans="1:66">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>0.9428971260488295</v>
@@ -4525,45 +4987,66 @@
         <v>0.2510985617422132</v>
       </c>
       <c r="AV22">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW22">
         <v>0.9941885550121877</v>
       </c>
-      <c r="AW22">
+      <c r="AX22">
         <v>0.968392084054653</v>
       </c>
-      <c r="AX22">
+      <c r="AY22">
         <v>0.9157833103012729</v>
       </c>
-      <c r="AY22">
+      <c r="AZ22">
         <v>0.748361899325597</v>
       </c>
-      <c r="AZ22">
+      <c r="BA22">
         <v>0.1208723794332226</v>
       </c>
-      <c r="BA22">
+      <c r="BB22">
         <v>0.02398936881018977</v>
       </c>
-      <c r="BB22">
+      <c r="BC22">
         <v>1</v>
       </c>
-      <c r="BC22">
+      <c r="BD22">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BD22">
+      <c r="BE22">
         <v>0.9822739414120091</v>
       </c>
-      <c r="BE22">
+      <c r="BF22">
         <v>0.9944762264855701</v>
       </c>
-      <c r="BF22">
+      <c r="BG22">
+        <v>0.9943801202281477</v>
+      </c>
+      <c r="BH22">
+        <v>0.9589075190577238</v>
+      </c>
+      <c r="BI22">
+        <v>0.8990653192286614</v>
+      </c>
+      <c r="BJ22">
+        <v>0.6896015694245827</v>
+      </c>
+      <c r="BK22">
+        <v>0.08525657146673733</v>
+      </c>
+      <c r="BL22">
+        <v>0.01904636420008394</v>
+      </c>
+      <c r="BM22">
         <v>0.9776371075226237</v>
       </c>
-      <c r="BG22">
+      <c r="BN22">
         <v>0.5345929311112217</v>
       </c>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:66">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>0.9358584884528106</v>
@@ -4704,45 +5187,66 @@
         <v>0.2104321410348121</v>
       </c>
       <c r="AV23">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW23">
         <v>0.9933878633961351</v>
       </c>
-      <c r="AW23">
+      <c r="AX23">
         <v>0.9607241134695803</v>
       </c>
-      <c r="AX23">
+      <c r="AY23">
         <v>0.9137129097643953</v>
       </c>
-      <c r="AY23">
+      <c r="AZ23">
         <v>0.7458987635257825</v>
       </c>
-      <c r="AZ23">
+      <c r="BA23">
         <v>0.1185627257443962</v>
       </c>
-      <c r="BA23">
+      <c r="BB23">
         <v>0.02238079604172401</v>
       </c>
-      <c r="BB23">
+      <c r="BC23">
         <v>1</v>
       </c>
-      <c r="BC23">
+      <c r="BD23">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BD23">
+      <c r="BE23">
         <v>0.9866358551969622</v>
       </c>
-      <c r="BE23">
+      <c r="BF23">
         <v>0.9946213570275182</v>
       </c>
-      <c r="BF23">
+      <c r="BG23">
+        <v>0.9914706967960417</v>
+      </c>
+      <c r="BH23">
+        <v>0.9514731711330778</v>
+      </c>
+      <c r="BI23">
+        <v>0.8960096133954376</v>
+      </c>
+      <c r="BJ23">
+        <v>0.6808596517141402</v>
+      </c>
+      <c r="BK23">
+        <v>0.07941978801571954</v>
+      </c>
+      <c r="BL23">
+        <v>0.01848243717579944</v>
+      </c>
+      <c r="BM23">
         <v>0.9779311708785223</v>
       </c>
-      <c r="BG23">
+      <c r="BN23">
         <v>0.3743167832960189</v>
       </c>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:66">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>0.9456891679319532</v>
@@ -4883,45 +5387,66 @@
         <v>0.2487214448925658</v>
       </c>
       <c r="AV24">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW24">
         <v>0.9937892775828635</v>
       </c>
-      <c r="AW24">
+      <c r="AX24">
         <v>0.972732397475551</v>
       </c>
-      <c r="AX24">
+      <c r="AY24">
         <v>0.9240935314122009</v>
       </c>
-      <c r="AY24">
+      <c r="AZ24">
         <v>0.7553016131613931</v>
       </c>
-      <c r="AZ24">
+      <c r="BA24">
         <v>0.136761255152724</v>
       </c>
-      <c r="BA24">
+      <c r="BB24">
         <v>0.03903464794932785</v>
       </c>
-      <c r="BB24">
+      <c r="BC24">
         <v>1</v>
       </c>
-      <c r="BC24">
+      <c r="BD24">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BD24">
+      <c r="BE24">
         <v>0.9882258444939385</v>
       </c>
-      <c r="BE24">
+      <c r="BF24">
         <v>0.9947663862178321</v>
       </c>
-      <c r="BF24">
+      <c r="BG24">
+        <v>0.9945127411435221</v>
+      </c>
+      <c r="BH24">
+        <v>0.9615579318560857</v>
+      </c>
+      <c r="BI24">
+        <v>0.9086157971217571</v>
+      </c>
+      <c r="BJ24">
+        <v>0.6814793404326468</v>
+      </c>
+      <c r="BK24">
+        <v>0.09659172722922246</v>
+      </c>
+      <c r="BL24">
+        <v>0.03068153185591176</v>
+      </c>
+      <c r="BM24">
         <v>0.9770198034063483</v>
       </c>
-      <c r="BG24">
+      <c r="BN24">
         <v>0.3913916088775783</v>
       </c>
     </row>
-    <row r="25" spans="1:59">
+    <row r="25" spans="1:66">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B25">
         <v>0.9428971260488295</v>
@@ -5062,45 +5587,66 @@
         <v>0.2504630060876998</v>
       </c>
       <c r="AV25">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW25">
         <v>0.9941885550121877</v>
       </c>
-      <c r="AW25">
+      <c r="AX25">
         <v>0.9685886271854947</v>
       </c>
-      <c r="AX25">
+      <c r="AY25">
         <v>0.9170866020752138</v>
       </c>
-      <c r="AY25">
+      <c r="AZ25">
         <v>0.7485158454741577</v>
       </c>
-      <c r="AZ25">
+      <c r="BA25">
         <v>0.1219069466418133</v>
       </c>
-      <c r="BA25">
+      <c r="BB25">
         <v>0.0234596954206078</v>
       </c>
-      <c r="BB25">
+      <c r="BC25">
         <v>1</v>
       </c>
-      <c r="BC25">
+      <c r="BD25">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BD25">
+      <c r="BE25">
         <v>0.9830739602049312</v>
       </c>
-      <c r="BE25">
+      <c r="BF25">
         <v>0.9943265959492403</v>
       </c>
-      <c r="BF25">
+      <c r="BG25">
+        <v>0.9943801202281477</v>
+      </c>
+      <c r="BH25">
+        <v>0.9589127505181126</v>
+      </c>
+      <c r="BI25">
+        <v>0.8995794371265589</v>
+      </c>
+      <c r="BJ25">
+        <v>0.689958454636613</v>
+      </c>
+      <c r="BK25">
+        <v>0.08549453420890687</v>
+      </c>
+      <c r="BL25">
+        <v>0.01799030689602236</v>
+      </c>
+      <c r="BM25">
         <v>0.977666488487533</v>
       </c>
-      <c r="BG25">
+      <c r="BN25">
         <v>0.5347628776143755</v>
       </c>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="1:66">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B26">
         <v>0.9453617996174155</v>
@@ -5241,39 +5787,60 @@
         <v>0.2267075833447796</v>
       </c>
       <c r="AV26">
+        <v>0.9994666432833114</v>
+      </c>
+      <c r="AW26">
         <v>0.9937892775828635</v>
       </c>
-      <c r="AW26">
+      <c r="AX26">
         <v>0.9721345073793409</v>
       </c>
-      <c r="AX26">
+      <c r="AY26">
         <v>0.9244246214243893</v>
       </c>
-      <c r="AY26">
+      <c r="AZ26">
         <v>0.7515591095663429</v>
       </c>
-      <c r="AZ26">
+      <c r="BA26">
         <v>0.1206092606643635</v>
       </c>
-      <c r="BA26">
+      <c r="BB26">
         <v>0.02618996065179855</v>
       </c>
-      <c r="BB26">
+      <c r="BC26">
         <v>1</v>
       </c>
-      <c r="BC26">
+      <c r="BD26">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BD26">
+      <c r="BE26">
         <v>0.9874238158142211</v>
       </c>
-      <c r="BE26">
+      <c r="BF26">
         <v>0.9946236069386468</v>
       </c>
-      <c r="BF26">
+      <c r="BG26">
+        <v>0.9946467523441129</v>
+      </c>
+      <c r="BH26">
+        <v>0.962028262368767</v>
+      </c>
+      <c r="BI26">
+        <v>0.9062907553562378</v>
+      </c>
+      <c r="BJ26">
+        <v>0.6803365772971084</v>
+      </c>
+      <c r="BK26">
+        <v>0.08124438061865892</v>
+      </c>
+      <c r="BL26">
+        <v>0.01899125654136917</v>
+      </c>
+      <c r="BM26">
         <v>0.9768735099826468</v>
       </c>
-      <c r="BG26">
+      <c r="BN26">
         <v>0.3921049650827302</v>
       </c>
     </row>

--- a/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
+++ b/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>100_2_0.05_0.001</t>
   </si>
@@ -67,6 +67,12 @@
     <t>100_2_0.10_0.100</t>
   </si>
   <si>
+    <t>100_2_0.10_0.001_1.00</t>
+  </si>
+  <si>
+    <t>100_2_0.10_0.005_1.00</t>
+  </si>
+  <si>
     <t>100_2_0.15_0.010</t>
   </si>
   <si>
@@ -155,6 +161,9 @@
   </si>
   <si>
     <t>150_2_0.10_0.001</t>
+  </si>
+  <si>
+    <t>150_2_0.10_0.005</t>
   </si>
   <si>
     <t>150_3_0.10_0.001</t>
@@ -641,13 +650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN26"/>
+  <dimension ref="A1:BQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:69">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,10 +852,19 @@
       <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:69">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>0.9637630729030069</v>
@@ -900,153 +918,162 @@
         <v>0.03631634171620377</v>
       </c>
       <c r="S2">
+        <v>0.9958133454831031</v>
+      </c>
+      <c r="T2">
+        <v>0.9671983865606254</v>
+      </c>
+      <c r="U2">
         <v>0.9979998040824323</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.8234331813070181</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.3542688248338444</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.1680193633956633</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0.06044215119536072</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.03174481591836799</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>0.739437131950062</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>0.2022871642600201</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>0.05403339175988964</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>0.9940479402397331</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>0.6279343517817234</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>0.2845728848817547</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>0.98943069756166</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>0.9202167000139894</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>0.6965597324175541</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>0.2865690945594032</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>0.0712665909123494</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>0.03203764725207969</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>0.5837427922709754</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>0.280355532984285</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>0.1431361470141155</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>0.9604337013597701</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <v>0.7228409725423356</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>0.4632696626606392</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>0.1876240571479226</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>0.04788776774746705</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <v>0.03098890730768522</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <v>0.1813833549803986</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <v>0.09738884064937885</v>
       </c>
-      <c r="AV2">
+      <c r="AX2">
         <v>0.9997333216416557</v>
       </c>
-      <c r="AW2">
+      <c r="AY2">
+        <v>0.9981332514915898</v>
+      </c>
+      <c r="AZ2">
         <v>0.9967952846470951</v>
       </c>
-      <c r="AX2">
+      <c r="BA2">
         <v>0.975327380663122</v>
       </c>
-      <c r="AY2">
+      <c r="BB2">
         <v>0.8440329599630847</v>
       </c>
-      <c r="AZ2">
+      <c r="BC2">
         <v>0.2897864963015163</v>
       </c>
-      <c r="BA2">
+      <c r="BD2">
         <v>0.05122283276722361</v>
       </c>
-      <c r="BB2">
+      <c r="BE2">
         <v>0.02232763204907105</v>
       </c>
-      <c r="BC2">
+      <c r="BF2">
         <v>0.9909308405237996</v>
       </c>
-      <c r="BD2">
+      <c r="BG2">
         <v>0.6569928610699992</v>
       </c>
-      <c r="BE2">
+      <c r="BH2">
         <v>0.3114300669880454</v>
       </c>
-      <c r="BF2">
+      <c r="BI2">
         <v>0.3295579674177707</v>
       </c>
-      <c r="BG2">
+      <c r="BJ2">
         <v>0.9969165914032172</v>
       </c>
-      <c r="BH2">
+      <c r="BK2">
         <v>0.9441361237575534</v>
       </c>
-      <c r="BI2">
+      <c r="BL2">
         <v>0.6615499477729663</v>
       </c>
-      <c r="BJ2">
+      <c r="BM2">
         <v>0.1615535829676643</v>
       </c>
-      <c r="BK2">
+      <c r="BN2">
         <v>0.03487929122281073</v>
       </c>
-      <c r="BL2">
+      <c r="BO2">
         <v>0.01428342100979789</v>
       </c>
-      <c r="BM2">
+      <c r="BP2">
         <v>0.180573136746276</v>
       </c>
-      <c r="BN2">
+      <c r="BQ2">
         <v>0.07851135901753734</v>
       </c>
     </row>
-    <row r="3" spans="1:66">
+    <row r="3" spans="1:69">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>0.9094069535352416</v>
@@ -1100,153 +1127,162 @@
         <v>0.03630856782627075</v>
       </c>
       <c r="S3">
+        <v>0.870987723150456</v>
+      </c>
+      <c r="T3">
+        <v>0.7645664222851374</v>
+      </c>
+      <c r="U3">
         <v>0.9972078170128335</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.9616733805682933</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0.7928505543626856</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.4039075724033849</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>0.1141999618599667</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>0.03047549486814621</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>0.9714721746383936</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>0.5257730212604158</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>0.08923100352646786</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>0.999199921632973</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>0.989231281374045</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>0.822810301702671</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>0.9472830702666605</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>0.8479273012485716</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>0.6781854502151238</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>0.4146253958965468</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>0.0950076104972236</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>0.03135215799310445</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>0.9929015143110423</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>0.8591394940811858</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>0.3153021953927613</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>0.7708450866457162</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>0.5931114535221299</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>0.4354230832114013</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>0.2378210477708514</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>0.07586665452095578</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>0.03247346494883849</v>
       </c>
-      <c r="AT3">
+      <c r="AV3">
         <v>0.4904244513402178</v>
       </c>
-      <c r="AU3">
+      <c r="AW3">
         <v>0.1698314685656082</v>
       </c>
-      <c r="AV3">
+      <c r="AX3">
         <v>0.9997333216416557</v>
       </c>
-      <c r="AW3">
+      <c r="AY3">
+        <v>0.9978665731332456</v>
+      </c>
+      <c r="AZ3">
         <v>0.9922696255373815</v>
       </c>
-      <c r="AX3">
+      <c r="BA3">
         <v>0.957887583893135</v>
       </c>
-      <c r="AY3">
+      <c r="BB3">
         <v>0.8889850002097155</v>
       </c>
-      <c r="AZ3">
+      <c r="BC3">
         <v>0.637160165488049</v>
       </c>
-      <c r="BA3">
+      <c r="BD3">
         <v>0.08655805437008061</v>
       </c>
-      <c r="BB3">
+      <c r="BE3">
         <v>0.02203578506605368</v>
       </c>
-      <c r="BC3">
+      <c r="BF3">
         <v>1</v>
       </c>
-      <c r="BD3">
+      <c r="BG3">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BE3">
+      <c r="BH3">
         <v>0.9804879739419493</v>
       </c>
-      <c r="BF3">
+      <c r="BI3">
         <v>0.9950678743951148</v>
       </c>
-      <c r="BG3">
+      <c r="BJ3">
         <v>0.9863886309697759</v>
       </c>
-      <c r="BH3">
+      <c r="BK3">
         <v>0.9306586356799963</v>
       </c>
-      <c r="BI3">
+      <c r="BL3">
         <v>0.8330394420467792</v>
       </c>
-      <c r="BJ3">
+      <c r="BM3">
         <v>0.4874808429108185</v>
       </c>
-      <c r="BK3">
+      <c r="BN3">
         <v>0.058006083766369</v>
       </c>
-      <c r="BL3">
+      <c r="BO3">
         <v>0.01419496698673787</v>
       </c>
-      <c r="BM3">
+      <c r="BP3">
         <v>0.920408727075117</v>
       </c>
-      <c r="BN3">
+      <c r="BQ3">
         <v>0.1837670113590898</v>
       </c>
     </row>
-    <row r="4" spans="1:66">
+    <row r="4" spans="1:69">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>0.9065387393091242</v>
@@ -1300,153 +1336,162 @@
         <v>0.03016536657900413</v>
       </c>
       <c r="S4">
+        <v>0.8821431859337631</v>
+      </c>
+      <c r="T4">
+        <v>0.7793856566563435</v>
+      </c>
+      <c r="U4">
         <v>0.9964077386458063</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.9476842210016168</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0.702458006850482</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.2984874022441744</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>0.08710360717903846</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0.02711957510357798</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>0.9671444731994149</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>0.3845851804923159</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>0.07366690314209375</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>0.9983998432659459</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>0.9809113165404568</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>0.5802054033069891</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>0.9295450293655043</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>0.8178612549372251</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>0.6359698119278475</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>0.3656440593412863</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>0.08212919588753813</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>0.02966602518815078</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>0.9911323168079517</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>0.6142242366161245</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>0.2144999536766693</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>0.7368749253966785</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>0.565376862415549</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>0.4168491871526004</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>0.2138041754154176</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>0.06695476631133221</v>
       </c>
-      <c r="AS4">
+      <c r="AU4">
         <v>0.02899709610647008</v>
       </c>
-      <c r="AT4">
+      <c r="AV4">
         <v>0.3222338670351594</v>
       </c>
-      <c r="AU4">
+      <c r="AW4">
         <v>0.1387363484084348</v>
       </c>
-      <c r="AV4">
+      <c r="AX4">
         <v>0.9997333216416557</v>
       </c>
-      <c r="AW4">
+      <c r="AY4">
+        <v>0.9970701195425901</v>
+      </c>
+      <c r="AZ4">
         <v>0.9891033371286558</v>
       </c>
-      <c r="AX4">
+      <c r="BA4">
         <v>0.9438382314181004</v>
       </c>
-      <c r="AY4">
+      <c r="BB4">
         <v>0.8515456807115711</v>
       </c>
-      <c r="AZ4">
+      <c r="BC4">
         <v>0.550850037546864</v>
       </c>
-      <c r="BA4">
+      <c r="BD4">
         <v>0.07353498438936895</v>
       </c>
-      <c r="BB4">
+      <c r="BE4">
         <v>0.01893914588009453</v>
       </c>
-      <c r="BC4">
+      <c r="BF4">
         <v>1</v>
       </c>
-      <c r="BD4">
+      <c r="BG4">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BE4">
+      <c r="BH4">
         <v>0.77972505925649</v>
       </c>
-      <c r="BF4">
+      <c r="BI4">
         <v>0.9251495648420902</v>
       </c>
-      <c r="BG4">
+      <c r="BJ4">
         <v>0.9731214201969496</v>
       </c>
-      <c r="BH4">
+      <c r="BK4">
         <v>0.9102090202406775</v>
       </c>
-      <c r="BI4">
+      <c r="BL4">
         <v>0.7808354281723168</v>
       </c>
-      <c r="BJ4">
+      <c r="BM4">
         <v>0.3611228911221068</v>
       </c>
-      <c r="BK4">
+      <c r="BN4">
         <v>0.04585470136190287</v>
       </c>
-      <c r="BL4">
+      <c r="BO4">
         <v>0.01145188990612546</v>
       </c>
-      <c r="BM4">
+      <c r="BP4">
         <v>0.4206727553459844</v>
       </c>
-      <c r="BN4">
+      <c r="BQ4">
         <v>0.1190681821654176</v>
       </c>
     </row>
-    <row r="5" spans="1:66">
+    <row r="5" spans="1:69">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>0.9453617996174155</v>
@@ -1500,153 +1545,162 @@
         <v>0.03338191007761518</v>
       </c>
       <c r="S5">
+        <v>0.9924778702902936</v>
+      </c>
+      <c r="T5">
+        <v>0.9601723525056834</v>
+      </c>
+      <c r="U5">
         <v>0.994007490614324</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.9585052617557395</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.833625261795542</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.4627585641828143</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>0.1396563115233971</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>0.03437765505948963</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>0.974199551249703</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>0.6199568678100009</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>0.1208413278155686</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>0.9860228766085086</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>0.8785684482343629</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>0.9847499139715131</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>0.9193227235267988</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>0.8045242478621693</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>0.5128176739404937</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>0.1105573129699418</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>0.03340421210867876</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>0.9917276608026433</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>0.914385347712137</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>0.4461107575658896</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>0.9506922807050496</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>0.7898324124164929</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>0.6093747974825581</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>0.3134042100698353</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>0.07893607524697435</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>0.03360949590977539</v>
       </c>
-      <c r="AT5">
+      <c r="AV5">
         <v>0.5984957875306192</v>
       </c>
-      <c r="AU5">
+      <c r="AW5">
         <v>0.2261887366683209</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW5">
+      <c r="AY5">
+        <v>0.9957331462664911</v>
+      </c>
+      <c r="AZ5">
         <v>0.9941865006665246</v>
       </c>
-      <c r="AX5">
+      <c r="BA5">
         <v>0.9727325866770054</v>
       </c>
-      <c r="AY5">
+      <c r="BB5">
         <v>0.9250543470928778</v>
       </c>
-      <c r="AZ5">
+      <c r="BC5">
         <v>0.7553721781614621</v>
       </c>
-      <c r="BA5">
+      <c r="BD5">
         <v>0.1182458433010575</v>
       </c>
-      <c r="BB5">
+      <c r="BE5">
         <v>0.02313304038267702</v>
       </c>
-      <c r="BC5">
+      <c r="BF5">
         <v>1</v>
       </c>
-      <c r="BD5">
+      <c r="BG5">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BE5">
+      <c r="BH5">
         <v>0.9872378827463723</v>
       </c>
-      <c r="BF5">
+      <c r="BI5">
         <v>0.9955191172668674</v>
       </c>
-      <c r="BG5">
+      <c r="BJ5">
         <v>0.994646752344113</v>
       </c>
-      <c r="BH5">
+      <c r="BK5">
         <v>0.9625875713947006</v>
       </c>
-      <c r="BI5">
+      <c r="BL5">
         <v>0.9085258472653507</v>
       </c>
-      <c r="BJ5">
+      <c r="BM5">
         <v>0.6804719299471677</v>
       </c>
-      <c r="BK5">
+      <c r="BN5">
         <v>0.0836596804541747</v>
       </c>
-      <c r="BL5">
+      <c r="BO5">
         <v>0.0167874856413665</v>
       </c>
-      <c r="BM5">
+      <c r="BP5">
         <v>0.978038795715463</v>
       </c>
-      <c r="BN5">
+      <c r="BQ5">
         <v>0.3955129184763343</v>
       </c>
     </row>
-    <row r="6" spans="1:66">
+    <row r="6" spans="1:69">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>0.9676905978028074</v>
@@ -1700,153 +1754,162 @@
         <v>0.06919949475392896</v>
       </c>
       <c r="S6">
+        <v>0.9970703306578343</v>
+      </c>
+      <c r="T6">
+        <v>0.9791374892407965</v>
+      </c>
+      <c r="U6">
         <v>0.9983998432659458</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.8357550870241258</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.4412300990491717</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.2456630201492652</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>0.1433124709465088</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>0.06016762110362487</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>0.7677591629699893</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>0.2634640038837574</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>0.1386266307790897</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>0.9960319442612936</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>0.6880641574516987</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>0.3491461644796219</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>0.9894262855978119</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>0.9229131562521556</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>0.68321836150514</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>0.3025362777660961</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>0.1252053318421003</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>0.05465398163449648</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>0.6141647629682762</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>0.3418309612294037</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>0.1983893446429503</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>0.9626276185716702</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>0.7088407233815404</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>0.445250421284492</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>0.2018922755702221</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>0.08008565940400766</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>0.05027926802079117</v>
       </c>
-      <c r="AT6">
+      <c r="AV6">
         <v>0.2563971496730096</v>
       </c>
-      <c r="AU6">
+      <c r="AW6">
         <v>0.2172457901845333</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>1</v>
       </c>
-      <c r="AW6">
+      <c r="AY6">
+        <v>0.9989332865666227</v>
+      </c>
+      <c r="AZ6">
         <v>0.9961953545403839</v>
       </c>
-      <c r="AX6">
+      <c r="BA6">
         <v>0.9735370824200688</v>
       </c>
-      <c r="AY6">
+      <c r="BB6">
         <v>0.8431420241049485</v>
       </c>
-      <c r="AZ6">
+      <c r="BC6">
         <v>0.3070554179324931</v>
       </c>
-      <c r="BA6">
+      <c r="BD6">
         <v>0.1337530616171959</v>
       </c>
-      <c r="BB6">
+      <c r="BE6">
         <v>0.06038883884886161</v>
       </c>
-      <c r="BC6">
+      <c r="BF6">
         <v>1</v>
       </c>
-      <c r="BD6">
+      <c r="BG6">
         <v>0.7189422104465518</v>
       </c>
-      <c r="BE6">
+      <c r="BH6">
         <v>0.4021629526073812</v>
       </c>
-      <c r="BF6">
+      <c r="BI6">
         <v>0.3634425244558295</v>
       </c>
-      <c r="BG6">
+      <c r="BJ6">
         <v>0.9965280742354939</v>
       </c>
-      <c r="BH6">
+      <c r="BK6">
         <v>0.94363459591424</v>
       </c>
-      <c r="BI6">
+      <c r="BL6">
         <v>0.6557856909304134</v>
       </c>
-      <c r="BJ6">
+      <c r="BM6">
         <v>0.1867712167802713</v>
       </c>
-      <c r="BK6">
+      <c r="BN6">
         <v>0.09227686753790049</v>
       </c>
-      <c r="BL6">
+      <c r="BO6">
         <v>0.04372167221789883</v>
       </c>
-      <c r="BM6">
+      <c r="BP6">
         <v>0.2313272048852544</v>
       </c>
-      <c r="BN6">
+      <c r="BQ6">
         <v>0.2132430041045927</v>
       </c>
     </row>
-    <row r="7" spans="1:66">
+    <row r="7" spans="1:69">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>0.9641468988847035</v>
@@ -1900,153 +1963,162 @@
         <v>0.1363903956442086</v>
       </c>
       <c r="S7">
+        <v>0.9987529030218911</v>
+      </c>
+      <c r="T7">
+        <v>0.9875085563099048</v>
+      </c>
+      <c r="U7">
         <v>0.9987998824494594</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.9624168341045585</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0.7808997651156855</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.4394435080460131</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>0.2763274447547255</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>0.1095823539106356</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>0.9742239423673645</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>0.5589595820427803</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>0.3467274965841823</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>0.9987998824494594</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>0.9872310692935946</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>0.8193355961026815</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>0.989421962687444</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>0.9285256137349279</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>0.7786272706329239</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>0.4168468770071718</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>0.1666842787742109</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>0.09900993485388603</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>0.9940923804073859</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>0.8454208926102641</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>0.3749793017567455</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>0.9597875412822066</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>0.7462686620309869</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>0.5316164149222318</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>0.255151041994494</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>0.1157128591371404</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>0.08756197656706342</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>0.4860550338023807</v>
       </c>
-      <c r="AU7">
+      <c r="AW7">
         <v>0.3272983050283574</v>
       </c>
-      <c r="AV7">
+      <c r="AX7">
         <v>1</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
+        <v>0.9981332514915898</v>
+      </c>
+      <c r="AZ7">
         <v>0.997192646380856</v>
       </c>
-      <c r="AX7">
+      <c r="BA7">
         <v>0.9768850540143603</v>
       </c>
-      <c r="AY7">
+      <c r="BB7">
         <v>0.9194980535938487</v>
       </c>
-      <c r="AZ7">
+      <c r="BC7">
         <v>0.6440098487822126</v>
       </c>
-      <c r="BA7">
+      <c r="BD7">
         <v>0.2244389383979003</v>
       </c>
-      <c r="BB7">
+      <c r="BE7">
         <v>0.1372051058684097</v>
       </c>
-      <c r="BC7">
+      <c r="BF7">
         <v>1</v>
       </c>
-      <c r="BD7">
+      <c r="BG7">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BE7">
+      <c r="BH7">
         <v>0.9801120934071256</v>
       </c>
-      <c r="BF7">
+      <c r="BI7">
         <v>0.9938834322166185</v>
       </c>
-      <c r="BG7">
+      <c r="BJ7">
         <v>0.9969259282465214</v>
       </c>
-      <c r="BH7">
+      <c r="BK7">
         <v>0.96403549645121</v>
       </c>
-      <c r="BI7">
+      <c r="BL7">
         <v>0.8752216713866423</v>
       </c>
-      <c r="BJ7">
+      <c r="BM7">
         <v>0.4434134851995332</v>
       </c>
-      <c r="BK7">
+      <c r="BN7">
         <v>0.1773603484864924</v>
       </c>
-      <c r="BL7">
+      <c r="BO7">
         <v>0.1211106271230779</v>
       </c>
-      <c r="BM7">
+      <c r="BP7">
         <v>0.926508377146511</v>
       </c>
-      <c r="BN7">
+      <c r="BQ7">
         <v>0.3404887253506378</v>
       </c>
     </row>
-    <row r="8" spans="1:66">
+    <row r="8" spans="1:69">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>0.961762753426727</v>
@@ -2100,153 +2172,162 @@
         <v>0.0378941798659333</v>
       </c>
       <c r="S8">
+        <v>0.9941456078866984</v>
+      </c>
+      <c r="T8">
+        <v>0.9580863993450724</v>
+      </c>
+      <c r="U8">
         <v>0.996007699462293</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.9620409608196545</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0.8114099206665182</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.4106461570865457</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>0.1211021024806437</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>0.03382270993791437</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>0.9745996765238616</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>0.5767890820141252</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>0.1007102720835405</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>0.9995999608164865</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>0.987231059595675</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>0.8456654756882256</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>0.9879841964672235</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>0.9276644884287983</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>0.7809495232943782</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>0.4572378305480451</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>0.102346779349504</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>0.03488322055692802</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>0.9935013593230622</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>0.8919223373861328</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>0.4630284724970095</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>0.9576798822221483</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>0.7557220068137681</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>0.5539752319551926</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>0.2759527000514116</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>0.07442553904735777</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>0.03553683078078482</v>
       </c>
-      <c r="AT8">
+      <c r="AV8">
         <v>0.6388586894577288</v>
       </c>
-      <c r="AU8">
+      <c r="AW8">
         <v>0.2247177945007964</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>1</v>
       </c>
-      <c r="AW8">
+      <c r="AY8">
+        <v>0.9970665380582127</v>
+      </c>
+      <c r="AZ8">
         <v>0.9959926202419009</v>
       </c>
-      <c r="AX8">
+      <c r="BA8">
         <v>0.9770960449829786</v>
       </c>
-      <c r="AY8">
+      <c r="BB8">
         <v>0.9210501048553625</v>
       </c>
-      <c r="AZ8">
+      <c r="BC8">
         <v>0.7118225609943566</v>
       </c>
-      <c r="BA8">
+      <c r="BD8">
         <v>0.09672990318361752</v>
       </c>
-      <c r="BB8">
+      <c r="BE8">
         <v>0.02680524950928695</v>
       </c>
-      <c r="BC8">
+      <c r="BF8">
         <v>1</v>
       </c>
-      <c r="BD8">
+      <c r="BG8">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BE8">
+      <c r="BH8">
         <v>0.9836558825697428</v>
       </c>
-      <c r="BF8">
+      <c r="BI8">
         <v>0.9947732146684711</v>
       </c>
-      <c r="BG8">
+      <c r="BJ8">
         <v>0.99598266580908</v>
       </c>
-      <c r="BH8">
+      <c r="BK8">
         <v>0.9653112249206492</v>
       </c>
-      <c r="BI8">
+      <c r="BL8">
         <v>0.8945068258727146</v>
       </c>
-      <c r="BJ8">
+      <c r="BM8">
         <v>0.6383223698317224</v>
       </c>
-      <c r="BK8">
+      <c r="BN8">
         <v>0.07106611390483203</v>
       </c>
-      <c r="BL8">
+      <c r="BO8">
         <v>0.01874757386993528</v>
       </c>
-      <c r="BM8">
+      <c r="BP8">
         <v>0.958064930220446</v>
       </c>
-      <c r="BN8">
+      <c r="BQ8">
         <v>0.5298135121956674</v>
       </c>
     </row>
-    <row r="9" spans="1:66">
+    <row r="9" spans="1:69">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>0.8830235822542317</v>
@@ -2300,153 +2381,162 @@
         <v>0.03210382924183953</v>
       </c>
       <c r="S9">
+        <v>0.9613616864555908</v>
+      </c>
+      <c r="T9">
+        <v>0.8592232130798095</v>
+      </c>
+      <c r="U9">
         <v>0.996007699462293</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.8218049645762784</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0.4901301752865045</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.2466316753505117</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>0.102741815682674</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>0.03422999007401442</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>0.8168133399535286</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>0.3306915527375975</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>0.08196796537496485</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>0.9979998040824324</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>0.8103067426668922</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>0.4727049946950876</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>0.8664404667077679</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>0.6976107886046582</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>0.4829189809593491</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>0.2672409156286652</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>0.07943335063084551</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <v>0.03091404150277795</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>0.8757763386722155</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>0.4310284599007927</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>0.2070650656862443</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>0.6410667508511154</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <v>0.46500458562366</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>0.3496534218786091</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>0.1858160247977066</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>0.06569445681217617</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>0.03008917399102495</v>
       </c>
-      <c r="AT9">
+      <c r="AV9">
         <v>0.2828463365478582</v>
       </c>
-      <c r="AU9">
+      <c r="AW9">
         <v>0.1467598541569674</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>0.9997333216416557</v>
       </c>
-      <c r="AW9">
+      <c r="AY9">
+        <v>0.9975998947749012</v>
+      </c>
+      <c r="AZ9">
         <v>0.9735894446555801</v>
       </c>
-      <c r="AX9">
+      <c r="BA9">
         <v>0.8655275101715642</v>
       </c>
-      <c r="AY9">
+      <c r="BB9">
         <v>0.6346615780936334</v>
       </c>
-      <c r="AZ9">
+      <c r="BC9">
         <v>0.289412998527052</v>
       </c>
-      <c r="BA9">
+      <c r="BD9">
         <v>0.07305522459755492</v>
       </c>
-      <c r="BB9">
+      <c r="BE9">
         <v>0.02033208021436642</v>
       </c>
-      <c r="BC9">
+      <c r="BF9">
         <v>1</v>
       </c>
-      <c r="BD9">
+      <c r="BG9">
         <v>0.8438370788670063</v>
       </c>
-      <c r="BE9">
+      <c r="BH9">
         <v>0.5166592260746014</v>
       </c>
-      <c r="BF9">
+      <c r="BI9">
         <v>0.5186884571188352</v>
       </c>
-      <c r="BG9">
+      <c r="BJ9">
         <v>0.9234016706646517</v>
       </c>
-      <c r="BH9">
+      <c r="BK9">
         <v>0.7463103743356317</v>
       </c>
-      <c r="BI9">
+      <c r="BL9">
         <v>0.4195094201676254</v>
       </c>
-      <c r="BJ9">
+      <c r="BM9">
         <v>0.1865276659785612</v>
       </c>
-      <c r="BK9">
+      <c r="BN9">
         <v>0.04842614711368523</v>
       </c>
-      <c r="BL9">
+      <c r="BO9">
         <v>0.01357219024108321</v>
       </c>
-      <c r="BM9">
+      <c r="BP9">
         <v>0.3079838478999686</v>
       </c>
-      <c r="BN9">
+      <c r="BQ9">
         <v>0.1263802266694816</v>
       </c>
     </row>
-    <row r="10" spans="1:66">
+    <row r="10" spans="1:69">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>0.9603409202900892</v>
@@ -2500,153 +2590,162 @@
         <v>0.07826841052688847</v>
       </c>
       <c r="S10">
+        <v>0.9953943504248594</v>
+      </c>
+      <c r="T10">
+        <v>0.9659165693632719</v>
+      </c>
+      <c r="U10">
         <v>0.9980078824494594</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.782517316870227</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>0.3571176834106213</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.2063095780821238</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>0.1774989528474857</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>0.05630935804682424</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>0.7146600944438635</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>0.2507719002527437</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>0.1196285872838787</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>0.9763152882281717</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>0.6138818751464339</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>0.3602740517427805</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>0.9873890093037961</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>0.9059236340367611</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>0.6374360815539208</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>0.2685501191268995</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>0.1133894601850492</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
         <v>0.05968636890291742</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>0.5492765359934668</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>0.3200339835953821</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>0.1734434997203644</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>0.9555139369633864</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>0.678986989081059</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>0.4106261633829008</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>0.1812394774440392</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>0.08345494851685789</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <v>0.03786262878635845</v>
       </c>
-      <c r="AT10">
+      <c r="AV10">
         <v>0.2684855665779363</v>
       </c>
-      <c r="AU10">
+      <c r="AW10">
         <v>0.2219378368297626</v>
       </c>
-      <c r="AV10">
+      <c r="AX10">
         <v>0.9997333216416557</v>
       </c>
-      <c r="AW10">
+      <c r="AY10">
+        <v>0.9986666082082785</v>
+      </c>
+      <c r="AZ10">
         <v>0.9953926347291053</v>
       </c>
-      <c r="AX10">
+      <c r="BA10">
         <v>0.9678874132064453</v>
       </c>
-      <c r="AY10">
+      <c r="BB10">
         <v>0.8030637939369646</v>
       </c>
-      <c r="AZ10">
+      <c r="BC10">
         <v>0.2703048208776692</v>
       </c>
-      <c r="BA10">
+      <c r="BD10">
         <v>0.1404477226817118</v>
       </c>
-      <c r="BB10">
+      <c r="BE10">
         <v>0.06245555812130524</v>
       </c>
-      <c r="BC10">
+      <c r="BF10">
         <v>0.9691999114778638</v>
       </c>
-      <c r="BD10">
+      <c r="BG10">
         <v>0.6592302594979005</v>
       </c>
-      <c r="BE10">
+      <c r="BH10">
         <v>0.3591815411271408</v>
       </c>
-      <c r="BF10">
+      <c r="BI10">
         <v>0.3268349417803487</v>
       </c>
-      <c r="BG10">
+      <c r="BJ10">
         <v>0.995453296308074</v>
       </c>
-      <c r="BH10">
+      <c r="BK10">
         <v>0.930664046932816</v>
       </c>
-      <c r="BI10">
+      <c r="BL10">
         <v>0.5655554148906075</v>
       </c>
-      <c r="BJ10">
+      <c r="BM10">
         <v>0.1635960017673818</v>
       </c>
-      <c r="BK10">
+      <c r="BN10">
         <v>0.1142123123879254</v>
       </c>
-      <c r="BL10">
+      <c r="BO10">
         <v>0.0451716818290927</v>
       </c>
-      <c r="BM10">
+      <c r="BP10">
         <v>0.2160070388816388</v>
       </c>
-      <c r="BN10">
+      <c r="BQ10">
         <v>0.1964270695697202</v>
       </c>
     </row>
-    <row r="11" spans="1:66">
+    <row r="11" spans="1:69">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>0.9605218902920385</v>
@@ -2700,153 +2799,162 @@
         <v>0.0354930555942552</v>
       </c>
       <c r="S11">
+        <v>0.993731559399484</v>
+      </c>
+      <c r="T11">
+        <v>0.9679660535623885</v>
+      </c>
+      <c r="U11">
         <v>0.99680777782932</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.9616247050674133</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>0.8080531801036551</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.3989671630119226</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>0.1176862506669694</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>0.03187145314461456</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>0.9722236094329121</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>0.5550179737220288</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>0.09489219965705337</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>0.9983998432659459</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>0.9852793728035762</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>0.8351839942642653</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>0.9870979244201484</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>0.9281895507245983</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>0.7766145181309625</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>0.4559844354586692</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>0.09146275913774421</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>0.02986582661016782</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>0.9926146476074352</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>0.886958814338609</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>0.3815107564436391</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>0.9569743245972436</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>0.7598577807159708</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>0.5467226513415269</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>0.2729998392869518</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>0.07071717332148253</v>
       </c>
-      <c r="AS11">
+      <c r="AU11">
         <v>0.02885856665127255</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>0.5949370918806073</v>
       </c>
-      <c r="AU11">
+      <c r="AW11">
         <v>0.1851455323801507</v>
       </c>
-      <c r="AV11">
+      <c r="AX11">
         <v>1</v>
       </c>
-      <c r="AW11">
+      <c r="AY11">
+        <v>0.9967998596998683</v>
+      </c>
+      <c r="AZ11">
         <v>0.9955933146819249</v>
       </c>
-      <c r="AX11">
+      <c r="BA11">
         <v>0.9767072036303028</v>
       </c>
-      <c r="AY11">
+      <c r="BB11">
         <v>0.9233022115158341</v>
       </c>
-      <c r="AZ11">
+      <c r="BC11">
         <v>0.7136392851292399</v>
       </c>
-      <c r="BA11">
+      <c r="BD11">
         <v>0.08856481128261257</v>
       </c>
-      <c r="BB11">
+      <c r="BE11">
         <v>0.02031165098638557</v>
       </c>
-      <c r="BC11">
+      <c r="BF11">
         <v>1</v>
       </c>
-      <c r="BD11">
+      <c r="BG11">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BE11">
+      <c r="BH11">
         <v>0.980093987766531</v>
       </c>
-      <c r="BF11">
+      <c r="BI11">
         <v>0.9943208013142053</v>
       </c>
-      <c r="BG11">
+      <c r="BJ11">
         <v>0.9959826470295405</v>
       </c>
-      <c r="BH11">
+      <c r="BK11">
         <v>0.9655502890729598</v>
       </c>
-      <c r="BI11">
+      <c r="BL11">
         <v>0.8938965923276447</v>
       </c>
-      <c r="BJ11">
+      <c r="BM11">
         <v>0.6188263894715703</v>
       </c>
-      <c r="BK11">
+      <c r="BN11">
         <v>0.06025379217139843</v>
       </c>
-      <c r="BL11">
+      <c r="BO11">
         <v>0.0150646994717561</v>
       </c>
-      <c r="BM11">
+      <c r="BP11">
         <v>0.9543232134600107</v>
       </c>
-      <c r="BN11">
+      <c r="BQ11">
         <v>0.2605061086291137</v>
       </c>
     </row>
-    <row r="12" spans="1:66">
+    <row r="12" spans="1:69">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>0.9683610781712814</v>
@@ -2900,153 +3008,162 @@
         <v>0.03705319406563581</v>
       </c>
       <c r="S12">
+        <v>0.9945613068794014</v>
+      </c>
+      <c r="T12">
+        <v>0.9425087080121425</v>
+      </c>
+      <c r="U12">
         <v>0.9971997257154053</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>0.8995578776637444</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>0.5430681115000918</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.2557047879943216</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>0.1011858882863604</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>0.03246196172813138</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>0.8754644386921353</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>0.3332051005737185</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>0.08847038260613782</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>0.9987998824494594</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <v>0.8409546814918258</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <v>0.4734111757886236</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>0.988557662713997</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>0.9238571648396635</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>0.7240618180951625</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <v>0.3365240458168746</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>0.08901873809303862</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>0.03216157590066888</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
         <v>0.9423859050866777</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>0.46720122277168</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>0.2164753217701061</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>0.9608505160892225</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>0.7320213952103779</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>0.4884742788140775</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>0.2246439858549399</v>
       </c>
-      <c r="AR12">
+      <c r="AT12">
         <v>0.06832530835290174</v>
       </c>
-      <c r="AS12">
+      <c r="AU12">
         <v>0.03200281250418341</v>
       </c>
-      <c r="AT12">
+      <c r="AV12">
         <v>0.2913037367172717</v>
       </c>
-      <c r="AU12">
+      <c r="AW12">
         <v>0.1410017233066609</v>
       </c>
-      <c r="AV12">
+      <c r="AX12">
         <v>1</v>
       </c>
-      <c r="AW12">
+      <c r="AY12">
+        <v>0.9981332514915898</v>
+      </c>
+      <c r="AZ12">
         <v>0.9967932575768645</v>
       </c>
-      <c r="AX12">
+      <c r="BA12">
         <v>0.9762918381704441</v>
       </c>
-      <c r="AY12">
+      <c r="BB12">
         <v>0.883554552655455</v>
       </c>
-      <c r="AZ12">
+      <c r="BC12">
         <v>0.3849971910867198</v>
       </c>
-      <c r="BA12">
+      <c r="BD12">
         <v>0.0744411263474265</v>
       </c>
-      <c r="BB12">
+      <c r="BE12">
         <v>0.02429722986148657</v>
       </c>
-      <c r="BC12">
+      <c r="BF12">
         <v>1</v>
       </c>
-      <c r="BD12">
+      <c r="BG12">
         <v>0.8655552227661317</v>
       </c>
-      <c r="BE12">
+      <c r="BH12">
         <v>0.5363356921264437</v>
       </c>
-      <c r="BF12">
+      <c r="BI12">
         <v>0.5739264246635893</v>
       </c>
-      <c r="BG12">
+      <c r="BJ12">
         <v>0.9958594791021533</v>
       </c>
-      <c r="BH12">
+      <c r="BK12">
         <v>0.9574916720813305</v>
       </c>
-      <c r="BI12">
+      <c r="BL12">
         <v>0.7165841909956773</v>
       </c>
-      <c r="BJ12">
+      <c r="BM12">
         <v>0.2379056042389926</v>
       </c>
-      <c r="BK12">
+      <c r="BN12">
         <v>0.05239781044722126</v>
       </c>
-      <c r="BL12">
+      <c r="BO12">
         <v>0.01937221272534833</v>
       </c>
-      <c r="BM12">
+      <c r="BP12">
         <v>0.3384527085574912</v>
       </c>
-      <c r="BN12">
+      <c r="BQ12">
         <v>0.1319519076333838</v>
       </c>
     </row>
-    <row r="13" spans="1:66">
+    <row r="13" spans="1:69">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>0.949216825037713</v>
@@ -3100,153 +3217,162 @@
         <v>0.03329812334248761</v>
       </c>
       <c r="S13">
+        <v>0.993315860406781</v>
+      </c>
+      <c r="T13">
+        <v>0.95968902866092</v>
+      </c>
+      <c r="U13">
         <v>0.9944075297978376</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.9565131442051986</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>0.8297212321835881</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.464603714973337</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>0.1373570710876565</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>0.03417236289451003</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>0.9679282938991952</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>0.6255186805319983</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>0.1166360411983244</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <v>0.9836630398080008</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <v>0.8820514402897776</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>0.9848246503597999</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>0.9184101392986231</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>0.7980770351608755</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <v>0.5126478365539752</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <v>0.1152245421445323</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <v>0.03403757814553683</v>
       </c>
-      <c r="AK13">
+      <c r="AM13">
         <v>0.9911366397183197</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>0.9228085738938462</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>0.5035059915407994</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>0.9552061153657659</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>0.7865854577339113</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>0.6047853043630395</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>0.3142067452466051</v>
       </c>
-      <c r="AR13">
+      <c r="AT13">
         <v>0.08069058300260279</v>
       </c>
-      <c r="AS13">
+      <c r="AU13">
         <v>0.0345848807116737</v>
       </c>
-      <c r="AT13">
+      <c r="AV13">
         <v>0.6553535442531182</v>
       </c>
-      <c r="AU13">
+      <c r="AW13">
         <v>0.245062345566344</v>
       </c>
-      <c r="AV13">
+      <c r="AX13">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW13">
+      <c r="AY13">
+        <v>0.9962665029831796</v>
+      </c>
+      <c r="AZ13">
         <v>0.9951858468526599</v>
       </c>
-      <c r="AX13">
+      <c r="BA13">
         <v>0.9715410807631999</v>
       </c>
-      <c r="AY13">
+      <c r="BB13">
         <v>0.9210607815611134</v>
       </c>
-      <c r="AZ13">
+      <c r="BC13">
         <v>0.7494455617048975</v>
       </c>
-      <c r="BA13">
+      <c r="BD13">
         <v>0.1300840172051062</v>
       </c>
-      <c r="BB13">
+      <c r="BE13">
         <v>0.02282372110935071</v>
       </c>
-      <c r="BC13">
+      <c r="BF13">
         <v>1</v>
       </c>
-      <c r="BD13">
+      <c r="BG13">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BE13">
+      <c r="BH13">
         <v>0.9822638881100805</v>
       </c>
-      <c r="BF13">
+      <c r="BI13">
         <v>0.9938743807647148</v>
       </c>
-      <c r="BG13">
+      <c r="BJ13">
         <v>0.9955846552207513</v>
       </c>
-      <c r="BH13">
+      <c r="BK13">
         <v>0.9606392134056354</v>
       </c>
-      <c r="BI13">
+      <c r="BL13">
         <v>0.9034927436479241</v>
       </c>
-      <c r="BJ13">
+      <c r="BM13">
         <v>0.6902401240804785</v>
       </c>
-      <c r="BK13">
+      <c r="BN13">
         <v>0.08683588040474816</v>
       </c>
-      <c r="BL13">
+      <c r="BO13">
         <v>0.01760479673076406</v>
       </c>
-      <c r="BM13">
+      <c r="BP13">
         <v>0.979107867009006</v>
       </c>
-      <c r="BN13">
+      <c r="BQ13">
         <v>0.5383034325082374</v>
       </c>
     </row>
-    <row r="14" spans="1:66">
+    <row r="14" spans="1:69">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>0.9428565882580945</v>
@@ -3300,153 +3426,162 @@
         <v>0.08792346122128812</v>
       </c>
       <c r="S14">
+        <v>0.9928886227119671</v>
+      </c>
+      <c r="T14">
+        <v>0.9672133456380488</v>
+      </c>
+      <c r="U14">
         <v>0.991623412247297</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.9472681282546275</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>0.8062508718999277</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.5004898815724799</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>0.248937398374161</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>0.07852725811730504</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>0.957769846547577</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>0.614449104266326</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>0.188138085090646</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>0.9812870721337661</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>0.8530013851932791</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>0.9833383214088197</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>0.9133053985650059</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>0.7917815835877633</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <v>0.5161452127753102</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <v>0.1557196875082903</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>0.05660982515021043</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
         <v>0.98966862186517</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>0.9029665348564919</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>0.5360256833914026</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>0.9503584980891689</v>
       </c>
-      <c r="AO14">
+      <c r="AQ14">
         <v>0.7748172169820349</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>0.6044696635015393</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>0.3134641250393447</v>
       </c>
-      <c r="AR14">
+      <c r="AT14">
         <v>0.09470397313171049</v>
       </c>
-      <c r="AS14">
+      <c r="AU14">
         <v>0.05308125949462758</v>
       </c>
-      <c r="AT14">
+      <c r="AV14">
         <v>0.6956515605238687</v>
       </c>
-      <c r="AU14">
+      <c r="AW14">
         <v>0.3121176245762534</v>
       </c>
-      <c r="AV14">
+      <c r="AX14">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW14">
+      <c r="AY14">
+        <v>0.9954664679081467</v>
+      </c>
+      <c r="AZ14">
         <v>0.9951878179543077</v>
       </c>
-      <c r="AX14">
+      <c r="BA14">
         <v>0.9703309684130511</v>
       </c>
-      <c r="AY14">
+      <c r="BB14">
         <v>0.9179478690958754</v>
       </c>
-      <c r="AZ14">
+      <c r="BC14">
         <v>0.7420216772335751</v>
       </c>
-      <c r="BA14">
+      <c r="BD14">
         <v>0.1475778592963888</v>
       </c>
-      <c r="BB14">
+      <c r="BE14">
         <v>0.03839463599178881</v>
       </c>
-      <c r="BC14">
+      <c r="BF14">
         <v>1</v>
       </c>
-      <c r="BD14">
+      <c r="BG14">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BE14">
+      <c r="BH14">
         <v>0.9797040303288704</v>
       </c>
-      <c r="BF14">
+      <c r="BI14">
         <v>0.9923915466222113</v>
       </c>
-      <c r="BG14">
+      <c r="BJ14">
         <v>0.995452088795534</v>
       </c>
-      <c r="BH14">
+      <c r="BK14">
         <v>0.9612352058413096</v>
       </c>
-      <c r="BI14">
+      <c r="BL14">
         <v>0.8985169263372967</v>
       </c>
-      <c r="BJ14">
+      <c r="BM14">
         <v>0.6856817286886158</v>
       </c>
-      <c r="BK14">
+      <c r="BN14">
         <v>0.119020324869413</v>
       </c>
-      <c r="BL14">
+      <c r="BO14">
         <v>0.03731895820239367</v>
       </c>
-      <c r="BM14">
+      <c r="BP14">
         <v>0.9643834371125928</v>
       </c>
-      <c r="BN14">
+      <c r="BQ14">
         <v>0.6359514739353305</v>
       </c>
     </row>
-    <row r="15" spans="1:66">
+    <row r="15" spans="1:69">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>0.9436404747291145</v>
@@ -3500,153 +3635,162 @@
         <v>0.1164320178624797</v>
       </c>
       <c r="S15">
+        <v>0.9941489039522392</v>
+      </c>
+      <c r="T15">
+        <v>0.9737664866567454</v>
+      </c>
+      <c r="U15">
         <v>0.9952076081648645</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>0.9699043843436879</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>0.8269628446421282</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.5133838822154931</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>0.2842892166473633</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>0.07610194803883701</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>0.9805193908859234</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>0.6144201159064291</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>0.1777656363891538</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>0.9987998824494594</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <v>0.9876311084771083</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <v>0.8749122796310411</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>0.984502946447809</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>0.9298712819707684</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <v>0.8118259135125068</v>
       </c>
-      <c r="AH15">
+      <c r="AJ15">
         <v>0.5098961377094471</v>
       </c>
-      <c r="AI15">
+      <c r="AK15">
         <v>0.1468755529239172</v>
       </c>
-      <c r="AJ15">
+      <c r="AL15">
         <v>0.0578485472519573</v>
       </c>
-      <c r="AK15">
+      <c r="AM15">
         <v>0.9949705432844815</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>0.9168177159107738</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>0.5010513126675249</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>0.9519194826959508</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <v>0.7838767722585516</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>0.6084686957144185</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>0.3091805378857532</v>
       </c>
-      <c r="AR15">
+      <c r="AT15">
         <v>0.0996780004684323</v>
       </c>
-      <c r="AS15">
+      <c r="AU15">
         <v>0.05577847992191502</v>
       </c>
-      <c r="AT15">
+      <c r="AV15">
         <v>0.6754365016713758</v>
       </c>
-      <c r="AU15">
+      <c r="AW15">
         <v>0.2773174905766692</v>
       </c>
-      <c r="AV15">
+      <c r="AX15">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW15">
+      <c r="AY15">
+        <v>0.9962700819220904</v>
+      </c>
+      <c r="AZ15">
         <v>0.9953926347291053</v>
       </c>
-      <c r="AX15">
+      <c r="BA15">
         <v>0.9786752560890684</v>
       </c>
-      <c r="AY15">
+      <c r="BB15">
         <v>0.9349985179829418</v>
       </c>
-      <c r="AZ15">
+      <c r="BC15">
         <v>0.7487171578975156</v>
       </c>
-      <c r="BA15">
+      <c r="BD15">
         <v>0.1472880956119361</v>
       </c>
-      <c r="BB15">
+      <c r="BE15">
         <v>0.03858522841043706</v>
       </c>
-      <c r="BC15">
+      <c r="BF15">
         <v>1</v>
       </c>
-      <c r="BD15">
+      <c r="BG15">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BE15">
+      <c r="BH15">
         <v>0.9862358477100936</v>
       </c>
-      <c r="BF15">
+      <c r="BI15">
         <v>0.9952175619894361</v>
       </c>
-      <c r="BG15">
+      <c r="BJ15">
         <v>0.9959880791077411</v>
       </c>
-      <c r="BH15">
+      <c r="BK15">
         <v>0.9685238385463478</v>
       </c>
-      <c r="BI15">
+      <c r="BL15">
         <v>0.9072535032001448</v>
       </c>
-      <c r="BJ15">
+      <c r="BM15">
         <v>0.6803528086047463</v>
       </c>
-      <c r="BK15">
+      <c r="BN15">
         <v>0.1105864339642547</v>
       </c>
-      <c r="BL15">
+      <c r="BO15">
         <v>0.03572801447038757</v>
       </c>
-      <c r="BM15">
+      <c r="BP15">
         <v>0.9738311238799138</v>
       </c>
-      <c r="BN15">
+      <c r="BQ15">
         <v>0.590839628977808</v>
       </c>
     </row>
-    <row r="16" spans="1:66">
+    <row r="16" spans="1:69">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>0.9441052994701791</v>
@@ -3700,153 +3844,162 @@
         <v>0.03113873552615365</v>
       </c>
       <c r="S16">
+        <v>0.9783559445320745</v>
+      </c>
+      <c r="T16">
+        <v>0.9523150472130193</v>
+      </c>
+      <c r="U16">
         <v>0.9952076081648645</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>0.9640736011552229</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>0.8230896266359206</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.4511525745173433</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>0.141875929438077</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>0.03460158274128112</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>0.9753754240012428</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>0.5534550200330202</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>0.1088322056136998</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>0.9979998040824323</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>0.9880230854564774</v>
       </c>
-      <c r="AD16">
+      <c r="AF16">
         <v>0.8327980206932942</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>0.98187831611784</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>0.9264693580506583</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <v>0.7989221980542938</v>
       </c>
-      <c r="AH16">
+      <c r="AJ16">
         <v>0.4952012579979519</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <v>0.1152907982946884</v>
       </c>
-      <c r="AJ16">
+      <c r="AL16">
         <v>0.03353932873220489</v>
       </c>
-      <c r="AK16">
+      <c r="AM16">
         <v>0.9934970403770564</v>
       </c>
-      <c r="AL16">
+      <c r="AN16">
         <v>0.8502504637064601</v>
       </c>
-      <c r="AM16">
+      <c r="AO16">
         <v>0.3486570509009749</v>
       </c>
-      <c r="AN16">
+      <c r="AP16">
         <v>0.9453021637359119</v>
       </c>
-      <c r="AO16">
+      <c r="AQ16">
         <v>0.7881536448129566</v>
       </c>
-      <c r="AP16">
+      <c r="AR16">
         <v>0.6011495196060137</v>
       </c>
-      <c r="AQ16">
+      <c r="AS16">
         <v>0.3021691070129588</v>
       </c>
-      <c r="AR16">
+      <c r="AT16">
         <v>0.08210875916669384</v>
       </c>
-      <c r="AS16">
+      <c r="AU16">
         <v>0.03287023571724526</v>
       </c>
-      <c r="AT16">
+      <c r="AV16">
         <v>0.4583215235516176</v>
       </c>
-      <c r="AU16">
+      <c r="AW16">
         <v>0.1840801299322515</v>
       </c>
-      <c r="AV16">
+      <c r="AX16">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW16">
+      <c r="AY16">
+        <v>0.9962665029831796</v>
+      </c>
+      <c r="AZ16">
         <v>0.9943852095176965</v>
       </c>
-      <c r="AX16">
+      <c r="BA16">
         <v>0.9766970784070343</v>
       </c>
-      <c r="AY16">
+      <c r="BB16">
         <v>0.9289399411668394</v>
       </c>
-      <c r="AZ16">
+      <c r="BC16">
         <v>0.7265787100339577</v>
       </c>
-      <c r="BA16">
+      <c r="BD16">
         <v>0.1149587032024183</v>
       </c>
-      <c r="BB16">
+      <c r="BE16">
         <v>0.02531831708879961</v>
       </c>
-      <c r="BC16">
+      <c r="BF16">
         <v>1</v>
       </c>
-      <c r="BD16">
+      <c r="BG16">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BE16">
+      <c r="BH16">
         <v>0.9840518756615299</v>
       </c>
-      <c r="BF16">
+      <c r="BI16">
         <v>0.9944717264911884</v>
       </c>
-      <c r="BG16">
+      <c r="BJ16">
         <v>0.9950569671055998</v>
       </c>
-      <c r="BH16">
+      <c r="BK16">
         <v>0.9657608771023063</v>
       </c>
-      <c r="BI16">
+      <c r="BL16">
         <v>0.8971301958407158</v>
       </c>
-      <c r="BJ16">
+      <c r="BM16">
         <v>0.6440467949846129</v>
       </c>
-      <c r="BK16">
+      <c r="BN16">
         <v>0.07923464908684433</v>
       </c>
-      <c r="BL16">
+      <c r="BO16">
         <v>0.01812368752076735</v>
       </c>
-      <c r="BM16">
+      <c r="BP16">
         <v>0.9710753948935753</v>
       </c>
-      <c r="BN16">
+      <c r="BQ16">
         <v>0.3461382065212954</v>
       </c>
     </row>
-    <row r="17" spans="1:66">
+    <row r="17" spans="1:69">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>0.9441778646617313</v>
@@ -3900,153 +4053,162 @@
         <v>0.02939122950834236</v>
       </c>
       <c r="S17">
+        <v>0.9920621712975906</v>
+      </c>
+      <c r="T17">
+        <v>0.9605766386345863</v>
+      </c>
+      <c r="U17">
         <v>0.994007490614324</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>0.9628492105014087</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>0.831850663636227</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.4562022011010743</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>0.1238965247748121</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>0.03420046074248156</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>0.9761593743307307</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>0.5988077716778945</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>0.1046042766287935</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <v>0.9884311868441352</v>
       </c>
-      <c r="AD17">
+      <c r="AF17">
         <v>0.8652828984521156</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>0.9838675212018919</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>0.9179543746201452</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <v>0.8042439647937673</v>
       </c>
-      <c r="AH17">
+      <c r="AJ17">
         <v>0.5068987620011377</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
         <v>0.1097515432248465</v>
       </c>
-      <c r="AJ17">
+      <c r="AL17">
         <v>0.03001595095975612</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
         <v>0.9934969473592141</v>
       </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>0.9049482041479934</v>
       </c>
-      <c r="AM17">
+      <c r="AO17">
         <v>0.4271283822414339</v>
       </c>
-      <c r="AN17">
+      <c r="AP17">
         <v>0.9504656364617685</v>
       </c>
-      <c r="AO17">
+      <c r="AQ17">
         <v>0.7897449776332737</v>
       </c>
-      <c r="AP17">
+      <c r="AR17">
         <v>0.6111237055857599</v>
       </c>
-      <c r="AQ17">
+      <c r="AS17">
         <v>0.3060492093940836</v>
       </c>
-      <c r="AR17">
+      <c r="AT17">
         <v>0.07653595568611656</v>
       </c>
-      <c r="AS17">
+      <c r="AU17">
         <v>0.03282460152236108</v>
       </c>
-      <c r="AT17">
+      <c r="AV17">
         <v>0.5591171271045012</v>
       </c>
-      <c r="AU17">
+      <c r="AW17">
         <v>0.2068469121287884</v>
       </c>
-      <c r="AV17">
+      <c r="AX17">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW17">
+      <c r="AY17">
+        <v>0.9957331462664911</v>
+      </c>
+      <c r="AZ17">
         <v>0.9937892775828635</v>
       </c>
-      <c r="AX17">
+      <c r="BA17">
         <v>0.9737211969734867</v>
       </c>
-      <c r="AY17">
+      <c r="BB17">
         <v>0.9254652322201221</v>
       </c>
-      <c r="AZ17">
+      <c r="BC17">
         <v>0.7500146941610393</v>
       </c>
-      <c r="BA17">
+      <c r="BD17">
         <v>0.1135352234575346</v>
       </c>
-      <c r="BB17">
+      <c r="BE17">
         <v>0.02129036749025407</v>
       </c>
-      <c r="BC17">
+      <c r="BF17">
         <v>1</v>
       </c>
-      <c r="BD17">
+      <c r="BG17">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BE17">
+      <c r="BH17">
         <v>0.9878318651081368</v>
       </c>
-      <c r="BF17">
+      <c r="BI17">
         <v>0.9950656472904917</v>
       </c>
-      <c r="BG17">
+      <c r="BJ17">
         <v>0.9943774133031127</v>
       </c>
-      <c r="BH17">
+      <c r="BK17">
         <v>0.9620376917075388</v>
       </c>
-      <c r="BI17">
+      <c r="BL17">
         <v>0.9073370992174812</v>
       </c>
-      <c r="BJ17">
+      <c r="BM17">
         <v>0.6725817311980025</v>
       </c>
-      <c r="BK17">
+      <c r="BN17">
         <v>0.07711567251692911</v>
       </c>
-      <c r="BL17">
+      <c r="BO17">
         <v>0.01472129229869013</v>
       </c>
-      <c r="BM17">
+      <c r="BP17">
         <v>0.9729173712746263</v>
       </c>
-      <c r="BN17">
+      <c r="BQ17">
         <v>0.3663415811102521</v>
       </c>
     </row>
-    <row r="18" spans="1:66">
+    <row r="18" spans="1:69">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>0.9350907684137644</v>
@@ -4100,153 +4262,162 @@
         <v>0.03893111120844895</v>
       </c>
       <c r="S18">
+        <v>0.9750417731733692</v>
+      </c>
+      <c r="T18">
+        <v>0.921689915973019</v>
+      </c>
+      <c r="U18">
         <v>0.9908152555132429</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>0.9438213584534697</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>0.8221333650946865</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.4617861115430638</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>0.1302062423267533</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>0.03996191130947997</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>0.9679041116395777</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>0.6338935752512801</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>0.1082700793933833</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <v>0.9860551997745365</v>
       </c>
-      <c r="AD18">
+      <c r="AF18">
         <v>0.878325300439989</v>
       </c>
-      <c r="AE18">
+      <c r="AG18">
         <v>0.9757980865412444</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>0.8930204149061202</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <v>0.7713270827734193</v>
       </c>
-      <c r="AH18">
+      <c r="AJ18">
         <v>0.4966760329847467</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
         <v>0.1111615822501377</v>
       </c>
-      <c r="AJ18">
+      <c r="AL18">
         <v>0.03456183051332893</v>
       </c>
-      <c r="AK18">
+      <c r="AM18">
         <v>0.9914408831525163</v>
       </c>
-      <c r="AL18">
+      <c r="AN18">
         <v>0.9126602449779047</v>
       </c>
-      <c r="AM18">
+      <c r="AO18">
         <v>0.5231223327170688</v>
       </c>
-      <c r="AN18">
+      <c r="AP18">
         <v>0.935047948377829</v>
       </c>
-      <c r="AO18">
+      <c r="AQ18">
         <v>0.7558974157580036</v>
       </c>
-      <c r="AP18">
+      <c r="AR18">
         <v>0.5894174360576316</v>
       </c>
-      <c r="AQ18">
+      <c r="AS18">
         <v>0.309132303948004</v>
       </c>
-      <c r="AR18">
+      <c r="AT18">
         <v>0.07888918001082026</v>
       </c>
-      <c r="AS18">
+      <c r="AU18">
         <v>0.03541284457961352</v>
       </c>
-      <c r="AT18">
+      <c r="AV18">
         <v>0.6850759108316056</v>
       </c>
-      <c r="AU18">
+      <c r="AW18">
         <v>0.262873909547799</v>
       </c>
-      <c r="AV18">
+      <c r="AX18">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW18">
+      <c r="AY18">
+        <v>0.9954664679081466</v>
+      </c>
+      <c r="AZ18">
         <v>0.9935804913293379</v>
       </c>
-      <c r="AX18">
+      <c r="BA18">
         <v>0.9573391059330423</v>
       </c>
-      <c r="AY18">
+      <c r="BB18">
         <v>0.9020482632212241</v>
       </c>
-      <c r="AZ18">
+      <c r="BC18">
         <v>0.7375525631625863</v>
       </c>
-      <c r="BA18">
+      <c r="BD18">
         <v>0.1234637171313173</v>
       </c>
-      <c r="BB18">
+      <c r="BE18">
         <v>0.02503454674821367</v>
       </c>
-      <c r="BC18">
+      <c r="BF18">
         <v>1</v>
       </c>
-      <c r="BD18">
+      <c r="BG18">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BE18">
+      <c r="BH18">
         <v>0.9846518883110845</v>
       </c>
-      <c r="BF18">
+      <c r="BI18">
         <v>0.9944750786374379</v>
       </c>
-      <c r="BG18">
+      <c r="BJ18">
         <v>0.9914693431475509</v>
       </c>
-      <c r="BH18">
+      <c r="BK18">
         <v>0.9464334970444814</v>
       </c>
-      <c r="BI18">
+      <c r="BL18">
         <v>0.8857781737701302</v>
       </c>
-      <c r="BJ18">
+      <c r="BM18">
         <v>0.6830425692026182</v>
       </c>
-      <c r="BK18">
+      <c r="BN18">
         <v>0.08696728074618967</v>
       </c>
-      <c r="BL18">
+      <c r="BO18">
         <v>0.01868898448916305</v>
       </c>
-      <c r="BM18">
+      <c r="BP18">
         <v>0.974117766191425</v>
       </c>
-      <c r="BN18">
+      <c r="BQ18">
         <v>0.6137607525918191</v>
       </c>
     </row>
-    <row r="19" spans="1:66">
+    <row r="19" spans="1:69">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>0.9350988597111926</v>
@@ -4300,153 +4471,162 @@
         <v>0.04534588804614431</v>
       </c>
       <c r="S19">
+        <v>0.9750417731733692</v>
+      </c>
+      <c r="T19">
+        <v>0.9228877454779315</v>
+      </c>
+      <c r="U19">
         <v>0.9908152555132429</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>0.9483955459737174</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>0.8340174565401978</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.4607285381543579</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>0.1365235646796855</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>0.04905376757141079</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>0.9710882942344341</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>0.6151563043620838</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>0.1163054832033645</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <v>0.9876230333425627</v>
       </c>
-      <c r="AD19">
+      <c r="AF19">
         <v>0.8773961864770868</v>
       </c>
-      <c r="AE19">
+      <c r="AG19">
         <v>0.9757980865412444</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>0.8966378442645793</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>0.770187422743832</v>
       </c>
-      <c r="AH19">
+      <c r="AJ19">
         <v>0.5005378270726424</v>
       </c>
-      <c r="AI19">
+      <c r="AK19">
         <v>0.1087621881617646</v>
       </c>
-      <c r="AJ19">
+      <c r="AL19">
         <v>0.04117819532606098</v>
       </c>
-      <c r="AK19">
+      <c r="AM19">
         <v>0.9920320863081626</v>
       </c>
-      <c r="AL19">
+      <c r="AN19">
         <v>0.9034081509082241</v>
       </c>
-      <c r="AM19">
+      <c r="AO19">
         <v>0.4837531756007771</v>
       </c>
-      <c r="AN19">
+      <c r="AP19">
         <v>0.9370570695754714</v>
       </c>
-      <c r="AO19">
+      <c r="AQ19">
         <v>0.7561074308258591</v>
       </c>
-      <c r="AP19">
+      <c r="AR19">
         <v>0.5881619239838445</v>
       </c>
-      <c r="AQ19">
+      <c r="AS19">
         <v>0.305955758442336</v>
       </c>
-      <c r="AR19">
+      <c r="AT19">
         <v>0.07906628734499858</v>
       </c>
-      <c r="AS19">
+      <c r="AU19">
         <v>0.03872792928717479</v>
       </c>
-      <c r="AT19">
+      <c r="AV19">
         <v>0.654159401152001</v>
       </c>
-      <c r="AU19">
+      <c r="AW19">
         <v>0.235614241521993</v>
       </c>
-      <c r="AV19">
+      <c r="AX19">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW19">
+      <c r="AY19">
+        <v>0.9954664679081466</v>
+      </c>
+      <c r="AZ19">
         <v>0.993584489501216</v>
       </c>
-      <c r="AX19">
+      <c r="BA19">
         <v>0.9581470031832434</v>
       </c>
-      <c r="AY19">
+      <c r="BB19">
         <v>0.9057199498250654</v>
       </c>
-      <c r="AZ19">
+      <c r="BC19">
         <v>0.7349969737330807</v>
       </c>
-      <c r="BA19">
+      <c r="BD19">
         <v>0.1155089283074334</v>
       </c>
-      <c r="BB19">
+      <c r="BE19">
         <v>0.02654588568242861</v>
       </c>
-      <c r="BC19">
+      <c r="BF19">
         <v>1</v>
       </c>
-      <c r="BD19">
+      <c r="BG19">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BE19">
+      <c r="BH19">
         <v>0.9854559311109895</v>
       </c>
-      <c r="BF19">
+      <c r="BI19">
         <v>0.994920595121548</v>
       </c>
-      <c r="BG19">
+      <c r="BJ19">
         <v>0.991603354348142</v>
       </c>
-      <c r="BH19">
+      <c r="BK19">
         <v>0.9481955743298468</v>
       </c>
-      <c r="BI19">
+      <c r="BL19">
         <v>0.8880501084940781</v>
       </c>
-      <c r="BJ19">
+      <c r="BM19">
         <v>0.6760232287959481</v>
       </c>
-      <c r="BK19">
+      <c r="BN19">
         <v>0.08124682403607722</v>
       </c>
-      <c r="BL19">
+      <c r="BO19">
         <v>0.02152530674122039</v>
       </c>
-      <c r="BM19">
+      <c r="BP19">
         <v>0.9702897169046303</v>
       </c>
-      <c r="BN19">
+      <c r="BQ19">
         <v>0.4122460814337736</v>
       </c>
     </row>
-    <row r="20" spans="1:66">
+    <row r="20" spans="1:69">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20">
         <v>0.943842509940042</v>
@@ -4500,153 +4680,162 @@
         <v>0.07021497689765922</v>
       </c>
       <c r="S20">
+        <v>0.9866634576907578</v>
+      </c>
+      <c r="T20">
+        <v>0.9527369117907205</v>
+      </c>
+      <c r="U20">
         <v>0.9944075297978376</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>0.9659685685160773</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>0.8390920687507982</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.4733817534039446</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>0.2170219049477215</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>0.08870331297940387</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>0.9805193650251212</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>0.5903795287000851</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>0.1843463622558461</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>0.9979998040824323</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>0.9907990987791888</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>0.8606526859249921</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>0.9833778822682322</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>0.9186391921390477</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <v>0.8042219112272605</v>
       </c>
-      <c r="AH20">
+      <c r="AJ20">
         <v>0.5150296442238331</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <v>0.1613040855040531</v>
       </c>
-      <c r="AJ20">
+      <c r="AL20">
         <v>0.07121964817444532</v>
       </c>
-      <c r="AK20">
+      <c r="AM20">
         <v>0.9943793401288353</v>
       </c>
-      <c r="AL20">
+      <c r="AN20">
         <v>0.8976057187663428</v>
       </c>
-      <c r="AM20">
+      <c r="AO20">
         <v>0.3891058712105419</v>
       </c>
-      <c r="AN20">
+      <c r="AP20">
         <v>0.9499360493019728</v>
       </c>
-      <c r="AO20">
+      <c r="AQ20">
         <v>0.7878469609454523</v>
       </c>
-      <c r="AP20">
+      <c r="AR20">
         <v>0.6138035224008707</v>
       </c>
-      <c r="AQ20">
+      <c r="AS20">
         <v>0.3206690185345212</v>
       </c>
-      <c r="AR20">
+      <c r="AT20">
         <v>0.102161698749231</v>
       </c>
-      <c r="AS20">
+      <c r="AU20">
         <v>0.04965058407885296</v>
       </c>
-      <c r="AT20">
+      <c r="AV20">
         <v>0.5517030282351949</v>
       </c>
-      <c r="AU20">
+      <c r="AW20">
         <v>0.2626384887169756</v>
       </c>
-      <c r="AV20">
+      <c r="AX20">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW20">
+      <c r="AY20">
+        <v>0.9962665029831796</v>
+      </c>
+      <c r="AZ20">
         <v>0.994989220477803</v>
       </c>
-      <c r="AX20">
+      <c r="BA20">
         <v>0.9752983376953327</v>
       </c>
-      <c r="AY20">
+      <c r="BB20">
         <v>0.9280901110532338</v>
       </c>
-      <c r="AZ20">
+      <c r="BC20">
         <v>0.7534551757053272</v>
       </c>
-      <c r="BA20">
+      <c r="BD20">
         <v>0.1544528178266525</v>
       </c>
-      <c r="BB20">
+      <c r="BE20">
         <v>0.06429786448837561</v>
       </c>
-      <c r="BC20">
+      <c r="BF20">
         <v>1</v>
       </c>
-      <c r="BD20">
+      <c r="BG20">
         <v>1</v>
       </c>
-      <c r="BE20">
+      <c r="BH20">
         <v>0.9874298445061281</v>
       </c>
-      <c r="BF20">
+      <c r="BI20">
         <v>0.9956641236506755</v>
       </c>
-      <c r="BG20">
+      <c r="BJ20">
         <v>0.9945127411435221</v>
       </c>
-      <c r="BH20">
+      <c r="BK20">
         <v>0.9633567136117311</v>
       </c>
-      <c r="BI20">
+      <c r="BL20">
         <v>0.9085258134377218</v>
       </c>
-      <c r="BJ20">
+      <c r="BM20">
         <v>0.6744159969450421</v>
       </c>
-      <c r="BK20">
+      <c r="BN20">
         <v>0.115974631917495</v>
       </c>
-      <c r="BL20">
+      <c r="BO20">
         <v>0.05531748575464013</v>
       </c>
-      <c r="BM20">
+      <c r="BP20">
         <v>0.968987630900756</v>
       </c>
-      <c r="BN20">
+      <c r="BQ20">
         <v>0.3172772100005139</v>
       </c>
     </row>
-    <row r="21" spans="1:66">
+    <row r="21" spans="1:69">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <v>0.9424729210205292</v>
@@ -4700,153 +4889,162 @@
         <v>0.1227324527949004</v>
       </c>
       <c r="S21">
+        <v>0.9849891279632712</v>
+      </c>
+      <c r="T21">
+        <v>0.9384433896882391</v>
+      </c>
+      <c r="U21">
         <v>0.9928073730637835</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>0.9530098767644611</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>0.8272779203500251</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.4835389243310783</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>0.2732982853471106</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>0.1151835242741829</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>0.9690799665795038</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>0.6159526182925658</v>
       </c>
-      <c r="AA21">
+      <c r="AC21">
         <v>0.2439788221042493</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>0.9876472910719647</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>0.8710604651948628</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>0.9827208218475404</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>0.9129453313820457</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <v>0.791956870283712</v>
       </c>
-      <c r="AH21">
+      <c r="AJ21">
         <v>0.5092396299487448</v>
       </c>
-      <c r="AI21">
+      <c r="AK21">
         <v>0.1875845334384838</v>
       </c>
-      <c r="AJ21">
+      <c r="AL21">
         <v>0.1332278160827369</v>
       </c>
-      <c r="AK21">
+      <c r="AM21">
         <v>0.991428185382906</v>
       </c>
-      <c r="AL21">
+      <c r="AN21">
         <v>0.912408363855628</v>
       </c>
-      <c r="AM21">
+      <c r="AO21">
         <v>0.4591804533204406</v>
       </c>
-      <c r="AN21">
+      <c r="AP21">
         <v>0.9479198990070405</v>
       </c>
-      <c r="AO21">
+      <c r="AQ21">
         <v>0.7759278626782782</v>
       </c>
-      <c r="AP21">
+      <c r="AR21">
         <v>0.6035005521092622</v>
       </c>
-      <c r="AQ21">
+      <c r="AS21">
         <v>0.3178208489767197</v>
       </c>
-      <c r="AR21">
+      <c r="AT21">
         <v>0.1276687079073805</v>
       </c>
-      <c r="AS21">
+      <c r="AU21">
         <v>0.08596045648774517</v>
       </c>
-      <c r="AT21">
+      <c r="AV21">
         <v>0.6245293356511183</v>
       </c>
-      <c r="AU21">
+      <c r="AW21">
         <v>0.3541960748912891</v>
       </c>
-      <c r="AV21">
+      <c r="AX21">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW21">
+      <c r="AY21">
+        <v>0.9962665029831796</v>
+      </c>
+      <c r="AZ21">
         <v>0.9951878179543077</v>
       </c>
-      <c r="AX21">
+      <c r="BA21">
         <v>0.9715411885462081</v>
       </c>
-      <c r="AY21">
+      <c r="BB21">
         <v>0.9185369531515312</v>
       </c>
-      <c r="AZ21">
+      <c r="BC21">
         <v>0.7459094404264976</v>
       </c>
-      <c r="BA21">
+      <c r="BD21">
         <v>0.214731601928251</v>
       </c>
-      <c r="BB21">
+      <c r="BE21">
         <v>0.1293472531068167</v>
       </c>
-      <c r="BC21">
+      <c r="BF21">
         <v>1</v>
       </c>
-      <c r="BD21">
+      <c r="BG21">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BE21">
+      <c r="BH21">
         <v>0.9842558978080567</v>
       </c>
-      <c r="BF21">
+      <c r="BI21">
         <v>0.9946258798284054</v>
       </c>
-      <c r="BG21">
+      <c r="BJ21">
         <v>0.9951841874316938</v>
       </c>
-      <c r="BH21">
+      <c r="BK21">
         <v>0.9600857355652052</v>
       </c>
-      <c r="BI21">
+      <c r="BL21">
         <v>0.8995182755634746</v>
       </c>
-      <c r="BJ21">
+      <c r="BM21">
         <v>0.6877154090945778</v>
       </c>
-      <c r="BK21">
+      <c r="BN21">
         <v>0.1585444262462216</v>
       </c>
-      <c r="BL21">
+      <c r="BO21">
         <v>0.1137845180768132</v>
       </c>
-      <c r="BM21">
+      <c r="BP21">
         <v>0.9726240541574614</v>
       </c>
-      <c r="BN21">
+      <c r="BQ21">
         <v>0.3981321517534917</v>
       </c>
     </row>
-    <row r="22" spans="1:66">
+    <row r="22" spans="1:69">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>0.9428971260488295</v>
@@ -4900,153 +5098,162 @@
         <v>0.03037491855837588</v>
       </c>
       <c r="S22">
+        <v>0.9908448932133906</v>
+      </c>
+      <c r="T22">
+        <v>0.9520112088174528</v>
+      </c>
+      <c r="U22">
         <v>0.9920153730637834</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>0.9507552875792604</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>0.8220242819499037</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.4569196200088572</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>0.1320209970638375</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>0.02994880354036309</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>0.9678797913707924</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>0.6261908555273664</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>0.1073092917973486</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>0.9848550854564775</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>0.8802368125125649</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <v>0.9824955785520914</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>0.9127431261224384</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <v>0.7913147107586207</v>
       </c>
-      <c r="AH22">
+      <c r="AJ22">
         <v>0.5004872813458612</v>
       </c>
-      <c r="AI22">
+      <c r="AK22">
         <v>0.1086443511834437</v>
       </c>
-      <c r="AJ22">
+      <c r="AL22">
         <v>0.03123372847341714</v>
       </c>
-      <c r="AK22">
+      <c r="AM22">
         <v>0.9911324961819215</v>
       </c>
-      <c r="AL22">
+      <c r="AN22">
         <v>0.9217801280631988</v>
       </c>
-      <c r="AM22">
+      <c r="AO22">
         <v>0.4941079711424332</v>
       </c>
-      <c r="AN22">
+      <c r="AP22">
         <v>0.9455338521305227</v>
       </c>
-      <c r="AO22">
+      <c r="AQ22">
         <v>0.7772000880966199</v>
       </c>
-      <c r="AP22">
+      <c r="AR22">
         <v>0.5986896568208662</v>
       </c>
-      <c r="AQ22">
+      <c r="AS22">
         <v>0.3113933372124598</v>
       </c>
-      <c r="AR22">
+      <c r="AT22">
         <v>0.0795027964092485</v>
       </c>
-      <c r="AS22">
+      <c r="AU22">
         <v>0.03172264603857564</v>
       </c>
-      <c r="AT22">
+      <c r="AV22">
         <v>0.6726386667520852</v>
       </c>
-      <c r="AU22">
+      <c r="AW22">
         <v>0.2510985617422132</v>
       </c>
-      <c r="AV22">
+      <c r="AX22">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW22">
+      <c r="AY22">
+        <v>0.9957331462664911</v>
+      </c>
+      <c r="AZ22">
         <v>0.9941885550121877</v>
       </c>
-      <c r="AX22">
+      <c r="BA22">
         <v>0.968392084054653</v>
       </c>
-      <c r="AY22">
+      <c r="BB22">
         <v>0.9157833103012729</v>
       </c>
-      <c r="AZ22">
+      <c r="BC22">
         <v>0.748361899325597</v>
       </c>
-      <c r="BA22">
+      <c r="BD22">
         <v>0.1208723794332226</v>
       </c>
-      <c r="BB22">
+      <c r="BE22">
         <v>0.02398936881018977</v>
       </c>
-      <c r="BC22">
+      <c r="BF22">
         <v>1</v>
       </c>
-      <c r="BD22">
+      <c r="BG22">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BE22">
+      <c r="BH22">
         <v>0.9822739414120091</v>
       </c>
-      <c r="BF22">
+      <c r="BI22">
         <v>0.9944762264855701</v>
       </c>
-      <c r="BG22">
+      <c r="BJ22">
         <v>0.9943801202281477</v>
       </c>
-      <c r="BH22">
+      <c r="BK22">
         <v>0.9589075190577238</v>
       </c>
-      <c r="BI22">
+      <c r="BL22">
         <v>0.8990653192286614</v>
       </c>
-      <c r="BJ22">
+      <c r="BM22">
         <v>0.6896015694245827</v>
       </c>
-      <c r="BK22">
+      <c r="BN22">
         <v>0.08525657146673733</v>
       </c>
-      <c r="BL22">
+      <c r="BO22">
         <v>0.01904636420008394</v>
       </c>
-      <c r="BM22">
+      <c r="BP22">
         <v>0.9776371075226237</v>
       </c>
-      <c r="BN22">
+      <c r="BQ22">
         <v>0.5345929311112217</v>
       </c>
     </row>
-    <row r="23" spans="1:66">
+    <row r="23" spans="1:69">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>0.9358584884528106</v>
@@ -5100,153 +5307,162 @@
         <v>0.03444220597933929</v>
       </c>
       <c r="S23">
+        <v>0.9742155941822271</v>
+      </c>
+      <c r="T23">
+        <v>0.9257262268104748</v>
+      </c>
+      <c r="U23">
         <v>0.992415412247297</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>0.9577698713487844</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>0.8345871066500511</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.4676165900155684</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>0.1386456123137663</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>0.03550881917382635</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <v>0.9745834914889611</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <v>0.6090382209297309</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>0.1138924800973798</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AC23">
+      <c r="AE23">
         <v>0.9864067461275668</v>
       </c>
-      <c r="AD23">
+      <c r="AF23">
         <v>0.8750649636280822</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
         <v>0.9778143821269322</v>
       </c>
-      <c r="AF23">
+      <c r="AH23">
         <v>0.8977399494980181</v>
       </c>
-      <c r="AG23">
+      <c r="AI23">
         <v>0.7810338186621864</v>
       </c>
-      <c r="AH23">
+      <c r="AJ23">
         <v>0.512018875610061</v>
       </c>
-      <c r="AI23">
+      <c r="AK23">
         <v>0.1145264131249781</v>
       </c>
-      <c r="AJ23">
+      <c r="AL23">
         <v>0.03365300169133742</v>
       </c>
-      <c r="AK23">
+      <c r="AM23">
         <v>0.991727842873966</v>
       </c>
-      <c r="AL23">
+      <c r="AN23">
         <v>0.9097736609227408</v>
       </c>
-      <c r="AM23">
+      <c r="AO23">
         <v>0.4084950655188305</v>
       </c>
-      <c r="AN23">
+      <c r="AP23">
         <v>0.9370851420337567</v>
       </c>
-      <c r="AO23">
+      <c r="AQ23">
         <v>0.7647268266078823</v>
       </c>
-      <c r="AP23">
+      <c r="AR23">
         <v>0.5950432925239796</v>
       </c>
-      <c r="AQ23">
+      <c r="AS23">
         <v>0.3115912224862296</v>
       </c>
-      <c r="AR23">
+      <c r="AT23">
         <v>0.08291487710027341</v>
       </c>
-      <c r="AS23">
+      <c r="AU23">
         <v>0.03369087399451089</v>
       </c>
-      <c r="AT23">
+      <c r="AV23">
         <v>0.57196430177291</v>
       </c>
-      <c r="AU23">
+      <c r="AW23">
         <v>0.2104321410348121</v>
       </c>
-      <c r="AV23">
+      <c r="AX23">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW23">
+      <c r="AY23">
+        <v>0.9951997895498024</v>
+      </c>
+      <c r="AZ23">
         <v>0.9933878633961351</v>
       </c>
-      <c r="AX23">
+      <c r="BA23">
         <v>0.9607241134695803</v>
       </c>
-      <c r="AY23">
+      <c r="BB23">
         <v>0.9137129097643953</v>
       </c>
-      <c r="AZ23">
+      <c r="BC23">
         <v>0.7458987635257825</v>
       </c>
-      <c r="BA23">
+      <c r="BD23">
         <v>0.1185627257443962</v>
       </c>
-      <c r="BB23">
+      <c r="BE23">
         <v>0.02238079604172401</v>
       </c>
-      <c r="BC23">
+      <c r="BF23">
         <v>1</v>
       </c>
-      <c r="BD23">
+      <c r="BG23">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BE23">
+      <c r="BH23">
         <v>0.9866358551969622</v>
       </c>
-      <c r="BF23">
+      <c r="BI23">
         <v>0.9946213570275182</v>
       </c>
-      <c r="BG23">
+      <c r="BJ23">
         <v>0.9914706967960417</v>
       </c>
-      <c r="BH23">
+      <c r="BK23">
         <v>0.9514731711330778</v>
       </c>
-      <c r="BI23">
+      <c r="BL23">
         <v>0.8960096133954376</v>
       </c>
-      <c r="BJ23">
+      <c r="BM23">
         <v>0.6808596517141402</v>
       </c>
-      <c r="BK23">
+      <c r="BN23">
         <v>0.07941978801571954</v>
       </c>
-      <c r="BL23">
+      <c r="BO23">
         <v>0.01848243717579944</v>
       </c>
-      <c r="BM23">
+      <c r="BP23">
         <v>0.9779311708785223</v>
       </c>
-      <c r="BN23">
+      <c r="BQ23">
         <v>0.3743167832960189</v>
       </c>
     </row>
-    <row r="24" spans="1:66">
+    <row r="24" spans="1:69">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>0.9456891679319532</v>
@@ -5300,153 +5516,162 @@
         <v>0.04342598770600662</v>
       </c>
       <c r="S24">
+        <v>0.9920621712975906</v>
+      </c>
+      <c r="T24">
+        <v>0.9593634493224771</v>
+      </c>
+      <c r="U24">
         <v>0.9936074514308104</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>0.9577376532695446</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>0.8358228209282147</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.4755496937042263</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>0.1548752579204237</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>0.03641131363414233</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <v>0.9714316191308316</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <v>0.6153253563901623</v>
       </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>0.1354795879658789</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <v>0.9856389909265677</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>0.8828269384043211</v>
       </c>
-      <c r="AE24">
+      <c r="AG24">
         <v>0.984163122779715</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <v>0.9190938354683047</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <v>0.8060464141044622</v>
       </c>
-      <c r="AH24">
+      <c r="AJ24">
         <v>0.508902851865216</v>
       </c>
-      <c r="AI24">
+      <c r="AK24">
         <v>0.1403764566795909</v>
       </c>
-      <c r="AJ24">
+      <c r="AL24">
         <v>0.05602506788428933</v>
       </c>
-      <c r="AK24">
+      <c r="AM24">
         <v>0.9934925353953661</v>
       </c>
-      <c r="AL24">
+      <c r="AN24">
         <v>0.9116370376646568</v>
       </c>
-      <c r="AM24">
+      <c r="AO24">
         <v>0.4459595465248257</v>
       </c>
-      <c r="AN24">
+      <c r="AP24">
         <v>0.9502014248319132</v>
       </c>
-      <c r="AO24">
+      <c r="AQ24">
         <v>0.7908577892334431</v>
       </c>
-      <c r="AP24">
+      <c r="AR24">
         <v>0.6164418783549931</v>
       </c>
-      <c r="AQ24">
+      <c r="AS24">
         <v>0.3134725532614705</v>
       </c>
-      <c r="AR24">
+      <c r="AT24">
         <v>0.08900212860704081</v>
       </c>
-      <c r="AS24">
+      <c r="AU24">
         <v>0.04171451582416812</v>
       </c>
-      <c r="AT24">
+      <c r="AV24">
         <v>0.5884739295673479</v>
       </c>
-      <c r="AU24">
+      <c r="AW24">
         <v>0.2487214448925658</v>
       </c>
-      <c r="AV24">
+      <c r="AX24">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW24">
+      <c r="AY24">
+        <v>0.9957331462664911</v>
+      </c>
+      <c r="AZ24">
         <v>0.9937892775828635</v>
       </c>
-      <c r="AX24">
+      <c r="BA24">
         <v>0.972732397475551</v>
       </c>
-      <c r="AY24">
+      <c r="BB24">
         <v>0.9240935314122009</v>
       </c>
-      <c r="AZ24">
+      <c r="BC24">
         <v>0.7553016131613931</v>
       </c>
-      <c r="BA24">
+      <c r="BD24">
         <v>0.136761255152724</v>
       </c>
-      <c r="BB24">
+      <c r="BE24">
         <v>0.03903464794932785</v>
       </c>
-      <c r="BC24">
+      <c r="BF24">
         <v>1</v>
       </c>
-      <c r="BD24">
+      <c r="BG24">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BE24">
+      <c r="BH24">
         <v>0.9882258444939385</v>
       </c>
-      <c r="BF24">
+      <c r="BI24">
         <v>0.9947663862178321</v>
       </c>
-      <c r="BG24">
+      <c r="BJ24">
         <v>0.9945127411435221</v>
       </c>
-      <c r="BH24">
+      <c r="BK24">
         <v>0.9615579318560857</v>
       </c>
-      <c r="BI24">
+      <c r="BL24">
         <v>0.9086157971217571</v>
       </c>
-      <c r="BJ24">
+      <c r="BM24">
         <v>0.6814793404326468</v>
       </c>
-      <c r="BK24">
+      <c r="BN24">
         <v>0.09659172722922246</v>
       </c>
-      <c r="BL24">
+      <c r="BO24">
         <v>0.03068153185591176</v>
       </c>
-      <c r="BM24">
+      <c r="BP24">
         <v>0.9770198034063483</v>
       </c>
-      <c r="BN24">
+      <c r="BQ24">
         <v>0.3913916088775783</v>
       </c>
     </row>
-    <row r="25" spans="1:66">
+    <row r="25" spans="1:69">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25">
         <v>0.9428971260488295</v>
@@ -5500,153 +5725,162 @@
         <v>0.02862714378309315</v>
       </c>
       <c r="S25">
+        <v>0.9908448932133906</v>
+      </c>
+      <c r="T25">
+        <v>0.9520112088174528</v>
+      </c>
+      <c r="U25">
         <v>0.9920153730637834</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>0.951130986969948</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>0.8235197168033033</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.4553155915875104</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>0.1335010401845392</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>0.02971254163663233</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <v>0.9678797913707924</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>0.6253057445100481</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>0.1037795709774832</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>0.9864309941590491</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>0.8819946783141299</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <v>0.9824955785520914</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>0.9133225905051945</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <v>0.7919367061801807</v>
       </c>
-      <c r="AH25">
+      <c r="AJ25">
         <v>0.5019811084816469</v>
       </c>
-      <c r="AI25">
+      <c r="AK25">
         <v>0.1090981102002584</v>
       </c>
-      <c r="AJ25">
+      <c r="AL25">
         <v>0.0312186540602146</v>
       </c>
-      <c r="AK25">
+      <c r="AM25">
         <v>0.9911324961819215</v>
       </c>
-      <c r="AL25">
+      <c r="AN25">
         <v>0.9203860327435234</v>
       </c>
-      <c r="AM25">
+      <c r="AO25">
         <v>0.5024870517528828</v>
       </c>
-      <c r="AN25">
+      <c r="AP25">
         <v>0.9457705717932849</v>
       </c>
-      <c r="AO25">
+      <c r="AQ25">
         <v>0.7777394790565126</v>
       </c>
-      <c r="AP25">
+      <c r="AR25">
         <v>0.5997264094030028</v>
       </c>
-      <c r="AQ25">
+      <c r="AS25">
         <v>0.3071358523666997</v>
       </c>
-      <c r="AR25">
+      <c r="AT25">
         <v>0.07725603736015012</v>
       </c>
-      <c r="AS25">
+      <c r="AU25">
         <v>0.02983028266091238</v>
       </c>
-      <c r="AT25">
+      <c r="AV25">
         <v>0.6704407277112608</v>
       </c>
-      <c r="AU25">
+      <c r="AW25">
         <v>0.2504630060876998</v>
       </c>
-      <c r="AV25">
+      <c r="AX25">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW25">
+      <c r="AY25">
+        <v>0.9957331462664911</v>
+      </c>
+      <c r="AZ25">
         <v>0.9941885550121877</v>
       </c>
-      <c r="AX25">
+      <c r="BA25">
         <v>0.9685886271854947</v>
       </c>
-      <c r="AY25">
+      <c r="BB25">
         <v>0.9170866020752138</v>
       </c>
-      <c r="AZ25">
+      <c r="BC25">
         <v>0.7485158454741577</v>
       </c>
-      <c r="BA25">
+      <c r="BD25">
         <v>0.1219069466418133</v>
       </c>
-      <c r="BB25">
+      <c r="BE25">
         <v>0.0234596954206078</v>
       </c>
-      <c r="BC25">
+      <c r="BF25">
         <v>1</v>
       </c>
-      <c r="BD25">
+      <c r="BG25">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BE25">
+      <c r="BH25">
         <v>0.9830739602049312</v>
       </c>
-      <c r="BF25">
+      <c r="BI25">
         <v>0.9943265959492403</v>
       </c>
-      <c r="BG25">
+      <c r="BJ25">
         <v>0.9943801202281477</v>
       </c>
-      <c r="BH25">
+      <c r="BK25">
         <v>0.9589127505181126</v>
       </c>
-      <c r="BI25">
+      <c r="BL25">
         <v>0.8995794371265589</v>
       </c>
-      <c r="BJ25">
+      <c r="BM25">
         <v>0.689958454636613</v>
       </c>
-      <c r="BK25">
+      <c r="BN25">
         <v>0.08549453420890687</v>
       </c>
-      <c r="BL25">
+      <c r="BO25">
         <v>0.01799030689602236</v>
       </c>
-      <c r="BM25">
+      <c r="BP25">
         <v>0.977666488487533</v>
       </c>
-      <c r="BN25">
+      <c r="BQ25">
         <v>0.5347628776143755</v>
       </c>
     </row>
-    <row r="26" spans="1:66">
+    <row r="26" spans="1:69">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>0.9453617996174155</v>
@@ -5700,147 +5934,156 @@
         <v>0.03294575867942555</v>
       </c>
       <c r="S26">
+        <v>0.9920621712975906</v>
+      </c>
+      <c r="T26">
+        <v>0.9593376584547367</v>
+      </c>
+      <c r="U26">
         <v>0.9936074514308104</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>0.9596892290365636</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>0.8332967297984328</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.4625823148663687</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>0.1362378561337755</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>0.03639139625839531</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <v>0.972607527439993</v>
       </c>
-      <c r="Z26">
+      <c r="AB26">
         <v>0.6157706322860007</v>
       </c>
-      <c r="AA26">
+      <c r="AC26">
         <v>0.1199187172256412</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <v>0.9872229941590491</v>
       </c>
-      <c r="AD26">
+      <c r="AF26">
         <v>0.8762244437418861</v>
       </c>
-      <c r="AE26">
+      <c r="AG26">
         <v>0.984163122779715</v>
       </c>
-      <c r="AF26">
+      <c r="AH26">
         <v>0.9182864515503972</v>
       </c>
-      <c r="AG26">
+      <c r="AI26">
         <v>0.8066122496159761</v>
       </c>
-      <c r="AH26">
+      <c r="AJ26">
         <v>0.5086472717710645</v>
       </c>
-      <c r="AI26">
+      <c r="AK26">
         <v>0.1139388813049685</v>
       </c>
-      <c r="AJ26">
+      <c r="AL26">
         <v>0.035941329738035</v>
       </c>
-      <c r="AK26">
+      <c r="AM26">
         <v>0.9926057306618966</v>
       </c>
-      <c r="AL26">
+      <c r="AN26">
         <v>0.9140078207757334</v>
       </c>
-      <c r="AM26">
+      <c r="AO26">
         <v>0.4450201131710104</v>
       </c>
-      <c r="AN26">
+      <c r="AP26">
         <v>0.9493519842663015</v>
       </c>
-      <c r="AO26">
+      <c r="AQ26">
         <v>0.7886726250161061</v>
       </c>
-      <c r="AP26">
+      <c r="AR26">
         <v>0.6136259101690353</v>
       </c>
-      <c r="AQ26">
+      <c r="AS26">
         <v>0.3116034593536261</v>
       </c>
-      <c r="AR26">
+      <c r="AT26">
         <v>0.08240959336185108</v>
       </c>
-      <c r="AS26">
+      <c r="AU26">
         <v>0.03369079658568139</v>
       </c>
-      <c r="AT26">
+      <c r="AV26">
         <v>0.6031372840829119</v>
       </c>
-      <c r="AU26">
+      <c r="AW26">
         <v>0.2267075833447796</v>
       </c>
-      <c r="AV26">
+      <c r="AX26">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AW26">
+      <c r="AY26">
+        <v>0.9957331462664911</v>
+      </c>
+      <c r="AZ26">
         <v>0.9937892775828635</v>
       </c>
-      <c r="AX26">
+      <c r="BA26">
         <v>0.9721345073793409</v>
       </c>
-      <c r="AY26">
+      <c r="BB26">
         <v>0.9244246214243893</v>
       </c>
-      <c r="AZ26">
+      <c r="BC26">
         <v>0.7515591095663429</v>
       </c>
-      <c r="BA26">
+      <c r="BD26">
         <v>0.1206092606643635</v>
       </c>
-      <c r="BB26">
+      <c r="BE26">
         <v>0.02618996065179855</v>
       </c>
-      <c r="BC26">
+      <c r="BF26">
         <v>1</v>
       </c>
-      <c r="BD26">
+      <c r="BG26">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BE26">
+      <c r="BH26">
         <v>0.9874238158142211</v>
       </c>
-      <c r="BF26">
+      <c r="BI26">
         <v>0.9946236069386468</v>
       </c>
-      <c r="BG26">
+      <c r="BJ26">
         <v>0.9946467523441129</v>
       </c>
-      <c r="BH26">
+      <c r="BK26">
         <v>0.962028262368767</v>
       </c>
-      <c r="BI26">
+      <c r="BL26">
         <v>0.9062907553562378</v>
       </c>
-      <c r="BJ26">
+      <c r="BM26">
         <v>0.6803365772971084</v>
       </c>
-      <c r="BK26">
+      <c r="BN26">
         <v>0.08124438061865892</v>
       </c>
-      <c r="BL26">
+      <c r="BO26">
         <v>0.01899125654136917</v>
       </c>
-      <c r="BM26">
+      <c r="BP26">
         <v>0.9768735099826468</v>
       </c>
-      <c r="BN26">
+      <c r="BQ26">
         <v>0.3921049650827302</v>
       </c>
     </row>

--- a/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
+++ b/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>100_2_0.05_0.001</t>
   </si>
@@ -73,6 +73,18 @@
     <t>100_2_0.10_0.005_1.00</t>
   </si>
   <si>
+    <t>100_2_0.10_0.010_1.00</t>
+  </si>
+  <si>
+    <t>100_2_0.10_0.020_1.00</t>
+  </si>
+  <si>
+    <t>100_2_0.10_0.050_1.00</t>
+  </si>
+  <si>
+    <t>100_2_0.10_0.100_1.00</t>
+  </si>
+  <si>
     <t>100_2_0.15_0.010</t>
   </si>
   <si>
@@ -121,6 +133,9 @@
     <t>102_3_0.10_0.020</t>
   </si>
   <si>
+    <t>102_3_0.10_0.030</t>
+  </si>
+  <si>
     <t>102_3_0.10_0.050</t>
   </si>
   <si>
@@ -166,6 +181,21 @@
     <t>150_2_0.10_0.005</t>
   </si>
   <si>
+    <t>150_2_0.10_0.010</t>
+  </si>
+  <si>
+    <t>150_2_0.10_0.020</t>
+  </si>
+  <si>
+    <t>150_2_0.10_0.030</t>
+  </si>
+  <si>
+    <t>150_2_0.10_0.050</t>
+  </si>
+  <si>
+    <t>150_2_0.10_0.100</t>
+  </si>
+  <si>
     <t>150_3_0.10_0.001</t>
   </si>
   <si>
@@ -184,6 +214,15 @@
     <t>150_3_0.10_0.100</t>
   </si>
   <si>
+    <t>200_2_0.10_0.001</t>
+  </si>
+  <si>
+    <t>200_2_0.10_0.005</t>
+  </si>
+  <si>
+    <t>200_2_0.10_0.010</t>
+  </si>
+  <si>
     <t>200_2_0.30_0.050</t>
   </si>
   <si>
@@ -218,6 +257,21 @@
   </si>
   <si>
     <t>200_4_0.30_0.150</t>
+  </si>
+  <si>
+    <t>500_2_0.10_0.001</t>
+  </si>
+  <si>
+    <t>500_2_0.10_0.005</t>
+  </si>
+  <si>
+    <t>500_2_0.10_0.010</t>
+  </si>
+  <si>
+    <t>500_2_0.10_0.020</t>
+  </si>
+  <si>
+    <t>500_2_0.10_0.050</t>
   </si>
   <si>
     <t>Abs</t>
@@ -650,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ26"/>
+  <dimension ref="A1:CI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:87">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,10 +915,64 @@
       <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:87">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>0.9637630729030069</v>
@@ -924,156 +1032,210 @@
         <v>0.9671983865606254</v>
       </c>
       <c r="U2">
+        <v>0.8997852410573506</v>
+      </c>
+      <c r="V2">
+        <v>0.6832165562078975</v>
+      </c>
+      <c r="W2">
+        <v>0.1579690980909961</v>
+      </c>
+      <c r="X2">
+        <v>0.07054753675784142</v>
+      </c>
+      <c r="Y2">
         <v>0.9979998040824323</v>
       </c>
-      <c r="V2">
+      <c r="Z2">
         <v>0.8234331813070181</v>
       </c>
-      <c r="W2">
+      <c r="AA2">
         <v>0.3542688248338444</v>
       </c>
-      <c r="X2">
+      <c r="AB2">
         <v>0.1680193633956633</v>
       </c>
-      <c r="Y2">
+      <c r="AC2">
         <v>0.06044215119536072</v>
       </c>
-      <c r="Z2">
+      <c r="AD2">
         <v>0.03174481591836799</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <v>0.739437131950062</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <v>0.2022871642600201</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>0.05403339175988964</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <v>0.9940479402397331</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <v>0.6279343517817234</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <v>0.2845728848817547</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <v>0.98943069756166</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <v>0.9202167000139894</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <v>0.6965597324175541</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <v>0.2865690945594032</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
+        <v>0.1643643317109975</v>
+      </c>
+      <c r="AP2">
         <v>0.0712665909123494</v>
       </c>
-      <c r="AL2">
+      <c r="AQ2">
         <v>0.03203764725207969</v>
       </c>
-      <c r="AM2">
+      <c r="AR2">
         <v>0.5837427922709754</v>
       </c>
-      <c r="AN2">
+      <c r="AS2">
         <v>0.280355532984285</v>
       </c>
-      <c r="AO2">
+      <c r="AT2">
         <v>0.1431361470141155</v>
       </c>
-      <c r="AP2">
+      <c r="AU2">
         <v>0.9604337013597701</v>
       </c>
-      <c r="AQ2">
+      <c r="AV2">
         <v>0.7228409725423356</v>
       </c>
-      <c r="AR2">
+      <c r="AW2">
         <v>0.4632696626606392</v>
       </c>
-      <c r="AS2">
+      <c r="AX2">
         <v>0.1876240571479226</v>
       </c>
-      <c r="AT2">
+      <c r="AY2">
         <v>0.04788776774746705</v>
       </c>
-      <c r="AU2">
+      <c r="AZ2">
         <v>0.03098890730768522</v>
       </c>
-      <c r="AV2">
+      <c r="BA2">
         <v>0.1813833549803986</v>
       </c>
-      <c r="AW2">
+      <c r="BB2">
         <v>0.09738884064937885</v>
       </c>
-      <c r="AX2">
+      <c r="BC2">
         <v>0.9997333216416557</v>
       </c>
-      <c r="AY2">
+      <c r="BD2">
         <v>0.9981332514915898</v>
       </c>
-      <c r="AZ2">
+      <c r="BE2">
+        <v>0.9901472215878371</v>
+      </c>
+      <c r="BF2">
+        <v>0.7687711271181944</v>
+      </c>
+      <c r="BG2">
+        <v>0.3217033872027883</v>
+      </c>
+      <c r="BH2">
+        <v>0.09283552161143425</v>
+      </c>
+      <c r="BI2">
+        <v>0.02814757522225226</v>
+      </c>
+      <c r="BJ2">
         <v>0.9967952846470951</v>
       </c>
-      <c r="BA2">
+      <c r="BK2">
         <v>0.975327380663122</v>
       </c>
-      <c r="BB2">
+      <c r="BL2">
         <v>0.8440329599630847</v>
       </c>
-      <c r="BC2">
+      <c r="BM2">
         <v>0.2897864963015163</v>
       </c>
-      <c r="BD2">
+      <c r="BN2">
         <v>0.05122283276722361</v>
       </c>
-      <c r="BE2">
+      <c r="BO2">
         <v>0.02232763204907105</v>
       </c>
-      <c r="BF2">
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9993999851515227</v>
+      </c>
+      <c r="BR2">
+        <v>0.9974059669616305</v>
+      </c>
+      <c r="BS2">
         <v>0.9909308405237996</v>
       </c>
-      <c r="BG2">
+      <c r="BT2">
         <v>0.6569928610699992</v>
       </c>
-      <c r="BH2">
+      <c r="BU2">
         <v>0.3114300669880454</v>
       </c>
-      <c r="BI2">
+      <c r="BV2">
         <v>0.3295579674177707</v>
       </c>
-      <c r="BJ2">
+      <c r="BW2">
         <v>0.9969165914032172</v>
       </c>
-      <c r="BK2">
+      <c r="BX2">
         <v>0.9441361237575534</v>
       </c>
-      <c r="BL2">
+      <c r="BY2">
         <v>0.6615499477729663</v>
       </c>
-      <c r="BM2">
+      <c r="BZ2">
         <v>0.1615535829676643</v>
       </c>
-      <c r="BN2">
+      <c r="CA2">
         <v>0.03487929122281073</v>
       </c>
-      <c r="BO2">
+      <c r="CB2">
         <v>0.01428342100979789</v>
       </c>
-      <c r="BP2">
+      <c r="CC2">
         <v>0.180573136746276</v>
       </c>
-      <c r="BQ2">
+      <c r="CD2">
         <v>0.07851135901753734</v>
       </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>0.7886222276530617</v>
+      </c>
+      <c r="CI2">
+        <v>0.101455562744757</v>
+      </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:87">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B3">
         <v>0.9094069535352416</v>
@@ -1133,156 +1295,210 @@
         <v>0.7645664222851374</v>
       </c>
       <c r="U3">
+        <v>0.6422851047797153</v>
+      </c>
+      <c r="V3">
+        <v>0.4032125261383752</v>
+      </c>
+      <c r="W3">
+        <v>0.1234566202860565</v>
+      </c>
+      <c r="X3">
+        <v>0.03981200133023649</v>
+      </c>
+      <c r="Y3">
         <v>0.9972078170128335</v>
       </c>
-      <c r="V3">
+      <c r="Z3">
         <v>0.9616733805682933</v>
       </c>
-      <c r="W3">
+      <c r="AA3">
         <v>0.7928505543626856</v>
       </c>
-      <c r="X3">
+      <c r="AB3">
         <v>0.4039075724033849</v>
       </c>
-      <c r="Y3">
+      <c r="AC3">
         <v>0.1141999618599667</v>
       </c>
-      <c r="Z3">
+      <c r="AD3">
         <v>0.03047549486814621</v>
       </c>
-      <c r="AA3">
+      <c r="AE3">
         <v>0.9714721746383936</v>
       </c>
-      <c r="AB3">
+      <c r="AF3">
         <v>0.5257730212604158</v>
       </c>
-      <c r="AC3">
+      <c r="AG3">
         <v>0.08923100352646786</v>
       </c>
-      <c r="AD3">
+      <c r="AH3">
         <v>0.999199921632973</v>
       </c>
-      <c r="AE3">
+      <c r="AI3">
         <v>0.989231281374045</v>
       </c>
-      <c r="AF3">
+      <c r="AJ3">
         <v>0.822810301702671</v>
       </c>
-      <c r="AG3">
+      <c r="AK3">
         <v>0.9472830702666605</v>
       </c>
-      <c r="AH3">
+      <c r="AL3">
         <v>0.8479273012485716</v>
       </c>
-      <c r="AI3">
+      <c r="AM3">
         <v>0.6781854502151238</v>
       </c>
-      <c r="AJ3">
+      <c r="AN3">
         <v>0.4146253958965468</v>
       </c>
-      <c r="AK3">
+      <c r="AO3">
+        <v>0.233650558897011</v>
+      </c>
+      <c r="AP3">
         <v>0.0950076104972236</v>
       </c>
-      <c r="AL3">
+      <c r="AQ3">
         <v>0.03135215799310445</v>
       </c>
-      <c r="AM3">
+      <c r="AR3">
         <v>0.9929015143110423</v>
       </c>
-      <c r="AN3">
+      <c r="AS3">
         <v>0.8591394940811858</v>
       </c>
-      <c r="AO3">
+      <c r="AT3">
         <v>0.3153021953927613</v>
       </c>
-      <c r="AP3">
+      <c r="AU3">
         <v>0.7708450866457162</v>
       </c>
-      <c r="AQ3">
+      <c r="AV3">
         <v>0.5931114535221299</v>
       </c>
-      <c r="AR3">
+      <c r="AW3">
         <v>0.4354230832114013</v>
       </c>
-      <c r="AS3">
+      <c r="AX3">
         <v>0.2378210477708514</v>
       </c>
-      <c r="AT3">
+      <c r="AY3">
         <v>0.07586665452095578</v>
       </c>
-      <c r="AU3">
+      <c r="AZ3">
         <v>0.03247346494883849</v>
       </c>
-      <c r="AV3">
+      <c r="BA3">
         <v>0.4904244513402178</v>
       </c>
-      <c r="AW3">
+      <c r="BB3">
         <v>0.1698314685656082</v>
       </c>
-      <c r="AX3">
+      <c r="BC3">
         <v>0.9997333216416557</v>
       </c>
-      <c r="AY3">
+      <c r="BD3">
         <v>0.9978665731332456</v>
       </c>
-      <c r="AZ3">
+      <c r="BE3">
+        <v>0.9917401338600811</v>
+      </c>
+      <c r="BF3">
+        <v>0.9408854006371457</v>
+      </c>
+      <c r="BG3">
+        <v>0.8072250180792079</v>
+      </c>
+      <c r="BH3">
+        <v>0.2942326304869788</v>
+      </c>
+      <c r="BI3">
+        <v>0.02524000174349684</v>
+      </c>
+      <c r="BJ3">
         <v>0.9922696255373815</v>
       </c>
-      <c r="BA3">
+      <c r="BK3">
         <v>0.957887583893135</v>
       </c>
-      <c r="BB3">
+      <c r="BL3">
         <v>0.8889850002097155</v>
       </c>
-      <c r="BC3">
+      <c r="BM3">
         <v>0.637160165488049</v>
       </c>
-      <c r="BD3">
+      <c r="BN3">
         <v>0.08655805437008061</v>
       </c>
-      <c r="BE3">
+      <c r="BO3">
         <v>0.02203578506605368</v>
       </c>
-      <c r="BF3">
-        <v>1</v>
-      </c>
-      <c r="BG3">
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>0.9993999851515227</v>
+      </c>
+      <c r="BR3">
+        <v>0.9983999604040605</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BH3">
+      <c r="BU3">
         <v>0.9804879739419493</v>
       </c>
-      <c r="BI3">
+      <c r="BV3">
         <v>0.9950678743951148</v>
       </c>
-      <c r="BJ3">
+      <c r="BW3">
         <v>0.9863886309697759</v>
       </c>
-      <c r="BK3">
+      <c r="BX3">
         <v>0.9306586356799963</v>
       </c>
-      <c r="BL3">
+      <c r="BY3">
         <v>0.8330394420467792</v>
       </c>
-      <c r="BM3">
+      <c r="BZ3">
         <v>0.4874808429108185</v>
       </c>
-      <c r="BN3">
+      <c r="CA3">
         <v>0.058006083766369</v>
       </c>
-      <c r="BO3">
+      <c r="CB3">
         <v>0.01419496698673787</v>
       </c>
-      <c r="BP3">
+      <c r="CC3">
         <v>0.920408727075117</v>
       </c>
-      <c r="BQ3">
+      <c r="CD3">
         <v>0.1837670113590898</v>
       </c>
+      <c r="CE3">
+        <v>1</v>
+      </c>
+      <c r="CF3">
+        <v>1</v>
+      </c>
+      <c r="CG3">
+        <v>1</v>
+      </c>
+      <c r="CH3">
+        <v>1</v>
+      </c>
+      <c r="CI3">
+        <v>0.8991033432523213</v>
+      </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:87">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>0.9065387393091242</v>
@@ -1342,156 +1558,210 @@
         <v>0.7793856566563435</v>
       </c>
       <c r="U4">
+        <v>0.6575662045471445</v>
+      </c>
+      <c r="V4">
+        <v>0.4067772901620326</v>
+      </c>
+      <c r="W4">
+        <v>0.1192693212498824</v>
+      </c>
+      <c r="X4">
+        <v>0.03734072934296138</v>
+      </c>
+      <c r="Y4">
         <v>0.9964077386458063</v>
       </c>
-      <c r="V4">
+      <c r="Z4">
         <v>0.9476842210016168</v>
       </c>
-      <c r="W4">
+      <c r="AA4">
         <v>0.702458006850482</v>
       </c>
-      <c r="X4">
+      <c r="AB4">
         <v>0.2984874022441744</v>
       </c>
-      <c r="Y4">
+      <c r="AC4">
         <v>0.08710360717903846</v>
       </c>
-      <c r="Z4">
+      <c r="AD4">
         <v>0.02711957510357798</v>
       </c>
-      <c r="AA4">
+      <c r="AE4">
         <v>0.9671444731994149</v>
       </c>
-      <c r="AB4">
+      <c r="AF4">
         <v>0.3845851804923159</v>
       </c>
-      <c r="AC4">
+      <c r="AG4">
         <v>0.07366690314209375</v>
       </c>
-      <c r="AD4">
+      <c r="AH4">
         <v>0.9983998432659459</v>
       </c>
-      <c r="AE4">
+      <c r="AI4">
         <v>0.9809113165404568</v>
       </c>
-      <c r="AF4">
+      <c r="AJ4">
         <v>0.5802054033069891</v>
       </c>
-      <c r="AG4">
+      <c r="AK4">
         <v>0.9295450293655043</v>
       </c>
-      <c r="AH4">
+      <c r="AL4">
         <v>0.8178612549372251</v>
       </c>
-      <c r="AI4">
+      <c r="AM4">
         <v>0.6359698119278475</v>
       </c>
-      <c r="AJ4">
+      <c r="AN4">
         <v>0.3656440593412863</v>
       </c>
-      <c r="AK4">
+      <c r="AO4">
+        <v>0.2080578507820804</v>
+      </c>
+      <c r="AP4">
         <v>0.08212919588753813</v>
       </c>
-      <c r="AL4">
+      <c r="AQ4">
         <v>0.02966602518815078</v>
       </c>
-      <c r="AM4">
+      <c r="AR4">
         <v>0.9911323168079517</v>
       </c>
-      <c r="AN4">
+      <c r="AS4">
         <v>0.6142242366161245</v>
       </c>
-      <c r="AO4">
+      <c r="AT4">
         <v>0.2144999536766693</v>
       </c>
-      <c r="AP4">
+      <c r="AU4">
         <v>0.7368749253966785</v>
       </c>
-      <c r="AQ4">
+      <c r="AV4">
         <v>0.565376862415549</v>
       </c>
-      <c r="AR4">
+      <c r="AW4">
         <v>0.4168491871526004</v>
       </c>
-      <c r="AS4">
+      <c r="AX4">
         <v>0.2138041754154176</v>
       </c>
-      <c r="AT4">
+      <c r="AY4">
         <v>0.06695476631133221</v>
       </c>
-      <c r="AU4">
+      <c r="AZ4">
         <v>0.02899709610647008</v>
       </c>
-      <c r="AV4">
+      <c r="BA4">
         <v>0.3222338670351594</v>
       </c>
-      <c r="AW4">
+      <c r="BB4">
         <v>0.1387363484084348</v>
       </c>
-      <c r="AX4">
+      <c r="BC4">
         <v>0.9997333216416557</v>
       </c>
-      <c r="AY4">
+      <c r="BD4">
         <v>0.9970701195425901</v>
       </c>
-      <c r="AZ4">
+      <c r="BE4">
+        <v>0.9901472215878369</v>
+      </c>
+      <c r="BF4">
+        <v>0.931347750102878</v>
+      </c>
+      <c r="BG4">
+        <v>0.7448171270846444</v>
+      </c>
+      <c r="BH4">
+        <v>0.2030482492292514</v>
+      </c>
+      <c r="BI4">
+        <v>0.02028660988169273</v>
+      </c>
+      <c r="BJ4">
         <v>0.9891033371286558</v>
       </c>
-      <c r="BA4">
+      <c r="BK4">
         <v>0.9438382314181004</v>
       </c>
-      <c r="BB4">
+      <c r="BL4">
         <v>0.8515456807115711</v>
       </c>
-      <c r="BC4">
+      <c r="BM4">
         <v>0.550850037546864</v>
       </c>
-      <c r="BD4">
+      <c r="BN4">
         <v>0.07353498438936895</v>
       </c>
-      <c r="BE4">
+      <c r="BO4">
         <v>0.01893914588009453</v>
       </c>
-      <c r="BF4">
-        <v>1</v>
-      </c>
-      <c r="BG4">
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BR4">
+        <v>0.9976019513091142</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BH4">
+      <c r="BU4">
         <v>0.77972505925649</v>
       </c>
-      <c r="BI4">
+      <c r="BV4">
         <v>0.9251495648420902</v>
       </c>
-      <c r="BJ4">
+      <c r="BW4">
         <v>0.9731214201969496</v>
       </c>
-      <c r="BK4">
+      <c r="BX4">
         <v>0.9102090202406775</v>
       </c>
-      <c r="BL4">
+      <c r="BY4">
         <v>0.7808354281723168</v>
       </c>
-      <c r="BM4">
+      <c r="BZ4">
         <v>0.3611228911221068</v>
       </c>
-      <c r="BN4">
+      <c r="CA4">
         <v>0.04585470136190287</v>
       </c>
-      <c r="BO4">
+      <c r="CB4">
         <v>0.01145188990612546</v>
       </c>
-      <c r="BP4">
+      <c r="CC4">
         <v>0.4206727553459844</v>
       </c>
-      <c r="BQ4">
+      <c r="CD4">
         <v>0.1190681821654176</v>
       </c>
+      <c r="CE4">
+        <v>1</v>
+      </c>
+      <c r="CF4">
+        <v>1</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>1</v>
+      </c>
+      <c r="CI4">
+        <v>0.3176530031352835</v>
+      </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:87">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>0.9453617996174155</v>
@@ -1551,156 +1821,210 @@
         <v>0.9601723525056834</v>
       </c>
       <c r="U5">
+        <v>0.8746430233956723</v>
+      </c>
+      <c r="V5">
+        <v>0.4517442215249453</v>
+      </c>
+      <c r="W5">
+        <v>0.107489192601447</v>
+      </c>
+      <c r="X5">
+        <v>0.03308877372058235</v>
+      </c>
+      <c r="Y5">
         <v>0.994007490614324</v>
       </c>
-      <c r="V5">
+      <c r="Z5">
         <v>0.9585052617557395</v>
       </c>
-      <c r="W5">
+      <c r="AA5">
         <v>0.833625261795542</v>
       </c>
-      <c r="X5">
+      <c r="AB5">
         <v>0.4627585641828143</v>
       </c>
-      <c r="Y5">
+      <c r="AC5">
         <v>0.1396563115233971</v>
       </c>
-      <c r="Z5">
+      <c r="AD5">
         <v>0.03437765505948963</v>
       </c>
-      <c r="AA5">
+      <c r="AE5">
         <v>0.974199551249703</v>
       </c>
-      <c r="AB5">
+      <c r="AF5">
         <v>0.6199568678100009</v>
       </c>
-      <c r="AC5">
+      <c r="AG5">
         <v>0.1208413278155686</v>
       </c>
-      <c r="AD5">
+      <c r="AH5">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AE5">
+      <c r="AI5">
         <v>0.9860228766085086</v>
       </c>
-      <c r="AF5">
+      <c r="AJ5">
         <v>0.8785684482343629</v>
       </c>
-      <c r="AG5">
+      <c r="AK5">
         <v>0.9847499139715131</v>
       </c>
-      <c r="AH5">
+      <c r="AL5">
         <v>0.9193227235267988</v>
       </c>
-      <c r="AI5">
+      <c r="AM5">
         <v>0.8045242478621693</v>
       </c>
-      <c r="AJ5">
+      <c r="AN5">
         <v>0.5128176739404937</v>
       </c>
-      <c r="AK5">
+      <c r="AO5">
+        <v>0.2932416285544633</v>
+      </c>
+      <c r="AP5">
         <v>0.1105573129699418</v>
       </c>
-      <c r="AL5">
+      <c r="AQ5">
         <v>0.03340421210867876</v>
       </c>
-      <c r="AM5">
+      <c r="AR5">
         <v>0.9917276608026433</v>
       </c>
-      <c r="AN5">
+      <c r="AS5">
         <v>0.914385347712137</v>
       </c>
-      <c r="AO5">
+      <c r="AT5">
         <v>0.4461107575658896</v>
       </c>
-      <c r="AP5">
+      <c r="AU5">
         <v>0.9506922807050496</v>
       </c>
-      <c r="AQ5">
+      <c r="AV5">
         <v>0.7898324124164929</v>
       </c>
-      <c r="AR5">
+      <c r="AW5">
         <v>0.6093747974825581</v>
       </c>
-      <c r="AS5">
+      <c r="AX5">
         <v>0.3134042100698353</v>
       </c>
-      <c r="AT5">
+      <c r="AY5">
         <v>0.07893607524697435</v>
       </c>
-      <c r="AU5">
+      <c r="AZ5">
         <v>0.03360949590977539</v>
       </c>
-      <c r="AV5">
+      <c r="BA5">
         <v>0.5984957875306192</v>
       </c>
-      <c r="AW5">
+      <c r="BB5">
         <v>0.2261887366683209</v>
       </c>
-      <c r="AX5">
+      <c r="BC5">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY5">
+      <c r="BD5">
         <v>0.9957331462664911</v>
       </c>
-      <c r="AZ5">
+      <c r="BE5">
+        <v>0.9867018841992257</v>
+      </c>
+      <c r="BF5">
+        <v>0.9493813773877424</v>
+      </c>
+      <c r="BG5">
+        <v>0.8485262847829819</v>
+      </c>
+      <c r="BH5">
+        <v>0.3744171913650723</v>
+      </c>
+      <c r="BI5">
+        <v>0.02861425582164667</v>
+      </c>
+      <c r="BJ5">
         <v>0.9941865006665246</v>
       </c>
-      <c r="BA5">
+      <c r="BK5">
         <v>0.9727325866770054</v>
       </c>
-      <c r="BB5">
+      <c r="BL5">
         <v>0.9250543470928778</v>
       </c>
-      <c r="BC5">
+      <c r="BM5">
         <v>0.7553721781614621</v>
       </c>
-      <c r="BD5">
+      <c r="BN5">
         <v>0.1182458433010575</v>
       </c>
-      <c r="BE5">
+      <c r="BO5">
         <v>0.02313304038267702</v>
       </c>
-      <c r="BF5">
-        <v>1</v>
-      </c>
-      <c r="BG5">
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BR5">
+        <v>0.9975999406060907</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BH5">
+      <c r="BU5">
         <v>0.9872378827463723</v>
       </c>
-      <c r="BI5">
+      <c r="BV5">
         <v>0.9955191172668674</v>
       </c>
-      <c r="BJ5">
+      <c r="BW5">
         <v>0.994646752344113</v>
       </c>
-      <c r="BK5">
+      <c r="BX5">
         <v>0.9625875713947006</v>
       </c>
-      <c r="BL5">
+      <c r="BY5">
         <v>0.9085258472653507</v>
       </c>
-      <c r="BM5">
+      <c r="BZ5">
         <v>0.6804719299471677</v>
       </c>
-      <c r="BN5">
+      <c r="CA5">
         <v>0.0836596804541747</v>
       </c>
-      <c r="BO5">
+      <c r="CB5">
         <v>0.0167874856413665</v>
       </c>
-      <c r="BP5">
+      <c r="CC5">
         <v>0.978038795715463</v>
       </c>
-      <c r="BQ5">
+      <c r="CD5">
         <v>0.3955129184763343</v>
       </c>
+      <c r="CE5">
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
+      </c>
+      <c r="CG5">
+        <v>1</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>0.9433310977065612</v>
+      </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:87">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>0.9676905978028074</v>
@@ -1760,156 +2084,210 @@
         <v>0.9791374892407965</v>
       </c>
       <c r="U6">
+        <v>0.9123479336223865</v>
+      </c>
+      <c r="V6">
+        <v>0.6768238654550031</v>
+      </c>
+      <c r="W6">
+        <v>0.2282371995776852</v>
+      </c>
+      <c r="X6">
+        <v>0.09048879721124523</v>
+      </c>
+      <c r="Y6">
         <v>0.9983998432659458</v>
       </c>
-      <c r="V6">
+      <c r="Z6">
         <v>0.8357550870241258</v>
       </c>
-      <c r="W6">
+      <c r="AA6">
         <v>0.4412300990491717</v>
       </c>
-      <c r="X6">
+      <c r="AB6">
         <v>0.2456630201492652</v>
       </c>
-      <c r="Y6">
+      <c r="AC6">
         <v>0.1433124709465088</v>
       </c>
-      <c r="Z6">
+      <c r="AD6">
         <v>0.06016762110362487</v>
       </c>
-      <c r="AA6">
+      <c r="AE6">
         <v>0.7677591629699893</v>
       </c>
-      <c r="AB6">
+      <c r="AF6">
         <v>0.2634640038837574</v>
       </c>
-      <c r="AC6">
+      <c r="AG6">
         <v>0.1386266307790897</v>
       </c>
-      <c r="AD6">
+      <c r="AH6">
         <v>0.9960319442612936</v>
       </c>
-      <c r="AE6">
+      <c r="AI6">
         <v>0.6880641574516987</v>
       </c>
-      <c r="AF6">
+      <c r="AJ6">
         <v>0.3491461644796219</v>
       </c>
-      <c r="AG6">
+      <c r="AK6">
         <v>0.9894262855978119</v>
       </c>
-      <c r="AH6">
+      <c r="AL6">
         <v>0.9229131562521556</v>
       </c>
-      <c r="AI6">
+      <c r="AM6">
         <v>0.68321836150514</v>
       </c>
-      <c r="AJ6">
+      <c r="AN6">
         <v>0.3025362777660961</v>
       </c>
-      <c r="AK6">
+      <c r="AO6">
+        <v>0.1947381498467781</v>
+      </c>
+      <c r="AP6">
         <v>0.1252053318421003</v>
       </c>
-      <c r="AL6">
+      <c r="AQ6">
         <v>0.05465398163449648</v>
       </c>
-      <c r="AM6">
+      <c r="AR6">
         <v>0.6141647629682762</v>
       </c>
-      <c r="AN6">
+      <c r="AS6">
         <v>0.3418309612294037</v>
       </c>
-      <c r="AO6">
+      <c r="AT6">
         <v>0.1983893446429503</v>
       </c>
-      <c r="AP6">
+      <c r="AU6">
         <v>0.9626276185716702</v>
       </c>
-      <c r="AQ6">
+      <c r="AV6">
         <v>0.7088407233815404</v>
       </c>
-      <c r="AR6">
+      <c r="AW6">
         <v>0.445250421284492</v>
       </c>
-      <c r="AS6">
+      <c r="AX6">
         <v>0.2018922755702221</v>
       </c>
-      <c r="AT6">
+      <c r="AY6">
         <v>0.08008565940400766</v>
       </c>
-      <c r="AU6">
+      <c r="AZ6">
         <v>0.05027926802079117</v>
       </c>
-      <c r="AV6">
+      <c r="BA6">
         <v>0.2563971496730096</v>
       </c>
-      <c r="AW6">
+      <c r="BB6">
         <v>0.2172457901845333</v>
       </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
-      <c r="AY6">
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
         <v>0.9989332865666227</v>
       </c>
-      <c r="AZ6">
+      <c r="BE6">
+        <v>0.9920103911573364</v>
+      </c>
+      <c r="BF6">
+        <v>0.7891512104251148</v>
+      </c>
+      <c r="BG6">
+        <v>0.3929358869225305</v>
+      </c>
+      <c r="BH6">
+        <v>0.1930095987295508</v>
+      </c>
+      <c r="BI6">
+        <v>0.07034291294371547</v>
+      </c>
+      <c r="BJ6">
         <v>0.9961953545403839</v>
       </c>
-      <c r="BA6">
+      <c r="BK6">
         <v>0.9735370824200688</v>
       </c>
-      <c r="BB6">
+      <c r="BL6">
         <v>0.8431420241049485</v>
       </c>
-      <c r="BC6">
+      <c r="BM6">
         <v>0.3070554179324931</v>
       </c>
-      <c r="BD6">
+      <c r="BN6">
         <v>0.1337530616171959</v>
       </c>
-      <c r="BE6">
+      <c r="BO6">
         <v>0.06038883884886161</v>
       </c>
-      <c r="BF6">
-        <v>1</v>
-      </c>
-      <c r="BG6">
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9997999950505075</v>
+      </c>
+      <c r="BR6">
+        <v>0.9980059826141465</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
         <v>0.7189422104465518</v>
       </c>
-      <c r="BH6">
+      <c r="BU6">
         <v>0.4021629526073812</v>
       </c>
-      <c r="BI6">
+      <c r="BV6">
         <v>0.3634425244558295</v>
       </c>
-      <c r="BJ6">
+      <c r="BW6">
         <v>0.9965280742354939</v>
       </c>
-      <c r="BK6">
+      <c r="BX6">
         <v>0.94363459591424</v>
       </c>
-      <c r="BL6">
+      <c r="BY6">
         <v>0.6557856909304134</v>
       </c>
-      <c r="BM6">
+      <c r="BZ6">
         <v>0.1867712167802713</v>
       </c>
-      <c r="BN6">
+      <c r="CA6">
         <v>0.09227686753790049</v>
       </c>
-      <c r="BO6">
+      <c r="CB6">
         <v>0.04372167221789883</v>
       </c>
-      <c r="BP6">
+      <c r="CC6">
         <v>0.2313272048852544</v>
       </c>
-      <c r="BQ6">
+      <c r="CD6">
         <v>0.2132430041045927</v>
       </c>
+      <c r="CE6">
+        <v>1</v>
+      </c>
+      <c r="CF6">
+        <v>1</v>
+      </c>
+      <c r="CG6">
+        <v>1</v>
+      </c>
+      <c r="CH6">
+        <v>0.9281588190222962</v>
+      </c>
+      <c r="CI6">
+        <v>0.176323493782259</v>
+      </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:87">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B7">
         <v>0.9641468988847035</v>
@@ -1969,156 +2347,210 @@
         <v>0.9875085563099048</v>
       </c>
       <c r="U7">
+        <v>0.9458622525309514</v>
+      </c>
+      <c r="V7">
+        <v>0.7746911208799045</v>
+      </c>
+      <c r="W7">
+        <v>0.2897894781318752</v>
+      </c>
+      <c r="X7">
+        <v>0.1759990288099625</v>
+      </c>
+      <c r="Y7">
         <v>0.9987998824494594</v>
       </c>
-      <c r="V7">
+      <c r="Z7">
         <v>0.9624168341045585</v>
       </c>
-      <c r="W7">
+      <c r="AA7">
         <v>0.7808997651156855</v>
       </c>
-      <c r="X7">
+      <c r="AB7">
         <v>0.4394435080460131</v>
       </c>
-      <c r="Y7">
+      <c r="AC7">
         <v>0.2763274447547255</v>
       </c>
-      <c r="Z7">
+      <c r="AD7">
         <v>0.1095823539106356</v>
       </c>
-      <c r="AA7">
+      <c r="AE7">
         <v>0.9742239423673645</v>
       </c>
-      <c r="AB7">
+      <c r="AF7">
         <v>0.5589595820427803</v>
       </c>
-      <c r="AC7">
+      <c r="AG7">
         <v>0.3467274965841823</v>
       </c>
-      <c r="AD7">
+      <c r="AH7">
         <v>0.9987998824494594</v>
       </c>
-      <c r="AE7">
+      <c r="AI7">
         <v>0.9872310692935946</v>
       </c>
-      <c r="AF7">
+      <c r="AJ7">
         <v>0.8193355961026815</v>
       </c>
-      <c r="AG7">
+      <c r="AK7">
         <v>0.989421962687444</v>
       </c>
-      <c r="AH7">
+      <c r="AL7">
         <v>0.9285256137349279</v>
       </c>
-      <c r="AI7">
+      <c r="AM7">
         <v>0.7786272706329239</v>
       </c>
-      <c r="AJ7">
+      <c r="AN7">
         <v>0.4168468770071718</v>
       </c>
-      <c r="AK7">
+      <c r="AO7">
+        <v>0.2574027626322203</v>
+      </c>
+      <c r="AP7">
         <v>0.1666842787742109</v>
       </c>
-      <c r="AL7">
+      <c r="AQ7">
         <v>0.09900993485388603</v>
       </c>
-      <c r="AM7">
+      <c r="AR7">
         <v>0.9940923804073859</v>
       </c>
-      <c r="AN7">
+      <c r="AS7">
         <v>0.8454208926102641</v>
       </c>
-      <c r="AO7">
+      <c r="AT7">
         <v>0.3749793017567455</v>
       </c>
-      <c r="AP7">
+      <c r="AU7">
         <v>0.9597875412822066</v>
       </c>
-      <c r="AQ7">
+      <c r="AV7">
         <v>0.7462686620309869</v>
       </c>
-      <c r="AR7">
+      <c r="AW7">
         <v>0.5316164149222318</v>
       </c>
-      <c r="AS7">
+      <c r="AX7">
         <v>0.255151041994494</v>
       </c>
-      <c r="AT7">
+      <c r="AY7">
         <v>0.1157128591371404</v>
       </c>
-      <c r="AU7">
+      <c r="AZ7">
         <v>0.08756197656706342</v>
       </c>
-      <c r="AV7">
+      <c r="BA7">
         <v>0.4860550338023807</v>
       </c>
-      <c r="AW7">
+      <c r="BB7">
         <v>0.3272983050283574</v>
       </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
         <v>0.9981332514915898</v>
       </c>
-      <c r="AZ7">
+      <c r="BE7">
+        <v>0.9938699792424582</v>
+      </c>
+      <c r="BF7">
+        <v>0.9450449157805701</v>
+      </c>
+      <c r="BG7">
+        <v>0.8108272216123664</v>
+      </c>
+      <c r="BH7">
+        <v>0.3604151154721951</v>
+      </c>
+      <c r="BI7">
+        <v>0.1540801749205739</v>
+      </c>
+      <c r="BJ7">
         <v>0.997192646380856</v>
       </c>
-      <c r="BA7">
+      <c r="BK7">
         <v>0.9768850540143603</v>
       </c>
-      <c r="BB7">
+      <c r="BL7">
         <v>0.9194980535938487</v>
       </c>
-      <c r="BC7">
+      <c r="BM7">
         <v>0.6440098487822126</v>
       </c>
-      <c r="BD7">
+      <c r="BN7">
         <v>0.2244389383979003</v>
       </c>
-      <c r="BE7">
+      <c r="BO7">
         <v>0.1372051058684097</v>
       </c>
-      <c r="BF7">
-        <v>1</v>
-      </c>
-      <c r="BG7">
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9997999950505075</v>
+      </c>
+      <c r="BR7">
+        <v>0.9981999554545681</v>
+      </c>
+      <c r="BS7">
+        <v>1</v>
+      </c>
+      <c r="BT7">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BH7">
+      <c r="BU7">
         <v>0.9801120934071256</v>
       </c>
-      <c r="BI7">
+      <c r="BV7">
         <v>0.9938834322166185</v>
       </c>
-      <c r="BJ7">
+      <c r="BW7">
         <v>0.9969259282465214</v>
       </c>
-      <c r="BK7">
+      <c r="BX7">
         <v>0.96403549645121</v>
       </c>
-      <c r="BL7">
+      <c r="BY7">
         <v>0.8752216713866423</v>
       </c>
-      <c r="BM7">
+      <c r="BZ7">
         <v>0.4434134851995332</v>
       </c>
-      <c r="BN7">
+      <c r="CA7">
         <v>0.1773603484864924</v>
       </c>
-      <c r="BO7">
+      <c r="CB7">
         <v>0.1211106271230779</v>
       </c>
-      <c r="BP7">
+      <c r="CC7">
         <v>0.926508377146511</v>
       </c>
-      <c r="BQ7">
+      <c r="CD7">
         <v>0.3404887253506378</v>
       </c>
+      <c r="CE7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
+        <v>1</v>
+      </c>
+      <c r="CG7">
+        <v>1</v>
+      </c>
+      <c r="CH7">
+        <v>1</v>
+      </c>
+      <c r="CI7">
+        <v>0.9070215811792847</v>
+      </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:87">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <v>0.961762753426727</v>
@@ -2178,156 +2610,210 @@
         <v>0.9580863993450724</v>
       </c>
       <c r="U8">
+        <v>0.8712993643956302</v>
+      </c>
+      <c r="V8">
+        <v>0.6293707459013445</v>
+      </c>
+      <c r="W8">
+        <v>0.1515408309158454</v>
+      </c>
+      <c r="X8">
+        <v>0.04835481671921969</v>
+      </c>
+      <c r="Y8">
         <v>0.996007699462293</v>
       </c>
-      <c r="V8">
+      <c r="Z8">
         <v>0.9620409608196545</v>
       </c>
-      <c r="W8">
+      <c r="AA8">
         <v>0.8114099206665182</v>
       </c>
-      <c r="X8">
+      <c r="AB8">
         <v>0.4106461570865457</v>
       </c>
-      <c r="Y8">
+      <c r="AC8">
         <v>0.1211021024806437</v>
       </c>
-      <c r="Z8">
+      <c r="AD8">
         <v>0.03382270993791437</v>
       </c>
-      <c r="AA8">
+      <c r="AE8">
         <v>0.9745996765238616</v>
       </c>
-      <c r="AB8">
+      <c r="AF8">
         <v>0.5767890820141252</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
         <v>0.1007102720835405</v>
       </c>
-      <c r="AD8">
+      <c r="AH8">
         <v>0.9995999608164865</v>
       </c>
-      <c r="AE8">
+      <c r="AI8">
         <v>0.987231059595675</v>
       </c>
-      <c r="AF8">
+      <c r="AJ8">
         <v>0.8456654756882256</v>
       </c>
-      <c r="AG8">
+      <c r="AK8">
         <v>0.9879841964672235</v>
       </c>
-      <c r="AH8">
+      <c r="AL8">
         <v>0.9276644884287983</v>
       </c>
-      <c r="AI8">
+      <c r="AM8">
         <v>0.7809495232943782</v>
       </c>
-      <c r="AJ8">
+      <c r="AN8">
         <v>0.4572378305480451</v>
       </c>
-      <c r="AK8">
+      <c r="AO8">
+        <v>0.2563947161592732</v>
+      </c>
+      <c r="AP8">
         <v>0.102346779349504</v>
       </c>
-      <c r="AL8">
+      <c r="AQ8">
         <v>0.03488322055692802</v>
       </c>
-      <c r="AM8">
+      <c r="AR8">
         <v>0.9935013593230622</v>
       </c>
-      <c r="AN8">
+      <c r="AS8">
         <v>0.8919223373861328</v>
       </c>
-      <c r="AO8">
+      <c r="AT8">
         <v>0.4630284724970095</v>
       </c>
-      <c r="AP8">
+      <c r="AU8">
         <v>0.9576798822221483</v>
       </c>
-      <c r="AQ8">
+      <c r="AV8">
         <v>0.7557220068137681</v>
       </c>
-      <c r="AR8">
+      <c r="AW8">
         <v>0.5539752319551926</v>
       </c>
-      <c r="AS8">
+      <c r="AX8">
         <v>0.2759527000514116</v>
       </c>
-      <c r="AT8">
+      <c r="AY8">
         <v>0.07442553904735777</v>
       </c>
-      <c r="AU8">
+      <c r="AZ8">
         <v>0.03553683078078482</v>
       </c>
-      <c r="AV8">
+      <c r="BA8">
         <v>0.6388586894577288</v>
       </c>
-      <c r="AW8">
+      <c r="BB8">
         <v>0.2247177945007964</v>
       </c>
-      <c r="AX8">
-        <v>1</v>
-      </c>
-      <c r="AY8">
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
         <v>0.9970665380582127</v>
       </c>
-      <c r="AZ8">
+      <c r="BE8">
+        <v>0.9893650882073982</v>
+      </c>
+      <c r="BF8">
+        <v>0.9486243441001608</v>
+      </c>
+      <c r="BG8">
+        <v>0.8243238436373992</v>
+      </c>
+      <c r="BH8">
+        <v>0.3270162992341808</v>
+      </c>
+      <c r="BI8">
+        <v>0.02828860556054573</v>
+      </c>
+      <c r="BJ8">
         <v>0.9959926202419009</v>
       </c>
-      <c r="BA8">
+      <c r="BK8">
         <v>0.9770960449829786</v>
       </c>
-      <c r="BB8">
+      <c r="BL8">
         <v>0.9210501048553625</v>
       </c>
-      <c r="BC8">
+      <c r="BM8">
         <v>0.7118225609943566</v>
       </c>
-      <c r="BD8">
+      <c r="BN8">
         <v>0.09672990318361752</v>
       </c>
-      <c r="BE8">
+      <c r="BO8">
         <v>0.02680524950928695</v>
       </c>
-      <c r="BF8">
-        <v>1</v>
-      </c>
-      <c r="BG8">
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BR8">
+        <v>0.9979999505050756</v>
+      </c>
+      <c r="BS8">
+        <v>1</v>
+      </c>
+      <c r="BT8">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BH8">
+      <c r="BU8">
         <v>0.9836558825697428</v>
       </c>
-      <c r="BI8">
+      <c r="BV8">
         <v>0.9947732146684711</v>
       </c>
-      <c r="BJ8">
+      <c r="BW8">
         <v>0.99598266580908</v>
       </c>
-      <c r="BK8">
+      <c r="BX8">
         <v>0.9653112249206492</v>
       </c>
-      <c r="BL8">
+      <c r="BY8">
         <v>0.8945068258727146</v>
       </c>
-      <c r="BM8">
+      <c r="BZ8">
         <v>0.6383223698317224</v>
       </c>
-      <c r="BN8">
+      <c r="CA8">
         <v>0.07106611390483203</v>
       </c>
-      <c r="BO8">
+      <c r="CB8">
         <v>0.01874757386993528</v>
       </c>
-      <c r="BP8">
+      <c r="CC8">
         <v>0.958064930220446</v>
       </c>
-      <c r="BQ8">
+      <c r="CD8">
         <v>0.5298135121956674</v>
       </c>
+      <c r="CE8">
+        <v>1</v>
+      </c>
+      <c r="CF8">
+        <v>1</v>
+      </c>
+      <c r="CG8">
+        <v>1</v>
+      </c>
+      <c r="CH8">
+        <v>1</v>
+      </c>
+      <c r="CI8">
+        <v>0.9212797250397234</v>
+      </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:87">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>0.8830235822542317</v>
@@ -2387,156 +2873,210 @@
         <v>0.8592232130798095</v>
       </c>
       <c r="U9">
+        <v>0.758336068264895</v>
+      </c>
+      <c r="V9">
+        <v>0.4911859114148154</v>
+      </c>
+      <c r="W9">
+        <v>0.1320874110304112</v>
+      </c>
+      <c r="X9">
+        <v>0.04962894079672418</v>
+      </c>
+      <c r="Y9">
         <v>0.996007699462293</v>
       </c>
-      <c r="V9">
+      <c r="Z9">
         <v>0.8218049645762784</v>
       </c>
-      <c r="W9">
+      <c r="AA9">
         <v>0.4901301752865045</v>
       </c>
-      <c r="X9">
+      <c r="AB9">
         <v>0.2466316753505117</v>
       </c>
-      <c r="Y9">
+      <c r="AC9">
         <v>0.102741815682674</v>
       </c>
-      <c r="Z9">
+      <c r="AD9">
         <v>0.03422999007401442</v>
       </c>
-      <c r="AA9">
+      <c r="AE9">
         <v>0.8168133399535286</v>
       </c>
-      <c r="AB9">
+      <c r="AF9">
         <v>0.3306915527375975</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
         <v>0.08196796537496485</v>
       </c>
-      <c r="AD9">
+      <c r="AH9">
         <v>0.9979998040824324</v>
       </c>
-      <c r="AE9">
+      <c r="AI9">
         <v>0.8103067426668922</v>
       </c>
-      <c r="AF9">
+      <c r="AJ9">
         <v>0.4727049946950876</v>
       </c>
-      <c r="AG9">
+      <c r="AK9">
         <v>0.8664404667077679</v>
       </c>
-      <c r="AH9">
+      <c r="AL9">
         <v>0.6976107886046582</v>
       </c>
-      <c r="AI9">
+      <c r="AM9">
         <v>0.4829189809593491</v>
       </c>
-      <c r="AJ9">
+      <c r="AN9">
         <v>0.2672409156286652</v>
       </c>
-      <c r="AK9">
+      <c r="AO9">
+        <v>0.1802856067258176</v>
+      </c>
+      <c r="AP9">
         <v>0.07943335063084551</v>
       </c>
-      <c r="AL9">
+      <c r="AQ9">
         <v>0.03091404150277795</v>
       </c>
-      <c r="AM9">
+      <c r="AR9">
         <v>0.8757763386722155</v>
       </c>
-      <c r="AN9">
+      <c r="AS9">
         <v>0.4310284599007927</v>
       </c>
-      <c r="AO9">
+      <c r="AT9">
         <v>0.2070650656862443</v>
       </c>
-      <c r="AP9">
+      <c r="AU9">
         <v>0.6410667508511154</v>
       </c>
-      <c r="AQ9">
+      <c r="AV9">
         <v>0.46500458562366</v>
       </c>
-      <c r="AR9">
+      <c r="AW9">
         <v>0.3496534218786091</v>
       </c>
-      <c r="AS9">
+      <c r="AX9">
         <v>0.1858160247977066</v>
       </c>
-      <c r="AT9">
+      <c r="AY9">
         <v>0.06569445681217617</v>
       </c>
-      <c r="AU9">
+      <c r="AZ9">
         <v>0.03008917399102495</v>
       </c>
-      <c r="AV9">
+      <c r="BA9">
         <v>0.2828463365478582</v>
       </c>
-      <c r="AW9">
+      <c r="BB9">
         <v>0.1467598541569674</v>
       </c>
-      <c r="AX9">
+      <c r="BC9">
         <v>0.9997333216416557</v>
       </c>
-      <c r="AY9">
+      <c r="BD9">
         <v>0.9975998947749012</v>
       </c>
-      <c r="AZ9">
+      <c r="BE9">
+        <v>0.9742754469028806</v>
+      </c>
+      <c r="BF9">
+        <v>0.7423819846511157</v>
+      </c>
+      <c r="BG9">
+        <v>0.437870502956329</v>
+      </c>
+      <c r="BH9">
+        <v>0.1556737436035983</v>
+      </c>
+      <c r="BI9">
+        <v>0.02387889963206962</v>
+      </c>
+      <c r="BJ9">
         <v>0.9735894446555801</v>
       </c>
-      <c r="BA9">
+      <c r="BK9">
         <v>0.8655275101715642</v>
       </c>
-      <c r="BB9">
+      <c r="BL9">
         <v>0.6346615780936334</v>
       </c>
-      <c r="BC9">
+      <c r="BM9">
         <v>0.289412998527052</v>
       </c>
-      <c r="BD9">
+      <c r="BN9">
         <v>0.07305522459755492</v>
       </c>
-      <c r="BE9">
+      <c r="BO9">
         <v>0.02033208021436642</v>
       </c>
-      <c r="BF9">
-        <v>1</v>
-      </c>
-      <c r="BG9">
+      <c r="BP9">
+        <v>1</v>
+      </c>
+      <c r="BQ9">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BR9">
+        <v>0.9960079436090473</v>
+      </c>
+      <c r="BS9">
+        <v>1</v>
+      </c>
+      <c r="BT9">
         <v>0.8438370788670063</v>
       </c>
-      <c r="BH9">
+      <c r="BU9">
         <v>0.5166592260746014</v>
       </c>
-      <c r="BI9">
+      <c r="BV9">
         <v>0.5186884571188352</v>
       </c>
-      <c r="BJ9">
+      <c r="BW9">
         <v>0.9234016706646517</v>
       </c>
-      <c r="BK9">
+      <c r="BX9">
         <v>0.7463103743356317</v>
       </c>
-      <c r="BL9">
+      <c r="BY9">
         <v>0.4195094201676254</v>
       </c>
-      <c r="BM9">
+      <c r="BZ9">
         <v>0.1865276659785612</v>
       </c>
-      <c r="BN9">
+      <c r="CA9">
         <v>0.04842614711368523</v>
       </c>
-      <c r="BO9">
+      <c r="CB9">
         <v>0.01357219024108321</v>
       </c>
-      <c r="BP9">
+      <c r="CC9">
         <v>0.3079838478999686</v>
       </c>
-      <c r="BQ9">
+      <c r="CD9">
         <v>0.1263802266694816</v>
       </c>
+      <c r="CE9">
+        <v>1</v>
+      </c>
+      <c r="CF9">
+        <v>1</v>
+      </c>
+      <c r="CG9">
+        <v>1</v>
+      </c>
+      <c r="CH9">
+        <v>0.9866147790430457</v>
+      </c>
+      <c r="CI9">
+        <v>0.201495587748538</v>
+      </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:87">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B10">
         <v>0.9603409202900892</v>
@@ -2596,156 +3136,210 @@
         <v>0.9659165693632719</v>
       </c>
       <c r="U10">
+        <v>0.8890476174312734</v>
+      </c>
+      <c r="V10">
+        <v>0.6327061928128765</v>
+      </c>
+      <c r="W10">
+        <v>0.2230803995241151</v>
+      </c>
+      <c r="X10">
+        <v>0.09503747621809901</v>
+      </c>
+      <c r="Y10">
         <v>0.9980078824494594</v>
       </c>
-      <c r="V10">
+      <c r="Z10">
         <v>0.782517316870227</v>
       </c>
-      <c r="W10">
+      <c r="AA10">
         <v>0.3571176834106213</v>
       </c>
-      <c r="X10">
+      <c r="AB10">
         <v>0.2063095780821238</v>
       </c>
-      <c r="Y10">
+      <c r="AC10">
         <v>0.1774989528474857</v>
       </c>
-      <c r="Z10">
+      <c r="AD10">
         <v>0.05630935804682424</v>
       </c>
-      <c r="AA10">
+      <c r="AE10">
         <v>0.7146600944438635</v>
       </c>
-      <c r="AB10">
+      <c r="AF10">
         <v>0.2507719002527437</v>
       </c>
-      <c r="AC10">
+      <c r="AG10">
         <v>0.1196285872838787</v>
       </c>
-      <c r="AD10">
+      <c r="AH10">
         <v>0.9763152882281717</v>
       </c>
-      <c r="AE10">
+      <c r="AI10">
         <v>0.6138818751464339</v>
       </c>
-      <c r="AF10">
+      <c r="AJ10">
         <v>0.3602740517427805</v>
       </c>
-      <c r="AG10">
+      <c r="AK10">
         <v>0.9873890093037961</v>
       </c>
-      <c r="AH10">
+      <c r="AL10">
         <v>0.9059236340367611</v>
       </c>
-      <c r="AI10">
+      <c r="AM10">
         <v>0.6374360815539208</v>
       </c>
-      <c r="AJ10">
+      <c r="AN10">
         <v>0.2685501191268995</v>
       </c>
-      <c r="AK10">
+      <c r="AO10">
+        <v>0.1906876156297818</v>
+      </c>
+      <c r="AP10">
         <v>0.1133894601850492</v>
       </c>
-      <c r="AL10">
+      <c r="AQ10">
         <v>0.05968636890291742</v>
       </c>
-      <c r="AM10">
+      <c r="AR10">
         <v>0.5492765359934668</v>
       </c>
-      <c r="AN10">
+      <c r="AS10">
         <v>0.3200339835953821</v>
       </c>
-      <c r="AO10">
+      <c r="AT10">
         <v>0.1734434997203644</v>
       </c>
-      <c r="AP10">
+      <c r="AU10">
         <v>0.9555139369633864</v>
       </c>
-      <c r="AQ10">
+      <c r="AV10">
         <v>0.678986989081059</v>
       </c>
-      <c r="AR10">
+      <c r="AW10">
         <v>0.4106261633829008</v>
       </c>
-      <c r="AS10">
+      <c r="AX10">
         <v>0.1812394774440392</v>
       </c>
-      <c r="AT10">
+      <c r="AY10">
         <v>0.08345494851685789</v>
       </c>
-      <c r="AU10">
+      <c r="AZ10">
         <v>0.03786262878635845</v>
       </c>
-      <c r="AV10">
+      <c r="BA10">
         <v>0.2684855665779363</v>
       </c>
-      <c r="AW10">
+      <c r="BB10">
         <v>0.2219378368297626</v>
       </c>
-      <c r="AX10">
+      <c r="BC10">
         <v>0.9997333216416557</v>
       </c>
-      <c r="AY10">
+      <c r="BD10">
         <v>0.9986666082082785</v>
       </c>
-      <c r="AZ10">
+      <c r="BE10">
+        <v>0.9853792438090245</v>
+      </c>
+      <c r="BF10">
+        <v>0.7131426533749563</v>
+      </c>
+      <c r="BG10">
+        <v>0.3332233024289205</v>
+      </c>
+      <c r="BH10">
+        <v>0.1744368120268232</v>
+      </c>
+      <c r="BI10">
+        <v>0.06510986637920611</v>
+      </c>
+      <c r="BJ10">
         <v>0.9953926347291053</v>
       </c>
-      <c r="BA10">
+      <c r="BK10">
         <v>0.9678874132064453</v>
       </c>
-      <c r="BB10">
+      <c r="BL10">
         <v>0.8030637939369646</v>
       </c>
-      <c r="BC10">
+      <c r="BM10">
         <v>0.2703048208776692</v>
       </c>
-      <c r="BD10">
+      <c r="BN10">
         <v>0.1404477226817118</v>
       </c>
-      <c r="BE10">
+      <c r="BO10">
         <v>0.06245555812130524</v>
       </c>
-      <c r="BF10">
+      <c r="BP10">
+        <v>0.9997999950505075</v>
+      </c>
+      <c r="BQ10">
+        <v>0.9993999851515227</v>
+      </c>
+      <c r="BR10">
+        <v>0.9948119361221788</v>
+      </c>
+      <c r="BS10">
         <v>0.9691999114778638</v>
       </c>
-      <c r="BG10">
+      <c r="BT10">
         <v>0.6592302594979005</v>
       </c>
-      <c r="BH10">
+      <c r="BU10">
         <v>0.3591815411271408</v>
       </c>
-      <c r="BI10">
+      <c r="BV10">
         <v>0.3268349417803487</v>
       </c>
-      <c r="BJ10">
+      <c r="BW10">
         <v>0.995453296308074</v>
       </c>
-      <c r="BK10">
+      <c r="BX10">
         <v>0.930664046932816</v>
       </c>
-      <c r="BL10">
+      <c r="BY10">
         <v>0.5655554148906075</v>
       </c>
-      <c r="BM10">
+      <c r="BZ10">
         <v>0.1635960017673818</v>
       </c>
-      <c r="BN10">
+      <c r="CA10">
         <v>0.1142123123879254</v>
       </c>
-      <c r="BO10">
+      <c r="CB10">
         <v>0.0451716818290927</v>
       </c>
-      <c r="BP10">
+      <c r="CC10">
         <v>0.2160070388816388</v>
       </c>
-      <c r="BQ10">
+      <c r="CD10">
         <v>0.1964270695697202</v>
       </c>
+      <c r="CE10">
+        <v>1</v>
+      </c>
+      <c r="CF10">
+        <v>1</v>
+      </c>
+      <c r="CG10">
+        <v>0.9721614741561138</v>
+      </c>
+      <c r="CH10">
+        <v>0.741428125347102</v>
+      </c>
+      <c r="CI10">
+        <v>0.1397715214115289</v>
+      </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:87">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>0.9605218902920385</v>
@@ -2805,156 +3399,210 @@
         <v>0.9679660535623885</v>
       </c>
       <c r="U11">
+        <v>0.9099390306673137</v>
+      </c>
+      <c r="V11">
+        <v>0.7317440485532003</v>
+      </c>
+      <c r="W11">
+        <v>0.1820666085133856</v>
+      </c>
+      <c r="X11">
+        <v>0.04304035574989581</v>
+      </c>
+      <c r="Y11">
         <v>0.99680777782932</v>
       </c>
-      <c r="V11">
+      <c r="Z11">
         <v>0.9616247050674133</v>
       </c>
-      <c r="W11">
+      <c r="AA11">
         <v>0.8080531801036551</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
         <v>0.3989671630119226</v>
       </c>
-      <c r="Y11">
+      <c r="AC11">
         <v>0.1176862506669694</v>
       </c>
-      <c r="Z11">
+      <c r="AD11">
         <v>0.03187145314461456</v>
       </c>
-      <c r="AA11">
+      <c r="AE11">
         <v>0.9722236094329121</v>
       </c>
-      <c r="AB11">
+      <c r="AF11">
         <v>0.5550179737220288</v>
       </c>
-      <c r="AC11">
+      <c r="AG11">
         <v>0.09489219965705337</v>
       </c>
-      <c r="AD11">
+      <c r="AH11">
         <v>0.9983998432659459</v>
       </c>
-      <c r="AE11">
+      <c r="AI11">
         <v>0.9852793728035762</v>
       </c>
-      <c r="AF11">
+      <c r="AJ11">
         <v>0.8351839942642653</v>
       </c>
-      <c r="AG11">
+      <c r="AK11">
         <v>0.9870979244201484</v>
       </c>
-      <c r="AH11">
+      <c r="AL11">
         <v>0.9281895507245983</v>
       </c>
-      <c r="AI11">
+      <c r="AM11">
         <v>0.7766145181309625</v>
       </c>
-      <c r="AJ11">
+      <c r="AN11">
         <v>0.4559844354586692</v>
       </c>
-      <c r="AK11">
+      <c r="AO11">
+        <v>0.2505654701155979</v>
+      </c>
+      <c r="AP11">
         <v>0.09146275913774421</v>
       </c>
-      <c r="AL11">
+      <c r="AQ11">
         <v>0.02986582661016782</v>
       </c>
-      <c r="AM11">
+      <c r="AR11">
         <v>0.9926146476074352</v>
       </c>
-      <c r="AN11">
+      <c r="AS11">
         <v>0.886958814338609</v>
       </c>
-      <c r="AO11">
+      <c r="AT11">
         <v>0.3815107564436391</v>
       </c>
-      <c r="AP11">
+      <c r="AU11">
         <v>0.9569743245972436</v>
       </c>
-      <c r="AQ11">
+      <c r="AV11">
         <v>0.7598577807159708</v>
       </c>
-      <c r="AR11">
+      <c r="AW11">
         <v>0.5467226513415269</v>
       </c>
-      <c r="AS11">
+      <c r="AX11">
         <v>0.2729998392869518</v>
       </c>
-      <c r="AT11">
+      <c r="AY11">
         <v>0.07071717332148253</v>
       </c>
-      <c r="AU11">
+      <c r="AZ11">
         <v>0.02885856665127255</v>
       </c>
-      <c r="AV11">
+      <c r="BA11">
         <v>0.5949370918806073</v>
       </c>
-      <c r="AW11">
+      <c r="BB11">
         <v>0.1851455323801507</v>
       </c>
-      <c r="AX11">
-        <v>1</v>
-      </c>
-      <c r="AY11">
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
         <v>0.9967998596998683</v>
       </c>
-      <c r="AZ11">
+      <c r="BE11">
+        <v>0.9901579628591429</v>
+      </c>
+      <c r="BF11">
+        <v>0.9473339094817849</v>
+      </c>
+      <c r="BG11">
+        <v>0.8242609419357444</v>
+      </c>
+      <c r="BH11">
+        <v>0.3062501345831941</v>
+      </c>
+      <c r="BI11">
+        <v>0.02559963661444202</v>
+      </c>
+      <c r="BJ11">
         <v>0.9955933146819249</v>
       </c>
-      <c r="BA11">
+      <c r="BK11">
         <v>0.9767072036303028</v>
       </c>
-      <c r="BB11">
+      <c r="BL11">
         <v>0.9233022115158341</v>
       </c>
-      <c r="BC11">
+      <c r="BM11">
         <v>0.7136392851292399</v>
       </c>
-      <c r="BD11">
+      <c r="BN11">
         <v>0.08856481128261257</v>
       </c>
-      <c r="BE11">
+      <c r="BO11">
         <v>0.02031165098638557</v>
       </c>
-      <c r="BF11">
-        <v>1</v>
-      </c>
-      <c r="BG11">
+      <c r="BP11">
+        <v>1</v>
+      </c>
+      <c r="BQ11">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BH11">
+      <c r="BR11">
+        <v>0.9981999554545681</v>
+      </c>
+      <c r="BS11">
+        <v>1</v>
+      </c>
+      <c r="BT11">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BU11">
         <v>0.980093987766531</v>
       </c>
-      <c r="BI11">
+      <c r="BV11">
         <v>0.9943208013142053</v>
       </c>
-      <c r="BJ11">
+      <c r="BW11">
         <v>0.9959826470295405</v>
       </c>
-      <c r="BK11">
+      <c r="BX11">
         <v>0.9655502890729598</v>
       </c>
-      <c r="BL11">
+      <c r="BY11">
         <v>0.8938965923276447</v>
       </c>
-      <c r="BM11">
+      <c r="BZ11">
         <v>0.6188263894715703</v>
       </c>
-      <c r="BN11">
+      <c r="CA11">
         <v>0.06025379217139843</v>
       </c>
-      <c r="BO11">
+      <c r="CB11">
         <v>0.0150646994717561</v>
       </c>
-      <c r="BP11">
+      <c r="CC11">
         <v>0.9543232134600107</v>
       </c>
-      <c r="BQ11">
+      <c r="CD11">
         <v>0.2605061086291137</v>
       </c>
+      <c r="CE11">
+        <v>1</v>
+      </c>
+      <c r="CF11">
+        <v>1</v>
+      </c>
+      <c r="CG11">
+        <v>1</v>
+      </c>
+      <c r="CH11">
+        <v>1</v>
+      </c>
+      <c r="CI11">
+        <v>0.9165435204802388</v>
+      </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:87">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B12">
         <v>0.9683610781712814</v>
@@ -3014,156 +3662,210 @@
         <v>0.9425087080121425</v>
       </c>
       <c r="U12">
+        <v>0.7197764318737592</v>
+      </c>
+      <c r="V12">
+        <v>0.3442520980228496</v>
+      </c>
+      <c r="W12">
+        <v>0.1279321925866695</v>
+      </c>
+      <c r="X12">
+        <v>0.0520244907800459</v>
+      </c>
+      <c r="Y12">
         <v>0.9971997257154053</v>
       </c>
-      <c r="V12">
+      <c r="Z12">
         <v>0.8995578776637444</v>
       </c>
-      <c r="W12">
+      <c r="AA12">
         <v>0.5430681115000918</v>
       </c>
-      <c r="X12">
+      <c r="AB12">
         <v>0.2557047879943216</v>
       </c>
-      <c r="Y12">
+      <c r="AC12">
         <v>0.1011858882863604</v>
       </c>
-      <c r="Z12">
+      <c r="AD12">
         <v>0.03246196172813138</v>
       </c>
-      <c r="AA12">
+      <c r="AE12">
         <v>0.8754644386921353</v>
       </c>
-      <c r="AB12">
+      <c r="AF12">
         <v>0.3332051005737185</v>
       </c>
-      <c r="AC12">
+      <c r="AG12">
         <v>0.08847038260613782</v>
       </c>
-      <c r="AD12">
+      <c r="AH12">
         <v>0.9987998824494594</v>
       </c>
-      <c r="AE12">
+      <c r="AI12">
         <v>0.8409546814918258</v>
       </c>
-      <c r="AF12">
+      <c r="AJ12">
         <v>0.4734111757886236</v>
       </c>
-      <c r="AG12">
+      <c r="AK12">
         <v>0.988557662713997</v>
       </c>
-      <c r="AH12">
+      <c r="AL12">
         <v>0.9238571648396635</v>
       </c>
-      <c r="AI12">
+      <c r="AM12">
         <v>0.7240618180951625</v>
       </c>
-      <c r="AJ12">
+      <c r="AN12">
         <v>0.3365240458168746</v>
       </c>
-      <c r="AK12">
+      <c r="AO12">
+        <v>0.194123488297009</v>
+      </c>
+      <c r="AP12">
         <v>0.08901873809303862</v>
       </c>
-      <c r="AL12">
+      <c r="AQ12">
         <v>0.03216157590066888</v>
       </c>
-      <c r="AM12">
+      <c r="AR12">
         <v>0.9423859050866777</v>
       </c>
-      <c r="AN12">
+      <c r="AS12">
         <v>0.46720122277168</v>
       </c>
-      <c r="AO12">
+      <c r="AT12">
         <v>0.2164753217701061</v>
       </c>
-      <c r="AP12">
+      <c r="AU12">
         <v>0.9608505160892225</v>
       </c>
-      <c r="AQ12">
+      <c r="AV12">
         <v>0.7320213952103779</v>
       </c>
-      <c r="AR12">
+      <c r="AW12">
         <v>0.4884742788140775</v>
       </c>
-      <c r="AS12">
+      <c r="AX12">
         <v>0.2246439858549399</v>
       </c>
-      <c r="AT12">
+      <c r="AY12">
         <v>0.06832530835290174</v>
       </c>
-      <c r="AU12">
+      <c r="AZ12">
         <v>0.03200281250418341</v>
       </c>
-      <c r="AV12">
+      <c r="BA12">
         <v>0.2913037367172717</v>
       </c>
-      <c r="AW12">
+      <c r="BB12">
         <v>0.1410017233066609</v>
       </c>
-      <c r="AX12">
-        <v>1</v>
-      </c>
-      <c r="AY12">
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
         <v>0.9981332514915898</v>
       </c>
-      <c r="AZ12">
+      <c r="BE12">
+        <v>0.9901436451943927</v>
+      </c>
+      <c r="BF12">
+        <v>0.8533503998208528</v>
+      </c>
+      <c r="BG12">
+        <v>0.5353808153251077</v>
+      </c>
+      <c r="BH12">
+        <v>0.1677776672955332</v>
+      </c>
+      <c r="BI12">
+        <v>0.02556051136826351</v>
+      </c>
+      <c r="BJ12">
         <v>0.9967932575768645</v>
       </c>
-      <c r="BA12">
+      <c r="BK12">
         <v>0.9762918381704441</v>
       </c>
-      <c r="BB12">
+      <c r="BL12">
         <v>0.883554552655455</v>
       </c>
-      <c r="BC12">
+      <c r="BM12">
         <v>0.3849971910867198</v>
       </c>
-      <c r="BD12">
+      <c r="BN12">
         <v>0.0744411263474265</v>
       </c>
-      <c r="BE12">
+      <c r="BO12">
         <v>0.02429722986148657</v>
       </c>
-      <c r="BF12">
-        <v>1</v>
-      </c>
-      <c r="BG12">
+      <c r="BP12">
+        <v>1</v>
+      </c>
+      <c r="BQ12">
+        <v>0.9993999851515227</v>
+      </c>
+      <c r="BR12">
+        <v>0.9983999604040605</v>
+      </c>
+      <c r="BS12">
+        <v>1</v>
+      </c>
+      <c r="BT12">
         <v>0.8655552227661317</v>
       </c>
-      <c r="BH12">
+      <c r="BU12">
         <v>0.5363356921264437</v>
       </c>
-      <c r="BI12">
+      <c r="BV12">
         <v>0.5739264246635893</v>
       </c>
-      <c r="BJ12">
+      <c r="BW12">
         <v>0.9958594791021533</v>
       </c>
-      <c r="BK12">
+      <c r="BX12">
         <v>0.9574916720813305</v>
       </c>
-      <c r="BL12">
+      <c r="BY12">
         <v>0.7165841909956773</v>
       </c>
-      <c r="BM12">
+      <c r="BZ12">
         <v>0.2379056042389926</v>
       </c>
-      <c r="BN12">
+      <c r="CA12">
         <v>0.05239781044722126</v>
       </c>
-      <c r="BO12">
+      <c r="CB12">
         <v>0.01937221272534833</v>
       </c>
-      <c r="BP12">
+      <c r="CC12">
         <v>0.3384527085574912</v>
       </c>
-      <c r="BQ12">
+      <c r="CD12">
         <v>0.1319519076333838</v>
       </c>
+      <c r="CE12">
+        <v>1</v>
+      </c>
+      <c r="CF12">
+        <v>1</v>
+      </c>
+      <c r="CG12">
+        <v>1</v>
+      </c>
+      <c r="CH12">
+        <v>0.9976009523918858</v>
+      </c>
+      <c r="CI12">
+        <v>0.2402979263712972</v>
+      </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:87">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B13">
         <v>0.949216825037713</v>
@@ -3223,156 +3925,210 @@
         <v>0.95968902866092</v>
       </c>
       <c r="U13">
+        <v>0.8492112080502646</v>
+      </c>
+      <c r="V13">
+        <v>0.4228268036095735</v>
+      </c>
+      <c r="W13">
+        <v>0.107917812328031</v>
+      </c>
+      <c r="X13">
+        <v>0.03058087027670243</v>
+      </c>
+      <c r="Y13">
         <v>0.9944075297978376</v>
       </c>
-      <c r="V13">
+      <c r="Z13">
         <v>0.9565131442051986</v>
       </c>
-      <c r="W13">
+      <c r="AA13">
         <v>0.8297212321835881</v>
       </c>
-      <c r="X13">
+      <c r="AB13">
         <v>0.464603714973337</v>
       </c>
-      <c r="Y13">
+      <c r="AC13">
         <v>0.1373570710876565</v>
       </c>
-      <c r="Z13">
+      <c r="AD13">
         <v>0.03417236289451003</v>
       </c>
-      <c r="AA13">
+      <c r="AE13">
         <v>0.9679282938991952</v>
       </c>
-      <c r="AB13">
+      <c r="AF13">
         <v>0.6255186805319983</v>
       </c>
-      <c r="AC13">
+      <c r="AG13">
         <v>0.1166360411983244</v>
       </c>
-      <c r="AD13">
+      <c r="AH13">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AE13">
+      <c r="AI13">
         <v>0.9836630398080008</v>
       </c>
-      <c r="AF13">
+      <c r="AJ13">
         <v>0.8820514402897776</v>
       </c>
-      <c r="AG13">
+      <c r="AK13">
         <v>0.9848246503597999</v>
       </c>
-      <c r="AH13">
+      <c r="AL13">
         <v>0.9184101392986231</v>
       </c>
-      <c r="AI13">
+      <c r="AM13">
         <v>0.7980770351608755</v>
       </c>
-      <c r="AJ13">
+      <c r="AN13">
         <v>0.5126478365539752</v>
       </c>
-      <c r="AK13">
+      <c r="AO13">
+        <v>0.2961757318887591</v>
+      </c>
+      <c r="AP13">
         <v>0.1152245421445323</v>
       </c>
-      <c r="AL13">
+      <c r="AQ13">
         <v>0.03403757814553683</v>
       </c>
-      <c r="AM13">
+      <c r="AR13">
         <v>0.9911366397183197</v>
       </c>
-      <c r="AN13">
+      <c r="AS13">
         <v>0.9228085738938462</v>
       </c>
-      <c r="AO13">
+      <c r="AT13">
         <v>0.5035059915407994</v>
       </c>
-      <c r="AP13">
+      <c r="AU13">
         <v>0.9552061153657659</v>
       </c>
-      <c r="AQ13">
+      <c r="AV13">
         <v>0.7865854577339113</v>
       </c>
-      <c r="AR13">
+      <c r="AW13">
         <v>0.6047853043630395</v>
       </c>
-      <c r="AS13">
+      <c r="AX13">
         <v>0.3142067452466051</v>
       </c>
-      <c r="AT13">
+      <c r="AY13">
         <v>0.08069058300260279</v>
       </c>
-      <c r="AU13">
+      <c r="AZ13">
         <v>0.0345848807116737</v>
       </c>
-      <c r="AV13">
+      <c r="BA13">
         <v>0.6553535442531182</v>
       </c>
-      <c r="AW13">
+      <c r="BB13">
         <v>0.245062345566344</v>
       </c>
-      <c r="AX13">
+      <c r="BC13">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY13">
+      <c r="BD13">
         <v>0.9962665029831796</v>
       </c>
-      <c r="AZ13">
+      <c r="BE13">
+        <v>0.9861649485436261</v>
+      </c>
+      <c r="BF13">
+        <v>0.9433838027901439</v>
+      </c>
+      <c r="BG13">
+        <v>0.8401965129891518</v>
+      </c>
+      <c r="BH13">
+        <v>0.3731934691853618</v>
+      </c>
+      <c r="BI13">
+        <v>0.02628277252812068</v>
+      </c>
+      <c r="BJ13">
         <v>0.9951858468526599</v>
       </c>
-      <c r="BA13">
+      <c r="BK13">
         <v>0.9715410807631999</v>
       </c>
-      <c r="BB13">
+      <c r="BL13">
         <v>0.9210607815611134</v>
       </c>
-      <c r="BC13">
+      <c r="BM13">
         <v>0.7494455617048975</v>
       </c>
-      <c r="BD13">
+      <c r="BN13">
         <v>0.1300840172051062</v>
       </c>
-      <c r="BE13">
+      <c r="BO13">
         <v>0.02282372110935071</v>
       </c>
-      <c r="BF13">
-        <v>1</v>
-      </c>
-      <c r="BG13">
+      <c r="BP13">
+        <v>1</v>
+      </c>
+      <c r="BQ13">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BR13">
+        <v>0.9973999356565983</v>
+      </c>
+      <c r="BS13">
+        <v>1</v>
+      </c>
+      <c r="BT13">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BH13">
+      <c r="BU13">
         <v>0.9822638881100805</v>
       </c>
-      <c r="BI13">
+      <c r="BV13">
         <v>0.9938743807647148</v>
       </c>
-      <c r="BJ13">
+      <c r="BW13">
         <v>0.9955846552207513</v>
       </c>
-      <c r="BK13">
+      <c r="BX13">
         <v>0.9606392134056354</v>
       </c>
-      <c r="BL13">
+      <c r="BY13">
         <v>0.9034927436479241</v>
       </c>
-      <c r="BM13">
+      <c r="BZ13">
         <v>0.6902401240804785</v>
       </c>
-      <c r="BN13">
+      <c r="CA13">
         <v>0.08683588040474816</v>
       </c>
-      <c r="BO13">
+      <c r="CB13">
         <v>0.01760479673076406</v>
       </c>
-      <c r="BP13">
+      <c r="CC13">
         <v>0.979107867009006</v>
       </c>
-      <c r="BQ13">
+      <c r="CD13">
         <v>0.5383034325082374</v>
       </c>
+      <c r="CE13">
+        <v>1</v>
+      </c>
+      <c r="CF13">
+        <v>1</v>
+      </c>
+      <c r="CG13">
+        <v>1</v>
+      </c>
+      <c r="CH13">
+        <v>1</v>
+      </c>
+      <c r="CI13">
+        <v>0.9404490021224753</v>
+      </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:87">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B14">
         <v>0.9428565882580945</v>
@@ -3432,156 +4188,210 @@
         <v>0.9672133456380488</v>
       </c>
       <c r="U14">
+        <v>0.9189736750948809</v>
+      </c>
+      <c r="V14">
+        <v>0.7149372530810288</v>
+      </c>
+      <c r="W14">
+        <v>0.1419162863267519</v>
+      </c>
+      <c r="X14">
+        <v>0.05090295134067015</v>
+      </c>
+      <c r="Y14">
         <v>0.991623412247297</v>
       </c>
-      <c r="V14">
+      <c r="Z14">
         <v>0.9472681282546275</v>
       </c>
-      <c r="W14">
+      <c r="AA14">
         <v>0.8062508718999277</v>
       </c>
-      <c r="X14">
+      <c r="AB14">
         <v>0.5004898815724799</v>
       </c>
-      <c r="Y14">
+      <c r="AC14">
         <v>0.248937398374161</v>
       </c>
-      <c r="Z14">
+      <c r="AD14">
         <v>0.07852725811730504</v>
       </c>
-      <c r="AA14">
+      <c r="AE14">
         <v>0.957769846547577</v>
       </c>
-      <c r="AB14">
+      <c r="AF14">
         <v>0.614449104266326</v>
       </c>
-      <c r="AC14">
+      <c r="AG14">
         <v>0.188138085090646</v>
       </c>
-      <c r="AD14">
+      <c r="AH14">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AE14">
+      <c r="AI14">
         <v>0.9812870721337661</v>
       </c>
-      <c r="AF14">
+      <c r="AJ14">
         <v>0.8530013851932791</v>
       </c>
-      <c r="AG14">
+      <c r="AK14">
         <v>0.9833383214088197</v>
       </c>
-      <c r="AH14">
+      <c r="AL14">
         <v>0.9133053985650059</v>
       </c>
-      <c r="AI14">
+      <c r="AM14">
         <v>0.7917815835877633</v>
       </c>
-      <c r="AJ14">
+      <c r="AN14">
         <v>0.5161452127753102</v>
       </c>
-      <c r="AK14">
+      <c r="AO14">
+        <v>0.3054697937800857</v>
+      </c>
+      <c r="AP14">
         <v>0.1557196875082903</v>
       </c>
-      <c r="AL14">
+      <c r="AQ14">
         <v>0.05660982515021043</v>
       </c>
-      <c r="AM14">
+      <c r="AR14">
         <v>0.98966862186517</v>
       </c>
-      <c r="AN14">
+      <c r="AS14">
         <v>0.9029665348564919</v>
       </c>
-      <c r="AO14">
+      <c r="AT14">
         <v>0.5360256833914026</v>
       </c>
-      <c r="AP14">
+      <c r="AU14">
         <v>0.9503584980891689</v>
       </c>
-      <c r="AQ14">
+      <c r="AV14">
         <v>0.7748172169820349</v>
       </c>
-      <c r="AR14">
+      <c r="AW14">
         <v>0.6044696635015393</v>
       </c>
-      <c r="AS14">
+      <c r="AX14">
         <v>0.3134641250393447</v>
       </c>
-      <c r="AT14">
+      <c r="AY14">
         <v>0.09470397313171049</v>
       </c>
-      <c r="AU14">
+      <c r="AZ14">
         <v>0.05308125949462758</v>
       </c>
-      <c r="AV14">
+      <c r="BA14">
         <v>0.6956515605238687</v>
       </c>
-      <c r="AW14">
+      <c r="BB14">
         <v>0.3121176245762534</v>
       </c>
-      <c r="AX14">
+      <c r="BC14">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY14">
+      <c r="BD14">
         <v>0.9954664679081467</v>
       </c>
-      <c r="AZ14">
+      <c r="BE14">
+        <v>0.9824529296148442</v>
+      </c>
+      <c r="BF14">
+        <v>0.9358936447580277</v>
+      </c>
+      <c r="BG14">
+        <v>0.8293994123508674</v>
+      </c>
+      <c r="BH14">
+        <v>0.3750329891575189</v>
+      </c>
+      <c r="BI14">
+        <v>0.05055206680329312</v>
+      </c>
+      <c r="BJ14">
         <v>0.9951878179543077</v>
       </c>
-      <c r="BA14">
+      <c r="BK14">
         <v>0.9703309684130511</v>
       </c>
-      <c r="BB14">
+      <c r="BL14">
         <v>0.9179478690958754</v>
       </c>
-      <c r="BC14">
+      <c r="BM14">
         <v>0.7420216772335751</v>
       </c>
-      <c r="BD14">
+      <c r="BN14">
         <v>0.1475778592963888</v>
       </c>
-      <c r="BE14">
+      <c r="BO14">
         <v>0.03839463599178881</v>
       </c>
-      <c r="BF14">
-        <v>1</v>
-      </c>
-      <c r="BG14">
+      <c r="BP14">
+        <v>1</v>
+      </c>
+      <c r="BQ14">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BH14">
+      <c r="BR14">
+        <v>0.9970039455555831</v>
+      </c>
+      <c r="BS14">
+        <v>1</v>
+      </c>
+      <c r="BT14">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BU14">
         <v>0.9797040303288704</v>
       </c>
-      <c r="BI14">
+      <c r="BV14">
         <v>0.9923915466222113</v>
       </c>
-      <c r="BJ14">
+      <c r="BW14">
         <v>0.995452088795534</v>
       </c>
-      <c r="BK14">
+      <c r="BX14">
         <v>0.9612352058413096</v>
       </c>
-      <c r="BL14">
+      <c r="BY14">
         <v>0.8985169263372967</v>
       </c>
-      <c r="BM14">
+      <c r="BZ14">
         <v>0.6856817286886158</v>
       </c>
-      <c r="BN14">
+      <c r="CA14">
         <v>0.119020324869413</v>
       </c>
-      <c r="BO14">
+      <c r="CB14">
         <v>0.03731895820239367</v>
       </c>
-      <c r="BP14">
+      <c r="CC14">
         <v>0.9643834371125928</v>
       </c>
-      <c r="BQ14">
+      <c r="CD14">
         <v>0.6359514739353305</v>
       </c>
+      <c r="CE14">
+        <v>1</v>
+      </c>
+      <c r="CF14">
+        <v>1</v>
+      </c>
+      <c r="CG14">
+        <v>1</v>
+      </c>
+      <c r="CH14">
+        <v>0.9999199996812851</v>
+      </c>
+      <c r="CI14">
+        <v>0.9292720546733481</v>
+      </c>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:87">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B15">
         <v>0.9436404747291145</v>
@@ -3641,156 +4451,210 @@
         <v>0.9737664866567454</v>
       </c>
       <c r="U15">
+        <v>0.9312603787543479</v>
+      </c>
+      <c r="V15">
+        <v>0.7222007655325815</v>
+      </c>
+      <c r="W15">
+        <v>0.1838480761120667</v>
+      </c>
+      <c r="X15">
+        <v>0.07658509923027727</v>
+      </c>
+      <c r="Y15">
         <v>0.9952076081648645</v>
       </c>
-      <c r="V15">
+      <c r="Z15">
         <v>0.9699043843436879</v>
       </c>
-      <c r="W15">
+      <c r="AA15">
         <v>0.8269628446421282</v>
       </c>
-      <c r="X15">
+      <c r="AB15">
         <v>0.5133838822154931</v>
       </c>
-      <c r="Y15">
+      <c r="AC15">
         <v>0.2842892166473633</v>
       </c>
-      <c r="Z15">
+      <c r="AD15">
         <v>0.07610194803883701</v>
       </c>
-      <c r="AA15">
+      <c r="AE15">
         <v>0.9805193908859234</v>
       </c>
-      <c r="AB15">
+      <c r="AF15">
         <v>0.6144201159064291</v>
       </c>
-      <c r="AC15">
+      <c r="AG15">
         <v>0.1777656363891538</v>
       </c>
-      <c r="AD15">
+      <c r="AH15">
         <v>0.9987998824494594</v>
       </c>
-      <c r="AE15">
+      <c r="AI15">
         <v>0.9876311084771083</v>
       </c>
-      <c r="AF15">
+      <c r="AJ15">
         <v>0.8749122796310411</v>
       </c>
-      <c r="AG15">
+      <c r="AK15">
         <v>0.984502946447809</v>
       </c>
-      <c r="AH15">
+      <c r="AL15">
         <v>0.9298712819707684</v>
       </c>
-      <c r="AI15">
+      <c r="AM15">
         <v>0.8118259135125068</v>
       </c>
-      <c r="AJ15">
+      <c r="AN15">
         <v>0.5098961377094471</v>
       </c>
-      <c r="AK15">
+      <c r="AO15">
+        <v>0.2962441620827963</v>
+      </c>
+      <c r="AP15">
         <v>0.1468755529239172</v>
       </c>
-      <c r="AL15">
+      <c r="AQ15">
         <v>0.0578485472519573</v>
       </c>
-      <c r="AM15">
+      <c r="AR15">
         <v>0.9949705432844815</v>
       </c>
-      <c r="AN15">
+      <c r="AS15">
         <v>0.9168177159107738</v>
       </c>
-      <c r="AO15">
+      <c r="AT15">
         <v>0.5010513126675249</v>
       </c>
-      <c r="AP15">
+      <c r="AU15">
         <v>0.9519194826959508</v>
       </c>
-      <c r="AQ15">
+      <c r="AV15">
         <v>0.7838767722585516</v>
       </c>
-      <c r="AR15">
+      <c r="AW15">
         <v>0.6084686957144185</v>
       </c>
-      <c r="AS15">
+      <c r="AX15">
         <v>0.3091805378857532</v>
       </c>
-      <c r="AT15">
+      <c r="AY15">
         <v>0.0996780004684323</v>
       </c>
-      <c r="AU15">
+      <c r="AZ15">
         <v>0.05577847992191502</v>
       </c>
-      <c r="AV15">
+      <c r="BA15">
         <v>0.6754365016713758</v>
       </c>
-      <c r="AW15">
+      <c r="BB15">
         <v>0.2773174905766692</v>
       </c>
-      <c r="AX15">
+      <c r="BC15">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY15">
+      <c r="BD15">
         <v>0.9962700819220904</v>
       </c>
-      <c r="AZ15">
+      <c r="BE15">
+        <v>0.9901579577682097</v>
+      </c>
+      <c r="BF15">
+        <v>0.955908746428502</v>
+      </c>
+      <c r="BG15">
+        <v>0.8464542503232932</v>
+      </c>
+      <c r="BH15">
+        <v>0.359059232789101</v>
+      </c>
+      <c r="BI15">
+        <v>0.0578453499286048</v>
+      </c>
+      <c r="BJ15">
         <v>0.9953926347291053</v>
       </c>
-      <c r="BA15">
+      <c r="BK15">
         <v>0.9786752560890684</v>
       </c>
-      <c r="BB15">
+      <c r="BL15">
         <v>0.9349985179829418</v>
       </c>
-      <c r="BC15">
+      <c r="BM15">
         <v>0.7487171578975156</v>
       </c>
-      <c r="BD15">
+      <c r="BN15">
         <v>0.1472880956119361</v>
       </c>
-      <c r="BE15">
+      <c r="BO15">
         <v>0.03858522841043706</v>
       </c>
-      <c r="BF15">
-        <v>1</v>
-      </c>
-      <c r="BG15">
+      <c r="BP15">
+        <v>1</v>
+      </c>
+      <c r="BQ15">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BR15">
+        <v>0.9977999455555832</v>
+      </c>
+      <c r="BS15">
+        <v>1</v>
+      </c>
+      <c r="BT15">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BH15">
+      <c r="BU15">
         <v>0.9862358477100936</v>
       </c>
-      <c r="BI15">
+      <c r="BV15">
         <v>0.9952175619894361</v>
       </c>
-      <c r="BJ15">
+      <c r="BW15">
         <v>0.9959880791077411</v>
       </c>
-      <c r="BK15">
+      <c r="BX15">
         <v>0.9685238385463478</v>
       </c>
-      <c r="BL15">
+      <c r="BY15">
         <v>0.9072535032001448</v>
       </c>
-      <c r="BM15">
+      <c r="BZ15">
         <v>0.6803528086047463</v>
       </c>
-      <c r="BN15">
+      <c r="CA15">
         <v>0.1105864339642547</v>
       </c>
-      <c r="BO15">
+      <c r="CB15">
         <v>0.03572801447038757</v>
       </c>
-      <c r="BP15">
+      <c r="CC15">
         <v>0.9738311238799138</v>
       </c>
-      <c r="BQ15">
+      <c r="CD15">
         <v>0.590839628977808</v>
       </c>
+      <c r="CE15">
+        <v>1</v>
+      </c>
+      <c r="CF15">
+        <v>1</v>
+      </c>
+      <c r="CG15">
+        <v>1</v>
+      </c>
+      <c r="CH15">
+        <v>1</v>
+      </c>
+      <c r="CI15">
+        <v>0.9415597081889157</v>
+      </c>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:87">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B16">
         <v>0.9441052994701791</v>
@@ -3850,156 +4714,210 @@
         <v>0.9523150472130193</v>
       </c>
       <c r="U16">
+        <v>0.9013579322203299</v>
+      </c>
+      <c r="V16">
+        <v>0.5595249619764073</v>
+      </c>
+      <c r="W16">
+        <v>0.130538019374995</v>
+      </c>
+      <c r="X16">
+        <v>0.03928482377884589</v>
+      </c>
+      <c r="Y16">
         <v>0.9952076081648645</v>
       </c>
-      <c r="V16">
+      <c r="Z16">
         <v>0.9640736011552229</v>
       </c>
-      <c r="W16">
+      <c r="AA16">
         <v>0.8230896266359206</v>
       </c>
-      <c r="X16">
+      <c r="AB16">
         <v>0.4511525745173433</v>
       </c>
-      <c r="Y16">
+      <c r="AC16">
         <v>0.141875929438077</v>
       </c>
-      <c r="Z16">
+      <c r="AD16">
         <v>0.03460158274128112</v>
       </c>
-      <c r="AA16">
+      <c r="AE16">
         <v>0.9753754240012428</v>
       </c>
-      <c r="AB16">
+      <c r="AF16">
         <v>0.5534550200330202</v>
       </c>
-      <c r="AC16">
+      <c r="AG16">
         <v>0.1088322056136998</v>
       </c>
-      <c r="AD16">
+      <c r="AH16">
         <v>0.9979998040824323</v>
       </c>
-      <c r="AE16">
+      <c r="AI16">
         <v>0.9880230854564774</v>
       </c>
-      <c r="AF16">
+      <c r="AJ16">
         <v>0.8327980206932942</v>
       </c>
-      <c r="AG16">
+      <c r="AK16">
         <v>0.98187831611784</v>
       </c>
-      <c r="AH16">
+      <c r="AL16">
         <v>0.9264693580506583</v>
       </c>
-      <c r="AI16">
+      <c r="AM16">
         <v>0.7989221980542938</v>
       </c>
-      <c r="AJ16">
+      <c r="AN16">
         <v>0.4952012579979519</v>
       </c>
-      <c r="AK16">
+      <c r="AO16">
+        <v>0.2882158503883268</v>
+      </c>
+      <c r="AP16">
         <v>0.1152907982946884</v>
       </c>
-      <c r="AL16">
+      <c r="AQ16">
         <v>0.03353932873220489</v>
       </c>
-      <c r="AM16">
+      <c r="AR16">
         <v>0.9934970403770564</v>
       </c>
-      <c r="AN16">
+      <c r="AS16">
         <v>0.8502504637064601</v>
       </c>
-      <c r="AO16">
+      <c r="AT16">
         <v>0.3486570509009749</v>
       </c>
-      <c r="AP16">
+      <c r="AU16">
         <v>0.9453021637359119</v>
       </c>
-      <c r="AQ16">
+      <c r="AV16">
         <v>0.7881536448129566</v>
       </c>
-      <c r="AR16">
+      <c r="AW16">
         <v>0.6011495196060137</v>
       </c>
-      <c r="AS16">
+      <c r="AX16">
         <v>0.3021691070129588</v>
       </c>
-      <c r="AT16">
+      <c r="AY16">
         <v>0.08210875916669384</v>
       </c>
-      <c r="AU16">
+      <c r="AZ16">
         <v>0.03287023571724526</v>
       </c>
-      <c r="AV16">
+      <c r="BA16">
         <v>0.4583215235516176</v>
       </c>
-      <c r="AW16">
+      <c r="BB16">
         <v>0.1840801299322515</v>
       </c>
-      <c r="AX16">
+      <c r="BC16">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY16">
+      <c r="BD16">
         <v>0.9962665029831796</v>
       </c>
-      <c r="AZ16">
+      <c r="BE16">
+        <v>0.9890876660322815</v>
+      </c>
+      <c r="BF16">
+        <v>0.9507219587894462</v>
+      </c>
+      <c r="BG16">
+        <v>0.8396078923411278</v>
+      </c>
+      <c r="BH16">
+        <v>0.3529681555205779</v>
+      </c>
+      <c r="BI16">
+        <v>0.02846783135939711</v>
+      </c>
+      <c r="BJ16">
         <v>0.9943852095176965</v>
       </c>
-      <c r="BA16">
+      <c r="BK16">
         <v>0.9766970784070343</v>
       </c>
-      <c r="BB16">
+      <c r="BL16">
         <v>0.9289399411668394</v>
       </c>
-      <c r="BC16">
+      <c r="BM16">
         <v>0.7265787100339577</v>
       </c>
-      <c r="BD16">
+      <c r="BN16">
         <v>0.1149587032024183</v>
       </c>
-      <c r="BE16">
+      <c r="BO16">
         <v>0.02531831708879961</v>
       </c>
-      <c r="BF16">
-        <v>1</v>
-      </c>
-      <c r="BG16">
+      <c r="BP16">
+        <v>1</v>
+      </c>
+      <c r="BQ16">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BH16">
+      <c r="BR16">
+        <v>0.9979999505050756</v>
+      </c>
+      <c r="BS16">
+        <v>1</v>
+      </c>
+      <c r="BT16">
+        <v>0.9993999851515227</v>
+      </c>
+      <c r="BU16">
         <v>0.9840518756615299</v>
       </c>
-      <c r="BI16">
+      <c r="BV16">
         <v>0.9944717264911884</v>
       </c>
-      <c r="BJ16">
+      <c r="BW16">
         <v>0.9950569671055998</v>
       </c>
-      <c r="BK16">
+      <c r="BX16">
         <v>0.9657608771023063</v>
       </c>
-      <c r="BL16">
+      <c r="BY16">
         <v>0.8971301958407158</v>
       </c>
-      <c r="BM16">
+      <c r="BZ16">
         <v>0.6440467949846129</v>
       </c>
-      <c r="BN16">
+      <c r="CA16">
         <v>0.07923464908684433</v>
       </c>
-      <c r="BO16">
+      <c r="CB16">
         <v>0.01812368752076735</v>
       </c>
-      <c r="BP16">
+      <c r="CC16">
         <v>0.9710753948935753</v>
       </c>
-      <c r="BQ16">
+      <c r="CD16">
         <v>0.3461382065212954</v>
       </c>
+      <c r="CE16">
+        <v>1</v>
+      </c>
+      <c r="CF16">
+        <v>1</v>
+      </c>
+      <c r="CG16">
+        <v>1</v>
+      </c>
+      <c r="CH16">
+        <v>0.9999199996812851</v>
+      </c>
+      <c r="CI16">
+        <v>0.9172070826636172</v>
+      </c>
     </row>
-    <row r="17" spans="1:69">
+    <row r="17" spans="1:87">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <v>0.9441778646617313</v>
@@ -4059,156 +4977,210 @@
         <v>0.9605766386345863</v>
       </c>
       <c r="U17">
+        <v>0.8930431782136986</v>
+      </c>
+      <c r="V17">
+        <v>0.4605589055552091</v>
+      </c>
+      <c r="W17">
+        <v>0.1027492885482548</v>
+      </c>
+      <c r="X17">
+        <v>0.03242546773369145</v>
+      </c>
+      <c r="Y17">
         <v>0.994007490614324</v>
       </c>
-      <c r="V17">
+      <c r="Z17">
         <v>0.9628492105014087</v>
       </c>
-      <c r="W17">
+      <c r="AA17">
         <v>0.831850663636227</v>
       </c>
-      <c r="X17">
+      <c r="AB17">
         <v>0.4562022011010743</v>
       </c>
-      <c r="Y17">
+      <c r="AC17">
         <v>0.1238965247748121</v>
       </c>
-      <c r="Z17">
+      <c r="AD17">
         <v>0.03420046074248156</v>
       </c>
-      <c r="AA17">
+      <c r="AE17">
         <v>0.9761593743307307</v>
       </c>
-      <c r="AB17">
+      <c r="AF17">
         <v>0.5988077716778945</v>
       </c>
-      <c r="AC17">
+      <c r="AG17">
         <v>0.1046042766287935</v>
       </c>
-      <c r="AD17">
+      <c r="AH17">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AE17">
+      <c r="AI17">
         <v>0.9884311868441352</v>
       </c>
-      <c r="AF17">
+      <c r="AJ17">
         <v>0.8652828984521156</v>
       </c>
-      <c r="AG17">
+      <c r="AK17">
         <v>0.9838675212018919</v>
       </c>
-      <c r="AH17">
+      <c r="AL17">
         <v>0.9179543746201452</v>
       </c>
-      <c r="AI17">
+      <c r="AM17">
         <v>0.8042439647937673</v>
       </c>
-      <c r="AJ17">
+      <c r="AN17">
         <v>0.5068987620011377</v>
       </c>
-      <c r="AK17">
+      <c r="AO17">
+        <v>0.2867826588325043</v>
+      </c>
+      <c r="AP17">
         <v>0.1097515432248465</v>
       </c>
-      <c r="AL17">
+      <c r="AQ17">
         <v>0.03001595095975612</v>
       </c>
-      <c r="AM17">
+      <c r="AR17">
         <v>0.9934969473592141</v>
       </c>
-      <c r="AN17">
+      <c r="AS17">
         <v>0.9049482041479934</v>
       </c>
-      <c r="AO17">
+      <c r="AT17">
         <v>0.4271283822414339</v>
       </c>
-      <c r="AP17">
+      <c r="AU17">
         <v>0.9504656364617685</v>
       </c>
-      <c r="AQ17">
+      <c r="AV17">
         <v>0.7897449776332737</v>
       </c>
-      <c r="AR17">
+      <c r="AW17">
         <v>0.6111237055857599</v>
       </c>
-      <c r="AS17">
+      <c r="AX17">
         <v>0.3060492093940836</v>
       </c>
-      <c r="AT17">
+      <c r="AY17">
         <v>0.07653595568611656</v>
       </c>
-      <c r="AU17">
+      <c r="AZ17">
         <v>0.03282460152236108</v>
       </c>
-      <c r="AV17">
+      <c r="BA17">
         <v>0.5591171271045012</v>
       </c>
-      <c r="AW17">
+      <c r="BB17">
         <v>0.2068469121287884</v>
       </c>
-      <c r="AX17">
+      <c r="BC17">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY17">
+      <c r="BD17">
         <v>0.9957331462664911</v>
       </c>
-      <c r="AZ17">
+      <c r="BE17">
+        <v>0.9861828445109276</v>
+      </c>
+      <c r="BF17">
+        <v>0.9488587933813163</v>
+      </c>
+      <c r="BG17">
+        <v>0.8438423789197451</v>
+      </c>
+      <c r="BH17">
+        <v>0.3556951430027953</v>
+      </c>
+      <c r="BI17">
+        <v>0.028747427864899</v>
+      </c>
+      <c r="BJ17">
         <v>0.9937892775828635</v>
       </c>
-      <c r="BA17">
+      <c r="BK17">
         <v>0.9737211969734867</v>
       </c>
-      <c r="BB17">
+      <c r="BL17">
         <v>0.9254652322201221</v>
       </c>
-      <c r="BC17">
+      <c r="BM17">
         <v>0.7500146941610393</v>
       </c>
-      <c r="BD17">
+      <c r="BN17">
         <v>0.1135352234575346</v>
       </c>
-      <c r="BE17">
+      <c r="BO17">
         <v>0.02129036749025407</v>
       </c>
-      <c r="BF17">
-        <v>1</v>
-      </c>
-      <c r="BG17">
+      <c r="BP17">
+        <v>1</v>
+      </c>
+      <c r="BQ17">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BR17">
+        <v>0.9973999356565983</v>
+      </c>
+      <c r="BS17">
+        <v>1</v>
+      </c>
+      <c r="BT17">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BH17">
+      <c r="BU17">
         <v>0.9878318651081368</v>
       </c>
-      <c r="BI17">
+      <c r="BV17">
         <v>0.9950656472904917</v>
       </c>
-      <c r="BJ17">
+      <c r="BW17">
         <v>0.9943774133031127</v>
       </c>
-      <c r="BK17">
+      <c r="BX17">
         <v>0.9620376917075388</v>
       </c>
-      <c r="BL17">
+      <c r="BY17">
         <v>0.9073370992174812</v>
       </c>
-      <c r="BM17">
+      <c r="BZ17">
         <v>0.6725817311980025</v>
       </c>
-      <c r="BN17">
+      <c r="CA17">
         <v>0.07711567251692911</v>
       </c>
-      <c r="BO17">
+      <c r="CB17">
         <v>0.01472129229869013</v>
       </c>
-      <c r="BP17">
+      <c r="CC17">
         <v>0.9729173712746263</v>
       </c>
-      <c r="BQ17">
+      <c r="CD17">
         <v>0.3663415811102521</v>
       </c>
+      <c r="CE17">
+        <v>1</v>
+      </c>
+      <c r="CF17">
+        <v>1</v>
+      </c>
+      <c r="CG17">
+        <v>1</v>
+      </c>
+      <c r="CH17">
+        <v>1</v>
+      </c>
+      <c r="CI17">
+        <v>0.9425554677414122</v>
+      </c>
     </row>
-    <row r="18" spans="1:69">
+    <row r="18" spans="1:87">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B18">
         <v>0.9350907684137644</v>
@@ -4268,156 +5240,210 @@
         <v>0.921689915973019</v>
       </c>
       <c r="U18">
+        <v>0.8417412857402553</v>
+      </c>
+      <c r="V18">
+        <v>0.5887761226967663</v>
+      </c>
+      <c r="W18">
+        <v>0.1106336896584586</v>
+      </c>
+      <c r="X18">
+        <v>0.033526766459077</v>
+      </c>
+      <c r="Y18">
         <v>0.9908152555132429</v>
       </c>
-      <c r="V18">
+      <c r="Z18">
         <v>0.9438213584534697</v>
       </c>
-      <c r="W18">
+      <c r="AA18">
         <v>0.8221333650946865</v>
       </c>
-      <c r="X18">
+      <c r="AB18">
         <v>0.4617861115430638</v>
       </c>
-      <c r="Y18">
+      <c r="AC18">
         <v>0.1302062423267533</v>
       </c>
-      <c r="Z18">
+      <c r="AD18">
         <v>0.03996191130947997</v>
       </c>
-      <c r="AA18">
+      <c r="AE18">
         <v>0.9679041116395777</v>
       </c>
-      <c r="AB18">
+      <c r="AF18">
         <v>0.6338935752512801</v>
       </c>
-      <c r="AC18">
+      <c r="AG18">
         <v>0.1082700793933833</v>
       </c>
-      <c r="AD18">
+      <c r="AH18">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AE18">
+      <c r="AI18">
         <v>0.9860551997745365</v>
       </c>
-      <c r="AF18">
+      <c r="AJ18">
         <v>0.878325300439989</v>
       </c>
-      <c r="AG18">
+      <c r="AK18">
         <v>0.9757980865412444</v>
       </c>
-      <c r="AH18">
+      <c r="AL18">
         <v>0.8930204149061202</v>
       </c>
-      <c r="AI18">
+      <c r="AM18">
         <v>0.7713270827734193</v>
       </c>
-      <c r="AJ18">
+      <c r="AN18">
         <v>0.4966760329847467</v>
       </c>
-      <c r="AK18">
+      <c r="AO18">
+        <v>0.2936123544068941</v>
+      </c>
+      <c r="AP18">
         <v>0.1111615822501377</v>
       </c>
-      <c r="AL18">
+      <c r="AQ18">
         <v>0.03456183051332893</v>
       </c>
-      <c r="AM18">
+      <c r="AR18">
         <v>0.9914408831525163</v>
       </c>
-      <c r="AN18">
+      <c r="AS18">
         <v>0.9126602449779047</v>
       </c>
-      <c r="AO18">
+      <c r="AT18">
         <v>0.5231223327170688</v>
       </c>
-      <c r="AP18">
+      <c r="AU18">
         <v>0.935047948377829</v>
       </c>
-      <c r="AQ18">
+      <c r="AV18">
         <v>0.7558974157580036</v>
       </c>
-      <c r="AR18">
+      <c r="AW18">
         <v>0.5894174360576316</v>
       </c>
-      <c r="AS18">
+      <c r="AX18">
         <v>0.309132303948004</v>
       </c>
-      <c r="AT18">
+      <c r="AY18">
         <v>0.07888918001082026</v>
       </c>
-      <c r="AU18">
+      <c r="AZ18">
         <v>0.03541284457961352</v>
       </c>
-      <c r="AV18">
+      <c r="BA18">
         <v>0.6850759108316056</v>
       </c>
-      <c r="AW18">
+      <c r="BB18">
         <v>0.262873909547799</v>
       </c>
-      <c r="AX18">
+      <c r="BC18">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY18">
+      <c r="BD18">
         <v>0.9954664679081466</v>
       </c>
-      <c r="AZ18">
+      <c r="BE18">
+        <v>0.9848458769621214</v>
+      </c>
+      <c r="BF18">
+        <v>0.9343651074011973</v>
+      </c>
+      <c r="BG18">
+        <v>0.8281664826191042</v>
+      </c>
+      <c r="BH18">
+        <v>0.3842561197817329</v>
+      </c>
+      <c r="BI18">
+        <v>0.02831459436552256</v>
+      </c>
+      <c r="BJ18">
         <v>0.9935804913293379</v>
       </c>
-      <c r="BA18">
+      <c r="BK18">
         <v>0.9573391059330423</v>
       </c>
-      <c r="BB18">
+      <c r="BL18">
         <v>0.9020482632212241</v>
       </c>
-      <c r="BC18">
+      <c r="BM18">
         <v>0.7375525631625863</v>
       </c>
-      <c r="BD18">
+      <c r="BN18">
         <v>0.1234637171313173</v>
       </c>
-      <c r="BE18">
+      <c r="BO18">
         <v>0.02503454674821367</v>
       </c>
-      <c r="BF18">
-        <v>1</v>
-      </c>
-      <c r="BG18">
+      <c r="BP18">
+        <v>1</v>
+      </c>
+      <c r="BQ18">
+        <v>0.9989999752525378</v>
+      </c>
+      <c r="BR18">
+        <v>0.9954059158586283</v>
+      </c>
+      <c r="BS18">
+        <v>1</v>
+      </c>
+      <c r="BT18">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BH18">
+      <c r="BU18">
         <v>0.9846518883110845</v>
       </c>
-      <c r="BI18">
+      <c r="BV18">
         <v>0.9944750786374379</v>
       </c>
-      <c r="BJ18">
+      <c r="BW18">
         <v>0.9914693431475509</v>
       </c>
-      <c r="BK18">
+      <c r="BX18">
         <v>0.9464334970444814</v>
       </c>
-      <c r="BL18">
+      <c r="BY18">
         <v>0.8857781737701302</v>
       </c>
-      <c r="BM18">
+      <c r="BZ18">
         <v>0.6830425692026182</v>
       </c>
-      <c r="BN18">
+      <c r="CA18">
         <v>0.08696728074618967</v>
       </c>
-      <c r="BO18">
+      <c r="CB18">
         <v>0.01868898448916305</v>
       </c>
-      <c r="BP18">
+      <c r="CC18">
         <v>0.974117766191425</v>
       </c>
-      <c r="BQ18">
+      <c r="CD18">
         <v>0.6137607525918191</v>
       </c>
+      <c r="CE18">
+        <v>1</v>
+      </c>
+      <c r="CF18">
+        <v>1</v>
+      </c>
+      <c r="CG18">
+        <v>1</v>
+      </c>
+      <c r="CH18">
+        <v>1</v>
+      </c>
+      <c r="CI18">
+        <v>0.9374974881486497</v>
+      </c>
     </row>
-    <row r="19" spans="1:69">
+    <row r="19" spans="1:87">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B19">
         <v>0.9350988597111926</v>
@@ -4477,156 +5503,210 @@
         <v>0.9228877454779315</v>
       </c>
       <c r="U19">
+        <v>0.8422630037222441</v>
+      </c>
+      <c r="V19">
+        <v>0.6154275171643051</v>
+      </c>
+      <c r="W19">
+        <v>0.1148577053023766</v>
+      </c>
+      <c r="X19">
+        <v>0.04838692149880904</v>
+      </c>
+      <c r="Y19">
         <v>0.9908152555132429</v>
       </c>
-      <c r="V19">
+      <c r="Z19">
         <v>0.9483955459737174</v>
       </c>
-      <c r="W19">
+      <c r="AA19">
         <v>0.8340174565401978</v>
       </c>
-      <c r="X19">
+      <c r="AB19">
         <v>0.4607285381543579</v>
       </c>
-      <c r="Y19">
+      <c r="AC19">
         <v>0.1365235646796855</v>
       </c>
-      <c r="Z19">
+      <c r="AD19">
         <v>0.04905376757141079</v>
       </c>
-      <c r="AA19">
+      <c r="AE19">
         <v>0.9710882942344341</v>
       </c>
-      <c r="AB19">
+      <c r="AF19">
         <v>0.6151563043620838</v>
       </c>
-      <c r="AC19">
+      <c r="AG19">
         <v>0.1163054832033645</v>
       </c>
-      <c r="AD19">
+      <c r="AH19">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AE19">
+      <c r="AI19">
         <v>0.9876230333425627</v>
       </c>
-      <c r="AF19">
+      <c r="AJ19">
         <v>0.8773961864770868</v>
       </c>
-      <c r="AG19">
+      <c r="AK19">
         <v>0.9757980865412444</v>
       </c>
-      <c r="AH19">
+      <c r="AL19">
         <v>0.8966378442645793</v>
       </c>
-      <c r="AI19">
+      <c r="AM19">
         <v>0.770187422743832</v>
       </c>
-      <c r="AJ19">
+      <c r="AN19">
         <v>0.5005378270726424</v>
       </c>
-      <c r="AK19">
+      <c r="AO19">
+        <v>0.2898318814119211</v>
+      </c>
+      <c r="AP19">
         <v>0.1087621881617646</v>
       </c>
-      <c r="AL19">
+      <c r="AQ19">
         <v>0.04117819532606098</v>
       </c>
-      <c r="AM19">
+      <c r="AR19">
         <v>0.9920320863081626</v>
       </c>
-      <c r="AN19">
+      <c r="AS19">
         <v>0.9034081509082241</v>
       </c>
-      <c r="AO19">
+      <c r="AT19">
         <v>0.4837531756007771</v>
       </c>
-      <c r="AP19">
+      <c r="AU19">
         <v>0.9370570695754714</v>
       </c>
-      <c r="AQ19">
+      <c r="AV19">
         <v>0.7561074308258591</v>
       </c>
-      <c r="AR19">
+      <c r="AW19">
         <v>0.5881619239838445</v>
       </c>
-      <c r="AS19">
+      <c r="AX19">
         <v>0.305955758442336</v>
       </c>
-      <c r="AT19">
+      <c r="AY19">
         <v>0.07906628734499858</v>
       </c>
-      <c r="AU19">
+      <c r="AZ19">
         <v>0.03872792928717479</v>
       </c>
-      <c r="AV19">
+      <c r="BA19">
         <v>0.654159401152001</v>
       </c>
-      <c r="AW19">
+      <c r="BB19">
         <v>0.235614241521993</v>
       </c>
-      <c r="AX19">
+      <c r="BC19">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY19">
+      <c r="BD19">
         <v>0.9954664679081466</v>
       </c>
-      <c r="AZ19">
+      <c r="BE19">
+        <v>0.9837863239520326</v>
+      </c>
+      <c r="BF19">
+        <v>0.9358900354155479</v>
+      </c>
+      <c r="BG19">
+        <v>0.8352539240630503</v>
+      </c>
+      <c r="BH19">
+        <v>0.3690707174266694</v>
+      </c>
+      <c r="BI19">
+        <v>0.03422450549893238</v>
+      </c>
+      <c r="BJ19">
         <v>0.993584489501216</v>
       </c>
-      <c r="BA19">
+      <c r="BK19">
         <v>0.9581470031832434</v>
       </c>
-      <c r="BB19">
+      <c r="BL19">
         <v>0.9057199498250654</v>
       </c>
-      <c r="BC19">
+      <c r="BM19">
         <v>0.7349969737330807</v>
       </c>
-      <c r="BD19">
+      <c r="BN19">
         <v>0.1155089283074334</v>
       </c>
-      <c r="BE19">
+      <c r="BO19">
         <v>0.02654588568242861</v>
       </c>
-      <c r="BF19">
-        <v>1</v>
-      </c>
-      <c r="BG19">
+      <c r="BP19">
+        <v>1</v>
+      </c>
+      <c r="BQ19">
+        <v>0.9989999752525378</v>
+      </c>
+      <c r="BR19">
+        <v>0.9956039109091358</v>
+      </c>
+      <c r="BS19">
+        <v>1</v>
+      </c>
+      <c r="BT19">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BH19">
+      <c r="BU19">
         <v>0.9854559311109895</v>
       </c>
-      <c r="BI19">
+      <c r="BV19">
         <v>0.994920595121548</v>
       </c>
-      <c r="BJ19">
+      <c r="BW19">
         <v>0.991603354348142</v>
       </c>
-      <c r="BK19">
+      <c r="BX19">
         <v>0.9481955743298468</v>
       </c>
-      <c r="BL19">
+      <c r="BY19">
         <v>0.8880501084940781</v>
       </c>
-      <c r="BM19">
+      <c r="BZ19">
         <v>0.6760232287959481</v>
       </c>
-      <c r="BN19">
+      <c r="CA19">
         <v>0.08124682403607722</v>
       </c>
-      <c r="BO19">
+      <c r="CB19">
         <v>0.02152530674122039</v>
       </c>
-      <c r="BP19">
+      <c r="CC19">
         <v>0.9702897169046303</v>
       </c>
-      <c r="BQ19">
+      <c r="CD19">
         <v>0.4122460814337736</v>
       </c>
+      <c r="CE19">
+        <v>1</v>
+      </c>
+      <c r="CF19">
+        <v>1</v>
+      </c>
+      <c r="CG19">
+        <v>1</v>
+      </c>
+      <c r="CH19">
+        <v>1</v>
+      </c>
+      <c r="CI19">
+        <v>0.9350285433378189</v>
+      </c>
     </row>
-    <row r="20" spans="1:69">
+    <row r="20" spans="1:87">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B20">
         <v>0.943842509940042</v>
@@ -4686,156 +5766,210 @@
         <v>0.9527369117907205</v>
       </c>
       <c r="U20">
+        <v>0.8989075758519419</v>
+      </c>
+      <c r="V20">
+        <v>0.560923460162341</v>
+      </c>
+      <c r="W20">
+        <v>0.1744261179312341</v>
+      </c>
+      <c r="X20">
+        <v>0.07676781973800245</v>
+      </c>
+      <c r="Y20">
         <v>0.9944075297978376</v>
       </c>
-      <c r="V20">
+      <c r="Z20">
         <v>0.9659685685160773</v>
       </c>
-      <c r="W20">
+      <c r="AA20">
         <v>0.8390920687507982</v>
       </c>
-      <c r="X20">
+      <c r="AB20">
         <v>0.4733817534039446</v>
       </c>
-      <c r="Y20">
+      <c r="AC20">
         <v>0.2170219049477215</v>
       </c>
-      <c r="Z20">
+      <c r="AD20">
         <v>0.08870331297940387</v>
       </c>
-      <c r="AA20">
+      <c r="AE20">
         <v>0.9805193650251212</v>
       </c>
-      <c r="AB20">
+      <c r="AF20">
         <v>0.5903795287000851</v>
       </c>
-      <c r="AC20">
+      <c r="AG20">
         <v>0.1843463622558461</v>
       </c>
-      <c r="AD20">
+      <c r="AH20">
         <v>0.9979998040824323</v>
       </c>
-      <c r="AE20">
+      <c r="AI20">
         <v>0.9907990987791888</v>
       </c>
-      <c r="AF20">
+      <c r="AJ20">
         <v>0.8606526859249921</v>
       </c>
-      <c r="AG20">
+      <c r="AK20">
         <v>0.9833778822682322</v>
       </c>
-      <c r="AH20">
+      <c r="AL20">
         <v>0.9186391921390477</v>
       </c>
-      <c r="AI20">
+      <c r="AM20">
         <v>0.8042219112272605</v>
       </c>
-      <c r="AJ20">
+      <c r="AN20">
         <v>0.5150296442238331</v>
       </c>
-      <c r="AK20">
+      <c r="AO20">
+        <v>0.3093351912708623</v>
+      </c>
+      <c r="AP20">
         <v>0.1613040855040531</v>
       </c>
-      <c r="AL20">
+      <c r="AQ20">
         <v>0.07121964817444532</v>
       </c>
-      <c r="AM20">
+      <c r="AR20">
         <v>0.9943793401288353</v>
       </c>
-      <c r="AN20">
+      <c r="AS20">
         <v>0.8976057187663428</v>
       </c>
-      <c r="AO20">
+      <c r="AT20">
         <v>0.3891058712105419</v>
       </c>
-      <c r="AP20">
+      <c r="AU20">
         <v>0.9499360493019728</v>
       </c>
-      <c r="AQ20">
+      <c r="AV20">
         <v>0.7878469609454523</v>
       </c>
-      <c r="AR20">
+      <c r="AW20">
         <v>0.6138035224008707</v>
       </c>
-      <c r="AS20">
+      <c r="AX20">
         <v>0.3206690185345212</v>
       </c>
-      <c r="AT20">
+      <c r="AY20">
         <v>0.102161698749231</v>
       </c>
-      <c r="AU20">
+      <c r="AZ20">
         <v>0.04965058407885296</v>
       </c>
-      <c r="AV20">
+      <c r="BA20">
         <v>0.5517030282351949</v>
       </c>
-      <c r="AW20">
+      <c r="BB20">
         <v>0.2626384887169756</v>
       </c>
-      <c r="AX20">
+      <c r="BC20">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY20">
+      <c r="BD20">
         <v>0.9962665029831796</v>
       </c>
-      <c r="AZ20">
+      <c r="BE20">
+        <v>0.9875054969404501</v>
+      </c>
+      <c r="BF20">
+        <v>0.9548742597153667</v>
+      </c>
+      <c r="BG20">
+        <v>0.8527199118596134</v>
+      </c>
+      <c r="BH20">
+        <v>0.4066101947555447</v>
+      </c>
+      <c r="BI20">
+        <v>0.08841990495753321</v>
+      </c>
+      <c r="BJ20">
         <v>0.994989220477803</v>
       </c>
-      <c r="BA20">
+      <c r="BK20">
         <v>0.9752983376953327</v>
       </c>
-      <c r="BB20">
+      <c r="BL20">
         <v>0.9280901110532338</v>
       </c>
-      <c r="BC20">
+      <c r="BM20">
         <v>0.7534551757053272</v>
       </c>
-      <c r="BD20">
+      <c r="BN20">
         <v>0.1544528178266525</v>
       </c>
-      <c r="BE20">
+      <c r="BO20">
         <v>0.06429786448837561</v>
       </c>
-      <c r="BF20">
-        <v>1</v>
-      </c>
-      <c r="BG20">
-        <v>1</v>
-      </c>
-      <c r="BH20">
+      <c r="BP20">
+        <v>1</v>
+      </c>
+      <c r="BQ20">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BR20">
+        <v>0.9975999406060907</v>
+      </c>
+      <c r="BS20">
+        <v>1</v>
+      </c>
+      <c r="BT20">
+        <v>1</v>
+      </c>
+      <c r="BU20">
         <v>0.9874298445061281</v>
       </c>
-      <c r="BI20">
+      <c r="BV20">
         <v>0.9956641236506755</v>
       </c>
-      <c r="BJ20">
+      <c r="BW20">
         <v>0.9945127411435221</v>
       </c>
-      <c r="BK20">
+      <c r="BX20">
         <v>0.9633567136117311</v>
       </c>
-      <c r="BL20">
+      <c r="BY20">
         <v>0.9085258134377218</v>
       </c>
-      <c r="BM20">
+      <c r="BZ20">
         <v>0.6744159969450421</v>
       </c>
-      <c r="BN20">
+      <c r="CA20">
         <v>0.115974631917495</v>
       </c>
-      <c r="BO20">
+      <c r="CB20">
         <v>0.05531748575464013</v>
       </c>
-      <c r="BP20">
+      <c r="CC20">
         <v>0.968987630900756</v>
       </c>
-      <c r="BQ20">
+      <c r="CD20">
         <v>0.3172772100005139</v>
       </c>
+      <c r="CE20">
+        <v>1</v>
+      </c>
+      <c r="CF20">
+        <v>1</v>
+      </c>
+      <c r="CG20">
+        <v>1</v>
+      </c>
+      <c r="CH20">
+        <v>1</v>
+      </c>
+      <c r="CI20">
+        <v>0.9385902430018117</v>
+      </c>
     </row>
-    <row r="21" spans="1:69">
+    <row r="21" spans="1:87">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B21">
         <v>0.9424729210205292</v>
@@ -4895,156 +6029,210 @@
         <v>0.9384433896882391</v>
       </c>
       <c r="U21">
+        <v>0.8723054749177155</v>
+      </c>
+      <c r="V21">
+        <v>0.7207184816887506</v>
+      </c>
+      <c r="W21">
+        <v>0.2759245243132285</v>
+      </c>
+      <c r="X21">
+        <v>0.1367891087310738</v>
+      </c>
+      <c r="Y21">
         <v>0.9928073730637835</v>
       </c>
-      <c r="V21">
+      <c r="Z21">
         <v>0.9530098767644611</v>
       </c>
-      <c r="W21">
+      <c r="AA21">
         <v>0.8272779203500251</v>
       </c>
-      <c r="X21">
+      <c r="AB21">
         <v>0.4835389243310783</v>
       </c>
-      <c r="Y21">
+      <c r="AC21">
         <v>0.2732982853471106</v>
       </c>
-      <c r="Z21">
+      <c r="AD21">
         <v>0.1151835242741829</v>
       </c>
-      <c r="AA21">
+      <c r="AE21">
         <v>0.9690799665795038</v>
       </c>
-      <c r="AB21">
+      <c r="AF21">
         <v>0.6159526182925658</v>
       </c>
-      <c r="AC21">
+      <c r="AG21">
         <v>0.2439788221042493</v>
       </c>
-      <c r="AD21">
+      <c r="AH21">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AE21">
+      <c r="AI21">
         <v>0.9876472910719647</v>
       </c>
-      <c r="AF21">
+      <c r="AJ21">
         <v>0.8710604651948628</v>
       </c>
-      <c r="AG21">
+      <c r="AK21">
         <v>0.9827208218475404</v>
       </c>
-      <c r="AH21">
+      <c r="AL21">
         <v>0.9129453313820457</v>
       </c>
-      <c r="AI21">
+      <c r="AM21">
         <v>0.791956870283712</v>
       </c>
-      <c r="AJ21">
+      <c r="AN21">
         <v>0.5092396299487448</v>
       </c>
-      <c r="AK21">
+      <c r="AO21">
+        <v>0.3025887843328484</v>
+      </c>
+      <c r="AP21">
         <v>0.1875845334384838</v>
       </c>
-      <c r="AL21">
+      <c r="AQ21">
         <v>0.1332278160827369</v>
       </c>
-      <c r="AM21">
+      <c r="AR21">
         <v>0.991428185382906</v>
       </c>
-      <c r="AN21">
+      <c r="AS21">
         <v>0.912408363855628</v>
       </c>
-      <c r="AO21">
+      <c r="AT21">
         <v>0.4591804533204406</v>
       </c>
-      <c r="AP21">
+      <c r="AU21">
         <v>0.9479198990070405</v>
       </c>
-      <c r="AQ21">
+      <c r="AV21">
         <v>0.7759278626782782</v>
       </c>
-      <c r="AR21">
+      <c r="AW21">
         <v>0.6035005521092622</v>
       </c>
-      <c r="AS21">
+      <c r="AX21">
         <v>0.3178208489767197</v>
       </c>
-      <c r="AT21">
+      <c r="AY21">
         <v>0.1276687079073805</v>
       </c>
-      <c r="AU21">
+      <c r="AZ21">
         <v>0.08596045648774517</v>
       </c>
-      <c r="AV21">
+      <c r="BA21">
         <v>0.6245293356511183</v>
       </c>
-      <c r="AW21">
+      <c r="BB21">
         <v>0.3541960748912891</v>
       </c>
-      <c r="AX21">
+      <c r="BC21">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY21">
+      <c r="BD21">
         <v>0.9962665029831796</v>
       </c>
-      <c r="AZ21">
+      <c r="BE21">
+        <v>0.9866983027148483</v>
+      </c>
+      <c r="BF21">
+        <v>0.9407850656375065</v>
+      </c>
+      <c r="BG21">
+        <v>0.8385768624956491</v>
+      </c>
+      <c r="BH21">
+        <v>0.429620133974119</v>
+      </c>
+      <c r="BI21">
+        <v>0.1600940410820519</v>
+      </c>
+      <c r="BJ21">
         <v>0.9951878179543077</v>
       </c>
-      <c r="BA21">
+      <c r="BK21">
         <v>0.9715411885462081</v>
       </c>
-      <c r="BB21">
+      <c r="BL21">
         <v>0.9185369531515312</v>
       </c>
-      <c r="BC21">
+      <c r="BM21">
         <v>0.7459094404264976</v>
       </c>
-      <c r="BD21">
+      <c r="BN21">
         <v>0.214731601928251</v>
       </c>
-      <c r="BE21">
+      <c r="BO21">
         <v>0.1293472531068167</v>
       </c>
-      <c r="BF21">
-        <v>1</v>
-      </c>
-      <c r="BG21">
+      <c r="BP21">
+        <v>1</v>
+      </c>
+      <c r="BQ21">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BH21">
+      <c r="BR21">
+        <v>0.9976019505050756</v>
+      </c>
+      <c r="BS21">
+        <v>1</v>
+      </c>
+      <c r="BT21">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BU21">
         <v>0.9842558978080567</v>
       </c>
-      <c r="BI21">
+      <c r="BV21">
         <v>0.9946258798284054</v>
       </c>
-      <c r="BJ21">
+      <c r="BW21">
         <v>0.9951841874316938</v>
       </c>
-      <c r="BK21">
+      <c r="BX21">
         <v>0.9600857355652052</v>
       </c>
-      <c r="BL21">
+      <c r="BY21">
         <v>0.8995182755634746</v>
       </c>
-      <c r="BM21">
+      <c r="BZ21">
         <v>0.6877154090945778</v>
       </c>
-      <c r="BN21">
+      <c r="CA21">
         <v>0.1585444262462216</v>
       </c>
-      <c r="BO21">
+      <c r="CB21">
         <v>0.1137845180768132</v>
       </c>
-      <c r="BP21">
+      <c r="CC21">
         <v>0.9726240541574614</v>
       </c>
-      <c r="BQ21">
+      <c r="CD21">
         <v>0.3981321517534917</v>
       </c>
+      <c r="CE21">
+        <v>1</v>
+      </c>
+      <c r="CF21">
+        <v>1</v>
+      </c>
+      <c r="CG21">
+        <v>1</v>
+      </c>
+      <c r="CH21">
+        <v>1</v>
+      </c>
+      <c r="CI21">
+        <v>0.9370383355335656</v>
+      </c>
     </row>
-    <row r="22" spans="1:69">
+    <row r="22" spans="1:87">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B22">
         <v>0.9428971260488295</v>
@@ -5104,156 +6292,210 @@
         <v>0.9520112088174528</v>
       </c>
       <c r="U22">
+        <v>0.8882511898581177</v>
+      </c>
+      <c r="V22">
+        <v>0.6789957950706897</v>
+      </c>
+      <c r="W22">
+        <v>0.1318520475661551</v>
+      </c>
+      <c r="X22">
+        <v>0.03450336074143715</v>
+      </c>
+      <c r="Y22">
         <v>0.9920153730637834</v>
       </c>
-      <c r="V22">
+      <c r="Z22">
         <v>0.9507552875792604</v>
       </c>
-      <c r="W22">
+      <c r="AA22">
         <v>0.8220242819499037</v>
       </c>
-      <c r="X22">
+      <c r="AB22">
         <v>0.4569196200088572</v>
       </c>
-      <c r="Y22">
+      <c r="AC22">
         <v>0.1320209970638375</v>
       </c>
-      <c r="Z22">
+      <c r="AD22">
         <v>0.02994880354036309</v>
       </c>
-      <c r="AA22">
+      <c r="AE22">
         <v>0.9678797913707924</v>
       </c>
-      <c r="AB22">
+      <c r="AF22">
         <v>0.6261908555273664</v>
       </c>
-      <c r="AC22">
+      <c r="AG22">
         <v>0.1073092917973486</v>
       </c>
-      <c r="AD22">
+      <c r="AH22">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AE22">
+      <c r="AI22">
         <v>0.9848550854564775</v>
       </c>
-      <c r="AF22">
+      <c r="AJ22">
         <v>0.8802368125125649</v>
       </c>
-      <c r="AG22">
+      <c r="AK22">
         <v>0.9824955785520914</v>
       </c>
-      <c r="AH22">
+      <c r="AL22">
         <v>0.9127431261224384</v>
       </c>
-      <c r="AI22">
+      <c r="AM22">
         <v>0.7913147107586207</v>
       </c>
-      <c r="AJ22">
+      <c r="AN22">
         <v>0.5004872813458612</v>
       </c>
-      <c r="AK22">
+      <c r="AO22">
+        <v>0.2908364942682564</v>
+      </c>
+      <c r="AP22">
         <v>0.1086443511834437</v>
       </c>
-      <c r="AL22">
+      <c r="AQ22">
         <v>0.03123372847341714</v>
       </c>
-      <c r="AM22">
+      <c r="AR22">
         <v>0.9911324961819215</v>
       </c>
-      <c r="AN22">
+      <c r="AS22">
         <v>0.9217801280631988</v>
       </c>
-      <c r="AO22">
+      <c r="AT22">
         <v>0.4941079711424332</v>
       </c>
-      <c r="AP22">
+      <c r="AU22">
         <v>0.9455338521305227</v>
       </c>
-      <c r="AQ22">
+      <c r="AV22">
         <v>0.7772000880966199</v>
       </c>
-      <c r="AR22">
+      <c r="AW22">
         <v>0.5986896568208662</v>
       </c>
-      <c r="AS22">
+      <c r="AX22">
         <v>0.3113933372124598</v>
       </c>
-      <c r="AT22">
+      <c r="AY22">
         <v>0.0795027964092485</v>
       </c>
-      <c r="AU22">
+      <c r="AZ22">
         <v>0.03172264603857564</v>
       </c>
-      <c r="AV22">
+      <c r="BA22">
         <v>0.6726386667520852</v>
       </c>
-      <c r="AW22">
+      <c r="BB22">
         <v>0.2510985617422132</v>
       </c>
-      <c r="AX22">
+      <c r="BC22">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY22">
+      <c r="BD22">
         <v>0.9957331462664911</v>
       </c>
-      <c r="AZ22">
+      <c r="BE22">
+        <v>0.9848494559010322</v>
+      </c>
+      <c r="BF22">
+        <v>0.9384565307637076</v>
+      </c>
+      <c r="BG22">
+        <v>0.8374508867060315</v>
+      </c>
+      <c r="BH22">
+        <v>0.3729667700512911</v>
+      </c>
+      <c r="BI22">
+        <v>0.02712778608559262</v>
+      </c>
+      <c r="BJ22">
         <v>0.9941885550121877</v>
       </c>
-      <c r="BA22">
+      <c r="BK22">
         <v>0.968392084054653</v>
       </c>
-      <c r="BB22">
+      <c r="BL22">
         <v>0.9157833103012729</v>
       </c>
-      <c r="BC22">
+      <c r="BM22">
         <v>0.748361899325597</v>
       </c>
-      <c r="BD22">
+      <c r="BN22">
         <v>0.1208723794332226</v>
       </c>
-      <c r="BE22">
+      <c r="BO22">
         <v>0.02398936881018977</v>
       </c>
-      <c r="BF22">
-        <v>1</v>
-      </c>
-      <c r="BG22">
+      <c r="BP22">
+        <v>1</v>
+      </c>
+      <c r="BQ22">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BH22">
+      <c r="BR22">
+        <v>0.9970019356565981</v>
+      </c>
+      <c r="BS22">
+        <v>1</v>
+      </c>
+      <c r="BT22">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BU22">
         <v>0.9822739414120091</v>
       </c>
-      <c r="BI22">
+      <c r="BV22">
         <v>0.9944762264855701</v>
       </c>
-      <c r="BJ22">
+      <c r="BW22">
         <v>0.9943801202281477</v>
       </c>
-      <c r="BK22">
+      <c r="BX22">
         <v>0.9589075190577238</v>
       </c>
-      <c r="BL22">
+      <c r="BY22">
         <v>0.8990653192286614</v>
       </c>
-      <c r="BM22">
+      <c r="BZ22">
         <v>0.6896015694245827</v>
       </c>
-      <c r="BN22">
+      <c r="CA22">
         <v>0.08525657146673733</v>
       </c>
-      <c r="BO22">
+      <c r="CB22">
         <v>0.01904636420008394</v>
       </c>
-      <c r="BP22">
+      <c r="CC22">
         <v>0.9776371075226237</v>
       </c>
-      <c r="BQ22">
+      <c r="CD22">
         <v>0.5345929311112217</v>
       </c>
+      <c r="CE22">
+        <v>1</v>
+      </c>
+      <c r="CF22">
+        <v>1</v>
+      </c>
+      <c r="CG22">
+        <v>1</v>
+      </c>
+      <c r="CH22">
+        <v>0.9999199996812851</v>
+      </c>
+      <c r="CI22">
+        <v>0.9405341350425936</v>
+      </c>
     </row>
-    <row r="23" spans="1:69">
+    <row r="23" spans="1:87">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B23">
         <v>0.9358584884528106</v>
@@ -5313,156 +6555,210 @@
         <v>0.9257262268104748</v>
       </c>
       <c r="U23">
+        <v>0.8500576861769684</v>
+      </c>
+      <c r="V23">
+        <v>0.5355830947820536</v>
+      </c>
+      <c r="W23">
+        <v>0.1181827756564798</v>
+      </c>
+      <c r="X23">
+        <v>0.03205462681227195</v>
+      </c>
+      <c r="Y23">
         <v>0.992415412247297</v>
       </c>
-      <c r="V23">
+      <c r="Z23">
         <v>0.9577698713487844</v>
       </c>
-      <c r="W23">
+      <c r="AA23">
         <v>0.8345871066500511</v>
       </c>
-      <c r="X23">
+      <c r="AB23">
         <v>0.4676165900155684</v>
       </c>
-      <c r="Y23">
+      <c r="AC23">
         <v>0.1386456123137663</v>
       </c>
-      <c r="Z23">
+      <c r="AD23">
         <v>0.03550881917382635</v>
       </c>
-      <c r="AA23">
+      <c r="AE23">
         <v>0.9745834914889611</v>
       </c>
-      <c r="AB23">
+      <c r="AF23">
         <v>0.6090382209297309</v>
       </c>
-      <c r="AC23">
+      <c r="AG23">
         <v>0.1138924800973798</v>
       </c>
-      <c r="AD23">
+      <c r="AH23">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AE23">
+      <c r="AI23">
         <v>0.9864067461275668</v>
       </c>
-      <c r="AF23">
+      <c r="AJ23">
         <v>0.8750649636280822</v>
       </c>
-      <c r="AG23">
+      <c r="AK23">
         <v>0.9778143821269322</v>
       </c>
-      <c r="AH23">
+      <c r="AL23">
         <v>0.8977399494980181</v>
       </c>
-      <c r="AI23">
+      <c r="AM23">
         <v>0.7810338186621864</v>
       </c>
-      <c r="AJ23">
+      <c r="AN23">
         <v>0.512018875610061</v>
       </c>
-      <c r="AK23">
+      <c r="AO23">
+        <v>0.2836624311221944</v>
+      </c>
+      <c r="AP23">
         <v>0.1145264131249781</v>
       </c>
-      <c r="AL23">
+      <c r="AQ23">
         <v>0.03365300169133742</v>
       </c>
-      <c r="AM23">
+      <c r="AR23">
         <v>0.991727842873966</v>
       </c>
-      <c r="AN23">
+      <c r="AS23">
         <v>0.9097736609227408</v>
       </c>
-      <c r="AO23">
+      <c r="AT23">
         <v>0.4084950655188305</v>
       </c>
-      <c r="AP23">
+      <c r="AU23">
         <v>0.9370851420337567</v>
       </c>
-      <c r="AQ23">
+      <c r="AV23">
         <v>0.7647268266078823</v>
       </c>
-      <c r="AR23">
+      <c r="AW23">
         <v>0.5950432925239796</v>
       </c>
-      <c r="AS23">
+      <c r="AX23">
         <v>0.3115912224862296</v>
       </c>
-      <c r="AT23">
+      <c r="AY23">
         <v>0.08291487710027341</v>
       </c>
-      <c r="AU23">
+      <c r="AZ23">
         <v>0.03369087399451089</v>
       </c>
-      <c r="AV23">
+      <c r="BA23">
         <v>0.57196430177291</v>
       </c>
-      <c r="AW23">
+      <c r="BB23">
         <v>0.2104321410348121</v>
       </c>
-      <c r="AX23">
+      <c r="BC23">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY23">
+      <c r="BD23">
         <v>0.9951997895498024</v>
       </c>
-      <c r="AZ23">
+      <c r="BE23">
+        <v>0.9845863532997724</v>
+      </c>
+      <c r="BF23">
+        <v>0.9444935079326136</v>
+      </c>
+      <c r="BG23">
+        <v>0.8458188029995189</v>
+      </c>
+      <c r="BH23">
+        <v>0.3759289222291314</v>
+      </c>
+      <c r="BI23">
+        <v>0.02961087732716444</v>
+      </c>
+      <c r="BJ23">
         <v>0.9933878633961351</v>
       </c>
-      <c r="BA23">
+      <c r="BK23">
         <v>0.9607241134695803</v>
       </c>
-      <c r="BB23">
+      <c r="BL23">
         <v>0.9137129097643953</v>
       </c>
-      <c r="BC23">
+      <c r="BM23">
         <v>0.7458987635257825</v>
       </c>
-      <c r="BD23">
+      <c r="BN23">
         <v>0.1185627257443962</v>
       </c>
-      <c r="BE23">
+      <c r="BO23">
         <v>0.02238079604172401</v>
       </c>
-      <c r="BF23">
-        <v>1</v>
-      </c>
-      <c r="BG23">
+      <c r="BP23">
+        <v>1</v>
+      </c>
+      <c r="BQ23">
+        <v>0.9991999802020303</v>
+      </c>
+      <c r="BR23">
+        <v>0.9964019208081208</v>
+      </c>
+      <c r="BS23">
+        <v>1</v>
+      </c>
+      <c r="BT23">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BH23">
+      <c r="BU23">
         <v>0.9866358551969622</v>
       </c>
-      <c r="BI23">
+      <c r="BV23">
         <v>0.9946213570275182</v>
       </c>
-      <c r="BJ23">
+      <c r="BW23">
         <v>0.9914706967960417</v>
       </c>
-      <c r="BK23">
+      <c r="BX23">
         <v>0.9514731711330778</v>
       </c>
-      <c r="BL23">
+      <c r="BY23">
         <v>0.8960096133954376</v>
       </c>
-      <c r="BM23">
+      <c r="BZ23">
         <v>0.6808596517141402</v>
       </c>
-      <c r="BN23">
+      <c r="CA23">
         <v>0.07941978801571954</v>
       </c>
-      <c r="BO23">
+      <c r="CB23">
         <v>0.01848243717579944</v>
       </c>
-      <c r="BP23">
+      <c r="CC23">
         <v>0.9779311708785223</v>
       </c>
-      <c r="BQ23">
+      <c r="CD23">
         <v>0.3743167832960189</v>
       </c>
+      <c r="CE23">
+        <v>1</v>
+      </c>
+      <c r="CF23">
+        <v>1</v>
+      </c>
+      <c r="CG23">
+        <v>1</v>
+      </c>
+      <c r="CH23">
+        <v>1</v>
+      </c>
+      <c r="CI23">
+        <v>0.9435496157880823</v>
+      </c>
     </row>
-    <row r="24" spans="1:69">
+    <row r="24" spans="1:87">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B24">
         <v>0.9456891679319532</v>
@@ -5522,156 +6818,210 @@
         <v>0.9593634493224771</v>
       </c>
       <c r="U24">
+        <v>0.8710537016151223</v>
+      </c>
+      <c r="V24">
+        <v>0.44720212090466</v>
+      </c>
+      <c r="W24">
+        <v>0.1436484859191725</v>
+      </c>
+      <c r="X24">
+        <v>0.05234478748143718</v>
+      </c>
+      <c r="Y24">
         <v>0.9936074514308104</v>
       </c>
-      <c r="V24">
+      <c r="Z24">
         <v>0.9577376532695446</v>
       </c>
-      <c r="W24">
+      <c r="AA24">
         <v>0.8358228209282147</v>
       </c>
-      <c r="X24">
+      <c r="AB24">
         <v>0.4755496937042263</v>
       </c>
-      <c r="Y24">
+      <c r="AC24">
         <v>0.1548752579204237</v>
       </c>
-      <c r="Z24">
+      <c r="AD24">
         <v>0.03641131363414233</v>
       </c>
-      <c r="AA24">
+      <c r="AE24">
         <v>0.9714316191308316</v>
       </c>
-      <c r="AB24">
+      <c r="AF24">
         <v>0.6153253563901623</v>
       </c>
-      <c r="AC24">
+      <c r="AG24">
         <v>0.1354795879658789</v>
       </c>
-      <c r="AD24">
+      <c r="AH24">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AE24">
+      <c r="AI24">
         <v>0.9856389909265677</v>
       </c>
-      <c r="AF24">
+      <c r="AJ24">
         <v>0.8828269384043211</v>
       </c>
-      <c r="AG24">
+      <c r="AK24">
         <v>0.984163122779715</v>
       </c>
-      <c r="AH24">
+      <c r="AL24">
         <v>0.9190938354683047</v>
       </c>
-      <c r="AI24">
+      <c r="AM24">
         <v>0.8060464141044622</v>
       </c>
-      <c r="AJ24">
+      <c r="AN24">
         <v>0.508902851865216</v>
       </c>
-      <c r="AK24">
+      <c r="AO24">
+        <v>0.3029286821671234</v>
+      </c>
+      <c r="AP24">
         <v>0.1403764566795909</v>
       </c>
-      <c r="AL24">
+      <c r="AQ24">
         <v>0.05602506788428933</v>
       </c>
-      <c r="AM24">
+      <c r="AR24">
         <v>0.9934925353953661</v>
       </c>
-      <c r="AN24">
+      <c r="AS24">
         <v>0.9116370376646568</v>
       </c>
-      <c r="AO24">
+      <c r="AT24">
         <v>0.4459595465248257</v>
       </c>
-      <c r="AP24">
+      <c r="AU24">
         <v>0.9502014248319132</v>
       </c>
-      <c r="AQ24">
+      <c r="AV24">
         <v>0.7908577892334431</v>
       </c>
-      <c r="AR24">
+      <c r="AW24">
         <v>0.6164418783549931</v>
       </c>
-      <c r="AS24">
+      <c r="AX24">
         <v>0.3134725532614705</v>
       </c>
-      <c r="AT24">
+      <c r="AY24">
         <v>0.08900212860704081</v>
       </c>
-      <c r="AU24">
+      <c r="AZ24">
         <v>0.04171451582416812</v>
       </c>
-      <c r="AV24">
+      <c r="BA24">
         <v>0.5884739295673479</v>
       </c>
-      <c r="AW24">
+      <c r="BB24">
         <v>0.2487214448925658</v>
       </c>
-      <c r="AX24">
+      <c r="BC24">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY24">
+      <c r="BD24">
         <v>0.9957331462664911</v>
       </c>
-      <c r="AZ24">
+      <c r="BE24">
+        <v>0.9856530692786163</v>
+      </c>
+      <c r="BF24">
+        <v>0.9472873654060092</v>
+      </c>
+      <c r="BG24">
+        <v>0.8455128110492381</v>
+      </c>
+      <c r="BH24">
+        <v>0.3809939429855121</v>
+      </c>
+      <c r="BI24">
+        <v>0.05921230822893249</v>
+      </c>
+      <c r="BJ24">
         <v>0.9937892775828635</v>
       </c>
-      <c r="BA24">
+      <c r="BK24">
         <v>0.972732397475551</v>
       </c>
-      <c r="BB24">
+      <c r="BL24">
         <v>0.9240935314122009</v>
       </c>
-      <c r="BC24">
+      <c r="BM24">
         <v>0.7553016131613931</v>
       </c>
-      <c r="BD24">
+      <c r="BN24">
         <v>0.136761255152724</v>
       </c>
-      <c r="BE24">
+      <c r="BO24">
         <v>0.03903464794932785</v>
       </c>
-      <c r="BF24">
-        <v>1</v>
-      </c>
-      <c r="BG24">
+      <c r="BP24">
+        <v>1</v>
+      </c>
+      <c r="BQ24">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BH24">
+      <c r="BR24">
+        <v>0.9973999356565983</v>
+      </c>
+      <c r="BS24">
+        <v>1</v>
+      </c>
+      <c r="BT24">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BU24">
         <v>0.9882258444939385</v>
       </c>
-      <c r="BI24">
+      <c r="BV24">
         <v>0.9947663862178321</v>
       </c>
-      <c r="BJ24">
+      <c r="BW24">
         <v>0.9945127411435221</v>
       </c>
-      <c r="BK24">
+      <c r="BX24">
         <v>0.9615579318560857</v>
       </c>
-      <c r="BL24">
+      <c r="BY24">
         <v>0.9086157971217571</v>
       </c>
-      <c r="BM24">
+      <c r="BZ24">
         <v>0.6814793404326468</v>
       </c>
-      <c r="BN24">
+      <c r="CA24">
         <v>0.09659172722922246</v>
       </c>
-      <c r="BO24">
+      <c r="CB24">
         <v>0.03068153185591176</v>
       </c>
-      <c r="BP24">
+      <c r="CC24">
         <v>0.9770198034063483</v>
       </c>
-      <c r="BQ24">
+      <c r="CD24">
         <v>0.3913916088775783</v>
       </c>
+      <c r="CE24">
+        <v>1</v>
+      </c>
+      <c r="CF24">
+        <v>1</v>
+      </c>
+      <c r="CG24">
+        <v>1</v>
+      </c>
+      <c r="CH24">
+        <v>1</v>
+      </c>
+      <c r="CI24">
+        <v>0.9435505757525473</v>
+      </c>
     </row>
-    <row r="25" spans="1:69">
+    <row r="25" spans="1:87">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B25">
         <v>0.9428971260488295</v>
@@ -5731,156 +7081,210 @@
         <v>0.9520112088174528</v>
       </c>
       <c r="U25">
+        <v>0.8878307673715256</v>
+      </c>
+      <c r="V25">
+        <v>0.6824591846147219</v>
+      </c>
+      <c r="W25">
+        <v>0.1240617459090283</v>
+      </c>
+      <c r="X25">
+        <v>0.03050074351316582</v>
+      </c>
+      <c r="Y25">
         <v>0.9920153730637834</v>
       </c>
-      <c r="V25">
+      <c r="Z25">
         <v>0.951130986969948</v>
       </c>
-      <c r="W25">
+      <c r="AA25">
         <v>0.8235197168033033</v>
       </c>
-      <c r="X25">
+      <c r="AB25">
         <v>0.4553155915875104</v>
       </c>
-      <c r="Y25">
+      <c r="AC25">
         <v>0.1335010401845392</v>
       </c>
-      <c r="Z25">
+      <c r="AD25">
         <v>0.02971254163663233</v>
       </c>
-      <c r="AA25">
+      <c r="AE25">
         <v>0.9678797913707924</v>
       </c>
-      <c r="AB25">
+      <c r="AF25">
         <v>0.6253057445100481</v>
       </c>
-      <c r="AC25">
+      <c r="AG25">
         <v>0.1037795709774832</v>
       </c>
-      <c r="AD25">
+      <c r="AH25">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AE25">
+      <c r="AI25">
         <v>0.9864309941590491</v>
       </c>
-      <c r="AF25">
+      <c r="AJ25">
         <v>0.8819946783141299</v>
       </c>
-      <c r="AG25">
+      <c r="AK25">
         <v>0.9824955785520914</v>
       </c>
-      <c r="AH25">
+      <c r="AL25">
         <v>0.9133225905051945</v>
       </c>
-      <c r="AI25">
+      <c r="AM25">
         <v>0.7919367061801807</v>
       </c>
-      <c r="AJ25">
+      <c r="AN25">
         <v>0.5019811084816469</v>
       </c>
-      <c r="AK25">
+      <c r="AO25">
+        <v>0.2902077682348125</v>
+      </c>
+      <c r="AP25">
         <v>0.1090981102002584</v>
       </c>
-      <c r="AL25">
+      <c r="AQ25">
         <v>0.0312186540602146</v>
       </c>
-      <c r="AM25">
+      <c r="AR25">
         <v>0.9911324961819215</v>
       </c>
-      <c r="AN25">
+      <c r="AS25">
         <v>0.9203860327435234</v>
       </c>
-      <c r="AO25">
+      <c r="AT25">
         <v>0.5024870517528828</v>
       </c>
-      <c r="AP25">
+      <c r="AU25">
         <v>0.9457705717932849</v>
       </c>
-      <c r="AQ25">
+      <c r="AV25">
         <v>0.7777394790565126</v>
       </c>
-      <c r="AR25">
+      <c r="AW25">
         <v>0.5997264094030028</v>
       </c>
-      <c r="AS25">
+      <c r="AX25">
         <v>0.3071358523666997</v>
       </c>
-      <c r="AT25">
+      <c r="AY25">
         <v>0.07725603736015012</v>
       </c>
-      <c r="AU25">
+      <c r="AZ25">
         <v>0.02983028266091238</v>
       </c>
-      <c r="AV25">
+      <c r="BA25">
         <v>0.6704407277112608</v>
       </c>
-      <c r="AW25">
+      <c r="BB25">
         <v>0.2504630060876998</v>
       </c>
-      <c r="AX25">
+      <c r="BC25">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY25">
+      <c r="BD25">
         <v>0.9957331462664911</v>
       </c>
-      <c r="AZ25">
+      <c r="BE25">
+        <v>0.9848494559010322</v>
+      </c>
+      <c r="BF25">
+        <v>0.9374184433727897</v>
+      </c>
+      <c r="BG25">
+        <v>0.8389382653972762</v>
+      </c>
+      <c r="BH25">
+        <v>0.374056567229557</v>
+      </c>
+      <c r="BI25">
+        <v>0.02485575320350435</v>
+      </c>
+      <c r="BJ25">
         <v>0.9941885550121877</v>
       </c>
-      <c r="BA25">
+      <c r="BK25">
         <v>0.9685886271854947</v>
       </c>
-      <c r="BB25">
+      <c r="BL25">
         <v>0.9170866020752138</v>
       </c>
-      <c r="BC25">
+      <c r="BM25">
         <v>0.7485158454741577</v>
       </c>
-      <c r="BD25">
+      <c r="BN25">
         <v>0.1219069466418133</v>
       </c>
-      <c r="BE25">
+      <c r="BO25">
         <v>0.0234596954206078</v>
       </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
+      <c r="BP25">
+        <v>1</v>
+      </c>
+      <c r="BQ25">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BH25">
+      <c r="BR25">
+        <v>0.9970019356565981</v>
+      </c>
+      <c r="BS25">
+        <v>1</v>
+      </c>
+      <c r="BT25">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BU25">
         <v>0.9830739602049312</v>
       </c>
-      <c r="BI25">
+      <c r="BV25">
         <v>0.9943265959492403</v>
       </c>
-      <c r="BJ25">
+      <c r="BW25">
         <v>0.9943801202281477</v>
       </c>
-      <c r="BK25">
+      <c r="BX25">
         <v>0.9589127505181126</v>
       </c>
-      <c r="BL25">
+      <c r="BY25">
         <v>0.8995794371265589</v>
       </c>
-      <c r="BM25">
+      <c r="BZ25">
         <v>0.689958454636613</v>
       </c>
-      <c r="BN25">
+      <c r="CA25">
         <v>0.08549453420890687</v>
       </c>
-      <c r="BO25">
+      <c r="CB25">
         <v>0.01799030689602236</v>
       </c>
-      <c r="BP25">
+      <c r="CC25">
         <v>0.977666488487533</v>
       </c>
-      <c r="BQ25">
+      <c r="CD25">
         <v>0.5347628776143755</v>
       </c>
+      <c r="CE25">
+        <v>1</v>
+      </c>
+      <c r="CF25">
+        <v>1</v>
+      </c>
+      <c r="CG25">
+        <v>1</v>
+      </c>
+      <c r="CH25">
+        <v>0.9999199996812851</v>
+      </c>
+      <c r="CI25">
+        <v>0.9397601089082752</v>
+      </c>
     </row>
-    <row r="26" spans="1:69">
+    <row r="26" spans="1:87">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B26">
         <v>0.9453617996174155</v>
@@ -5940,151 +7344,205 @@
         <v>0.9593376584547367</v>
       </c>
       <c r="U26">
+        <v>0.8827134611569808</v>
+      </c>
+      <c r="V26">
+        <v>0.4511546196752915</v>
+      </c>
+      <c r="W26">
+        <v>0.1128593983001331</v>
+      </c>
+      <c r="X26">
+        <v>0.03463583266364171</v>
+      </c>
+      <c r="Y26">
         <v>0.9936074514308104</v>
       </c>
-      <c r="V26">
+      <c r="Z26">
         <v>0.9596892290365636</v>
       </c>
-      <c r="W26">
+      <c r="AA26">
         <v>0.8332967297984328</v>
       </c>
-      <c r="X26">
+      <c r="AB26">
         <v>0.4625823148663687</v>
       </c>
-      <c r="Y26">
+      <c r="AC26">
         <v>0.1362378561337755</v>
       </c>
-      <c r="Z26">
+      <c r="AD26">
         <v>0.03639139625839531</v>
       </c>
-      <c r="AA26">
+      <c r="AE26">
         <v>0.972607527439993</v>
       </c>
-      <c r="AB26">
+      <c r="AF26">
         <v>0.6157706322860007</v>
       </c>
-      <c r="AC26">
+      <c r="AG26">
         <v>0.1199187172256412</v>
       </c>
-      <c r="AD26">
+      <c r="AH26">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AE26">
+      <c r="AI26">
         <v>0.9872229941590491</v>
       </c>
-      <c r="AF26">
+      <c r="AJ26">
         <v>0.8762244437418861</v>
       </c>
-      <c r="AG26">
+      <c r="AK26">
         <v>0.984163122779715</v>
       </c>
-      <c r="AH26">
+      <c r="AL26">
         <v>0.9182864515503972</v>
       </c>
-      <c r="AI26">
+      <c r="AM26">
         <v>0.8066122496159761</v>
       </c>
-      <c r="AJ26">
+      <c r="AN26">
         <v>0.5086472717710645</v>
       </c>
-      <c r="AK26">
+      <c r="AO26">
+        <v>0.2961720671986993</v>
+      </c>
+      <c r="AP26">
         <v>0.1139388813049685</v>
       </c>
-      <c r="AL26">
+      <c r="AQ26">
         <v>0.035941329738035</v>
       </c>
-      <c r="AM26">
+      <c r="AR26">
         <v>0.9926057306618966</v>
       </c>
-      <c r="AN26">
+      <c r="AS26">
         <v>0.9140078207757334</v>
       </c>
-      <c r="AO26">
+      <c r="AT26">
         <v>0.4450201131710104</v>
       </c>
-      <c r="AP26">
+      <c r="AU26">
         <v>0.9493519842663015</v>
       </c>
-      <c r="AQ26">
+      <c r="AV26">
         <v>0.7886726250161061</v>
       </c>
-      <c r="AR26">
+      <c r="AW26">
         <v>0.6136259101690353</v>
       </c>
-      <c r="AS26">
+      <c r="AX26">
         <v>0.3116034593536261</v>
       </c>
-      <c r="AT26">
+      <c r="AY26">
         <v>0.08240959336185108</v>
       </c>
-      <c r="AU26">
+      <c r="AZ26">
         <v>0.03369079658568139</v>
       </c>
-      <c r="AV26">
+      <c r="BA26">
         <v>0.6031372840829119</v>
       </c>
-      <c r="AW26">
+      <c r="BB26">
         <v>0.2267075833447796</v>
       </c>
-      <c r="AX26">
+      <c r="BC26">
         <v>0.9994666432833114</v>
       </c>
-      <c r="AY26">
+      <c r="BD26">
         <v>0.9957331462664911</v>
       </c>
-      <c r="AZ26">
+      <c r="BE26">
+        <v>0.9856530692786163</v>
+      </c>
+      <c r="BF26">
+        <v>0.9462707503418234</v>
+      </c>
+      <c r="BG26">
+        <v>0.8473076073151937</v>
+      </c>
+      <c r="BH26">
+        <v>0.3808021737679091</v>
+      </c>
+      <c r="BI26">
+        <v>0.02974124553989513</v>
+      </c>
+      <c r="BJ26">
         <v>0.9937892775828635</v>
       </c>
-      <c r="BA26">
+      <c r="BK26">
         <v>0.9721345073793409</v>
       </c>
-      <c r="BB26">
+      <c r="BL26">
         <v>0.9244246214243893</v>
       </c>
-      <c r="BC26">
+      <c r="BM26">
         <v>0.7515591095663429</v>
       </c>
-      <c r="BD26">
+      <c r="BN26">
         <v>0.1206092606643635</v>
       </c>
-      <c r="BE26">
+      <c r="BO26">
         <v>0.02618996065179855</v>
       </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
+      <c r="BP26">
+        <v>1</v>
+      </c>
+      <c r="BQ26">
+        <v>0.9995999901010151</v>
+      </c>
+      <c r="BR26">
+        <v>0.9973999356565983</v>
+      </c>
+      <c r="BS26">
+        <v>1</v>
+      </c>
+      <c r="BT26">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BH26">
+      <c r="BU26">
         <v>0.9874238158142211</v>
       </c>
-      <c r="BI26">
+      <c r="BV26">
         <v>0.9946236069386468</v>
       </c>
-      <c r="BJ26">
+      <c r="BW26">
         <v>0.9946467523441129</v>
       </c>
-      <c r="BK26">
+      <c r="BX26">
         <v>0.962028262368767</v>
       </c>
-      <c r="BL26">
+      <c r="BY26">
         <v>0.9062907553562378</v>
       </c>
-      <c r="BM26">
+      <c r="BZ26">
         <v>0.6803365772971084</v>
       </c>
-      <c r="BN26">
+      <c r="CA26">
         <v>0.08124438061865892</v>
       </c>
-      <c r="BO26">
+      <c r="CB26">
         <v>0.01899125654136917</v>
       </c>
-      <c r="BP26">
+      <c r="CC26">
         <v>0.9768735099826468</v>
       </c>
-      <c r="BQ26">
+      <c r="CD26">
         <v>0.3921049650827302</v>
+      </c>
+      <c r="CE26">
+        <v>1</v>
+      </c>
+      <c r="CF26">
+        <v>1</v>
+      </c>
+      <c r="CG26">
+        <v>1</v>
+      </c>
+      <c r="CH26">
+        <v>1</v>
+      </c>
+      <c r="CI26">
+        <v>0.9433989113198787</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
+++ b/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>100_2_0.05_0.001</t>
   </si>
@@ -85,6 +85,15 @@
     <t>100_2_0.10_0.100_1.00</t>
   </si>
   <si>
+    <t>100_2_0.10_0.001_2.00</t>
+  </si>
+  <si>
+    <t>100_2_0.10_0.005_2.00</t>
+  </si>
+  <si>
+    <t>100_2_0.10_0.010_2.00</t>
+  </si>
+  <si>
     <t>100_2_0.15_0.010</t>
   </si>
   <si>
@@ -208,6 +217,9 @@
     <t>150_3_0.10_0.020</t>
   </si>
   <si>
+    <t>150_3_0.10_0.030</t>
+  </si>
+  <si>
     <t>150_3_0.10_0.050</t>
   </si>
   <si>
@@ -245,6 +257,9 @@
   </si>
   <si>
     <t>200_4_0.10_0.020</t>
+  </si>
+  <si>
+    <t>200_4_0.10_0.030</t>
   </si>
   <si>
     <t>200_4_0.10_0.050</t>
@@ -704,13 +719,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CI26"/>
+  <dimension ref="A1:CN26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:87">
+    <row r="1" spans="1:92">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,10 +984,25 @@
       <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:87">
+    <row r="2" spans="1:92">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>0.9637630729030069</v>
@@ -1044,198 +1074,213 @@
         <v>0.07054753675784142</v>
       </c>
       <c r="Y2">
+        <v>0.984647742937054</v>
+      </c>
+      <c r="Z2">
+        <v>0.8621622840112042</v>
+      </c>
+      <c r="AA2">
+        <v>0.6515810873723337</v>
+      </c>
+      <c r="AB2">
         <v>0.9979998040824323</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <v>0.8234331813070181</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <v>0.3542688248338444</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <v>0.1680193633956633</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>0.06044215119536072</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <v>0.03174481591836799</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <v>0.739437131950062</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <v>0.2022871642600201</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <v>0.05403339175988964</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <v>0.9940479402397331</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <v>0.6279343517817234</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <v>0.2845728848817547</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <v>0.98943069756166</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <v>0.9202167000139894</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <v>0.6965597324175541</v>
       </c>
-      <c r="AN2">
+      <c r="AQ2">
         <v>0.2865690945594032</v>
       </c>
-      <c r="AO2">
+      <c r="AR2">
         <v>0.1643643317109975</v>
       </c>
-      <c r="AP2">
+      <c r="AS2">
         <v>0.0712665909123494</v>
       </c>
-      <c r="AQ2">
+      <c r="AT2">
         <v>0.03203764725207969</v>
       </c>
-      <c r="AR2">
+      <c r="AU2">
         <v>0.5837427922709754</v>
       </c>
-      <c r="AS2">
+      <c r="AV2">
         <v>0.280355532984285</v>
       </c>
-      <c r="AT2">
+      <c r="AW2">
         <v>0.1431361470141155</v>
       </c>
-      <c r="AU2">
+      <c r="AX2">
         <v>0.9604337013597701</v>
       </c>
-      <c r="AV2">
+      <c r="AY2">
         <v>0.7228409725423356</v>
       </c>
-      <c r="AW2">
+      <c r="AZ2">
         <v>0.4632696626606392</v>
       </c>
-      <c r="AX2">
+      <c r="BA2">
         <v>0.1876240571479226</v>
       </c>
-      <c r="AY2">
+      <c r="BB2">
         <v>0.04788776774746705</v>
       </c>
-      <c r="AZ2">
+      <c r="BC2">
         <v>0.03098890730768522</v>
       </c>
-      <c r="BA2">
+      <c r="BD2">
         <v>0.1813833549803986</v>
       </c>
-      <c r="BB2">
+      <c r="BE2">
         <v>0.09738884064937885</v>
       </c>
-      <c r="BC2">
+      <c r="BF2">
         <v>0.9997333216416557</v>
       </c>
-      <c r="BD2">
+      <c r="BG2">
         <v>0.9981332514915898</v>
       </c>
-      <c r="BE2">
+      <c r="BH2">
         <v>0.9901472215878371</v>
       </c>
-      <c r="BF2">
+      <c r="BI2">
         <v>0.7687711271181944</v>
       </c>
-      <c r="BG2">
+      <c r="BJ2">
         <v>0.3217033872027883</v>
       </c>
-      <c r="BH2">
+      <c r="BK2">
         <v>0.09283552161143425</v>
       </c>
-      <c r="BI2">
+      <c r="BL2">
         <v>0.02814757522225226</v>
       </c>
-      <c r="BJ2">
+      <c r="BM2">
         <v>0.9967952846470951</v>
       </c>
-      <c r="BK2">
+      <c r="BN2">
         <v>0.975327380663122</v>
       </c>
-      <c r="BL2">
+      <c r="BO2">
         <v>0.8440329599630847</v>
       </c>
-      <c r="BM2">
+      <c r="BP2">
         <v>0.2897864963015163</v>
       </c>
-      <c r="BN2">
+      <c r="BQ2">
+        <v>0.1442593693145811</v>
+      </c>
+      <c r="BR2">
         <v>0.05122283276722361</v>
       </c>
-      <c r="BO2">
+      <c r="BS2">
         <v>0.02232763204907105</v>
       </c>
-      <c r="BP2">
-        <v>1</v>
-      </c>
-      <c r="BQ2">
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BR2">
+      <c r="BV2">
         <v>0.9974059669616305</v>
       </c>
-      <c r="BS2">
+      <c r="BW2">
         <v>0.9909308405237996</v>
       </c>
-      <c r="BT2">
+      <c r="BX2">
         <v>0.6569928610699992</v>
       </c>
-      <c r="BU2">
+      <c r="BY2">
         <v>0.3114300669880454</v>
       </c>
-      <c r="BV2">
+      <c r="BZ2">
         <v>0.3295579674177707</v>
       </c>
-      <c r="BW2">
+      <c r="CA2">
         <v>0.9969165914032172</v>
       </c>
-      <c r="BX2">
+      <c r="CB2">
         <v>0.9441361237575534</v>
       </c>
-      <c r="BY2">
+      <c r="CC2">
         <v>0.6615499477729663</v>
       </c>
-      <c r="BZ2">
+      <c r="CD2">
         <v>0.1615535829676643</v>
       </c>
-      <c r="CA2">
+      <c r="CE2">
+        <v>0.08238693958289219</v>
+      </c>
+      <c r="CF2">
         <v>0.03487929122281073</v>
       </c>
-      <c r="CB2">
+      <c r="CG2">
         <v>0.01428342100979789</v>
       </c>
-      <c r="CC2">
+      <c r="CH2">
         <v>0.180573136746276</v>
       </c>
-      <c r="CD2">
+      <c r="CI2">
         <v>0.07851135901753734</v>
       </c>
-      <c r="CE2">
-        <v>1</v>
-      </c>
-      <c r="CF2">
-        <v>1</v>
-      </c>
-      <c r="CG2">
-        <v>1</v>
-      </c>
-      <c r="CH2">
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
         <v>0.7886222276530617</v>
       </c>
-      <c r="CI2">
+      <c r="CN2">
         <v>0.101455562744757</v>
       </c>
     </row>
-    <row r="3" spans="1:87">
+    <row r="3" spans="1:92">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>0.9094069535352416</v>
@@ -1307,198 +1352,213 @@
         <v>0.03981200133023649</v>
       </c>
       <c r="Y3">
+        <v>0.205816665332634</v>
+      </c>
+      <c r="Z3">
+        <v>0.2241952024427494</v>
+      </c>
+      <c r="AA3">
+        <v>0.1845393534732221</v>
+      </c>
+      <c r="AB3">
         <v>0.9972078170128335</v>
       </c>
-      <c r="Z3">
+      <c r="AC3">
         <v>0.9616733805682933</v>
       </c>
-      <c r="AA3">
+      <c r="AD3">
         <v>0.7928505543626856</v>
       </c>
-      <c r="AB3">
+      <c r="AE3">
         <v>0.4039075724033849</v>
       </c>
-      <c r="AC3">
+      <c r="AF3">
         <v>0.1141999618599667</v>
       </c>
-      <c r="AD3">
+      <c r="AG3">
         <v>0.03047549486814621</v>
       </c>
-      <c r="AE3">
+      <c r="AH3">
         <v>0.9714721746383936</v>
       </c>
-      <c r="AF3">
+      <c r="AI3">
         <v>0.5257730212604158</v>
       </c>
-      <c r="AG3">
+      <c r="AJ3">
         <v>0.08923100352646786</v>
       </c>
-      <c r="AH3">
+      <c r="AK3">
         <v>0.999199921632973</v>
       </c>
-      <c r="AI3">
+      <c r="AL3">
         <v>0.989231281374045</v>
       </c>
-      <c r="AJ3">
+      <c r="AM3">
         <v>0.822810301702671</v>
       </c>
-      <c r="AK3">
+      <c r="AN3">
         <v>0.9472830702666605</v>
       </c>
-      <c r="AL3">
+      <c r="AO3">
         <v>0.8479273012485716</v>
       </c>
-      <c r="AM3">
+      <c r="AP3">
         <v>0.6781854502151238</v>
       </c>
-      <c r="AN3">
+      <c r="AQ3">
         <v>0.4146253958965468</v>
       </c>
-      <c r="AO3">
+      <c r="AR3">
         <v>0.233650558897011</v>
       </c>
-      <c r="AP3">
+      <c r="AS3">
         <v>0.0950076104972236</v>
       </c>
-      <c r="AQ3">
+      <c r="AT3">
         <v>0.03135215799310445</v>
       </c>
-      <c r="AR3">
+      <c r="AU3">
         <v>0.9929015143110423</v>
       </c>
-      <c r="AS3">
+      <c r="AV3">
         <v>0.8591394940811858</v>
       </c>
-      <c r="AT3">
+      <c r="AW3">
         <v>0.3153021953927613</v>
       </c>
-      <c r="AU3">
+      <c r="AX3">
         <v>0.7708450866457162</v>
       </c>
-      <c r="AV3">
+      <c r="AY3">
         <v>0.5931114535221299</v>
       </c>
-      <c r="AW3">
+      <c r="AZ3">
         <v>0.4354230832114013</v>
       </c>
-      <c r="AX3">
+      <c r="BA3">
         <v>0.2378210477708514</v>
       </c>
-      <c r="AY3">
+      <c r="BB3">
         <v>0.07586665452095578</v>
       </c>
-      <c r="AZ3">
+      <c r="BC3">
         <v>0.03247346494883849</v>
       </c>
-      <c r="BA3">
+      <c r="BD3">
         <v>0.4904244513402178</v>
       </c>
-      <c r="BB3">
+      <c r="BE3">
         <v>0.1698314685656082</v>
       </c>
-      <c r="BC3">
+      <c r="BF3">
         <v>0.9997333216416557</v>
       </c>
-      <c r="BD3">
+      <c r="BG3">
         <v>0.9978665731332456</v>
       </c>
-      <c r="BE3">
+      <c r="BH3">
         <v>0.9917401338600811</v>
       </c>
-      <c r="BF3">
+      <c r="BI3">
         <v>0.9408854006371457</v>
       </c>
-      <c r="BG3">
+      <c r="BJ3">
         <v>0.8072250180792079</v>
       </c>
-      <c r="BH3">
+      <c r="BK3">
         <v>0.2942326304869788</v>
       </c>
-      <c r="BI3">
+      <c r="BL3">
         <v>0.02524000174349684</v>
       </c>
-      <c r="BJ3">
+      <c r="BM3">
         <v>0.9922696255373815</v>
       </c>
-      <c r="BK3">
+      <c r="BN3">
         <v>0.957887583893135</v>
       </c>
-      <c r="BL3">
+      <c r="BO3">
         <v>0.8889850002097155</v>
       </c>
-      <c r="BM3">
+      <c r="BP3">
         <v>0.637160165488049</v>
       </c>
-      <c r="BN3">
+      <c r="BQ3">
+        <v>0.3363048438282468</v>
+      </c>
+      <c r="BR3">
         <v>0.08655805437008061</v>
       </c>
-      <c r="BO3">
+      <c r="BS3">
         <v>0.02203578506605368</v>
       </c>
-      <c r="BP3">
-        <v>1</v>
-      </c>
-      <c r="BQ3">
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BR3">
+      <c r="BV3">
         <v>0.9983999604040605</v>
       </c>
-      <c r="BS3">
-        <v>1</v>
-      </c>
-      <c r="BT3">
+      <c r="BW3">
+        <v>1</v>
+      </c>
+      <c r="BX3">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BU3">
+      <c r="BY3">
         <v>0.9804879739419493</v>
       </c>
-      <c r="BV3">
+      <c r="BZ3">
         <v>0.9950678743951148</v>
       </c>
-      <c r="BW3">
+      <c r="CA3">
         <v>0.9863886309697759</v>
       </c>
-      <c r="BX3">
+      <c r="CB3">
         <v>0.9306586356799963</v>
       </c>
-      <c r="BY3">
+      <c r="CC3">
         <v>0.8330394420467792</v>
       </c>
-      <c r="BZ3">
+      <c r="CD3">
         <v>0.4874808429108185</v>
       </c>
-      <c r="CA3">
+      <c r="CE3">
+        <v>0.207512035008717</v>
+      </c>
+      <c r="CF3">
         <v>0.058006083766369</v>
       </c>
-      <c r="CB3">
+      <c r="CG3">
         <v>0.01419496698673787</v>
       </c>
-      <c r="CC3">
+      <c r="CH3">
         <v>0.920408727075117</v>
       </c>
-      <c r="CD3">
+      <c r="CI3">
         <v>0.1837670113590898</v>
       </c>
-      <c r="CE3">
-        <v>1</v>
-      </c>
-      <c r="CF3">
-        <v>1</v>
-      </c>
-      <c r="CG3">
-        <v>1</v>
-      </c>
-      <c r="CH3">
-        <v>1</v>
-      </c>
-      <c r="CI3">
+      <c r="CJ3">
+        <v>1</v>
+      </c>
+      <c r="CK3">
+        <v>1</v>
+      </c>
+      <c r="CL3">
+        <v>1</v>
+      </c>
+      <c r="CM3">
+        <v>1</v>
+      </c>
+      <c r="CN3">
         <v>0.8991033432523213</v>
       </c>
     </row>
-    <row r="4" spans="1:87">
+    <row r="4" spans="1:92">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>0.9065387393091242</v>
@@ -1570,198 +1630,213 @@
         <v>0.03734072934296138</v>
       </c>
       <c r="Y4">
+        <v>0.215475867288629</v>
+      </c>
+      <c r="Z4">
+        <v>0.2246556861160116</v>
+      </c>
+      <c r="AA4">
+        <v>0.1834191140170481</v>
+      </c>
+      <c r="AB4">
         <v>0.9964077386458063</v>
       </c>
-      <c r="Z4">
+      <c r="AC4">
         <v>0.9476842210016168</v>
       </c>
-      <c r="AA4">
+      <c r="AD4">
         <v>0.702458006850482</v>
       </c>
-      <c r="AB4">
+      <c r="AE4">
         <v>0.2984874022441744</v>
       </c>
-      <c r="AC4">
+      <c r="AF4">
         <v>0.08710360717903846</v>
       </c>
-      <c r="AD4">
+      <c r="AG4">
         <v>0.02711957510357798</v>
       </c>
-      <c r="AE4">
+      <c r="AH4">
         <v>0.9671444731994149</v>
       </c>
-      <c r="AF4">
+      <c r="AI4">
         <v>0.3845851804923159</v>
       </c>
-      <c r="AG4">
+      <c r="AJ4">
         <v>0.07366690314209375</v>
       </c>
-      <c r="AH4">
+      <c r="AK4">
         <v>0.9983998432659459</v>
       </c>
-      <c r="AI4">
+      <c r="AL4">
         <v>0.9809113165404568</v>
       </c>
-      <c r="AJ4">
+      <c r="AM4">
         <v>0.5802054033069891</v>
       </c>
-      <c r="AK4">
+      <c r="AN4">
         <v>0.9295450293655043</v>
       </c>
-      <c r="AL4">
+      <c r="AO4">
         <v>0.8178612549372251</v>
       </c>
-      <c r="AM4">
+      <c r="AP4">
         <v>0.6359698119278475</v>
       </c>
-      <c r="AN4">
+      <c r="AQ4">
         <v>0.3656440593412863</v>
       </c>
-      <c r="AO4">
+      <c r="AR4">
         <v>0.2080578507820804</v>
       </c>
-      <c r="AP4">
+      <c r="AS4">
         <v>0.08212919588753813</v>
       </c>
-      <c r="AQ4">
+      <c r="AT4">
         <v>0.02966602518815078</v>
       </c>
-      <c r="AR4">
+      <c r="AU4">
         <v>0.9911323168079517</v>
       </c>
-      <c r="AS4">
+      <c r="AV4">
         <v>0.6142242366161245</v>
       </c>
-      <c r="AT4">
+      <c r="AW4">
         <v>0.2144999536766693</v>
       </c>
-      <c r="AU4">
+      <c r="AX4">
         <v>0.7368749253966785</v>
       </c>
-      <c r="AV4">
+      <c r="AY4">
         <v>0.565376862415549</v>
       </c>
-      <c r="AW4">
+      <c r="AZ4">
         <v>0.4168491871526004</v>
       </c>
-      <c r="AX4">
+      <c r="BA4">
         <v>0.2138041754154176</v>
       </c>
-      <c r="AY4">
+      <c r="BB4">
         <v>0.06695476631133221</v>
       </c>
-      <c r="AZ4">
+      <c r="BC4">
         <v>0.02899709610647008</v>
       </c>
-      <c r="BA4">
+      <c r="BD4">
         <v>0.3222338670351594</v>
       </c>
-      <c r="BB4">
+      <c r="BE4">
         <v>0.1387363484084348</v>
       </c>
-      <c r="BC4">
+      <c r="BF4">
         <v>0.9997333216416557</v>
       </c>
-      <c r="BD4">
+      <c r="BG4">
         <v>0.9970701195425901</v>
       </c>
-      <c r="BE4">
+      <c r="BH4">
         <v>0.9901472215878369</v>
       </c>
-      <c r="BF4">
+      <c r="BI4">
         <v>0.931347750102878</v>
       </c>
-      <c r="BG4">
+      <c r="BJ4">
         <v>0.7448171270846444</v>
       </c>
-      <c r="BH4">
+      <c r="BK4">
         <v>0.2030482492292514</v>
       </c>
-      <c r="BI4">
+      <c r="BL4">
         <v>0.02028660988169273</v>
       </c>
-      <c r="BJ4">
+      <c r="BM4">
         <v>0.9891033371286558</v>
       </c>
-      <c r="BK4">
+      <c r="BN4">
         <v>0.9438382314181004</v>
       </c>
-      <c r="BL4">
+      <c r="BO4">
         <v>0.8515456807115711</v>
       </c>
-      <c r="BM4">
+      <c r="BP4">
         <v>0.550850037546864</v>
       </c>
-      <c r="BN4">
+      <c r="BQ4">
+        <v>0.2500790309297679</v>
+      </c>
+      <c r="BR4">
         <v>0.07353498438936895</v>
       </c>
-      <c r="BO4">
+      <c r="BS4">
         <v>0.01893914588009453</v>
       </c>
-      <c r="BP4">
-        <v>1</v>
-      </c>
-      <c r="BQ4">
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR4">
+      <c r="BV4">
         <v>0.9976019513091142</v>
       </c>
-      <c r="BS4">
-        <v>1</v>
-      </c>
-      <c r="BT4">
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BU4">
+      <c r="BY4">
         <v>0.77972505925649</v>
       </c>
-      <c r="BV4">
+      <c r="BZ4">
         <v>0.9251495648420902</v>
       </c>
-      <c r="BW4">
+      <c r="CA4">
         <v>0.9731214201969496</v>
       </c>
-      <c r="BX4">
+      <c r="CB4">
         <v>0.9102090202406775</v>
       </c>
-      <c r="BY4">
+      <c r="CC4">
         <v>0.7808354281723168</v>
       </c>
-      <c r="BZ4">
+      <c r="CD4">
         <v>0.3611228911221068</v>
       </c>
-      <c r="CA4">
+      <c r="CE4">
+        <v>0.1457102348675441</v>
+      </c>
+      <c r="CF4">
         <v>0.04585470136190287</v>
       </c>
-      <c r="CB4">
+      <c r="CG4">
         <v>0.01145188990612546</v>
       </c>
-      <c r="CC4">
+      <c r="CH4">
         <v>0.4206727553459844</v>
       </c>
-      <c r="CD4">
+      <c r="CI4">
         <v>0.1190681821654176</v>
       </c>
-      <c r="CE4">
-        <v>1</v>
-      </c>
-      <c r="CF4">
-        <v>1</v>
-      </c>
-      <c r="CG4">
-        <v>1</v>
-      </c>
-      <c r="CH4">
-        <v>1</v>
-      </c>
-      <c r="CI4">
+      <c r="CJ4">
+        <v>1</v>
+      </c>
+      <c r="CK4">
+        <v>1</v>
+      </c>
+      <c r="CL4">
+        <v>1</v>
+      </c>
+      <c r="CM4">
+        <v>1</v>
+      </c>
+      <c r="CN4">
         <v>0.3176530031352835</v>
       </c>
     </row>
-    <row r="5" spans="1:87">
+    <row r="5" spans="1:92">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>0.9453617996174155</v>
@@ -1833,198 +1908,213 @@
         <v>0.03308877372058235</v>
       </c>
       <c r="Y5">
+        <v>0.9049091580033369</v>
+      </c>
+      <c r="Z5">
+        <v>0.3423718493906538</v>
+      </c>
+      <c r="AA5">
+        <v>0.1399376491324905</v>
+      </c>
+      <c r="AB5">
         <v>0.994007490614324</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>0.9585052617557395</v>
       </c>
-      <c r="AA5">
+      <c r="AD5">
         <v>0.833625261795542</v>
       </c>
-      <c r="AB5">
+      <c r="AE5">
         <v>0.4627585641828143</v>
       </c>
-      <c r="AC5">
+      <c r="AF5">
         <v>0.1396563115233971</v>
       </c>
-      <c r="AD5">
+      <c r="AG5">
         <v>0.03437765505948963</v>
       </c>
-      <c r="AE5">
+      <c r="AH5">
         <v>0.974199551249703</v>
       </c>
-      <c r="AF5">
+      <c r="AI5">
         <v>0.6199568678100009</v>
       </c>
-      <c r="AG5">
+      <c r="AJ5">
         <v>0.1208413278155686</v>
       </c>
-      <c r="AH5">
+      <c r="AK5">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AI5">
+      <c r="AL5">
         <v>0.9860228766085086</v>
       </c>
-      <c r="AJ5">
+      <c r="AM5">
         <v>0.8785684482343629</v>
       </c>
-      <c r="AK5">
+      <c r="AN5">
         <v>0.9847499139715131</v>
       </c>
-      <c r="AL5">
+      <c r="AO5">
         <v>0.9193227235267988</v>
       </c>
-      <c r="AM5">
+      <c r="AP5">
         <v>0.8045242478621693</v>
       </c>
-      <c r="AN5">
+      <c r="AQ5">
         <v>0.5128176739404937</v>
       </c>
-      <c r="AO5">
+      <c r="AR5">
         <v>0.2932416285544633</v>
       </c>
-      <c r="AP5">
+      <c r="AS5">
         <v>0.1105573129699418</v>
       </c>
-      <c r="AQ5">
+      <c r="AT5">
         <v>0.03340421210867876</v>
       </c>
-      <c r="AR5">
+      <c r="AU5">
         <v>0.9917276608026433</v>
       </c>
-      <c r="AS5">
+      <c r="AV5">
         <v>0.914385347712137</v>
       </c>
-      <c r="AT5">
+      <c r="AW5">
         <v>0.4461107575658896</v>
       </c>
-      <c r="AU5">
+      <c r="AX5">
         <v>0.9506922807050496</v>
       </c>
-      <c r="AV5">
+      <c r="AY5">
         <v>0.7898324124164929</v>
       </c>
-      <c r="AW5">
+      <c r="AZ5">
         <v>0.6093747974825581</v>
       </c>
-      <c r="AX5">
+      <c r="BA5">
         <v>0.3134042100698353</v>
       </c>
-      <c r="AY5">
+      <c r="BB5">
         <v>0.07893607524697435</v>
       </c>
-      <c r="AZ5">
+      <c r="BC5">
         <v>0.03360949590977539</v>
       </c>
-      <c r="BA5">
+      <c r="BD5">
         <v>0.5984957875306192</v>
       </c>
-      <c r="BB5">
+      <c r="BE5">
         <v>0.2261887366683209</v>
       </c>
-      <c r="BC5">
+      <c r="BF5">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD5">
+      <c r="BG5">
         <v>0.9957331462664911</v>
       </c>
-      <c r="BE5">
+      <c r="BH5">
         <v>0.9867018841992257</v>
       </c>
-      <c r="BF5">
+      <c r="BI5">
         <v>0.9493813773877424</v>
       </c>
-      <c r="BG5">
+      <c r="BJ5">
         <v>0.8485262847829819</v>
       </c>
-      <c r="BH5">
+      <c r="BK5">
         <v>0.3744171913650723</v>
       </c>
-      <c r="BI5">
+      <c r="BL5">
         <v>0.02861425582164667</v>
       </c>
-      <c r="BJ5">
+      <c r="BM5">
         <v>0.9941865006665246</v>
       </c>
-      <c r="BK5">
+      <c r="BN5">
         <v>0.9727325866770054</v>
       </c>
-      <c r="BL5">
+      <c r="BO5">
         <v>0.9250543470928778</v>
       </c>
-      <c r="BM5">
+      <c r="BP5">
         <v>0.7553721781614621</v>
       </c>
-      <c r="BN5">
+      <c r="BQ5">
+        <v>0.4757097392159629</v>
+      </c>
+      <c r="BR5">
         <v>0.1182458433010575</v>
       </c>
-      <c r="BO5">
+      <c r="BS5">
         <v>0.02313304038267702</v>
       </c>
-      <c r="BP5">
-        <v>1</v>
-      </c>
-      <c r="BQ5">
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR5">
+      <c r="BV5">
         <v>0.9975999406060907</v>
       </c>
-      <c r="BS5">
-        <v>1</v>
-      </c>
-      <c r="BT5">
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BU5">
+      <c r="BY5">
         <v>0.9872378827463723</v>
       </c>
-      <c r="BV5">
+      <c r="BZ5">
         <v>0.9955191172668674</v>
       </c>
-      <c r="BW5">
+      <c r="CA5">
         <v>0.994646752344113</v>
       </c>
-      <c r="BX5">
+      <c r="CB5">
         <v>0.9625875713947006</v>
       </c>
-      <c r="BY5">
+      <c r="CC5">
         <v>0.9085258472653507</v>
       </c>
-      <c r="BZ5">
+      <c r="CD5">
         <v>0.6804719299471677</v>
       </c>
-      <c r="CA5">
+      <c r="CE5">
+        <v>0.3220138447303713</v>
+      </c>
+      <c r="CF5">
         <v>0.0836596804541747</v>
       </c>
-      <c r="CB5">
+      <c r="CG5">
         <v>0.0167874856413665</v>
       </c>
-      <c r="CC5">
+      <c r="CH5">
         <v>0.978038795715463</v>
       </c>
-      <c r="CD5">
+      <c r="CI5">
         <v>0.3955129184763343</v>
       </c>
-      <c r="CE5">
-        <v>1</v>
-      </c>
-      <c r="CF5">
-        <v>1</v>
-      </c>
-      <c r="CG5">
-        <v>1</v>
-      </c>
-      <c r="CH5">
-        <v>1</v>
-      </c>
-      <c r="CI5">
+      <c r="CJ5">
+        <v>1</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>1</v>
+      </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CN5">
         <v>0.9433310977065612</v>
       </c>
     </row>
-    <row r="6" spans="1:87">
+    <row r="6" spans="1:92">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0.9676905978028074</v>
@@ -2096,198 +2186,213 @@
         <v>0.09048879721124523</v>
       </c>
       <c r="Y6">
+        <v>0.9844082870568924</v>
+      </c>
+      <c r="Z6">
+        <v>0.7750359482051493</v>
+      </c>
+      <c r="AA6">
+        <v>0.5896662433091392</v>
+      </c>
+      <c r="AB6">
         <v>0.9983998432659458</v>
       </c>
-      <c r="Z6">
+      <c r="AC6">
         <v>0.8357550870241258</v>
       </c>
-      <c r="AA6">
+      <c r="AD6">
         <v>0.4412300990491717</v>
       </c>
-      <c r="AB6">
+      <c r="AE6">
         <v>0.2456630201492652</v>
       </c>
-      <c r="AC6">
+      <c r="AF6">
         <v>0.1433124709465088</v>
       </c>
-      <c r="AD6">
+      <c r="AG6">
         <v>0.06016762110362487</v>
       </c>
-      <c r="AE6">
+      <c r="AH6">
         <v>0.7677591629699893</v>
       </c>
-      <c r="AF6">
+      <c r="AI6">
         <v>0.2634640038837574</v>
       </c>
-      <c r="AG6">
+      <c r="AJ6">
         <v>0.1386266307790897</v>
       </c>
-      <c r="AH6">
+      <c r="AK6">
         <v>0.9960319442612936</v>
       </c>
-      <c r="AI6">
+      <c r="AL6">
         <v>0.6880641574516987</v>
       </c>
-      <c r="AJ6">
+      <c r="AM6">
         <v>0.3491461644796219</v>
       </c>
-      <c r="AK6">
+      <c r="AN6">
         <v>0.9894262855978119</v>
       </c>
-      <c r="AL6">
+      <c r="AO6">
         <v>0.9229131562521556</v>
       </c>
-      <c r="AM6">
+      <c r="AP6">
         <v>0.68321836150514</v>
       </c>
-      <c r="AN6">
+      <c r="AQ6">
         <v>0.3025362777660961</v>
       </c>
-      <c r="AO6">
+      <c r="AR6">
         <v>0.1947381498467781</v>
       </c>
-      <c r="AP6">
+      <c r="AS6">
         <v>0.1252053318421003</v>
       </c>
-      <c r="AQ6">
+      <c r="AT6">
         <v>0.05465398163449648</v>
       </c>
-      <c r="AR6">
+      <c r="AU6">
         <v>0.6141647629682762</v>
       </c>
-      <c r="AS6">
+      <c r="AV6">
         <v>0.3418309612294037</v>
       </c>
-      <c r="AT6">
+      <c r="AW6">
         <v>0.1983893446429503</v>
       </c>
-      <c r="AU6">
+      <c r="AX6">
         <v>0.9626276185716702</v>
       </c>
-      <c r="AV6">
+      <c r="AY6">
         <v>0.7088407233815404</v>
       </c>
-      <c r="AW6">
+      <c r="AZ6">
         <v>0.445250421284492</v>
       </c>
-      <c r="AX6">
+      <c r="BA6">
         <v>0.2018922755702221</v>
       </c>
-      <c r="AY6">
+      <c r="BB6">
         <v>0.08008565940400766</v>
       </c>
-      <c r="AZ6">
+      <c r="BC6">
         <v>0.05027926802079117</v>
       </c>
-      <c r="BA6">
+      <c r="BD6">
         <v>0.2563971496730096</v>
       </c>
-      <c r="BB6">
+      <c r="BE6">
         <v>0.2172457901845333</v>
       </c>
-      <c r="BC6">
-        <v>1</v>
-      </c>
-      <c r="BD6">
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
         <v>0.9989332865666227</v>
       </c>
-      <c r="BE6">
+      <c r="BH6">
         <v>0.9920103911573364</v>
       </c>
-      <c r="BF6">
+      <c r="BI6">
         <v>0.7891512104251148</v>
       </c>
-      <c r="BG6">
+      <c r="BJ6">
         <v>0.3929358869225305</v>
       </c>
-      <c r="BH6">
+      <c r="BK6">
         <v>0.1930095987295508</v>
       </c>
-      <c r="BI6">
+      <c r="BL6">
         <v>0.07034291294371547</v>
       </c>
-      <c r="BJ6">
+      <c r="BM6">
         <v>0.9961953545403839</v>
       </c>
-      <c r="BK6">
+      <c r="BN6">
         <v>0.9735370824200688</v>
       </c>
-      <c r="BL6">
+      <c r="BO6">
         <v>0.8431420241049485</v>
       </c>
-      <c r="BM6">
+      <c r="BP6">
         <v>0.3070554179324931</v>
       </c>
-      <c r="BN6">
+      <c r="BQ6">
+        <v>0.189195859457112</v>
+      </c>
+      <c r="BR6">
         <v>0.1337530616171959</v>
       </c>
-      <c r="BO6">
+      <c r="BS6">
         <v>0.06038883884886161</v>
       </c>
-      <c r="BP6">
-        <v>1</v>
-      </c>
-      <c r="BQ6">
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BR6">
+      <c r="BV6">
         <v>0.9980059826141465</v>
       </c>
-      <c r="BS6">
-        <v>1</v>
-      </c>
-      <c r="BT6">
+      <c r="BW6">
+        <v>1</v>
+      </c>
+      <c r="BX6">
         <v>0.7189422104465518</v>
       </c>
-      <c r="BU6">
+      <c r="BY6">
         <v>0.4021629526073812</v>
       </c>
-      <c r="BV6">
+      <c r="BZ6">
         <v>0.3634425244558295</v>
       </c>
-      <c r="BW6">
+      <c r="CA6">
         <v>0.9965280742354939</v>
       </c>
-      <c r="BX6">
+      <c r="CB6">
         <v>0.94363459591424</v>
       </c>
-      <c r="BY6">
+      <c r="CC6">
         <v>0.6557856909304134</v>
       </c>
-      <c r="BZ6">
+      <c r="CD6">
         <v>0.1867712167802713</v>
       </c>
-      <c r="CA6">
+      <c r="CE6">
+        <v>0.1272504482891389</v>
+      </c>
+      <c r="CF6">
         <v>0.09227686753790049</v>
       </c>
-      <c r="CB6">
+      <c r="CG6">
         <v>0.04372167221789883</v>
       </c>
-      <c r="CC6">
+      <c r="CH6">
         <v>0.2313272048852544</v>
       </c>
-      <c r="CD6">
+      <c r="CI6">
         <v>0.2132430041045927</v>
       </c>
-      <c r="CE6">
-        <v>1</v>
-      </c>
-      <c r="CF6">
-        <v>1</v>
-      </c>
-      <c r="CG6">
-        <v>1</v>
-      </c>
-      <c r="CH6">
+      <c r="CJ6">
+        <v>1</v>
+      </c>
+      <c r="CK6">
+        <v>1</v>
+      </c>
+      <c r="CL6">
+        <v>1</v>
+      </c>
+      <c r="CM6">
         <v>0.9281588190222962</v>
       </c>
-      <c r="CI6">
+      <c r="CN6">
         <v>0.176323493782259</v>
       </c>
     </row>
-    <row r="7" spans="1:87">
+    <row r="7" spans="1:92">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>0.9641468988847035</v>
@@ -2359,198 +2464,213 @@
         <v>0.1759990288099625</v>
       </c>
       <c r="Y7">
+        <v>0.9938786614673076</v>
+      </c>
+      <c r="Z7">
+        <v>0.9489921269203925</v>
+      </c>
+      <c r="AA7">
+        <v>0.8969778586406595</v>
+      </c>
+      <c r="AB7">
         <v>0.9987998824494594</v>
       </c>
-      <c r="Z7">
+      <c r="AC7">
         <v>0.9624168341045585</v>
       </c>
-      <c r="AA7">
+      <c r="AD7">
         <v>0.7808997651156855</v>
       </c>
-      <c r="AB7">
+      <c r="AE7">
         <v>0.4394435080460131</v>
       </c>
-      <c r="AC7">
+      <c r="AF7">
         <v>0.2763274447547255</v>
       </c>
-      <c r="AD7">
+      <c r="AG7">
         <v>0.1095823539106356</v>
       </c>
-      <c r="AE7">
+      <c r="AH7">
         <v>0.9742239423673645</v>
       </c>
-      <c r="AF7">
+      <c r="AI7">
         <v>0.5589595820427803</v>
       </c>
-      <c r="AG7">
+      <c r="AJ7">
         <v>0.3467274965841823</v>
       </c>
-      <c r="AH7">
+      <c r="AK7">
         <v>0.9987998824494594</v>
       </c>
-      <c r="AI7">
+      <c r="AL7">
         <v>0.9872310692935946</v>
       </c>
-      <c r="AJ7">
+      <c r="AM7">
         <v>0.8193355961026815</v>
       </c>
-      <c r="AK7">
+      <c r="AN7">
         <v>0.989421962687444</v>
       </c>
-      <c r="AL7">
+      <c r="AO7">
         <v>0.9285256137349279</v>
       </c>
-      <c r="AM7">
+      <c r="AP7">
         <v>0.7786272706329239</v>
       </c>
-      <c r="AN7">
+      <c r="AQ7">
         <v>0.4168468770071718</v>
       </c>
-      <c r="AO7">
+      <c r="AR7">
         <v>0.2574027626322203</v>
       </c>
-      <c r="AP7">
+      <c r="AS7">
         <v>0.1666842787742109</v>
       </c>
-      <c r="AQ7">
+      <c r="AT7">
         <v>0.09900993485388603</v>
       </c>
-      <c r="AR7">
+      <c r="AU7">
         <v>0.9940923804073859</v>
       </c>
-      <c r="AS7">
+      <c r="AV7">
         <v>0.8454208926102641</v>
       </c>
-      <c r="AT7">
+      <c r="AW7">
         <v>0.3749793017567455</v>
       </c>
-      <c r="AU7">
+      <c r="AX7">
         <v>0.9597875412822066</v>
       </c>
-      <c r="AV7">
+      <c r="AY7">
         <v>0.7462686620309869</v>
       </c>
-      <c r="AW7">
+      <c r="AZ7">
         <v>0.5316164149222318</v>
       </c>
-      <c r="AX7">
+      <c r="BA7">
         <v>0.255151041994494</v>
       </c>
-      <c r="AY7">
+      <c r="BB7">
         <v>0.1157128591371404</v>
       </c>
-      <c r="AZ7">
+      <c r="BC7">
         <v>0.08756197656706342</v>
       </c>
-      <c r="BA7">
+      <c r="BD7">
         <v>0.4860550338023807</v>
       </c>
-      <c r="BB7">
+      <c r="BE7">
         <v>0.3272983050283574</v>
       </c>
-      <c r="BC7">
-        <v>1</v>
-      </c>
-      <c r="BD7">
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
         <v>0.9981332514915898</v>
       </c>
-      <c r="BE7">
+      <c r="BH7">
         <v>0.9938699792424582</v>
       </c>
-      <c r="BF7">
+      <c r="BI7">
         <v>0.9450449157805701</v>
       </c>
-      <c r="BG7">
+      <c r="BJ7">
         <v>0.8108272216123664</v>
       </c>
-      <c r="BH7">
+      <c r="BK7">
         <v>0.3604151154721951</v>
       </c>
-      <c r="BI7">
+      <c r="BL7">
         <v>0.1540801749205739</v>
       </c>
-      <c r="BJ7">
+      <c r="BM7">
         <v>0.997192646380856</v>
       </c>
-      <c r="BK7">
+      <c r="BN7">
         <v>0.9768850540143603</v>
       </c>
-      <c r="BL7">
+      <c r="BO7">
         <v>0.9194980535938487</v>
       </c>
-      <c r="BM7">
+      <c r="BP7">
         <v>0.6440098487822126</v>
       </c>
-      <c r="BN7">
+      <c r="BQ7">
+        <v>0.3416596156432907</v>
+      </c>
+      <c r="BR7">
         <v>0.2244389383979003</v>
       </c>
-      <c r="BO7">
+      <c r="BS7">
         <v>0.1372051058684097</v>
       </c>
-      <c r="BP7">
-        <v>1</v>
-      </c>
-      <c r="BQ7">
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BR7">
+      <c r="BV7">
         <v>0.9981999554545681</v>
       </c>
-      <c r="BS7">
-        <v>1</v>
-      </c>
-      <c r="BT7">
+      <c r="BW7">
+        <v>1</v>
+      </c>
+      <c r="BX7">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BU7">
+      <c r="BY7">
         <v>0.9801120934071256</v>
       </c>
-      <c r="BV7">
+      <c r="BZ7">
         <v>0.9938834322166185</v>
       </c>
-      <c r="BW7">
+      <c r="CA7">
         <v>0.9969259282465214</v>
       </c>
-      <c r="BX7">
+      <c r="CB7">
         <v>0.96403549645121</v>
       </c>
-      <c r="BY7">
+      <c r="CC7">
         <v>0.8752216713866423</v>
       </c>
-      <c r="BZ7">
+      <c r="CD7">
         <v>0.4434134851995332</v>
       </c>
-      <c r="CA7">
+      <c r="CE7">
+        <v>0.2203218498145876</v>
+      </c>
+      <c r="CF7">
         <v>0.1773603484864924</v>
       </c>
-      <c r="CB7">
+      <c r="CG7">
         <v>0.1211106271230779</v>
       </c>
-      <c r="CC7">
+      <c r="CH7">
         <v>0.926508377146511</v>
       </c>
-      <c r="CD7">
+      <c r="CI7">
         <v>0.3404887253506378</v>
       </c>
-      <c r="CE7">
-        <v>1</v>
-      </c>
-      <c r="CF7">
-        <v>1</v>
-      </c>
-      <c r="CG7">
-        <v>1</v>
-      </c>
-      <c r="CH7">
-        <v>1</v>
-      </c>
-      <c r="CI7">
+      <c r="CJ7">
+        <v>1</v>
+      </c>
+      <c r="CK7">
+        <v>1</v>
+      </c>
+      <c r="CL7">
+        <v>1</v>
+      </c>
+      <c r="CM7">
+        <v>1</v>
+      </c>
+      <c r="CN7">
         <v>0.9070215811792847</v>
       </c>
     </row>
-    <row r="8" spans="1:87">
+    <row r="8" spans="1:92">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>0.961762753426727</v>
@@ -2622,198 +2742,213 @@
         <v>0.04835481671921969</v>
       </c>
       <c r="Y8">
+        <v>0.9554440402664247</v>
+      </c>
+      <c r="Z8">
+        <v>0.7785404830698985</v>
+      </c>
+      <c r="AA8">
+        <v>0.6728971983853999</v>
+      </c>
+      <c r="AB8">
         <v>0.996007699462293</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>0.9620409608196545</v>
       </c>
-      <c r="AA8">
+      <c r="AD8">
         <v>0.8114099206665182</v>
       </c>
-      <c r="AB8">
+      <c r="AE8">
         <v>0.4106461570865457</v>
       </c>
-      <c r="AC8">
+      <c r="AF8">
         <v>0.1211021024806437</v>
       </c>
-      <c r="AD8">
+      <c r="AG8">
         <v>0.03382270993791437</v>
       </c>
-      <c r="AE8">
+      <c r="AH8">
         <v>0.9745996765238616</v>
       </c>
-      <c r="AF8">
+      <c r="AI8">
         <v>0.5767890820141252</v>
       </c>
-      <c r="AG8">
+      <c r="AJ8">
         <v>0.1007102720835405</v>
       </c>
-      <c r="AH8">
+      <c r="AK8">
         <v>0.9995999608164865</v>
       </c>
-      <c r="AI8">
+      <c r="AL8">
         <v>0.987231059595675</v>
       </c>
-      <c r="AJ8">
+      <c r="AM8">
         <v>0.8456654756882256</v>
       </c>
-      <c r="AK8">
+      <c r="AN8">
         <v>0.9879841964672235</v>
       </c>
-      <c r="AL8">
+      <c r="AO8">
         <v>0.9276644884287983</v>
       </c>
-      <c r="AM8">
+      <c r="AP8">
         <v>0.7809495232943782</v>
       </c>
-      <c r="AN8">
+      <c r="AQ8">
         <v>0.4572378305480451</v>
       </c>
-      <c r="AO8">
+      <c r="AR8">
         <v>0.2563947161592732</v>
       </c>
-      <c r="AP8">
+      <c r="AS8">
         <v>0.102346779349504</v>
       </c>
-      <c r="AQ8">
+      <c r="AT8">
         <v>0.03488322055692802</v>
       </c>
-      <c r="AR8">
+      <c r="AU8">
         <v>0.9935013593230622</v>
       </c>
-      <c r="AS8">
+      <c r="AV8">
         <v>0.8919223373861328</v>
       </c>
-      <c r="AT8">
+      <c r="AW8">
         <v>0.4630284724970095</v>
       </c>
-      <c r="AU8">
+      <c r="AX8">
         <v>0.9576798822221483</v>
       </c>
-      <c r="AV8">
+      <c r="AY8">
         <v>0.7557220068137681</v>
       </c>
-      <c r="AW8">
+      <c r="AZ8">
         <v>0.5539752319551926</v>
       </c>
-      <c r="AX8">
+      <c r="BA8">
         <v>0.2759527000514116</v>
       </c>
-      <c r="AY8">
+      <c r="BB8">
         <v>0.07442553904735777</v>
       </c>
-      <c r="AZ8">
+      <c r="BC8">
         <v>0.03553683078078482</v>
       </c>
-      <c r="BA8">
+      <c r="BD8">
         <v>0.6388586894577288</v>
       </c>
-      <c r="BB8">
+      <c r="BE8">
         <v>0.2247177945007964</v>
       </c>
-      <c r="BC8">
-        <v>1</v>
-      </c>
-      <c r="BD8">
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
         <v>0.9970665380582127</v>
       </c>
-      <c r="BE8">
+      <c r="BH8">
         <v>0.9893650882073982</v>
       </c>
-      <c r="BF8">
+      <c r="BI8">
         <v>0.9486243441001608</v>
       </c>
-      <c r="BG8">
+      <c r="BJ8">
         <v>0.8243238436373992</v>
       </c>
-      <c r="BH8">
+      <c r="BK8">
         <v>0.3270162992341808</v>
       </c>
-      <c r="BI8">
+      <c r="BL8">
         <v>0.02828860556054573</v>
       </c>
-      <c r="BJ8">
+      <c r="BM8">
         <v>0.9959926202419009</v>
       </c>
-      <c r="BK8">
+      <c r="BN8">
         <v>0.9770960449829786</v>
       </c>
-      <c r="BL8">
+      <c r="BO8">
         <v>0.9210501048553625</v>
       </c>
-      <c r="BM8">
+      <c r="BP8">
         <v>0.7118225609943566</v>
       </c>
-      <c r="BN8">
+      <c r="BQ8">
+        <v>0.4161233323546497</v>
+      </c>
+      <c r="BR8">
         <v>0.09672990318361752</v>
       </c>
-      <c r="BO8">
+      <c r="BS8">
         <v>0.02680524950928695</v>
       </c>
-      <c r="BP8">
-        <v>1</v>
-      </c>
-      <c r="BQ8">
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR8">
+      <c r="BV8">
         <v>0.9979999505050756</v>
       </c>
-      <c r="BS8">
-        <v>1</v>
-      </c>
-      <c r="BT8">
+      <c r="BW8">
+        <v>1</v>
+      </c>
+      <c r="BX8">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BU8">
+      <c r="BY8">
         <v>0.9836558825697428</v>
       </c>
-      <c r="BV8">
+      <c r="BZ8">
         <v>0.9947732146684711</v>
       </c>
-      <c r="BW8">
+      <c r="CA8">
         <v>0.99598266580908</v>
       </c>
-      <c r="BX8">
+      <c r="CB8">
         <v>0.9653112249206492</v>
       </c>
-      <c r="BY8">
+      <c r="CC8">
         <v>0.8945068258727146</v>
       </c>
-      <c r="BZ8">
+      <c r="CD8">
         <v>0.6383223698317224</v>
       </c>
-      <c r="CA8">
+      <c r="CE8">
+        <v>0.2928789383429243</v>
+      </c>
+      <c r="CF8">
         <v>0.07106611390483203</v>
       </c>
-      <c r="CB8">
+      <c r="CG8">
         <v>0.01874757386993528</v>
       </c>
-      <c r="CC8">
+      <c r="CH8">
         <v>0.958064930220446</v>
       </c>
-      <c r="CD8">
+      <c r="CI8">
         <v>0.5298135121956674</v>
       </c>
-      <c r="CE8">
-        <v>1</v>
-      </c>
-      <c r="CF8">
-        <v>1</v>
-      </c>
-      <c r="CG8">
-        <v>1</v>
-      </c>
-      <c r="CH8">
-        <v>1</v>
-      </c>
-      <c r="CI8">
+      <c r="CJ8">
+        <v>1</v>
+      </c>
+      <c r="CK8">
+        <v>1</v>
+      </c>
+      <c r="CL8">
+        <v>1</v>
+      </c>
+      <c r="CM8">
+        <v>1</v>
+      </c>
+      <c r="CN8">
         <v>0.9212797250397234</v>
       </c>
     </row>
-    <row r="9" spans="1:87">
+    <row r="9" spans="1:92">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>0.8830235822542317</v>
@@ -2885,198 +3020,213 @@
         <v>0.04962894079672418</v>
       </c>
       <c r="Y9">
+        <v>0.2022200115175897</v>
+      </c>
+      <c r="Z9">
+        <v>0.2156261403855834</v>
+      </c>
+      <c r="AA9">
+        <v>0.1800568576734965</v>
+      </c>
+      <c r="AB9">
         <v>0.996007699462293</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>0.8218049645762784</v>
       </c>
-      <c r="AA9">
+      <c r="AD9">
         <v>0.4901301752865045</v>
       </c>
-      <c r="AB9">
+      <c r="AE9">
         <v>0.2466316753505117</v>
       </c>
-      <c r="AC9">
+      <c r="AF9">
         <v>0.102741815682674</v>
       </c>
-      <c r="AD9">
+      <c r="AG9">
         <v>0.03422999007401442</v>
       </c>
-      <c r="AE9">
+      <c r="AH9">
         <v>0.8168133399535286</v>
       </c>
-      <c r="AF9">
+      <c r="AI9">
         <v>0.3306915527375975</v>
       </c>
-      <c r="AG9">
+      <c r="AJ9">
         <v>0.08196796537496485</v>
       </c>
-      <c r="AH9">
+      <c r="AK9">
         <v>0.9979998040824324</v>
       </c>
-      <c r="AI9">
+      <c r="AL9">
         <v>0.8103067426668922</v>
       </c>
-      <c r="AJ9">
+      <c r="AM9">
         <v>0.4727049946950876</v>
       </c>
-      <c r="AK9">
+      <c r="AN9">
         <v>0.8664404667077679</v>
       </c>
-      <c r="AL9">
+      <c r="AO9">
         <v>0.6976107886046582</v>
       </c>
-      <c r="AM9">
+      <c r="AP9">
         <v>0.4829189809593491</v>
       </c>
-      <c r="AN9">
+      <c r="AQ9">
         <v>0.2672409156286652</v>
       </c>
-      <c r="AO9">
+      <c r="AR9">
         <v>0.1802856067258176</v>
       </c>
-      <c r="AP9">
+      <c r="AS9">
         <v>0.07943335063084551</v>
       </c>
-      <c r="AQ9">
+      <c r="AT9">
         <v>0.03091404150277795</v>
       </c>
-      <c r="AR9">
+      <c r="AU9">
         <v>0.8757763386722155</v>
       </c>
-      <c r="AS9">
+      <c r="AV9">
         <v>0.4310284599007927</v>
       </c>
-      <c r="AT9">
+      <c r="AW9">
         <v>0.2070650656862443</v>
       </c>
-      <c r="AU9">
+      <c r="AX9">
         <v>0.6410667508511154</v>
       </c>
-      <c r="AV9">
+      <c r="AY9">
         <v>0.46500458562366</v>
       </c>
-      <c r="AW9">
+      <c r="AZ9">
         <v>0.3496534218786091</v>
       </c>
-      <c r="AX9">
+      <c r="BA9">
         <v>0.1858160247977066</v>
       </c>
-      <c r="AY9">
+      <c r="BB9">
         <v>0.06569445681217617</v>
       </c>
-      <c r="AZ9">
+      <c r="BC9">
         <v>0.03008917399102495</v>
       </c>
-      <c r="BA9">
+      <c r="BD9">
         <v>0.2828463365478582</v>
       </c>
-      <c r="BB9">
+      <c r="BE9">
         <v>0.1467598541569674</v>
       </c>
-      <c r="BC9">
+      <c r="BF9">
         <v>0.9997333216416557</v>
       </c>
-      <c r="BD9">
+      <c r="BG9">
         <v>0.9975998947749012</v>
       </c>
-      <c r="BE9">
+      <c r="BH9">
         <v>0.9742754469028806</v>
       </c>
-      <c r="BF9">
+      <c r="BI9">
         <v>0.7423819846511157</v>
       </c>
-      <c r="BG9">
+      <c r="BJ9">
         <v>0.437870502956329</v>
       </c>
-      <c r="BH9">
+      <c r="BK9">
         <v>0.1556737436035983</v>
       </c>
-      <c r="BI9">
+      <c r="BL9">
         <v>0.02387889963206962</v>
       </c>
-      <c r="BJ9">
+      <c r="BM9">
         <v>0.9735894446555801</v>
       </c>
-      <c r="BK9">
+      <c r="BN9">
         <v>0.8655275101715642</v>
       </c>
-      <c r="BL9">
+      <c r="BO9">
         <v>0.6346615780936334</v>
       </c>
-      <c r="BM9">
+      <c r="BP9">
         <v>0.289412998527052</v>
       </c>
-      <c r="BN9">
+      <c r="BQ9">
+        <v>0.1747045975104811</v>
+      </c>
+      <c r="BR9">
         <v>0.07305522459755492</v>
       </c>
-      <c r="BO9">
+      <c r="BS9">
         <v>0.02033208021436642</v>
       </c>
-      <c r="BP9">
-        <v>1</v>
-      </c>
-      <c r="BQ9">
+      <c r="BT9">
+        <v>1</v>
+      </c>
+      <c r="BU9">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR9">
+      <c r="BV9">
         <v>0.9960079436090473</v>
       </c>
-      <c r="BS9">
-        <v>1</v>
-      </c>
-      <c r="BT9">
+      <c r="BW9">
+        <v>1</v>
+      </c>
+      <c r="BX9">
         <v>0.8438370788670063</v>
       </c>
-      <c r="BU9">
+      <c r="BY9">
         <v>0.5166592260746014</v>
       </c>
-      <c r="BV9">
+      <c r="BZ9">
         <v>0.5186884571188352</v>
       </c>
-      <c r="BW9">
+      <c r="CA9">
         <v>0.9234016706646517</v>
       </c>
-      <c r="BX9">
+      <c r="CB9">
         <v>0.7463103743356317</v>
       </c>
-      <c r="BY9">
+      <c r="CC9">
         <v>0.4195094201676254</v>
       </c>
-      <c r="BZ9">
+      <c r="CD9">
         <v>0.1865276659785612</v>
       </c>
-      <c r="CA9">
+      <c r="CE9">
+        <v>0.1104661779956343</v>
+      </c>
+      <c r="CF9">
         <v>0.04842614711368523</v>
       </c>
-      <c r="CB9">
+      <c r="CG9">
         <v>0.01357219024108321</v>
       </c>
-      <c r="CC9">
+      <c r="CH9">
         <v>0.3079838478999686</v>
       </c>
-      <c r="CD9">
+      <c r="CI9">
         <v>0.1263802266694816</v>
       </c>
-      <c r="CE9">
-        <v>1</v>
-      </c>
-      <c r="CF9">
-        <v>1</v>
-      </c>
-      <c r="CG9">
-        <v>1</v>
-      </c>
-      <c r="CH9">
+      <c r="CJ9">
+        <v>1</v>
+      </c>
+      <c r="CK9">
+        <v>1</v>
+      </c>
+      <c r="CL9">
+        <v>1</v>
+      </c>
+      <c r="CM9">
         <v>0.9866147790430457</v>
       </c>
-      <c r="CI9">
+      <c r="CN9">
         <v>0.201495587748538</v>
       </c>
     </row>
-    <row r="10" spans="1:87">
+    <row r="10" spans="1:92">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>0.9603409202900892</v>
@@ -3148,198 +3298,213 @@
         <v>0.09503747621809901</v>
       </c>
       <c r="Y10">
+        <v>0.9883018018922326</v>
+      </c>
+      <c r="Z10">
+        <v>0.8478243417253017</v>
+      </c>
+      <c r="AA10">
+        <v>0.6236668132352948</v>
+      </c>
+      <c r="AB10">
         <v>0.9980078824494594</v>
       </c>
-      <c r="Z10">
+      <c r="AC10">
         <v>0.782517316870227</v>
       </c>
-      <c r="AA10">
+      <c r="AD10">
         <v>0.3571176834106213</v>
       </c>
-      <c r="AB10">
+      <c r="AE10">
         <v>0.2063095780821238</v>
       </c>
-      <c r="AC10">
+      <c r="AF10">
         <v>0.1774989528474857</v>
       </c>
-      <c r="AD10">
+      <c r="AG10">
         <v>0.05630935804682424</v>
       </c>
-      <c r="AE10">
+      <c r="AH10">
         <v>0.7146600944438635</v>
       </c>
-      <c r="AF10">
+      <c r="AI10">
         <v>0.2507719002527437</v>
       </c>
-      <c r="AG10">
+      <c r="AJ10">
         <v>0.1196285872838787</v>
       </c>
-      <c r="AH10">
+      <c r="AK10">
         <v>0.9763152882281717</v>
       </c>
-      <c r="AI10">
+      <c r="AL10">
         <v>0.6138818751464339</v>
       </c>
-      <c r="AJ10">
+      <c r="AM10">
         <v>0.3602740517427805</v>
       </c>
-      <c r="AK10">
+      <c r="AN10">
         <v>0.9873890093037961</v>
       </c>
-      <c r="AL10">
+      <c r="AO10">
         <v>0.9059236340367611</v>
       </c>
-      <c r="AM10">
+      <c r="AP10">
         <v>0.6374360815539208</v>
       </c>
-      <c r="AN10">
+      <c r="AQ10">
         <v>0.2685501191268995</v>
       </c>
-      <c r="AO10">
+      <c r="AR10">
         <v>0.1906876156297818</v>
       </c>
-      <c r="AP10">
+      <c r="AS10">
         <v>0.1133894601850492</v>
       </c>
-      <c r="AQ10">
+      <c r="AT10">
         <v>0.05968636890291742</v>
       </c>
-      <c r="AR10">
+      <c r="AU10">
         <v>0.5492765359934668</v>
       </c>
-      <c r="AS10">
+      <c r="AV10">
         <v>0.3200339835953821</v>
       </c>
-      <c r="AT10">
+      <c r="AW10">
         <v>0.1734434997203644</v>
       </c>
-      <c r="AU10">
+      <c r="AX10">
         <v>0.9555139369633864</v>
       </c>
-      <c r="AV10">
+      <c r="AY10">
         <v>0.678986989081059</v>
       </c>
-      <c r="AW10">
+      <c r="AZ10">
         <v>0.4106261633829008</v>
       </c>
-      <c r="AX10">
+      <c r="BA10">
         <v>0.1812394774440392</v>
       </c>
-      <c r="AY10">
+      <c r="BB10">
         <v>0.08345494851685789</v>
       </c>
-      <c r="AZ10">
+      <c r="BC10">
         <v>0.03786262878635845</v>
       </c>
-      <c r="BA10">
+      <c r="BD10">
         <v>0.2684855665779363</v>
       </c>
-      <c r="BB10">
+      <c r="BE10">
         <v>0.2219378368297626</v>
       </c>
-      <c r="BC10">
+      <c r="BF10">
         <v>0.9997333216416557</v>
       </c>
-      <c r="BD10">
+      <c r="BG10">
         <v>0.9986666082082785</v>
       </c>
-      <c r="BE10">
+      <c r="BH10">
         <v>0.9853792438090245</v>
       </c>
-      <c r="BF10">
+      <c r="BI10">
         <v>0.7131426533749563</v>
       </c>
-      <c r="BG10">
+      <c r="BJ10">
         <v>0.3332233024289205</v>
       </c>
-      <c r="BH10">
+      <c r="BK10">
         <v>0.1744368120268232</v>
       </c>
-      <c r="BI10">
+      <c r="BL10">
         <v>0.06510986637920611</v>
       </c>
-      <c r="BJ10">
+      <c r="BM10">
         <v>0.9953926347291053</v>
       </c>
-      <c r="BK10">
+      <c r="BN10">
         <v>0.9678874132064453</v>
       </c>
-      <c r="BL10">
+      <c r="BO10">
         <v>0.8030637939369646</v>
       </c>
-      <c r="BM10">
+      <c r="BP10">
         <v>0.2703048208776692</v>
       </c>
-      <c r="BN10">
+      <c r="BQ10">
+        <v>0.193201926334186</v>
+      </c>
+      <c r="BR10">
         <v>0.1404477226817118</v>
       </c>
-      <c r="BO10">
+      <c r="BS10">
         <v>0.06245555812130524</v>
       </c>
-      <c r="BP10">
+      <c r="BT10">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BQ10">
+      <c r="BU10">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BR10">
+      <c r="BV10">
         <v>0.9948119361221788</v>
       </c>
-      <c r="BS10">
+      <c r="BW10">
         <v>0.9691999114778638</v>
       </c>
-      <c r="BT10">
+      <c r="BX10">
         <v>0.6592302594979005</v>
       </c>
-      <c r="BU10">
+      <c r="BY10">
         <v>0.3591815411271408</v>
       </c>
-      <c r="BV10">
+      <c r="BZ10">
         <v>0.3268349417803487</v>
       </c>
-      <c r="BW10">
+      <c r="CA10">
         <v>0.995453296308074</v>
       </c>
-      <c r="BX10">
+      <c r="CB10">
         <v>0.930664046932816</v>
       </c>
-      <c r="BY10">
+      <c r="CC10">
         <v>0.5655554148906075</v>
       </c>
-      <c r="BZ10">
+      <c r="CD10">
         <v>0.1635960017673818</v>
       </c>
-      <c r="CA10">
+      <c r="CE10">
+        <v>0.1240992433310298</v>
+      </c>
+      <c r="CF10">
         <v>0.1142123123879254</v>
       </c>
-      <c r="CB10">
+      <c r="CG10">
         <v>0.0451716818290927</v>
       </c>
-      <c r="CC10">
+      <c r="CH10">
         <v>0.2160070388816388</v>
       </c>
-      <c r="CD10">
+      <c r="CI10">
         <v>0.1964270695697202</v>
       </c>
-      <c r="CE10">
-        <v>1</v>
-      </c>
-      <c r="CF10">
-        <v>1</v>
-      </c>
-      <c r="CG10">
+      <c r="CJ10">
+        <v>1</v>
+      </c>
+      <c r="CK10">
+        <v>1</v>
+      </c>
+      <c r="CL10">
         <v>0.9721614741561138</v>
       </c>
-      <c r="CH10">
+      <c r="CM10">
         <v>0.741428125347102</v>
       </c>
-      <c r="CI10">
+      <c r="CN10">
         <v>0.1397715214115289</v>
       </c>
     </row>
-    <row r="11" spans="1:87">
+    <row r="11" spans="1:92">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0.9605218902920385</v>
@@ -3411,198 +3576,213 @@
         <v>0.04304035574989581</v>
       </c>
       <c r="Y11">
+        <v>0.9618399400656118</v>
+      </c>
+      <c r="Z11">
+        <v>0.8508917159231092</v>
+      </c>
+      <c r="AA11">
+        <v>0.7896786773037701</v>
+      </c>
+      <c r="AB11">
         <v>0.99680777782932</v>
       </c>
-      <c r="Z11">
+      <c r="AC11">
         <v>0.9616247050674133</v>
       </c>
-      <c r="AA11">
+      <c r="AD11">
         <v>0.8080531801036551</v>
       </c>
-      <c r="AB11">
+      <c r="AE11">
         <v>0.3989671630119226</v>
       </c>
-      <c r="AC11">
+      <c r="AF11">
         <v>0.1176862506669694</v>
       </c>
-      <c r="AD11">
+      <c r="AG11">
         <v>0.03187145314461456</v>
       </c>
-      <c r="AE11">
+      <c r="AH11">
         <v>0.9722236094329121</v>
       </c>
-      <c r="AF11">
+      <c r="AI11">
         <v>0.5550179737220288</v>
       </c>
-      <c r="AG11">
+      <c r="AJ11">
         <v>0.09489219965705337</v>
       </c>
-      <c r="AH11">
+      <c r="AK11">
         <v>0.9983998432659459</v>
       </c>
-      <c r="AI11">
+      <c r="AL11">
         <v>0.9852793728035762</v>
       </c>
-      <c r="AJ11">
+      <c r="AM11">
         <v>0.8351839942642653</v>
       </c>
-      <c r="AK11">
+      <c r="AN11">
         <v>0.9870979244201484</v>
       </c>
-      <c r="AL11">
+      <c r="AO11">
         <v>0.9281895507245983</v>
       </c>
-      <c r="AM11">
+      <c r="AP11">
         <v>0.7766145181309625</v>
       </c>
-      <c r="AN11">
+      <c r="AQ11">
         <v>0.4559844354586692</v>
       </c>
-      <c r="AO11">
+      <c r="AR11">
         <v>0.2505654701155979</v>
       </c>
-      <c r="AP11">
+      <c r="AS11">
         <v>0.09146275913774421</v>
       </c>
-      <c r="AQ11">
+      <c r="AT11">
         <v>0.02986582661016782</v>
       </c>
-      <c r="AR11">
+      <c r="AU11">
         <v>0.9926146476074352</v>
       </c>
-      <c r="AS11">
+      <c r="AV11">
         <v>0.886958814338609</v>
       </c>
-      <c r="AT11">
+      <c r="AW11">
         <v>0.3815107564436391</v>
       </c>
-      <c r="AU11">
+      <c r="AX11">
         <v>0.9569743245972436</v>
       </c>
-      <c r="AV11">
+      <c r="AY11">
         <v>0.7598577807159708</v>
       </c>
-      <c r="AW11">
+      <c r="AZ11">
         <v>0.5467226513415269</v>
       </c>
-      <c r="AX11">
+      <c r="BA11">
         <v>0.2729998392869518</v>
       </c>
-      <c r="AY11">
+      <c r="BB11">
         <v>0.07071717332148253</v>
       </c>
-      <c r="AZ11">
+      <c r="BC11">
         <v>0.02885856665127255</v>
       </c>
-      <c r="BA11">
+      <c r="BD11">
         <v>0.5949370918806073</v>
       </c>
-      <c r="BB11">
+      <c r="BE11">
         <v>0.1851455323801507</v>
       </c>
-      <c r="BC11">
-        <v>1</v>
-      </c>
-      <c r="BD11">
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
         <v>0.9967998596998683</v>
       </c>
-      <c r="BE11">
+      <c r="BH11">
         <v>0.9901579628591429</v>
       </c>
-      <c r="BF11">
+      <c r="BI11">
         <v>0.9473339094817849</v>
       </c>
-      <c r="BG11">
+      <c r="BJ11">
         <v>0.8242609419357444</v>
       </c>
-      <c r="BH11">
+      <c r="BK11">
         <v>0.3062501345831941</v>
       </c>
-      <c r="BI11">
+      <c r="BL11">
         <v>0.02559963661444202</v>
       </c>
-      <c r="BJ11">
+      <c r="BM11">
         <v>0.9955933146819249</v>
       </c>
-      <c r="BK11">
+      <c r="BN11">
         <v>0.9767072036303028</v>
       </c>
-      <c r="BL11">
+      <c r="BO11">
         <v>0.9233022115158341</v>
       </c>
-      <c r="BM11">
+      <c r="BP11">
         <v>0.7136392851292399</v>
       </c>
-      <c r="BN11">
+      <c r="BQ11">
+        <v>0.3969583088191245</v>
+      </c>
+      <c r="BR11">
         <v>0.08856481128261257</v>
       </c>
-      <c r="BO11">
+      <c r="BS11">
         <v>0.02031165098638557</v>
       </c>
-      <c r="BP11">
-        <v>1</v>
-      </c>
-      <c r="BQ11">
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR11">
+      <c r="BV11">
         <v>0.9981999554545681</v>
       </c>
-      <c r="BS11">
-        <v>1</v>
-      </c>
-      <c r="BT11">
+      <c r="BW11">
+        <v>1</v>
+      </c>
+      <c r="BX11">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BU11">
+      <c r="BY11">
         <v>0.980093987766531</v>
       </c>
-      <c r="BV11">
+      <c r="BZ11">
         <v>0.9943208013142053</v>
       </c>
-      <c r="BW11">
+      <c r="CA11">
         <v>0.9959826470295405</v>
       </c>
-      <c r="BX11">
+      <c r="CB11">
         <v>0.9655502890729598</v>
       </c>
-      <c r="BY11">
+      <c r="CC11">
         <v>0.8938965923276447</v>
       </c>
-      <c r="BZ11">
+      <c r="CD11">
         <v>0.6188263894715703</v>
       </c>
-      <c r="CA11">
+      <c r="CE11">
+        <v>0.2539306781037509</v>
+      </c>
+      <c r="CF11">
         <v>0.06025379217139843</v>
       </c>
-      <c r="CB11">
+      <c r="CG11">
         <v>0.0150646994717561</v>
       </c>
-      <c r="CC11">
+      <c r="CH11">
         <v>0.9543232134600107</v>
       </c>
-      <c r="CD11">
+      <c r="CI11">
         <v>0.2605061086291137</v>
       </c>
-      <c r="CE11">
-        <v>1</v>
-      </c>
-      <c r="CF11">
-        <v>1</v>
-      </c>
-      <c r="CG11">
-        <v>1</v>
-      </c>
-      <c r="CH11">
-        <v>1</v>
-      </c>
-      <c r="CI11">
+      <c r="CJ11">
+        <v>1</v>
+      </c>
+      <c r="CK11">
+        <v>1</v>
+      </c>
+      <c r="CL11">
+        <v>1</v>
+      </c>
+      <c r="CM11">
+        <v>1</v>
+      </c>
+      <c r="CN11">
         <v>0.9165435204802388</v>
       </c>
     </row>
-    <row r="12" spans="1:87">
+    <row r="12" spans="1:92">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>0.9683610781712814</v>
@@ -3674,198 +3854,213 @@
         <v>0.0520244907800459</v>
       </c>
       <c r="Y12">
+        <v>0.4066278376739404</v>
+      </c>
+      <c r="Z12">
+        <v>0.1447243512845607</v>
+      </c>
+      <c r="AA12">
+        <v>0.1022455158900176</v>
+      </c>
+      <c r="AB12">
         <v>0.9971997257154053</v>
       </c>
-      <c r="Z12">
+      <c r="AC12">
         <v>0.8995578776637444</v>
       </c>
-      <c r="AA12">
+      <c r="AD12">
         <v>0.5430681115000918</v>
       </c>
-      <c r="AB12">
+      <c r="AE12">
         <v>0.2557047879943216</v>
       </c>
-      <c r="AC12">
+      <c r="AF12">
         <v>0.1011858882863604</v>
       </c>
-      <c r="AD12">
+      <c r="AG12">
         <v>0.03246196172813138</v>
       </c>
-      <c r="AE12">
+      <c r="AH12">
         <v>0.8754644386921353</v>
       </c>
-      <c r="AF12">
+      <c r="AI12">
         <v>0.3332051005737185</v>
       </c>
-      <c r="AG12">
+      <c r="AJ12">
         <v>0.08847038260613782</v>
       </c>
-      <c r="AH12">
+      <c r="AK12">
         <v>0.9987998824494594</v>
       </c>
-      <c r="AI12">
+      <c r="AL12">
         <v>0.8409546814918258</v>
       </c>
-      <c r="AJ12">
+      <c r="AM12">
         <v>0.4734111757886236</v>
       </c>
-      <c r="AK12">
+      <c r="AN12">
         <v>0.988557662713997</v>
       </c>
-      <c r="AL12">
+      <c r="AO12">
         <v>0.9238571648396635</v>
       </c>
-      <c r="AM12">
+      <c r="AP12">
         <v>0.7240618180951625</v>
       </c>
-      <c r="AN12">
+      <c r="AQ12">
         <v>0.3365240458168746</v>
       </c>
-      <c r="AO12">
+      <c r="AR12">
         <v>0.194123488297009</v>
       </c>
-      <c r="AP12">
+      <c r="AS12">
         <v>0.08901873809303862</v>
       </c>
-      <c r="AQ12">
+      <c r="AT12">
         <v>0.03216157590066888</v>
       </c>
-      <c r="AR12">
+      <c r="AU12">
         <v>0.9423859050866777</v>
       </c>
-      <c r="AS12">
+      <c r="AV12">
         <v>0.46720122277168</v>
       </c>
-      <c r="AT12">
+      <c r="AW12">
         <v>0.2164753217701061</v>
       </c>
-      <c r="AU12">
+      <c r="AX12">
         <v>0.9608505160892225</v>
       </c>
-      <c r="AV12">
+      <c r="AY12">
         <v>0.7320213952103779</v>
       </c>
-      <c r="AW12">
+      <c r="AZ12">
         <v>0.4884742788140775</v>
       </c>
-      <c r="AX12">
+      <c r="BA12">
         <v>0.2246439858549399</v>
       </c>
-      <c r="AY12">
+      <c r="BB12">
         <v>0.06832530835290174</v>
       </c>
-      <c r="AZ12">
+      <c r="BC12">
         <v>0.03200281250418341</v>
       </c>
-      <c r="BA12">
+      <c r="BD12">
         <v>0.2913037367172717</v>
       </c>
-      <c r="BB12">
+      <c r="BE12">
         <v>0.1410017233066609</v>
       </c>
-      <c r="BC12">
-        <v>1</v>
-      </c>
-      <c r="BD12">
+      <c r="BF12">
+        <v>1</v>
+      </c>
+      <c r="BG12">
         <v>0.9981332514915898</v>
       </c>
-      <c r="BE12">
+      <c r="BH12">
         <v>0.9901436451943927</v>
       </c>
-      <c r="BF12">
+      <c r="BI12">
         <v>0.8533503998208528</v>
       </c>
-      <c r="BG12">
+      <c r="BJ12">
         <v>0.5353808153251077</v>
       </c>
-      <c r="BH12">
+      <c r="BK12">
         <v>0.1677776672955332</v>
       </c>
-      <c r="BI12">
+      <c r="BL12">
         <v>0.02556051136826351</v>
       </c>
-      <c r="BJ12">
+      <c r="BM12">
         <v>0.9967932575768645</v>
       </c>
-      <c r="BK12">
+      <c r="BN12">
         <v>0.9762918381704441</v>
       </c>
-      <c r="BL12">
+      <c r="BO12">
         <v>0.883554552655455</v>
       </c>
-      <c r="BM12">
+      <c r="BP12">
         <v>0.3849971910867198</v>
       </c>
-      <c r="BN12">
+      <c r="BQ12">
+        <v>0.1935598341671838</v>
+      </c>
+      <c r="BR12">
         <v>0.0744411263474265</v>
       </c>
-      <c r="BO12">
+      <c r="BS12">
         <v>0.02429722986148657</v>
       </c>
-      <c r="BP12">
-        <v>1</v>
-      </c>
-      <c r="BQ12">
+      <c r="BT12">
+        <v>1</v>
+      </c>
+      <c r="BU12">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BR12">
+      <c r="BV12">
         <v>0.9983999604040605</v>
       </c>
-      <c r="BS12">
-        <v>1</v>
-      </c>
-      <c r="BT12">
+      <c r="BW12">
+        <v>1</v>
+      </c>
+      <c r="BX12">
         <v>0.8655552227661317</v>
       </c>
-      <c r="BU12">
+      <c r="BY12">
         <v>0.5363356921264437</v>
       </c>
-      <c r="BV12">
+      <c r="BZ12">
         <v>0.5739264246635893</v>
       </c>
-      <c r="BW12">
+      <c r="CA12">
         <v>0.9958594791021533</v>
       </c>
-      <c r="BX12">
+      <c r="CB12">
         <v>0.9574916720813305</v>
       </c>
-      <c r="BY12">
+      <c r="CC12">
         <v>0.7165841909956773</v>
       </c>
-      <c r="BZ12">
+      <c r="CD12">
         <v>0.2379056042389926</v>
       </c>
-      <c r="CA12">
+      <c r="CE12">
+        <v>0.1266598113401075</v>
+      </c>
+      <c r="CF12">
         <v>0.05239781044722126</v>
       </c>
-      <c r="CB12">
+      <c r="CG12">
         <v>0.01937221272534833</v>
       </c>
-      <c r="CC12">
+      <c r="CH12">
         <v>0.3384527085574912</v>
       </c>
-      <c r="CD12">
+      <c r="CI12">
         <v>0.1319519076333838</v>
       </c>
-      <c r="CE12">
-        <v>1</v>
-      </c>
-      <c r="CF12">
-        <v>1</v>
-      </c>
-      <c r="CG12">
-        <v>1</v>
-      </c>
-      <c r="CH12">
+      <c r="CJ12">
+        <v>1</v>
+      </c>
+      <c r="CK12">
+        <v>1</v>
+      </c>
+      <c r="CL12">
+        <v>1</v>
+      </c>
+      <c r="CM12">
         <v>0.9976009523918858</v>
       </c>
-      <c r="CI12">
+      <c r="CN12">
         <v>0.2402979263712972</v>
       </c>
     </row>
-    <row r="13" spans="1:87">
+    <row r="13" spans="1:92">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>0.949216825037713</v>
@@ -3937,198 +4132,213 @@
         <v>0.03058087027670243</v>
       </c>
       <c r="Y13">
+        <v>0.9343141898622446</v>
+      </c>
+      <c r="Z13">
+        <v>0.5423895258959732</v>
+      </c>
+      <c r="AA13">
+        <v>0.1782197855497051</v>
+      </c>
+      <c r="AB13">
         <v>0.9944075297978376</v>
       </c>
-      <c r="Z13">
+      <c r="AC13">
         <v>0.9565131442051986</v>
       </c>
-      <c r="AA13">
+      <c r="AD13">
         <v>0.8297212321835881</v>
       </c>
-      <c r="AB13">
+      <c r="AE13">
         <v>0.464603714973337</v>
       </c>
-      <c r="AC13">
+      <c r="AF13">
         <v>0.1373570710876565</v>
       </c>
-      <c r="AD13">
+      <c r="AG13">
         <v>0.03417236289451003</v>
       </c>
-      <c r="AE13">
+      <c r="AH13">
         <v>0.9679282938991952</v>
       </c>
-      <c r="AF13">
+      <c r="AI13">
         <v>0.6255186805319983</v>
       </c>
-      <c r="AG13">
+      <c r="AJ13">
         <v>0.1166360411983244</v>
       </c>
-      <c r="AH13">
+      <c r="AK13">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AI13">
+      <c r="AL13">
         <v>0.9836630398080008</v>
       </c>
-      <c r="AJ13">
+      <c r="AM13">
         <v>0.8820514402897776</v>
       </c>
-      <c r="AK13">
+      <c r="AN13">
         <v>0.9848246503597999</v>
       </c>
-      <c r="AL13">
+      <c r="AO13">
         <v>0.9184101392986231</v>
       </c>
-      <c r="AM13">
+      <c r="AP13">
         <v>0.7980770351608755</v>
       </c>
-      <c r="AN13">
+      <c r="AQ13">
         <v>0.5126478365539752</v>
       </c>
-      <c r="AO13">
+      <c r="AR13">
         <v>0.2961757318887591</v>
       </c>
-      <c r="AP13">
+      <c r="AS13">
         <v>0.1152245421445323</v>
       </c>
-      <c r="AQ13">
+      <c r="AT13">
         <v>0.03403757814553683</v>
       </c>
-      <c r="AR13">
+      <c r="AU13">
         <v>0.9911366397183197</v>
       </c>
-      <c r="AS13">
+      <c r="AV13">
         <v>0.9228085738938462</v>
       </c>
-      <c r="AT13">
+      <c r="AW13">
         <v>0.5035059915407994</v>
       </c>
-      <c r="AU13">
+      <c r="AX13">
         <v>0.9552061153657659</v>
       </c>
-      <c r="AV13">
+      <c r="AY13">
         <v>0.7865854577339113</v>
       </c>
-      <c r="AW13">
+      <c r="AZ13">
         <v>0.6047853043630395</v>
       </c>
-      <c r="AX13">
+      <c r="BA13">
         <v>0.3142067452466051</v>
       </c>
-      <c r="AY13">
+      <c r="BB13">
         <v>0.08069058300260279</v>
       </c>
-      <c r="AZ13">
+      <c r="BC13">
         <v>0.0345848807116737</v>
       </c>
-      <c r="BA13">
+      <c r="BD13">
         <v>0.6553535442531182</v>
       </c>
-      <c r="BB13">
+      <c r="BE13">
         <v>0.245062345566344</v>
       </c>
-      <c r="BC13">
+      <c r="BF13">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD13">
+      <c r="BG13">
         <v>0.9962665029831796</v>
       </c>
-      <c r="BE13">
+      <c r="BH13">
         <v>0.9861649485436261</v>
       </c>
-      <c r="BF13">
+      <c r="BI13">
         <v>0.9433838027901439</v>
       </c>
-      <c r="BG13">
+      <c r="BJ13">
         <v>0.8401965129891518</v>
       </c>
-      <c r="BH13">
+      <c r="BK13">
         <v>0.3731934691853618</v>
       </c>
-      <c r="BI13">
+      <c r="BL13">
         <v>0.02628277252812068</v>
       </c>
-      <c r="BJ13">
+      <c r="BM13">
         <v>0.9951858468526599</v>
       </c>
-      <c r="BK13">
+      <c r="BN13">
         <v>0.9715410807631999</v>
       </c>
-      <c r="BL13">
+      <c r="BO13">
         <v>0.9210607815611134</v>
       </c>
-      <c r="BM13">
+      <c r="BP13">
         <v>0.7494455617048975</v>
       </c>
-      <c r="BN13">
+      <c r="BQ13">
+        <v>0.4846737176275249</v>
+      </c>
+      <c r="BR13">
         <v>0.1300840172051062</v>
       </c>
-      <c r="BO13">
+      <c r="BS13">
         <v>0.02282372110935071</v>
       </c>
-      <c r="BP13">
-        <v>1</v>
-      </c>
-      <c r="BQ13">
+      <c r="BT13">
+        <v>1</v>
+      </c>
+      <c r="BU13">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR13">
+      <c r="BV13">
         <v>0.9973999356565983</v>
       </c>
-      <c r="BS13">
-        <v>1</v>
-      </c>
-      <c r="BT13">
+      <c r="BW13">
+        <v>1</v>
+      </c>
+      <c r="BX13">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BU13">
+      <c r="BY13">
         <v>0.9822638881100805</v>
       </c>
-      <c r="BV13">
+      <c r="BZ13">
         <v>0.9938743807647148</v>
       </c>
-      <c r="BW13">
+      <c r="CA13">
         <v>0.9955846552207513</v>
       </c>
-      <c r="BX13">
+      <c r="CB13">
         <v>0.9606392134056354</v>
       </c>
-      <c r="BY13">
+      <c r="CC13">
         <v>0.9034927436479241</v>
       </c>
-      <c r="BZ13">
+      <c r="CD13">
         <v>0.6902401240804785</v>
       </c>
-      <c r="CA13">
+      <c r="CE13">
+        <v>0.3430349525280976</v>
+      </c>
+      <c r="CF13">
         <v>0.08683588040474816</v>
       </c>
-      <c r="CB13">
+      <c r="CG13">
         <v>0.01760479673076406</v>
       </c>
-      <c r="CC13">
+      <c r="CH13">
         <v>0.979107867009006</v>
       </c>
-      <c r="CD13">
+      <c r="CI13">
         <v>0.5383034325082374</v>
       </c>
-      <c r="CE13">
-        <v>1</v>
-      </c>
-      <c r="CF13">
-        <v>1</v>
-      </c>
-      <c r="CG13">
-        <v>1</v>
-      </c>
-      <c r="CH13">
-        <v>1</v>
-      </c>
-      <c r="CI13">
+      <c r="CJ13">
+        <v>1</v>
+      </c>
+      <c r="CK13">
+        <v>1</v>
+      </c>
+      <c r="CL13">
+        <v>1</v>
+      </c>
+      <c r="CM13">
+        <v>1</v>
+      </c>
+      <c r="CN13">
         <v>0.9404490021224753</v>
       </c>
     </row>
-    <row r="14" spans="1:87">
+    <row r="14" spans="1:92">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>0.9428565882580945</v>
@@ -4200,198 +4410,213 @@
         <v>0.05090295134067015</v>
       </c>
       <c r="Y14">
+        <v>0.9784194842669074</v>
+      </c>
+      <c r="Z14">
+        <v>0.8688535169157739</v>
+      </c>
+      <c r="AA14">
+        <v>0.7901969958897616</v>
+      </c>
+      <c r="AB14">
         <v>0.991623412247297</v>
       </c>
-      <c r="Z14">
+      <c r="AC14">
         <v>0.9472681282546275</v>
       </c>
-      <c r="AA14">
+      <c r="AD14">
         <v>0.8062508718999277</v>
       </c>
-      <c r="AB14">
+      <c r="AE14">
         <v>0.5004898815724799</v>
       </c>
-      <c r="AC14">
+      <c r="AF14">
         <v>0.248937398374161</v>
       </c>
-      <c r="AD14">
+      <c r="AG14">
         <v>0.07852725811730504</v>
       </c>
-      <c r="AE14">
+      <c r="AH14">
         <v>0.957769846547577</v>
       </c>
-      <c r="AF14">
+      <c r="AI14">
         <v>0.614449104266326</v>
       </c>
-      <c r="AG14">
+      <c r="AJ14">
         <v>0.188138085090646</v>
       </c>
-      <c r="AH14">
+      <c r="AK14">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AI14">
+      <c r="AL14">
         <v>0.9812870721337661</v>
       </c>
-      <c r="AJ14">
+      <c r="AM14">
         <v>0.8530013851932791</v>
       </c>
-      <c r="AK14">
+      <c r="AN14">
         <v>0.9833383214088197</v>
       </c>
-      <c r="AL14">
+      <c r="AO14">
         <v>0.9133053985650059</v>
       </c>
-      <c r="AM14">
+      <c r="AP14">
         <v>0.7917815835877633</v>
       </c>
-      <c r="AN14">
+      <c r="AQ14">
         <v>0.5161452127753102</v>
       </c>
-      <c r="AO14">
+      <c r="AR14">
         <v>0.3054697937800857</v>
       </c>
-      <c r="AP14">
+      <c r="AS14">
         <v>0.1557196875082903</v>
       </c>
-      <c r="AQ14">
+      <c r="AT14">
         <v>0.05660982515021043</v>
       </c>
-      <c r="AR14">
+      <c r="AU14">
         <v>0.98966862186517</v>
       </c>
-      <c r="AS14">
+      <c r="AV14">
         <v>0.9029665348564919</v>
       </c>
-      <c r="AT14">
+      <c r="AW14">
         <v>0.5360256833914026</v>
       </c>
-      <c r="AU14">
+      <c r="AX14">
         <v>0.9503584980891689</v>
       </c>
-      <c r="AV14">
+      <c r="AY14">
         <v>0.7748172169820349</v>
       </c>
-      <c r="AW14">
+      <c r="AZ14">
         <v>0.6044696635015393</v>
       </c>
-      <c r="AX14">
+      <c r="BA14">
         <v>0.3134641250393447</v>
       </c>
-      <c r="AY14">
+      <c r="BB14">
         <v>0.09470397313171049</v>
       </c>
-      <c r="AZ14">
+      <c r="BC14">
         <v>0.05308125949462758</v>
       </c>
-      <c r="BA14">
+      <c r="BD14">
         <v>0.6956515605238687</v>
       </c>
-      <c r="BB14">
+      <c r="BE14">
         <v>0.3121176245762534</v>
       </c>
-      <c r="BC14">
+      <c r="BF14">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD14">
+      <c r="BG14">
         <v>0.9954664679081467</v>
       </c>
-      <c r="BE14">
+      <c r="BH14">
         <v>0.9824529296148442</v>
       </c>
-      <c r="BF14">
+      <c r="BI14">
         <v>0.9358936447580277</v>
       </c>
-      <c r="BG14">
+      <c r="BJ14">
         <v>0.8293994123508674</v>
       </c>
-      <c r="BH14">
+      <c r="BK14">
         <v>0.3750329891575189</v>
       </c>
-      <c r="BI14">
+      <c r="BL14">
         <v>0.05055206680329312</v>
       </c>
-      <c r="BJ14">
+      <c r="BM14">
         <v>0.9951878179543077</v>
       </c>
-      <c r="BK14">
+      <c r="BN14">
         <v>0.9703309684130511</v>
       </c>
-      <c r="BL14">
+      <c r="BO14">
         <v>0.9179478690958754</v>
       </c>
-      <c r="BM14">
+      <c r="BP14">
         <v>0.7420216772335751</v>
       </c>
-      <c r="BN14">
+      <c r="BQ14">
+        <v>0.4836542002046068</v>
+      </c>
+      <c r="BR14">
         <v>0.1475778592963888</v>
       </c>
-      <c r="BO14">
+      <c r="BS14">
         <v>0.03839463599178881</v>
       </c>
-      <c r="BP14">
-        <v>1</v>
-      </c>
-      <c r="BQ14">
+      <c r="BT14">
+        <v>1</v>
+      </c>
+      <c r="BU14">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR14">
+      <c r="BV14">
         <v>0.9970039455555831</v>
       </c>
-      <c r="BS14">
-        <v>1</v>
-      </c>
-      <c r="BT14">
+      <c r="BW14">
+        <v>1</v>
+      </c>
+      <c r="BX14">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BU14">
+      <c r="BY14">
         <v>0.9797040303288704</v>
       </c>
-      <c r="BV14">
+      <c r="BZ14">
         <v>0.9923915466222113</v>
       </c>
-      <c r="BW14">
+      <c r="CA14">
         <v>0.995452088795534</v>
       </c>
-      <c r="BX14">
+      <c r="CB14">
         <v>0.9612352058413096</v>
       </c>
-      <c r="BY14">
+      <c r="CC14">
         <v>0.8985169263372967</v>
       </c>
-      <c r="BZ14">
+      <c r="CD14">
         <v>0.6856817286886158</v>
       </c>
-      <c r="CA14">
+      <c r="CE14">
+        <v>0.3597673599832167</v>
+      </c>
+      <c r="CF14">
         <v>0.119020324869413</v>
       </c>
-      <c r="CB14">
+      <c r="CG14">
         <v>0.03731895820239367</v>
       </c>
-      <c r="CC14">
+      <c r="CH14">
         <v>0.9643834371125928</v>
       </c>
-      <c r="CD14">
+      <c r="CI14">
         <v>0.6359514739353305</v>
       </c>
-      <c r="CE14">
-        <v>1</v>
-      </c>
-      <c r="CF14">
-        <v>1</v>
-      </c>
-      <c r="CG14">
-        <v>1</v>
-      </c>
-      <c r="CH14">
+      <c r="CJ14">
+        <v>1</v>
+      </c>
+      <c r="CK14">
+        <v>1</v>
+      </c>
+      <c r="CL14">
+        <v>1</v>
+      </c>
+      <c r="CM14">
         <v>0.9999199996812851</v>
       </c>
-      <c r="CI14">
+      <c r="CN14">
         <v>0.9292720546733481</v>
       </c>
     </row>
-    <row r="15" spans="1:87">
+    <row r="15" spans="1:92">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B15">
         <v>0.9436404747291145</v>
@@ -4463,198 +4688,213 @@
         <v>0.07658509923027727</v>
       </c>
       <c r="Y15">
+        <v>0.9829315866387394</v>
+      </c>
+      <c r="Z15">
+        <v>0.8326663805889783</v>
+      </c>
+      <c r="AA15">
+        <v>0.6073677316973533</v>
+      </c>
+      <c r="AB15">
         <v>0.9952076081648645</v>
       </c>
-      <c r="Z15">
+      <c r="AC15">
         <v>0.9699043843436879</v>
       </c>
-      <c r="AA15">
+      <c r="AD15">
         <v>0.8269628446421282</v>
       </c>
-      <c r="AB15">
+      <c r="AE15">
         <v>0.5133838822154931</v>
       </c>
-      <c r="AC15">
+      <c r="AF15">
         <v>0.2842892166473633</v>
       </c>
-      <c r="AD15">
+      <c r="AG15">
         <v>0.07610194803883701</v>
       </c>
-      <c r="AE15">
+      <c r="AH15">
         <v>0.9805193908859234</v>
       </c>
-      <c r="AF15">
+      <c r="AI15">
         <v>0.6144201159064291</v>
       </c>
-      <c r="AG15">
+      <c r="AJ15">
         <v>0.1777656363891538</v>
       </c>
-      <c r="AH15">
+      <c r="AK15">
         <v>0.9987998824494594</v>
       </c>
-      <c r="AI15">
+      <c r="AL15">
         <v>0.9876311084771083</v>
       </c>
-      <c r="AJ15">
+      <c r="AM15">
         <v>0.8749122796310411</v>
       </c>
-      <c r="AK15">
+      <c r="AN15">
         <v>0.984502946447809</v>
       </c>
-      <c r="AL15">
+      <c r="AO15">
         <v>0.9298712819707684</v>
       </c>
-      <c r="AM15">
+      <c r="AP15">
         <v>0.8118259135125068</v>
       </c>
-      <c r="AN15">
+      <c r="AQ15">
         <v>0.5098961377094471</v>
       </c>
-      <c r="AO15">
+      <c r="AR15">
         <v>0.2962441620827963</v>
       </c>
-      <c r="AP15">
+      <c r="AS15">
         <v>0.1468755529239172</v>
       </c>
-      <c r="AQ15">
+      <c r="AT15">
         <v>0.0578485472519573</v>
       </c>
-      <c r="AR15">
+      <c r="AU15">
         <v>0.9949705432844815</v>
       </c>
-      <c r="AS15">
+      <c r="AV15">
         <v>0.9168177159107738</v>
       </c>
-      <c r="AT15">
+      <c r="AW15">
         <v>0.5010513126675249</v>
       </c>
-      <c r="AU15">
+      <c r="AX15">
         <v>0.9519194826959508</v>
       </c>
-      <c r="AV15">
+      <c r="AY15">
         <v>0.7838767722585516</v>
       </c>
-      <c r="AW15">
+      <c r="AZ15">
         <v>0.6084686957144185</v>
       </c>
-      <c r="AX15">
+      <c r="BA15">
         <v>0.3091805378857532</v>
       </c>
-      <c r="AY15">
+      <c r="BB15">
         <v>0.0996780004684323</v>
       </c>
-      <c r="AZ15">
+      <c r="BC15">
         <v>0.05577847992191502</v>
       </c>
-      <c r="BA15">
+      <c r="BD15">
         <v>0.6754365016713758</v>
       </c>
-      <c r="BB15">
+      <c r="BE15">
         <v>0.2773174905766692</v>
       </c>
-      <c r="BC15">
+      <c r="BF15">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD15">
+      <c r="BG15">
         <v>0.9962700819220904</v>
       </c>
-      <c r="BE15">
+      <c r="BH15">
         <v>0.9901579577682097</v>
       </c>
-      <c r="BF15">
+      <c r="BI15">
         <v>0.955908746428502</v>
       </c>
-      <c r="BG15">
+      <c r="BJ15">
         <v>0.8464542503232932</v>
       </c>
-      <c r="BH15">
+      <c r="BK15">
         <v>0.359059232789101</v>
       </c>
-      <c r="BI15">
+      <c r="BL15">
         <v>0.0578453499286048</v>
       </c>
-      <c r="BJ15">
+      <c r="BM15">
         <v>0.9953926347291053</v>
       </c>
-      <c r="BK15">
+      <c r="BN15">
         <v>0.9786752560890684</v>
       </c>
-      <c r="BL15">
+      <c r="BO15">
         <v>0.9349985179829418</v>
       </c>
-      <c r="BM15">
+      <c r="BP15">
         <v>0.7487171578975156</v>
       </c>
-      <c r="BN15">
+      <c r="BQ15">
+        <v>0.4612794964100578</v>
+      </c>
+      <c r="BR15">
         <v>0.1472880956119361</v>
       </c>
-      <c r="BO15">
+      <c r="BS15">
         <v>0.03858522841043706</v>
       </c>
-      <c r="BP15">
-        <v>1</v>
-      </c>
-      <c r="BQ15">
+      <c r="BT15">
+        <v>1</v>
+      </c>
+      <c r="BU15">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR15">
+      <c r="BV15">
         <v>0.9977999455555832</v>
       </c>
-      <c r="BS15">
-        <v>1</v>
-      </c>
-      <c r="BT15">
+      <c r="BW15">
+        <v>1</v>
+      </c>
+      <c r="BX15">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BU15">
+      <c r="BY15">
         <v>0.9862358477100936</v>
       </c>
-      <c r="BV15">
+      <c r="BZ15">
         <v>0.9952175619894361</v>
       </c>
-      <c r="BW15">
+      <c r="CA15">
         <v>0.9959880791077411</v>
       </c>
-      <c r="BX15">
+      <c r="CB15">
         <v>0.9685238385463478</v>
       </c>
-      <c r="BY15">
+      <c r="CC15">
         <v>0.9072535032001448</v>
       </c>
-      <c r="BZ15">
+      <c r="CD15">
         <v>0.6803528086047463</v>
       </c>
-      <c r="CA15">
+      <c r="CE15">
+        <v>0.3300265220797916</v>
+      </c>
+      <c r="CF15">
         <v>0.1105864339642547</v>
       </c>
-      <c r="CB15">
+      <c r="CG15">
         <v>0.03572801447038757</v>
       </c>
-      <c r="CC15">
+      <c r="CH15">
         <v>0.9738311238799138</v>
       </c>
-      <c r="CD15">
+      <c r="CI15">
         <v>0.590839628977808</v>
       </c>
-      <c r="CE15">
-        <v>1</v>
-      </c>
-      <c r="CF15">
-        <v>1</v>
-      </c>
-      <c r="CG15">
-        <v>1</v>
-      </c>
-      <c r="CH15">
-        <v>1</v>
-      </c>
-      <c r="CI15">
+      <c r="CJ15">
+        <v>1</v>
+      </c>
+      <c r="CK15">
+        <v>1</v>
+      </c>
+      <c r="CL15">
+        <v>1</v>
+      </c>
+      <c r="CM15">
+        <v>1</v>
+      </c>
+      <c r="CN15">
         <v>0.9415597081889157</v>
       </c>
     </row>
-    <row r="16" spans="1:87">
+    <row r="16" spans="1:92">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B16">
         <v>0.9441052994701791</v>
@@ -4726,198 +4966,213 @@
         <v>0.03928482377884589</v>
       </c>
       <c r="Y16">
+        <v>0.9510295491289672</v>
+      </c>
+      <c r="Z16">
+        <v>0.7392428944612948</v>
+      </c>
+      <c r="AA16">
+        <v>0.3569390279731799</v>
+      </c>
+      <c r="AB16">
         <v>0.9952076081648645</v>
       </c>
-      <c r="Z16">
+      <c r="AC16">
         <v>0.9640736011552229</v>
       </c>
-      <c r="AA16">
+      <c r="AD16">
         <v>0.8230896266359206</v>
       </c>
-      <c r="AB16">
+      <c r="AE16">
         <v>0.4511525745173433</v>
       </c>
-      <c r="AC16">
+      <c r="AF16">
         <v>0.141875929438077</v>
       </c>
-      <c r="AD16">
+      <c r="AG16">
         <v>0.03460158274128112</v>
       </c>
-      <c r="AE16">
+      <c r="AH16">
         <v>0.9753754240012428</v>
       </c>
-      <c r="AF16">
+      <c r="AI16">
         <v>0.5534550200330202</v>
       </c>
-      <c r="AG16">
+      <c r="AJ16">
         <v>0.1088322056136998</v>
       </c>
-      <c r="AH16">
+      <c r="AK16">
         <v>0.9979998040824323</v>
       </c>
-      <c r="AI16">
+      <c r="AL16">
         <v>0.9880230854564774</v>
       </c>
-      <c r="AJ16">
+      <c r="AM16">
         <v>0.8327980206932942</v>
       </c>
-      <c r="AK16">
+      <c r="AN16">
         <v>0.98187831611784</v>
       </c>
-      <c r="AL16">
+      <c r="AO16">
         <v>0.9264693580506583</v>
       </c>
-      <c r="AM16">
+      <c r="AP16">
         <v>0.7989221980542938</v>
       </c>
-      <c r="AN16">
+      <c r="AQ16">
         <v>0.4952012579979519</v>
       </c>
-      <c r="AO16">
+      <c r="AR16">
         <v>0.2882158503883268</v>
       </c>
-      <c r="AP16">
+      <c r="AS16">
         <v>0.1152907982946884</v>
       </c>
-      <c r="AQ16">
+      <c r="AT16">
         <v>0.03353932873220489</v>
       </c>
-      <c r="AR16">
+      <c r="AU16">
         <v>0.9934970403770564</v>
       </c>
-      <c r="AS16">
+      <c r="AV16">
         <v>0.8502504637064601</v>
       </c>
-      <c r="AT16">
+      <c r="AW16">
         <v>0.3486570509009749</v>
       </c>
-      <c r="AU16">
+      <c r="AX16">
         <v>0.9453021637359119</v>
       </c>
-      <c r="AV16">
+      <c r="AY16">
         <v>0.7881536448129566</v>
       </c>
-      <c r="AW16">
+      <c r="AZ16">
         <v>0.6011495196060137</v>
       </c>
-      <c r="AX16">
+      <c r="BA16">
         <v>0.3021691070129588</v>
       </c>
-      <c r="AY16">
+      <c r="BB16">
         <v>0.08210875916669384</v>
       </c>
-      <c r="AZ16">
+      <c r="BC16">
         <v>0.03287023571724526</v>
       </c>
-      <c r="BA16">
+      <c r="BD16">
         <v>0.4583215235516176</v>
       </c>
-      <c r="BB16">
+      <c r="BE16">
         <v>0.1840801299322515</v>
       </c>
-      <c r="BC16">
+      <c r="BF16">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD16">
+      <c r="BG16">
         <v>0.9962665029831796</v>
       </c>
-      <c r="BE16">
+      <c r="BH16">
         <v>0.9890876660322815</v>
       </c>
-      <c r="BF16">
+      <c r="BI16">
         <v>0.9507219587894462</v>
       </c>
-      <c r="BG16">
+      <c r="BJ16">
         <v>0.8396078923411278</v>
       </c>
-      <c r="BH16">
+      <c r="BK16">
         <v>0.3529681555205779</v>
       </c>
-      <c r="BI16">
+      <c r="BL16">
         <v>0.02846783135939711</v>
       </c>
-      <c r="BJ16">
+      <c r="BM16">
         <v>0.9943852095176965</v>
       </c>
-      <c r="BK16">
+      <c r="BN16">
         <v>0.9766970784070343</v>
       </c>
-      <c r="BL16">
+      <c r="BO16">
         <v>0.9289399411668394</v>
       </c>
-      <c r="BM16">
+      <c r="BP16">
         <v>0.7265787100339577</v>
       </c>
-      <c r="BN16">
+      <c r="BQ16">
+        <v>0.4369333989278043</v>
+      </c>
+      <c r="BR16">
         <v>0.1149587032024183</v>
       </c>
-      <c r="BO16">
+      <c r="BS16">
         <v>0.02531831708879961</v>
       </c>
-      <c r="BP16">
-        <v>1</v>
-      </c>
-      <c r="BQ16">
+      <c r="BT16">
+        <v>1</v>
+      </c>
+      <c r="BU16">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BR16">
+      <c r="BV16">
         <v>0.9979999505050756</v>
       </c>
-      <c r="BS16">
-        <v>1</v>
-      </c>
-      <c r="BT16">
+      <c r="BW16">
+        <v>1</v>
+      </c>
+      <c r="BX16">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BU16">
+      <c r="BY16">
         <v>0.9840518756615299</v>
       </c>
-      <c r="BV16">
+      <c r="BZ16">
         <v>0.9944717264911884</v>
       </c>
-      <c r="BW16">
+      <c r="CA16">
         <v>0.9950569671055998</v>
       </c>
-      <c r="BX16">
+      <c r="CB16">
         <v>0.9657608771023063</v>
       </c>
-      <c r="BY16">
+      <c r="CC16">
         <v>0.8971301958407158</v>
       </c>
-      <c r="BZ16">
+      <c r="CD16">
         <v>0.6440467949846129</v>
       </c>
-      <c r="CA16">
+      <c r="CE16">
+        <v>0.2878584895649661</v>
+      </c>
+      <c r="CF16">
         <v>0.07923464908684433</v>
       </c>
-      <c r="CB16">
+      <c r="CG16">
         <v>0.01812368752076735</v>
       </c>
-      <c r="CC16">
+      <c r="CH16">
         <v>0.9710753948935753</v>
       </c>
-      <c r="CD16">
+      <c r="CI16">
         <v>0.3461382065212954</v>
       </c>
-      <c r="CE16">
-        <v>1</v>
-      </c>
-      <c r="CF16">
-        <v>1</v>
-      </c>
-      <c r="CG16">
-        <v>1</v>
-      </c>
-      <c r="CH16">
+      <c r="CJ16">
+        <v>1</v>
+      </c>
+      <c r="CK16">
+        <v>1</v>
+      </c>
+      <c r="CL16">
+        <v>1</v>
+      </c>
+      <c r="CM16">
         <v>0.9999199996812851</v>
       </c>
-      <c r="CI16">
+      <c r="CN16">
         <v>0.9172070826636172</v>
       </c>
     </row>
-    <row r="17" spans="1:87">
+    <row r="17" spans="1:92">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B17">
         <v>0.9441778646617313</v>
@@ -4989,198 +5244,213 @@
         <v>0.03242546773369145</v>
       </c>
       <c r="Y17">
+        <v>0.8751202590237377</v>
+      </c>
+      <c r="Z17">
+        <v>0.3489535210563423</v>
+      </c>
+      <c r="AA17">
+        <v>0.1385848853969841</v>
+      </c>
+      <c r="AB17">
         <v>0.994007490614324</v>
       </c>
-      <c r="Z17">
+      <c r="AC17">
         <v>0.9628492105014087</v>
       </c>
-      <c r="AA17">
+      <c r="AD17">
         <v>0.831850663636227</v>
       </c>
-      <c r="AB17">
+      <c r="AE17">
         <v>0.4562022011010743</v>
       </c>
-      <c r="AC17">
+      <c r="AF17">
         <v>0.1238965247748121</v>
       </c>
-      <c r="AD17">
+      <c r="AG17">
         <v>0.03420046074248156</v>
       </c>
-      <c r="AE17">
+      <c r="AH17">
         <v>0.9761593743307307</v>
       </c>
-      <c r="AF17">
+      <c r="AI17">
         <v>0.5988077716778945</v>
       </c>
-      <c r="AG17">
+      <c r="AJ17">
         <v>0.1046042766287935</v>
       </c>
-      <c r="AH17">
+      <c r="AK17">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AI17">
+      <c r="AL17">
         <v>0.9884311868441352</v>
       </c>
-      <c r="AJ17">
+      <c r="AM17">
         <v>0.8652828984521156</v>
       </c>
-      <c r="AK17">
+      <c r="AN17">
         <v>0.9838675212018919</v>
       </c>
-      <c r="AL17">
+      <c r="AO17">
         <v>0.9179543746201452</v>
       </c>
-      <c r="AM17">
+      <c r="AP17">
         <v>0.8042439647937673</v>
       </c>
-      <c r="AN17">
+      <c r="AQ17">
         <v>0.5068987620011377</v>
       </c>
-      <c r="AO17">
+      <c r="AR17">
         <v>0.2867826588325043</v>
       </c>
-      <c r="AP17">
+      <c r="AS17">
         <v>0.1097515432248465</v>
       </c>
-      <c r="AQ17">
+      <c r="AT17">
         <v>0.03001595095975612</v>
       </c>
-      <c r="AR17">
+      <c r="AU17">
         <v>0.9934969473592141</v>
       </c>
-      <c r="AS17">
+      <c r="AV17">
         <v>0.9049482041479934</v>
       </c>
-      <c r="AT17">
+      <c r="AW17">
         <v>0.4271283822414339</v>
       </c>
-      <c r="AU17">
+      <c r="AX17">
         <v>0.9504656364617685</v>
       </c>
-      <c r="AV17">
+      <c r="AY17">
         <v>0.7897449776332737</v>
       </c>
-      <c r="AW17">
+      <c r="AZ17">
         <v>0.6111237055857599</v>
       </c>
-      <c r="AX17">
+      <c r="BA17">
         <v>0.3060492093940836</v>
       </c>
-      <c r="AY17">
+      <c r="BB17">
         <v>0.07653595568611656</v>
       </c>
-      <c r="AZ17">
+      <c r="BC17">
         <v>0.03282460152236108</v>
       </c>
-      <c r="BA17">
+      <c r="BD17">
         <v>0.5591171271045012</v>
       </c>
-      <c r="BB17">
+      <c r="BE17">
         <v>0.2068469121287884</v>
       </c>
-      <c r="BC17">
+      <c r="BF17">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD17">
+      <c r="BG17">
         <v>0.9957331462664911</v>
       </c>
-      <c r="BE17">
+      <c r="BH17">
         <v>0.9861828445109276</v>
       </c>
-      <c r="BF17">
+      <c r="BI17">
         <v>0.9488587933813163</v>
       </c>
-      <c r="BG17">
+      <c r="BJ17">
         <v>0.8438423789197451</v>
       </c>
-      <c r="BH17">
+      <c r="BK17">
         <v>0.3556951430027953</v>
       </c>
-      <c r="BI17">
+      <c r="BL17">
         <v>0.028747427864899</v>
       </c>
-      <c r="BJ17">
+      <c r="BM17">
         <v>0.9937892775828635</v>
       </c>
-      <c r="BK17">
+      <c r="BN17">
         <v>0.9737211969734867</v>
       </c>
-      <c r="BL17">
+      <c r="BO17">
         <v>0.9254652322201221</v>
       </c>
-      <c r="BM17">
+      <c r="BP17">
         <v>0.7500146941610393</v>
       </c>
-      <c r="BN17">
+      <c r="BQ17">
+        <v>0.4500588461652797</v>
+      </c>
+      <c r="BR17">
         <v>0.1135352234575346</v>
       </c>
-      <c r="BO17">
+      <c r="BS17">
         <v>0.02129036749025407</v>
       </c>
-      <c r="BP17">
-        <v>1</v>
-      </c>
-      <c r="BQ17">
+      <c r="BT17">
+        <v>1</v>
+      </c>
+      <c r="BU17">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR17">
+      <c r="BV17">
         <v>0.9973999356565983</v>
       </c>
-      <c r="BS17">
-        <v>1</v>
-      </c>
-      <c r="BT17">
+      <c r="BW17">
+        <v>1</v>
+      </c>
+      <c r="BX17">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BU17">
+      <c r="BY17">
         <v>0.9878318651081368</v>
       </c>
-      <c r="BV17">
+      <c r="BZ17">
         <v>0.9950656472904917</v>
       </c>
-      <c r="BW17">
+      <c r="CA17">
         <v>0.9943774133031127</v>
       </c>
-      <c r="BX17">
+      <c r="CB17">
         <v>0.9620376917075388</v>
       </c>
-      <c r="BY17">
+      <c r="CC17">
         <v>0.9073370992174812</v>
       </c>
-      <c r="BZ17">
+      <c r="CD17">
         <v>0.6725817311980025</v>
       </c>
-      <c r="CA17">
+      <c r="CE17">
+        <v>0.3008283901026946</v>
+      </c>
+      <c r="CF17">
         <v>0.07711567251692911</v>
       </c>
-      <c r="CB17">
+      <c r="CG17">
         <v>0.01472129229869013</v>
       </c>
-      <c r="CC17">
+      <c r="CH17">
         <v>0.9729173712746263</v>
       </c>
-      <c r="CD17">
+      <c r="CI17">
         <v>0.3663415811102521</v>
       </c>
-      <c r="CE17">
-        <v>1</v>
-      </c>
-      <c r="CF17">
-        <v>1</v>
-      </c>
-      <c r="CG17">
-        <v>1</v>
-      </c>
-      <c r="CH17">
-        <v>1</v>
-      </c>
-      <c r="CI17">
+      <c r="CJ17">
+        <v>1</v>
+      </c>
+      <c r="CK17">
+        <v>1</v>
+      </c>
+      <c r="CL17">
+        <v>1</v>
+      </c>
+      <c r="CM17">
+        <v>1</v>
+      </c>
+      <c r="CN17">
         <v>0.9425554677414122</v>
       </c>
     </row>
-    <row r="18" spans="1:87">
+    <row r="18" spans="1:92">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B18">
         <v>0.9350907684137644</v>
@@ -5252,198 +5522,213 @@
         <v>0.033526766459077</v>
       </c>
       <c r="Y18">
+        <v>0.9447867190426045</v>
+      </c>
+      <c r="Z18">
+        <v>0.7849612515269274</v>
+      </c>
+      <c r="AA18">
+        <v>0.5934606323398555</v>
+      </c>
+      <c r="AB18">
         <v>0.9908152555132429</v>
       </c>
-      <c r="Z18">
+      <c r="AC18">
         <v>0.9438213584534697</v>
       </c>
-      <c r="AA18">
+      <c r="AD18">
         <v>0.8221333650946865</v>
       </c>
-      <c r="AB18">
+      <c r="AE18">
         <v>0.4617861115430638</v>
       </c>
-      <c r="AC18">
+      <c r="AF18">
         <v>0.1302062423267533</v>
       </c>
-      <c r="AD18">
+      <c r="AG18">
         <v>0.03996191130947997</v>
       </c>
-      <c r="AE18">
+      <c r="AH18">
         <v>0.9679041116395777</v>
       </c>
-      <c r="AF18">
+      <c r="AI18">
         <v>0.6338935752512801</v>
       </c>
-      <c r="AG18">
+      <c r="AJ18">
         <v>0.1082700793933833</v>
       </c>
-      <c r="AH18">
+      <c r="AK18">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AI18">
+      <c r="AL18">
         <v>0.9860551997745365</v>
       </c>
-      <c r="AJ18">
+      <c r="AM18">
         <v>0.878325300439989</v>
       </c>
-      <c r="AK18">
+      <c r="AN18">
         <v>0.9757980865412444</v>
       </c>
-      <c r="AL18">
+      <c r="AO18">
         <v>0.8930204149061202</v>
       </c>
-      <c r="AM18">
+      <c r="AP18">
         <v>0.7713270827734193</v>
       </c>
-      <c r="AN18">
+      <c r="AQ18">
         <v>0.4966760329847467</v>
       </c>
-      <c r="AO18">
+      <c r="AR18">
         <v>0.2936123544068941</v>
       </c>
-      <c r="AP18">
+      <c r="AS18">
         <v>0.1111615822501377</v>
       </c>
-      <c r="AQ18">
+      <c r="AT18">
         <v>0.03456183051332893</v>
       </c>
-      <c r="AR18">
+      <c r="AU18">
         <v>0.9914408831525163</v>
       </c>
-      <c r="AS18">
+      <c r="AV18">
         <v>0.9126602449779047</v>
       </c>
-      <c r="AT18">
+      <c r="AW18">
         <v>0.5231223327170688</v>
       </c>
-      <c r="AU18">
+      <c r="AX18">
         <v>0.935047948377829</v>
       </c>
-      <c r="AV18">
+      <c r="AY18">
         <v>0.7558974157580036</v>
       </c>
-      <c r="AW18">
+      <c r="AZ18">
         <v>0.5894174360576316</v>
       </c>
-      <c r="AX18">
+      <c r="BA18">
         <v>0.309132303948004</v>
       </c>
-      <c r="AY18">
+      <c r="BB18">
         <v>0.07888918001082026</v>
       </c>
-      <c r="AZ18">
+      <c r="BC18">
         <v>0.03541284457961352</v>
       </c>
-      <c r="BA18">
+      <c r="BD18">
         <v>0.6850759108316056</v>
       </c>
-      <c r="BB18">
+      <c r="BE18">
         <v>0.262873909547799</v>
       </c>
-      <c r="BC18">
+      <c r="BF18">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD18">
+      <c r="BG18">
         <v>0.9954664679081466</v>
       </c>
-      <c r="BE18">
+      <c r="BH18">
         <v>0.9848458769621214</v>
       </c>
-      <c r="BF18">
+      <c r="BI18">
         <v>0.9343651074011973</v>
       </c>
-      <c r="BG18">
+      <c r="BJ18">
         <v>0.8281664826191042</v>
       </c>
-      <c r="BH18">
+      <c r="BK18">
         <v>0.3842561197817329</v>
       </c>
-      <c r="BI18">
+      <c r="BL18">
         <v>0.02831459436552256</v>
       </c>
-      <c r="BJ18">
+      <c r="BM18">
         <v>0.9935804913293379</v>
       </c>
-      <c r="BK18">
+      <c r="BN18">
         <v>0.9573391059330423</v>
       </c>
-      <c r="BL18">
+      <c r="BO18">
         <v>0.9020482632212241</v>
       </c>
-      <c r="BM18">
+      <c r="BP18">
         <v>0.7375525631625863</v>
       </c>
-      <c r="BN18">
+      <c r="BQ18">
+        <v>0.4811273750965938</v>
+      </c>
+      <c r="BR18">
         <v>0.1234637171313173</v>
       </c>
-      <c r="BO18">
+      <c r="BS18">
         <v>0.02503454674821367</v>
       </c>
-      <c r="BP18">
-        <v>1</v>
-      </c>
-      <c r="BQ18">
+      <c r="BT18">
+        <v>1</v>
+      </c>
+      <c r="BU18">
         <v>0.9989999752525378</v>
       </c>
-      <c r="BR18">
+      <c r="BV18">
         <v>0.9954059158586283</v>
       </c>
-      <c r="BS18">
-        <v>1</v>
-      </c>
-      <c r="BT18">
+      <c r="BW18">
+        <v>1</v>
+      </c>
+      <c r="BX18">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BU18">
+      <c r="BY18">
         <v>0.9846518883110845</v>
       </c>
-      <c r="BV18">
+      <c r="BZ18">
         <v>0.9944750786374379</v>
       </c>
-      <c r="BW18">
+      <c r="CA18">
         <v>0.9914693431475509</v>
       </c>
-      <c r="BX18">
+      <c r="CB18">
         <v>0.9464334970444814</v>
       </c>
-      <c r="BY18">
+      <c r="CC18">
         <v>0.8857781737701302</v>
       </c>
-      <c r="BZ18">
+      <c r="CD18">
         <v>0.6830425692026182</v>
       </c>
-      <c r="CA18">
+      <c r="CE18">
+        <v>0.3578973791826584</v>
+      </c>
+      <c r="CF18">
         <v>0.08696728074618967</v>
       </c>
-      <c r="CB18">
+      <c r="CG18">
         <v>0.01868898448916305</v>
       </c>
-      <c r="CC18">
+      <c r="CH18">
         <v>0.974117766191425</v>
       </c>
-      <c r="CD18">
+      <c r="CI18">
         <v>0.6137607525918191</v>
       </c>
-      <c r="CE18">
-        <v>1</v>
-      </c>
-      <c r="CF18">
-        <v>1</v>
-      </c>
-      <c r="CG18">
-        <v>1</v>
-      </c>
-      <c r="CH18">
-        <v>1</v>
-      </c>
-      <c r="CI18">
+      <c r="CJ18">
+        <v>1</v>
+      </c>
+      <c r="CK18">
+        <v>1</v>
+      </c>
+      <c r="CL18">
+        <v>1</v>
+      </c>
+      <c r="CM18">
+        <v>1</v>
+      </c>
+      <c r="CN18">
         <v>0.9374974881486497</v>
       </c>
     </row>
-    <row r="19" spans="1:87">
+    <row r="19" spans="1:92">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B19">
         <v>0.9350988597111926</v>
@@ -5515,198 +5800,213 @@
         <v>0.04838692149880904</v>
       </c>
       <c r="Y19">
+        <v>0.9413714818567824</v>
+      </c>
+      <c r="Z19">
+        <v>0.7622713327290405</v>
+      </c>
+      <c r="AA19">
+        <v>0.6051655125732397</v>
+      </c>
+      <c r="AB19">
         <v>0.9908152555132429</v>
       </c>
-      <c r="Z19">
+      <c r="AC19">
         <v>0.9483955459737174</v>
       </c>
-      <c r="AA19">
+      <c r="AD19">
         <v>0.8340174565401978</v>
       </c>
-      <c r="AB19">
+      <c r="AE19">
         <v>0.4607285381543579</v>
       </c>
-      <c r="AC19">
+      <c r="AF19">
         <v>0.1365235646796855</v>
       </c>
-      <c r="AD19">
+      <c r="AG19">
         <v>0.04905376757141079</v>
       </c>
-      <c r="AE19">
+      <c r="AH19">
         <v>0.9710882942344341</v>
       </c>
-      <c r="AF19">
+      <c r="AI19">
         <v>0.6151563043620838</v>
       </c>
-      <c r="AG19">
+      <c r="AJ19">
         <v>0.1163054832033645</v>
       </c>
-      <c r="AH19">
+      <c r="AK19">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AI19">
+      <c r="AL19">
         <v>0.9876230333425627</v>
       </c>
-      <c r="AJ19">
+      <c r="AM19">
         <v>0.8773961864770868</v>
       </c>
-      <c r="AK19">
+      <c r="AN19">
         <v>0.9757980865412444</v>
       </c>
-      <c r="AL19">
+      <c r="AO19">
         <v>0.8966378442645793</v>
       </c>
-      <c r="AM19">
+      <c r="AP19">
         <v>0.770187422743832</v>
       </c>
-      <c r="AN19">
+      <c r="AQ19">
         <v>0.5005378270726424</v>
       </c>
-      <c r="AO19">
+      <c r="AR19">
         <v>0.2898318814119211</v>
       </c>
-      <c r="AP19">
+      <c r="AS19">
         <v>0.1087621881617646</v>
       </c>
-      <c r="AQ19">
+      <c r="AT19">
         <v>0.04117819532606098</v>
       </c>
-      <c r="AR19">
+      <c r="AU19">
         <v>0.9920320863081626</v>
       </c>
-      <c r="AS19">
+      <c r="AV19">
         <v>0.9034081509082241</v>
       </c>
-      <c r="AT19">
+      <c r="AW19">
         <v>0.4837531756007771</v>
       </c>
-      <c r="AU19">
+      <c r="AX19">
         <v>0.9370570695754714</v>
       </c>
-      <c r="AV19">
+      <c r="AY19">
         <v>0.7561074308258591</v>
       </c>
-      <c r="AW19">
+      <c r="AZ19">
         <v>0.5881619239838445</v>
       </c>
-      <c r="AX19">
+      <c r="BA19">
         <v>0.305955758442336</v>
       </c>
-      <c r="AY19">
+      <c r="BB19">
         <v>0.07906628734499858</v>
       </c>
-      <c r="AZ19">
+      <c r="BC19">
         <v>0.03872792928717479</v>
       </c>
-      <c r="BA19">
+      <c r="BD19">
         <v>0.654159401152001</v>
       </c>
-      <c r="BB19">
+      <c r="BE19">
         <v>0.235614241521993</v>
       </c>
-      <c r="BC19">
+      <c r="BF19">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD19">
+      <c r="BG19">
         <v>0.9954664679081466</v>
       </c>
-      <c r="BE19">
+      <c r="BH19">
         <v>0.9837863239520326</v>
       </c>
-      <c r="BF19">
+      <c r="BI19">
         <v>0.9358900354155479</v>
       </c>
-      <c r="BG19">
+      <c r="BJ19">
         <v>0.8352539240630503</v>
       </c>
-      <c r="BH19">
+      <c r="BK19">
         <v>0.3690707174266694</v>
       </c>
-      <c r="BI19">
+      <c r="BL19">
         <v>0.03422450549893238</v>
       </c>
-      <c r="BJ19">
+      <c r="BM19">
         <v>0.993584489501216</v>
       </c>
-      <c r="BK19">
+      <c r="BN19">
         <v>0.9581470031832434</v>
       </c>
-      <c r="BL19">
+      <c r="BO19">
         <v>0.9057199498250654</v>
       </c>
-      <c r="BM19">
+      <c r="BP19">
         <v>0.7349969737330807</v>
       </c>
-      <c r="BN19">
+      <c r="BQ19">
+        <v>0.4684093174795543</v>
+      </c>
+      <c r="BR19">
         <v>0.1155089283074334</v>
       </c>
-      <c r="BO19">
+      <c r="BS19">
         <v>0.02654588568242861</v>
       </c>
-      <c r="BP19">
-        <v>1</v>
-      </c>
-      <c r="BQ19">
+      <c r="BT19">
+        <v>1</v>
+      </c>
+      <c r="BU19">
         <v>0.9989999752525378</v>
       </c>
-      <c r="BR19">
+      <c r="BV19">
         <v>0.9956039109091358</v>
       </c>
-      <c r="BS19">
-        <v>1</v>
-      </c>
-      <c r="BT19">
+      <c r="BW19">
+        <v>1</v>
+      </c>
+      <c r="BX19">
         <v>0.9997999950505075</v>
       </c>
-      <c r="BU19">
+      <c r="BY19">
         <v>0.9854559311109895</v>
       </c>
-      <c r="BV19">
+      <c r="BZ19">
         <v>0.994920595121548</v>
       </c>
-      <c r="BW19">
+      <c r="CA19">
         <v>0.991603354348142</v>
       </c>
-      <c r="BX19">
+      <c r="CB19">
         <v>0.9481955743298468</v>
       </c>
-      <c r="BY19">
+      <c r="CC19">
         <v>0.8880501084940781</v>
       </c>
-      <c r="BZ19">
+      <c r="CD19">
         <v>0.6760232287959481</v>
       </c>
-      <c r="CA19">
+      <c r="CE19">
+        <v>0.3361263552011419</v>
+      </c>
+      <c r="CF19">
         <v>0.08124682403607722</v>
       </c>
-      <c r="CB19">
+      <c r="CG19">
         <v>0.02152530674122039</v>
       </c>
-      <c r="CC19">
+      <c r="CH19">
         <v>0.9702897169046303</v>
       </c>
-      <c r="CD19">
+      <c r="CI19">
         <v>0.4122460814337736</v>
       </c>
-      <c r="CE19">
-        <v>1</v>
-      </c>
-      <c r="CF19">
-        <v>1</v>
-      </c>
-      <c r="CG19">
-        <v>1</v>
-      </c>
-      <c r="CH19">
-        <v>1</v>
-      </c>
-      <c r="CI19">
+      <c r="CJ19">
+        <v>1</v>
+      </c>
+      <c r="CK19">
+        <v>1</v>
+      </c>
+      <c r="CL19">
+        <v>1</v>
+      </c>
+      <c r="CM19">
+        <v>1</v>
+      </c>
+      <c r="CN19">
         <v>0.9350285433378189</v>
       </c>
     </row>
-    <row r="20" spans="1:87">
+    <row r="20" spans="1:92">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B20">
         <v>0.943842509940042</v>
@@ -5778,198 +6078,213 @@
         <v>0.07676781973800245</v>
       </c>
       <c r="Y20">
+        <v>0.8963706707535088</v>
+      </c>
+      <c r="Z20">
+        <v>0.4905252761243146</v>
+      </c>
+      <c r="AA20">
+        <v>0.2072257325192121</v>
+      </c>
+      <c r="AB20">
         <v>0.9944075297978376</v>
       </c>
-      <c r="Z20">
+      <c r="AC20">
         <v>0.9659685685160773</v>
       </c>
-      <c r="AA20">
+      <c r="AD20">
         <v>0.8390920687507982</v>
       </c>
-      <c r="AB20">
+      <c r="AE20">
         <v>0.4733817534039446</v>
       </c>
-      <c r="AC20">
+      <c r="AF20">
         <v>0.2170219049477215</v>
       </c>
-      <c r="AD20">
+      <c r="AG20">
         <v>0.08870331297940387</v>
       </c>
-      <c r="AE20">
+      <c r="AH20">
         <v>0.9805193650251212</v>
       </c>
-      <c r="AF20">
+      <c r="AI20">
         <v>0.5903795287000851</v>
       </c>
-      <c r="AG20">
+      <c r="AJ20">
         <v>0.1843463622558461</v>
       </c>
-      <c r="AH20">
+      <c r="AK20">
         <v>0.9979998040824323</v>
       </c>
-      <c r="AI20">
+      <c r="AL20">
         <v>0.9907990987791888</v>
       </c>
-      <c r="AJ20">
+      <c r="AM20">
         <v>0.8606526859249921</v>
       </c>
-      <c r="AK20">
+      <c r="AN20">
         <v>0.9833778822682322</v>
       </c>
-      <c r="AL20">
+      <c r="AO20">
         <v>0.9186391921390477</v>
       </c>
-      <c r="AM20">
+      <c r="AP20">
         <v>0.8042219112272605</v>
       </c>
-      <c r="AN20">
+      <c r="AQ20">
         <v>0.5150296442238331</v>
       </c>
-      <c r="AO20">
+      <c r="AR20">
         <v>0.3093351912708623</v>
       </c>
-      <c r="AP20">
+      <c r="AS20">
         <v>0.1613040855040531</v>
       </c>
-      <c r="AQ20">
+      <c r="AT20">
         <v>0.07121964817444532</v>
       </c>
-      <c r="AR20">
+      <c r="AU20">
         <v>0.9943793401288353</v>
       </c>
-      <c r="AS20">
+      <c r="AV20">
         <v>0.8976057187663428</v>
       </c>
-      <c r="AT20">
+      <c r="AW20">
         <v>0.3891058712105419</v>
       </c>
-      <c r="AU20">
+      <c r="AX20">
         <v>0.9499360493019728</v>
       </c>
-      <c r="AV20">
+      <c r="AY20">
         <v>0.7878469609454523</v>
       </c>
-      <c r="AW20">
+      <c r="AZ20">
         <v>0.6138035224008707</v>
       </c>
-      <c r="AX20">
+      <c r="BA20">
         <v>0.3206690185345212</v>
       </c>
-      <c r="AY20">
+      <c r="BB20">
         <v>0.102161698749231</v>
       </c>
-      <c r="AZ20">
+      <c r="BC20">
         <v>0.04965058407885296</v>
       </c>
-      <c r="BA20">
+      <c r="BD20">
         <v>0.5517030282351949</v>
       </c>
-      <c r="BB20">
+      <c r="BE20">
         <v>0.2626384887169756</v>
       </c>
-      <c r="BC20">
+      <c r="BF20">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD20">
+      <c r="BG20">
         <v>0.9962665029831796</v>
       </c>
-      <c r="BE20">
+      <c r="BH20">
         <v>0.9875054969404501</v>
       </c>
-      <c r="BF20">
+      <c r="BI20">
         <v>0.9548742597153667</v>
       </c>
-      <c r="BG20">
+      <c r="BJ20">
         <v>0.8527199118596134</v>
       </c>
-      <c r="BH20">
+      <c r="BK20">
         <v>0.4066101947555447</v>
       </c>
-      <c r="BI20">
+      <c r="BL20">
         <v>0.08841990495753321</v>
       </c>
-      <c r="BJ20">
+      <c r="BM20">
         <v>0.994989220477803</v>
       </c>
-      <c r="BK20">
+      <c r="BN20">
         <v>0.9752983376953327</v>
       </c>
-      <c r="BL20">
+      <c r="BO20">
         <v>0.9280901110532338</v>
       </c>
-      <c r="BM20">
+      <c r="BP20">
         <v>0.7534551757053272</v>
       </c>
-      <c r="BN20">
+      <c r="BQ20">
+        <v>0.4648073992682248</v>
+      </c>
+      <c r="BR20">
         <v>0.1544528178266525</v>
       </c>
-      <c r="BO20">
+      <c r="BS20">
         <v>0.06429786448837561</v>
       </c>
-      <c r="BP20">
-        <v>1</v>
-      </c>
-      <c r="BQ20">
+      <c r="BT20">
+        <v>1</v>
+      </c>
+      <c r="BU20">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR20">
+      <c r="BV20">
         <v>0.9975999406060907</v>
       </c>
-      <c r="BS20">
-        <v>1</v>
-      </c>
-      <c r="BT20">
-        <v>1</v>
-      </c>
-      <c r="BU20">
+      <c r="BW20">
+        <v>1</v>
+      </c>
+      <c r="BX20">
+        <v>1</v>
+      </c>
+      <c r="BY20">
         <v>0.9874298445061281</v>
       </c>
-      <c r="BV20">
+      <c r="BZ20">
         <v>0.9956641236506755</v>
       </c>
-      <c r="BW20">
+      <c r="CA20">
         <v>0.9945127411435221</v>
       </c>
-      <c r="BX20">
+      <c r="CB20">
         <v>0.9633567136117311</v>
       </c>
-      <c r="BY20">
+      <c r="CC20">
         <v>0.9085258134377218</v>
       </c>
-      <c r="BZ20">
+      <c r="CD20">
         <v>0.6744159969450421</v>
       </c>
-      <c r="CA20">
+      <c r="CE20">
+        <v>0.3077878643903882</v>
+      </c>
+      <c r="CF20">
         <v>0.115974631917495</v>
       </c>
-      <c r="CB20">
+      <c r="CG20">
         <v>0.05531748575464013</v>
       </c>
-      <c r="CC20">
+      <c r="CH20">
         <v>0.968987630900756</v>
       </c>
-      <c r="CD20">
+      <c r="CI20">
         <v>0.3172772100005139</v>
       </c>
-      <c r="CE20">
-        <v>1</v>
-      </c>
-      <c r="CF20">
-        <v>1</v>
-      </c>
-      <c r="CG20">
-        <v>1</v>
-      </c>
-      <c r="CH20">
-        <v>1</v>
-      </c>
-      <c r="CI20">
+      <c r="CJ20">
+        <v>1</v>
+      </c>
+      <c r="CK20">
+        <v>1</v>
+      </c>
+      <c r="CL20">
+        <v>1</v>
+      </c>
+      <c r="CM20">
+        <v>1</v>
+      </c>
+      <c r="CN20">
         <v>0.9385902430018117</v>
       </c>
     </row>
-    <row r="21" spans="1:87">
+    <row r="21" spans="1:92">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B21">
         <v>0.9424729210205292</v>
@@ -6041,198 +6356,213 @@
         <v>0.1367891087310738</v>
       </c>
       <c r="Y21">
+        <v>0.9567858698365427</v>
+      </c>
+      <c r="Z21">
+        <v>0.828480032712848</v>
+      </c>
+      <c r="AA21">
+        <v>0.7781609559880546</v>
+      </c>
+      <c r="AB21">
         <v>0.9928073730637835</v>
       </c>
-      <c r="Z21">
+      <c r="AC21">
         <v>0.9530098767644611</v>
       </c>
-      <c r="AA21">
+      <c r="AD21">
         <v>0.8272779203500251</v>
       </c>
-      <c r="AB21">
+      <c r="AE21">
         <v>0.4835389243310783</v>
       </c>
-      <c r="AC21">
+      <c r="AF21">
         <v>0.2732982853471106</v>
       </c>
-      <c r="AD21">
+      <c r="AG21">
         <v>0.1151835242741829</v>
       </c>
-      <c r="AE21">
+      <c r="AH21">
         <v>0.9690799665795038</v>
       </c>
-      <c r="AF21">
+      <c r="AI21">
         <v>0.6159526182925658</v>
       </c>
-      <c r="AG21">
+      <c r="AJ21">
         <v>0.2439788221042493</v>
       </c>
-      <c r="AH21">
+      <c r="AK21">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AI21">
+      <c r="AL21">
         <v>0.9876472910719647</v>
       </c>
-      <c r="AJ21">
+      <c r="AM21">
         <v>0.8710604651948628</v>
       </c>
-      <c r="AK21">
+      <c r="AN21">
         <v>0.9827208218475404</v>
       </c>
-      <c r="AL21">
+      <c r="AO21">
         <v>0.9129453313820457</v>
       </c>
-      <c r="AM21">
+      <c r="AP21">
         <v>0.791956870283712</v>
       </c>
-      <c r="AN21">
+      <c r="AQ21">
         <v>0.5092396299487448</v>
       </c>
-      <c r="AO21">
+      <c r="AR21">
         <v>0.3025887843328484</v>
       </c>
-      <c r="AP21">
+      <c r="AS21">
         <v>0.1875845334384838</v>
       </c>
-      <c r="AQ21">
+      <c r="AT21">
         <v>0.1332278160827369</v>
       </c>
-      <c r="AR21">
+      <c r="AU21">
         <v>0.991428185382906</v>
       </c>
-      <c r="AS21">
+      <c r="AV21">
         <v>0.912408363855628</v>
       </c>
-      <c r="AT21">
+      <c r="AW21">
         <v>0.4591804533204406</v>
       </c>
-      <c r="AU21">
+      <c r="AX21">
         <v>0.9479198990070405</v>
       </c>
-      <c r="AV21">
+      <c r="AY21">
         <v>0.7759278626782782</v>
       </c>
-      <c r="AW21">
+      <c r="AZ21">
         <v>0.6035005521092622</v>
       </c>
-      <c r="AX21">
+      <c r="BA21">
         <v>0.3178208489767197</v>
       </c>
-      <c r="AY21">
+      <c r="BB21">
         <v>0.1276687079073805</v>
       </c>
-      <c r="AZ21">
+      <c r="BC21">
         <v>0.08596045648774517</v>
       </c>
-      <c r="BA21">
+      <c r="BD21">
         <v>0.6245293356511183</v>
       </c>
-      <c r="BB21">
+      <c r="BE21">
         <v>0.3541960748912891</v>
       </c>
-      <c r="BC21">
+      <c r="BF21">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD21">
+      <c r="BG21">
         <v>0.9962665029831796</v>
       </c>
-      <c r="BE21">
+      <c r="BH21">
         <v>0.9866983027148483</v>
       </c>
-      <c r="BF21">
+      <c r="BI21">
         <v>0.9407850656375065</v>
       </c>
-      <c r="BG21">
+      <c r="BJ21">
         <v>0.8385768624956491</v>
       </c>
-      <c r="BH21">
+      <c r="BK21">
         <v>0.429620133974119</v>
       </c>
-      <c r="BI21">
+      <c r="BL21">
         <v>0.1600940410820519</v>
       </c>
-      <c r="BJ21">
+      <c r="BM21">
         <v>0.9951878179543077</v>
       </c>
-      <c r="BK21">
+      <c r="BN21">
         <v>0.9715411885462081</v>
       </c>
-      <c r="BL21">
+      <c r="BO21">
         <v>0.9185369531515312</v>
       </c>
-      <c r="BM21">
+      <c r="BP21">
         <v>0.7459094404264976</v>
       </c>
-      <c r="BN21">
+      <c r="BQ21">
+        <v>0.4753185725680849</v>
+      </c>
+      <c r="BR21">
         <v>0.214731601928251</v>
       </c>
-      <c r="BO21">
+      <c r="BS21">
         <v>0.1293472531068167</v>
       </c>
-      <c r="BP21">
-        <v>1</v>
-      </c>
-      <c r="BQ21">
+      <c r="BT21">
+        <v>1</v>
+      </c>
+      <c r="BU21">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR21">
+      <c r="BV21">
         <v>0.9976019505050756</v>
       </c>
-      <c r="BS21">
-        <v>1</v>
-      </c>
-      <c r="BT21">
+      <c r="BW21">
+        <v>1</v>
+      </c>
+      <c r="BX21">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BU21">
+      <c r="BY21">
         <v>0.9842558978080567</v>
       </c>
-      <c r="BV21">
+      <c r="BZ21">
         <v>0.9946258798284054</v>
       </c>
-      <c r="BW21">
+      <c r="CA21">
         <v>0.9951841874316938</v>
       </c>
-      <c r="BX21">
+      <c r="CB21">
         <v>0.9600857355652052</v>
       </c>
-      <c r="BY21">
+      <c r="CC21">
         <v>0.8995182755634746</v>
       </c>
-      <c r="BZ21">
+      <c r="CD21">
         <v>0.6877154090945778</v>
       </c>
-      <c r="CA21">
+      <c r="CE21">
+        <v>0.3320425603952505</v>
+      </c>
+      <c r="CF21">
         <v>0.1585444262462216</v>
       </c>
-      <c r="CB21">
+      <c r="CG21">
         <v>0.1137845180768132</v>
       </c>
-      <c r="CC21">
+      <c r="CH21">
         <v>0.9726240541574614</v>
       </c>
-      <c r="CD21">
+      <c r="CI21">
         <v>0.3981321517534917</v>
       </c>
-      <c r="CE21">
-        <v>1</v>
-      </c>
-      <c r="CF21">
-        <v>1</v>
-      </c>
-      <c r="CG21">
-        <v>1</v>
-      </c>
-      <c r="CH21">
-        <v>1</v>
-      </c>
-      <c r="CI21">
+      <c r="CJ21">
+        <v>1</v>
+      </c>
+      <c r="CK21">
+        <v>1</v>
+      </c>
+      <c r="CL21">
+        <v>1</v>
+      </c>
+      <c r="CM21">
+        <v>1</v>
+      </c>
+      <c r="CN21">
         <v>0.9370383355335656</v>
       </c>
     </row>
-    <row r="22" spans="1:87">
+    <row r="22" spans="1:92">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B22">
         <v>0.9428971260488295</v>
@@ -6304,198 +6634,213 @@
         <v>0.03450336074143715</v>
       </c>
       <c r="Y22">
+        <v>0.9592795085133875</v>
+      </c>
+      <c r="Z22">
+        <v>0.8219918729162862</v>
+      </c>
+      <c r="AA22">
+        <v>0.7269474187162653</v>
+      </c>
+      <c r="AB22">
         <v>0.9920153730637834</v>
       </c>
-      <c r="Z22">
+      <c r="AC22">
         <v>0.9507552875792604</v>
       </c>
-      <c r="AA22">
+      <c r="AD22">
         <v>0.8220242819499037</v>
       </c>
-      <c r="AB22">
+      <c r="AE22">
         <v>0.4569196200088572</v>
       </c>
-      <c r="AC22">
+      <c r="AF22">
         <v>0.1320209970638375</v>
       </c>
-      <c r="AD22">
+      <c r="AG22">
         <v>0.02994880354036309</v>
       </c>
-      <c r="AE22">
+      <c r="AH22">
         <v>0.9678797913707924</v>
       </c>
-      <c r="AF22">
+      <c r="AI22">
         <v>0.6261908555273664</v>
       </c>
-      <c r="AG22">
+      <c r="AJ22">
         <v>0.1073092917973486</v>
       </c>
-      <c r="AH22">
+      <c r="AK22">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AI22">
+      <c r="AL22">
         <v>0.9848550854564775</v>
       </c>
-      <c r="AJ22">
+      <c r="AM22">
         <v>0.8802368125125649</v>
       </c>
-      <c r="AK22">
+      <c r="AN22">
         <v>0.9824955785520914</v>
       </c>
-      <c r="AL22">
+      <c r="AO22">
         <v>0.9127431261224384</v>
       </c>
-      <c r="AM22">
+      <c r="AP22">
         <v>0.7913147107586207</v>
       </c>
-      <c r="AN22">
+      <c r="AQ22">
         <v>0.5004872813458612</v>
       </c>
-      <c r="AO22">
+      <c r="AR22">
         <v>0.2908364942682564</v>
       </c>
-      <c r="AP22">
+      <c r="AS22">
         <v>0.1086443511834437</v>
       </c>
-      <c r="AQ22">
+      <c r="AT22">
         <v>0.03123372847341714</v>
       </c>
-      <c r="AR22">
+      <c r="AU22">
         <v>0.9911324961819215</v>
       </c>
-      <c r="AS22">
+      <c r="AV22">
         <v>0.9217801280631988</v>
       </c>
-      <c r="AT22">
+      <c r="AW22">
         <v>0.4941079711424332</v>
       </c>
-      <c r="AU22">
+      <c r="AX22">
         <v>0.9455338521305227</v>
       </c>
-      <c r="AV22">
+      <c r="AY22">
         <v>0.7772000880966199</v>
       </c>
-      <c r="AW22">
+      <c r="AZ22">
         <v>0.5986896568208662</v>
       </c>
-      <c r="AX22">
+      <c r="BA22">
         <v>0.3113933372124598</v>
       </c>
-      <c r="AY22">
+      <c r="BB22">
         <v>0.0795027964092485</v>
       </c>
-      <c r="AZ22">
+      <c r="BC22">
         <v>0.03172264603857564</v>
       </c>
-      <c r="BA22">
+      <c r="BD22">
         <v>0.6726386667520852</v>
       </c>
-      <c r="BB22">
+      <c r="BE22">
         <v>0.2510985617422132</v>
       </c>
-      <c r="BC22">
+      <c r="BF22">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD22">
+      <c r="BG22">
         <v>0.9957331462664911</v>
       </c>
-      <c r="BE22">
+      <c r="BH22">
         <v>0.9848494559010322</v>
       </c>
-      <c r="BF22">
+      <c r="BI22">
         <v>0.9384565307637076</v>
       </c>
-      <c r="BG22">
+      <c r="BJ22">
         <v>0.8374508867060315</v>
       </c>
-      <c r="BH22">
+      <c r="BK22">
         <v>0.3729667700512911</v>
       </c>
-      <c r="BI22">
+      <c r="BL22">
         <v>0.02712778608559262</v>
       </c>
-      <c r="BJ22">
+      <c r="BM22">
         <v>0.9941885550121877</v>
       </c>
-      <c r="BK22">
+      <c r="BN22">
         <v>0.968392084054653</v>
       </c>
-      <c r="BL22">
+      <c r="BO22">
         <v>0.9157833103012729</v>
       </c>
-      <c r="BM22">
+      <c r="BP22">
         <v>0.748361899325597</v>
       </c>
-      <c r="BN22">
+      <c r="BQ22">
+        <v>0.4794422124878696</v>
+      </c>
+      <c r="BR22">
         <v>0.1208723794332226</v>
       </c>
-      <c r="BO22">
+      <c r="BS22">
         <v>0.02398936881018977</v>
       </c>
-      <c r="BP22">
-        <v>1</v>
-      </c>
-      <c r="BQ22">
+      <c r="BT22">
+        <v>1</v>
+      </c>
+      <c r="BU22">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR22">
+      <c r="BV22">
         <v>0.9970019356565981</v>
       </c>
-      <c r="BS22">
-        <v>1</v>
-      </c>
-      <c r="BT22">
+      <c r="BW22">
+        <v>1</v>
+      </c>
+      <c r="BX22">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BU22">
+      <c r="BY22">
         <v>0.9822739414120091</v>
       </c>
-      <c r="BV22">
+      <c r="BZ22">
         <v>0.9944762264855701</v>
       </c>
-      <c r="BW22">
+      <c r="CA22">
         <v>0.9943801202281477</v>
       </c>
-      <c r="BX22">
+      <c r="CB22">
         <v>0.9589075190577238</v>
       </c>
-      <c r="BY22">
+      <c r="CC22">
         <v>0.8990653192286614</v>
       </c>
-      <c r="BZ22">
+      <c r="CD22">
         <v>0.6896015694245827</v>
       </c>
-      <c r="CA22">
+      <c r="CE22">
+        <v>0.3417905413832201</v>
+      </c>
+      <c r="CF22">
         <v>0.08525657146673733</v>
       </c>
-      <c r="CB22">
+      <c r="CG22">
         <v>0.01904636420008394</v>
       </c>
-      <c r="CC22">
+      <c r="CH22">
         <v>0.9776371075226237</v>
       </c>
-      <c r="CD22">
+      <c r="CI22">
         <v>0.5345929311112217</v>
       </c>
-      <c r="CE22">
-        <v>1</v>
-      </c>
-      <c r="CF22">
-        <v>1</v>
-      </c>
-      <c r="CG22">
-        <v>1</v>
-      </c>
-      <c r="CH22">
+      <c r="CJ22">
+        <v>1</v>
+      </c>
+      <c r="CK22">
+        <v>1</v>
+      </c>
+      <c r="CL22">
+        <v>1</v>
+      </c>
+      <c r="CM22">
         <v>0.9999199996812851</v>
       </c>
-      <c r="CI22">
+      <c r="CN22">
         <v>0.9405341350425936</v>
       </c>
     </row>
-    <row r="23" spans="1:87">
+    <row r="23" spans="1:92">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B23">
         <v>0.9358584884528106</v>
@@ -6567,198 +6912,213 @@
         <v>0.03205462681227195</v>
       </c>
       <c r="Y23">
+        <v>0.8964071280746331</v>
+      </c>
+      <c r="Z23">
+        <v>0.3877760651330309</v>
+      </c>
+      <c r="AA23">
+        <v>0.1564264993272191</v>
+      </c>
+      <c r="AB23">
         <v>0.992415412247297</v>
       </c>
-      <c r="Z23">
+      <c r="AC23">
         <v>0.9577698713487844</v>
       </c>
-      <c r="AA23">
+      <c r="AD23">
         <v>0.8345871066500511</v>
       </c>
-      <c r="AB23">
+      <c r="AE23">
         <v>0.4676165900155684</v>
       </c>
-      <c r="AC23">
+      <c r="AF23">
         <v>0.1386456123137663</v>
       </c>
-      <c r="AD23">
+      <c r="AG23">
         <v>0.03550881917382635</v>
       </c>
-      <c r="AE23">
+      <c r="AH23">
         <v>0.9745834914889611</v>
       </c>
-      <c r="AF23">
+      <c r="AI23">
         <v>0.6090382209297309</v>
       </c>
-      <c r="AG23">
+      <c r="AJ23">
         <v>0.1138924800973798</v>
       </c>
-      <c r="AH23">
+      <c r="AK23">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AI23">
+      <c r="AL23">
         <v>0.9864067461275668</v>
       </c>
-      <c r="AJ23">
+      <c r="AM23">
         <v>0.8750649636280822</v>
       </c>
-      <c r="AK23">
+      <c r="AN23">
         <v>0.9778143821269322</v>
       </c>
-      <c r="AL23">
+      <c r="AO23">
         <v>0.8977399494980181</v>
       </c>
-      <c r="AM23">
+      <c r="AP23">
         <v>0.7810338186621864</v>
       </c>
-      <c r="AN23">
+      <c r="AQ23">
         <v>0.512018875610061</v>
       </c>
-      <c r="AO23">
+      <c r="AR23">
         <v>0.2836624311221944</v>
       </c>
-      <c r="AP23">
+      <c r="AS23">
         <v>0.1145264131249781</v>
       </c>
-      <c r="AQ23">
+      <c r="AT23">
         <v>0.03365300169133742</v>
       </c>
-      <c r="AR23">
+      <c r="AU23">
         <v>0.991727842873966</v>
       </c>
-      <c r="AS23">
+      <c r="AV23">
         <v>0.9097736609227408</v>
       </c>
-      <c r="AT23">
+      <c r="AW23">
         <v>0.4084950655188305</v>
       </c>
-      <c r="AU23">
+      <c r="AX23">
         <v>0.9370851420337567</v>
       </c>
-      <c r="AV23">
+      <c r="AY23">
         <v>0.7647268266078823</v>
       </c>
-      <c r="AW23">
+      <c r="AZ23">
         <v>0.5950432925239796</v>
       </c>
-      <c r="AX23">
+      <c r="BA23">
         <v>0.3115912224862296</v>
       </c>
-      <c r="AY23">
+      <c r="BB23">
         <v>0.08291487710027341</v>
       </c>
-      <c r="AZ23">
+      <c r="BC23">
         <v>0.03369087399451089</v>
       </c>
-      <c r="BA23">
+      <c r="BD23">
         <v>0.57196430177291</v>
       </c>
-      <c r="BB23">
+      <c r="BE23">
         <v>0.2104321410348121</v>
       </c>
-      <c r="BC23">
+      <c r="BF23">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD23">
+      <c r="BG23">
         <v>0.9951997895498024</v>
       </c>
-      <c r="BE23">
+      <c r="BH23">
         <v>0.9845863532997724</v>
       </c>
-      <c r="BF23">
+      <c r="BI23">
         <v>0.9444935079326136</v>
       </c>
-      <c r="BG23">
+      <c r="BJ23">
         <v>0.8458188029995189</v>
       </c>
-      <c r="BH23">
+      <c r="BK23">
         <v>0.3759289222291314</v>
       </c>
-      <c r="BI23">
+      <c r="BL23">
         <v>0.02961087732716444</v>
       </c>
-      <c r="BJ23">
+      <c r="BM23">
         <v>0.9933878633961351</v>
       </c>
-      <c r="BK23">
+      <c r="BN23">
         <v>0.9607241134695803</v>
       </c>
-      <c r="BL23">
+      <c r="BO23">
         <v>0.9137129097643953</v>
       </c>
-      <c r="BM23">
+      <c r="BP23">
         <v>0.7458987635257825</v>
       </c>
-      <c r="BN23">
+      <c r="BQ23">
+        <v>0.4653388952996829</v>
+      </c>
+      <c r="BR23">
         <v>0.1185627257443962</v>
       </c>
-      <c r="BO23">
+      <c r="BS23">
         <v>0.02238079604172401</v>
       </c>
-      <c r="BP23">
-        <v>1</v>
-      </c>
-      <c r="BQ23">
+      <c r="BT23">
+        <v>1</v>
+      </c>
+      <c r="BU23">
         <v>0.9991999802020303</v>
       </c>
-      <c r="BR23">
+      <c r="BV23">
         <v>0.9964019208081208</v>
       </c>
-      <c r="BS23">
-        <v>1</v>
-      </c>
-      <c r="BT23">
+      <c r="BW23">
+        <v>1</v>
+      </c>
+      <c r="BX23">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BU23">
+      <c r="BY23">
         <v>0.9866358551969622</v>
       </c>
-      <c r="BV23">
+      <c r="BZ23">
         <v>0.9946213570275182</v>
       </c>
-      <c r="BW23">
+      <c r="CA23">
         <v>0.9914706967960417</v>
       </c>
-      <c r="BX23">
+      <c r="CB23">
         <v>0.9514731711330778</v>
       </c>
-      <c r="BY23">
+      <c r="CC23">
         <v>0.8960096133954376</v>
       </c>
-      <c r="BZ23">
+      <c r="CD23">
         <v>0.6808596517141402</v>
       </c>
-      <c r="CA23">
+      <c r="CE23">
+        <v>0.3150656350425415</v>
+      </c>
+      <c r="CF23">
         <v>0.07941978801571954</v>
       </c>
-      <c r="CB23">
+      <c r="CG23">
         <v>0.01848243717579944</v>
       </c>
-      <c r="CC23">
+      <c r="CH23">
         <v>0.9779311708785223</v>
       </c>
-      <c r="CD23">
+      <c r="CI23">
         <v>0.3743167832960189</v>
       </c>
-      <c r="CE23">
-        <v>1</v>
-      </c>
-      <c r="CF23">
-        <v>1</v>
-      </c>
-      <c r="CG23">
-        <v>1</v>
-      </c>
-      <c r="CH23">
-        <v>1</v>
-      </c>
-      <c r="CI23">
+      <c r="CJ23">
+        <v>1</v>
+      </c>
+      <c r="CK23">
+        <v>1</v>
+      </c>
+      <c r="CL23">
+        <v>1</v>
+      </c>
+      <c r="CM23">
+        <v>1</v>
+      </c>
+      <c r="CN23">
         <v>0.9435496157880823</v>
       </c>
     </row>
-    <row r="24" spans="1:87">
+    <row r="24" spans="1:92">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B24">
         <v>0.9456891679319532</v>
@@ -6830,198 +7190,213 @@
         <v>0.05234478748143718</v>
       </c>
       <c r="Y24">
+        <v>0.8469905626074778</v>
+      </c>
+      <c r="Z24">
+        <v>0.3703983127256549</v>
+      </c>
+      <c r="AA24">
+        <v>0.1432742528275461</v>
+      </c>
+      <c r="AB24">
         <v>0.9936074514308104</v>
       </c>
-      <c r="Z24">
+      <c r="AC24">
         <v>0.9577376532695446</v>
       </c>
-      <c r="AA24">
+      <c r="AD24">
         <v>0.8358228209282147</v>
       </c>
-      <c r="AB24">
+      <c r="AE24">
         <v>0.4755496937042263</v>
       </c>
-      <c r="AC24">
+      <c r="AF24">
         <v>0.1548752579204237</v>
       </c>
-      <c r="AD24">
+      <c r="AG24">
         <v>0.03641131363414233</v>
       </c>
-      <c r="AE24">
+      <c r="AH24">
         <v>0.9714316191308316</v>
       </c>
-      <c r="AF24">
+      <c r="AI24">
         <v>0.6153253563901623</v>
       </c>
-      <c r="AG24">
+      <c r="AJ24">
         <v>0.1354795879658789</v>
       </c>
-      <c r="AH24">
+      <c r="AK24">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AI24">
+      <c r="AL24">
         <v>0.9856389909265677</v>
       </c>
-      <c r="AJ24">
+      <c r="AM24">
         <v>0.8828269384043211</v>
       </c>
-      <c r="AK24">
+      <c r="AN24">
         <v>0.984163122779715</v>
       </c>
-      <c r="AL24">
+      <c r="AO24">
         <v>0.9190938354683047</v>
       </c>
-      <c r="AM24">
+      <c r="AP24">
         <v>0.8060464141044622</v>
       </c>
-      <c r="AN24">
+      <c r="AQ24">
         <v>0.508902851865216</v>
       </c>
-      <c r="AO24">
+      <c r="AR24">
         <v>0.3029286821671234</v>
       </c>
-      <c r="AP24">
+      <c r="AS24">
         <v>0.1403764566795909</v>
       </c>
-      <c r="AQ24">
+      <c r="AT24">
         <v>0.05602506788428933</v>
       </c>
-      <c r="AR24">
+      <c r="AU24">
         <v>0.9934925353953661</v>
       </c>
-      <c r="AS24">
+      <c r="AV24">
         <v>0.9116370376646568</v>
       </c>
-      <c r="AT24">
+      <c r="AW24">
         <v>0.4459595465248257</v>
       </c>
-      <c r="AU24">
+      <c r="AX24">
         <v>0.9502014248319132</v>
       </c>
-      <c r="AV24">
+      <c r="AY24">
         <v>0.7908577892334431</v>
       </c>
-      <c r="AW24">
+      <c r="AZ24">
         <v>0.6164418783549931</v>
       </c>
-      <c r="AX24">
+      <c r="BA24">
         <v>0.3134725532614705</v>
       </c>
-      <c r="AY24">
+      <c r="BB24">
         <v>0.08900212860704081</v>
       </c>
-      <c r="AZ24">
+      <c r="BC24">
         <v>0.04171451582416812</v>
       </c>
-      <c r="BA24">
+      <c r="BD24">
         <v>0.5884739295673479</v>
       </c>
-      <c r="BB24">
+      <c r="BE24">
         <v>0.2487214448925658</v>
       </c>
-      <c r="BC24">
+      <c r="BF24">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD24">
+      <c r="BG24">
         <v>0.9957331462664911</v>
       </c>
-      <c r="BE24">
+      <c r="BH24">
         <v>0.9856530692786163</v>
       </c>
-      <c r="BF24">
+      <c r="BI24">
         <v>0.9472873654060092</v>
       </c>
-      <c r="BG24">
+      <c r="BJ24">
         <v>0.8455128110492381</v>
       </c>
-      <c r="BH24">
+      <c r="BK24">
         <v>0.3809939429855121</v>
       </c>
-      <c r="BI24">
+      <c r="BL24">
         <v>0.05921230822893249</v>
       </c>
-      <c r="BJ24">
+      <c r="BM24">
         <v>0.9937892775828635</v>
       </c>
-      <c r="BK24">
+      <c r="BN24">
         <v>0.972732397475551</v>
       </c>
-      <c r="BL24">
+      <c r="BO24">
         <v>0.9240935314122009</v>
       </c>
-      <c r="BM24">
+      <c r="BP24">
         <v>0.7553016131613931</v>
       </c>
-      <c r="BN24">
+      <c r="BQ24">
+        <v>0.4702395725813316</v>
+      </c>
+      <c r="BR24">
         <v>0.136761255152724</v>
       </c>
-      <c r="BO24">
+      <c r="BS24">
         <v>0.03903464794932785</v>
       </c>
-      <c r="BP24">
-        <v>1</v>
-      </c>
-      <c r="BQ24">
+      <c r="BT24">
+        <v>1</v>
+      </c>
+      <c r="BU24">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR24">
+      <c r="BV24">
         <v>0.9973999356565983</v>
       </c>
-      <c r="BS24">
-        <v>1</v>
-      </c>
-      <c r="BT24">
+      <c r="BW24">
+        <v>1</v>
+      </c>
+      <c r="BX24">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BU24">
+      <c r="BY24">
         <v>0.9882258444939385</v>
       </c>
-      <c r="BV24">
+      <c r="BZ24">
         <v>0.9947663862178321</v>
       </c>
-      <c r="BW24">
+      <c r="CA24">
         <v>0.9945127411435221</v>
       </c>
-      <c r="BX24">
+      <c r="CB24">
         <v>0.9615579318560857</v>
       </c>
-      <c r="BY24">
+      <c r="CC24">
         <v>0.9086157971217571</v>
       </c>
-      <c r="BZ24">
+      <c r="CD24">
         <v>0.6814793404326468</v>
       </c>
-      <c r="CA24">
+      <c r="CE24">
+        <v>0.3176013532072557</v>
+      </c>
+      <c r="CF24">
         <v>0.09659172722922246</v>
       </c>
-      <c r="CB24">
+      <c r="CG24">
         <v>0.03068153185591176</v>
       </c>
-      <c r="CC24">
+      <c r="CH24">
         <v>0.9770198034063483</v>
       </c>
-      <c r="CD24">
+      <c r="CI24">
         <v>0.3913916088775783</v>
       </c>
-      <c r="CE24">
-        <v>1</v>
-      </c>
-      <c r="CF24">
-        <v>1</v>
-      </c>
-      <c r="CG24">
-        <v>1</v>
-      </c>
-      <c r="CH24">
-        <v>1</v>
-      </c>
-      <c r="CI24">
+      <c r="CJ24">
+        <v>1</v>
+      </c>
+      <c r="CK24">
+        <v>1</v>
+      </c>
+      <c r="CL24">
+        <v>1</v>
+      </c>
+      <c r="CM24">
+        <v>1</v>
+      </c>
+      <c r="CN24">
         <v>0.9435505757525473</v>
       </c>
     </row>
-    <row r="25" spans="1:87">
+    <row r="25" spans="1:92">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B25">
         <v>0.9428971260488295</v>
@@ -7093,198 +7468,213 @@
         <v>0.03050074351316582</v>
       </c>
       <c r="Y25">
+        <v>0.9593466283140596</v>
+      </c>
+      <c r="Z25">
+        <v>0.8234686726238154</v>
+      </c>
+      <c r="AA25">
+        <v>0.7286550984490161</v>
+      </c>
+      <c r="AB25">
         <v>0.9920153730637834</v>
       </c>
-      <c r="Z25">
+      <c r="AC25">
         <v>0.951130986969948</v>
       </c>
-      <c r="AA25">
+      <c r="AD25">
         <v>0.8235197168033033</v>
       </c>
-      <c r="AB25">
+      <c r="AE25">
         <v>0.4553155915875104</v>
       </c>
-      <c r="AC25">
+      <c r="AF25">
         <v>0.1335010401845392</v>
       </c>
-      <c r="AD25">
+      <c r="AG25">
         <v>0.02971254163663233</v>
       </c>
-      <c r="AE25">
+      <c r="AH25">
         <v>0.9678797913707924</v>
       </c>
-      <c r="AF25">
+      <c r="AI25">
         <v>0.6253057445100481</v>
       </c>
-      <c r="AG25">
+      <c r="AJ25">
         <v>0.1037795709774832</v>
       </c>
-      <c r="AH25">
+      <c r="AK25">
         <v>0.9975997648989189</v>
       </c>
-      <c r="AI25">
+      <c r="AL25">
         <v>0.9864309941590491</v>
       </c>
-      <c r="AJ25">
+      <c r="AM25">
         <v>0.8819946783141299</v>
       </c>
-      <c r="AK25">
+      <c r="AN25">
         <v>0.9824955785520914</v>
       </c>
-      <c r="AL25">
+      <c r="AO25">
         <v>0.9133225905051945</v>
       </c>
-      <c r="AM25">
+      <c r="AP25">
         <v>0.7919367061801807</v>
       </c>
-      <c r="AN25">
+      <c r="AQ25">
         <v>0.5019811084816469</v>
       </c>
-      <c r="AO25">
+      <c r="AR25">
         <v>0.2902077682348125</v>
       </c>
-      <c r="AP25">
+      <c r="AS25">
         <v>0.1090981102002584</v>
       </c>
-      <c r="AQ25">
+      <c r="AT25">
         <v>0.0312186540602146</v>
       </c>
-      <c r="AR25">
+      <c r="AU25">
         <v>0.9911324961819215</v>
       </c>
-      <c r="AS25">
+      <c r="AV25">
         <v>0.9203860327435234</v>
       </c>
-      <c r="AT25">
+      <c r="AW25">
         <v>0.5024870517528828</v>
       </c>
-      <c r="AU25">
+      <c r="AX25">
         <v>0.9457705717932849</v>
       </c>
-      <c r="AV25">
+      <c r="AY25">
         <v>0.7777394790565126</v>
       </c>
-      <c r="AW25">
+      <c r="AZ25">
         <v>0.5997264094030028</v>
       </c>
-      <c r="AX25">
+      <c r="BA25">
         <v>0.3071358523666997</v>
       </c>
-      <c r="AY25">
+      <c r="BB25">
         <v>0.07725603736015012</v>
       </c>
-      <c r="AZ25">
+      <c r="BC25">
         <v>0.02983028266091238</v>
       </c>
-      <c r="BA25">
+      <c r="BD25">
         <v>0.6704407277112608</v>
       </c>
-      <c r="BB25">
+      <c r="BE25">
         <v>0.2504630060876998</v>
       </c>
-      <c r="BC25">
+      <c r="BF25">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD25">
+      <c r="BG25">
         <v>0.9957331462664911</v>
       </c>
-      <c r="BE25">
+      <c r="BH25">
         <v>0.9848494559010322</v>
       </c>
-      <c r="BF25">
+      <c r="BI25">
         <v>0.9374184433727897</v>
       </c>
-      <c r="BG25">
+      <c r="BJ25">
         <v>0.8389382653972762</v>
       </c>
-      <c r="BH25">
+      <c r="BK25">
         <v>0.374056567229557</v>
       </c>
-      <c r="BI25">
+      <c r="BL25">
         <v>0.02485575320350435</v>
       </c>
-      <c r="BJ25">
+      <c r="BM25">
         <v>0.9941885550121877</v>
       </c>
-      <c r="BK25">
+      <c r="BN25">
         <v>0.9685886271854947</v>
       </c>
-      <c r="BL25">
+      <c r="BO25">
         <v>0.9170866020752138</v>
       </c>
-      <c r="BM25">
+      <c r="BP25">
         <v>0.7485158454741577</v>
       </c>
-      <c r="BN25">
+      <c r="BQ25">
+        <v>0.4756220034899447</v>
+      </c>
+      <c r="BR25">
         <v>0.1219069466418133</v>
       </c>
-      <c r="BO25">
+      <c r="BS25">
         <v>0.0234596954206078</v>
       </c>
-      <c r="BP25">
-        <v>1</v>
-      </c>
-      <c r="BQ25">
+      <c r="BT25">
+        <v>1</v>
+      </c>
+      <c r="BU25">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR25">
+      <c r="BV25">
         <v>0.9970019356565981</v>
       </c>
-      <c r="BS25">
-        <v>1</v>
-      </c>
-      <c r="BT25">
+      <c r="BW25">
+        <v>1</v>
+      </c>
+      <c r="BX25">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BU25">
+      <c r="BY25">
         <v>0.9830739602049312</v>
       </c>
-      <c r="BV25">
+      <c r="BZ25">
         <v>0.9943265959492403</v>
       </c>
-      <c r="BW25">
+      <c r="CA25">
         <v>0.9943801202281477</v>
       </c>
-      <c r="BX25">
+      <c r="CB25">
         <v>0.9589127505181126</v>
       </c>
-      <c r="BY25">
+      <c r="CC25">
         <v>0.8995794371265589</v>
       </c>
-      <c r="BZ25">
+      <c r="CD25">
         <v>0.689958454636613</v>
       </c>
-      <c r="CA25">
+      <c r="CE25">
+        <v>0.3432228801642978</v>
+      </c>
+      <c r="CF25">
         <v>0.08549453420890687</v>
       </c>
-      <c r="CB25">
+      <c r="CG25">
         <v>0.01799030689602236</v>
       </c>
-      <c r="CC25">
+      <c r="CH25">
         <v>0.977666488487533</v>
       </c>
-      <c r="CD25">
+      <c r="CI25">
         <v>0.5347628776143755</v>
       </c>
-      <c r="CE25">
-        <v>1</v>
-      </c>
-      <c r="CF25">
-        <v>1</v>
-      </c>
-      <c r="CG25">
-        <v>1</v>
-      </c>
-      <c r="CH25">
+      <c r="CJ25">
+        <v>1</v>
+      </c>
+      <c r="CK25">
+        <v>1</v>
+      </c>
+      <c r="CL25">
+        <v>1</v>
+      </c>
+      <c r="CM25">
         <v>0.9999199996812851</v>
       </c>
-      <c r="CI25">
+      <c r="CN25">
         <v>0.9397601089082752</v>
       </c>
     </row>
-    <row r="26" spans="1:87">
+    <row r="26" spans="1:92">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B26">
         <v>0.9453617996174155</v>
@@ -7356,192 +7746,207 @@
         <v>0.03463583266364171</v>
       </c>
       <c r="Y26">
+        <v>0.8925610252175733</v>
+      </c>
+      <c r="Z26">
+        <v>0.4068961366403379</v>
+      </c>
+      <c r="AA26">
+        <v>0.1369127253857889</v>
+      </c>
+      <c r="AB26">
         <v>0.9936074514308104</v>
       </c>
-      <c r="Z26">
+      <c r="AC26">
         <v>0.9596892290365636</v>
       </c>
-      <c r="AA26">
+      <c r="AD26">
         <v>0.8332967297984328</v>
       </c>
-      <c r="AB26">
+      <c r="AE26">
         <v>0.4625823148663687</v>
       </c>
-      <c r="AC26">
+      <c r="AF26">
         <v>0.1362378561337755</v>
       </c>
-      <c r="AD26">
+      <c r="AG26">
         <v>0.03639139625839531</v>
       </c>
-      <c r="AE26">
+      <c r="AH26">
         <v>0.972607527439993</v>
       </c>
-      <c r="AF26">
+      <c r="AI26">
         <v>0.6157706322860007</v>
       </c>
-      <c r="AG26">
+      <c r="AJ26">
         <v>0.1199187172256412</v>
       </c>
-      <c r="AH26">
+      <c r="AK26">
         <v>0.9971997257154053</v>
       </c>
-      <c r="AI26">
+      <c r="AL26">
         <v>0.9872229941590491</v>
       </c>
-      <c r="AJ26">
+      <c r="AM26">
         <v>0.8762244437418861</v>
       </c>
-      <c r="AK26">
+      <c r="AN26">
         <v>0.984163122779715</v>
       </c>
-      <c r="AL26">
+      <c r="AO26">
         <v>0.9182864515503972</v>
       </c>
-      <c r="AM26">
+      <c r="AP26">
         <v>0.8066122496159761</v>
       </c>
-      <c r="AN26">
+      <c r="AQ26">
         <v>0.5086472717710645</v>
       </c>
-      <c r="AO26">
+      <c r="AR26">
         <v>0.2961720671986993</v>
       </c>
-      <c r="AP26">
+      <c r="AS26">
         <v>0.1139388813049685</v>
       </c>
-      <c r="AQ26">
+      <c r="AT26">
         <v>0.035941329738035</v>
       </c>
-      <c r="AR26">
+      <c r="AU26">
         <v>0.9926057306618966</v>
       </c>
-      <c r="AS26">
+      <c r="AV26">
         <v>0.9140078207757334</v>
       </c>
-      <c r="AT26">
+      <c r="AW26">
         <v>0.4450201131710104</v>
       </c>
-      <c r="AU26">
+      <c r="AX26">
         <v>0.9493519842663015</v>
       </c>
-      <c r="AV26">
+      <c r="AY26">
         <v>0.7886726250161061</v>
       </c>
-      <c r="AW26">
+      <c r="AZ26">
         <v>0.6136259101690353</v>
       </c>
-      <c r="AX26">
+      <c r="BA26">
         <v>0.3116034593536261</v>
       </c>
-      <c r="AY26">
+      <c r="BB26">
         <v>0.08240959336185108</v>
       </c>
-      <c r="AZ26">
+      <c r="BC26">
         <v>0.03369079658568139</v>
       </c>
-      <c r="BA26">
+      <c r="BD26">
         <v>0.6031372840829119</v>
       </c>
-      <c r="BB26">
+      <c r="BE26">
         <v>0.2267075833447796</v>
       </c>
-      <c r="BC26">
+      <c r="BF26">
         <v>0.9994666432833114</v>
       </c>
-      <c r="BD26">
+      <c r="BG26">
         <v>0.9957331462664911</v>
       </c>
-      <c r="BE26">
+      <c r="BH26">
         <v>0.9856530692786163</v>
       </c>
-      <c r="BF26">
+      <c r="BI26">
         <v>0.9462707503418234</v>
       </c>
-      <c r="BG26">
+      <c r="BJ26">
         <v>0.8473076073151937</v>
       </c>
-      <c r="BH26">
+      <c r="BK26">
         <v>0.3808021737679091</v>
       </c>
-      <c r="BI26">
+      <c r="BL26">
         <v>0.02974124553989513</v>
       </c>
-      <c r="BJ26">
+      <c r="BM26">
         <v>0.9937892775828635</v>
       </c>
-      <c r="BK26">
+      <c r="BN26">
         <v>0.9721345073793409</v>
       </c>
-      <c r="BL26">
+      <c r="BO26">
         <v>0.9244246214243893</v>
       </c>
-      <c r="BM26">
+      <c r="BP26">
         <v>0.7515591095663429</v>
       </c>
-      <c r="BN26">
+      <c r="BQ26">
+        <v>0.4679654287205794</v>
+      </c>
+      <c r="BR26">
         <v>0.1206092606643635</v>
       </c>
-      <c r="BO26">
+      <c r="BS26">
         <v>0.02618996065179855</v>
       </c>
-      <c r="BP26">
-        <v>1</v>
-      </c>
-      <c r="BQ26">
+      <c r="BT26">
+        <v>1</v>
+      </c>
+      <c r="BU26">
         <v>0.9995999901010151</v>
       </c>
-      <c r="BR26">
+      <c r="BV26">
         <v>0.9973999356565983</v>
       </c>
-      <c r="BS26">
-        <v>1</v>
-      </c>
-      <c r="BT26">
+      <c r="BW26">
+        <v>1</v>
+      </c>
+      <c r="BX26">
         <v>0.9993999851515227</v>
       </c>
-      <c r="BU26">
+      <c r="BY26">
         <v>0.9874238158142211</v>
       </c>
-      <c r="BV26">
+      <c r="BZ26">
         <v>0.9946236069386468</v>
       </c>
-      <c r="BW26">
+      <c r="CA26">
         <v>0.9946467523441129</v>
       </c>
-      <c r="BX26">
+      <c r="CB26">
         <v>0.962028262368767</v>
       </c>
-      <c r="BY26">
+      <c r="CC26">
         <v>0.9062907553562378</v>
       </c>
-      <c r="BZ26">
+      <c r="CD26">
         <v>0.6803365772971084</v>
       </c>
-      <c r="CA26">
+      <c r="CE26">
+        <v>0.3166457817240291</v>
+      </c>
+      <c r="CF26">
         <v>0.08124438061865892</v>
       </c>
-      <c r="CB26">
+      <c r="CG26">
         <v>0.01899125654136917</v>
       </c>
-      <c r="CC26">
+      <c r="CH26">
         <v>0.9768735099826468</v>
       </c>
-      <c r="CD26">
+      <c r="CI26">
         <v>0.3921049650827302</v>
       </c>
-      <c r="CE26">
-        <v>1</v>
-      </c>
-      <c r="CF26">
-        <v>1</v>
-      </c>
-      <c r="CG26">
-        <v>1</v>
-      </c>
-      <c r="CH26">
-        <v>1</v>
-      </c>
-      <c r="CI26">
+      <c r="CJ26">
+        <v>1</v>
+      </c>
+      <c r="CK26">
+        <v>1</v>
+      </c>
+      <c r="CL26">
+        <v>1</v>
+      </c>
+      <c r="CM26">
+        <v>1</v>
+      </c>
+      <c r="CN26">
         <v>0.9433989113198787</v>
       </c>
     </row>

--- a/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
+++ b/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>dataset2sbm_dolphins</t>
   </si>
@@ -25,13 +25,31 @@
     <t>dataset2sbm_karate</t>
   </si>
   <si>
-    <t>dataset2sbm_news_2cl1</t>
-  </si>
-  <si>
-    <t>dataset2sbm_news_2cl2</t>
-  </si>
-  <si>
-    <t>dataset2sbm_news_2cl3</t>
+    <t>dataset2sbm_polbooks</t>
+  </si>
+  <si>
+    <t>dataset2sbm_sp_school_day_1</t>
+  </si>
+  <si>
+    <t>dataset2sbm_sp_school_day_2</t>
+  </si>
+  <si>
+    <t>dataset2sbm_news_2cl1_0.1</t>
+  </si>
+  <si>
+    <t>dataset2sbm_news_2cl2_0.1</t>
+  </si>
+  <si>
+    <t>dataset2sbm_news_2cl3_0.1</t>
+  </si>
+  <si>
+    <t>dataset2sbm_news_3cl1_0.1</t>
+  </si>
+  <si>
+    <t>dataset2sbm_news_3cl2_0.1</t>
+  </si>
+  <si>
+    <t>dataset2sbm_news_3cl3_0.1</t>
   </si>
   <si>
     <t>Abs</t>
@@ -464,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,10 +507,28 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0.9844415544489108</v>
@@ -504,18 +540,36 @@
         <v>0.9215862541691341</v>
       </c>
       <c r="E2">
-        <v>0.1572395627318884</v>
+        <v>0.8017539077875655</v>
       </c>
       <c r="F2">
-        <v>0.120186460504087</v>
+        <v>0.199965049349657</v>
       </c>
       <c r="G2">
-        <v>0.4728017261543384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.2175482812781988</v>
+      </c>
+      <c r="H2">
+        <v>0.9849599723656098</v>
+      </c>
+      <c r="I2">
+        <v>0.829293548143888</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0.986070438712928</v>
+      </c>
+      <c r="L2">
+        <v>0.5069746368207133</v>
+      </c>
+      <c r="M2">
+        <v>0.8879907959164275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.9850681935557108</v>
@@ -527,18 +581,36 @@
         <v>0.951924689554975</v>
       </c>
       <c r="E3">
-        <v>0.4514370037544295</v>
+        <v>0.7926402427170177</v>
       </c>
       <c r="F3">
-        <v>0.2325685668282211</v>
+        <v>0.8266281692488819</v>
       </c>
       <c r="G3">
-        <v>0.7626806648892358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.8892273011094097</v>
+      </c>
+      <c r="H3">
+        <v>0.996984905938939</v>
+      </c>
+      <c r="I3">
+        <v>0.981985383472653</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0.9994991638795987</v>
+      </c>
+      <c r="L3">
+        <v>0.9840171849808292</v>
+      </c>
+      <c r="M3">
+        <v>0.9979849096464595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0.9780180877419905</v>
@@ -550,18 +622,36 @@
         <v>0.9367649475301161</v>
       </c>
       <c r="E4">
-        <v>0.37228714508638</v>
+        <v>0.7940438331022314</v>
       </c>
       <c r="F4">
-        <v>0.1895182066643619</v>
+        <v>0.7520419294947349</v>
       </c>
       <c r="G4">
-        <v>0.6960897311421449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.8069166438524216</v>
+      </c>
+      <c r="H4">
+        <v>0.994979907332169</v>
+      </c>
+      <c r="I4">
+        <v>0.9760564628502711</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.9964941767858073</v>
+      </c>
+      <c r="L4">
+        <v>0.9765153601374645</v>
+      </c>
+      <c r="M4">
+        <v>0.9939560215028076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0.9755825939454601</v>
@@ -573,18 +663,36 @@
         <v>0.9061478712468002</v>
       </c>
       <c r="E5">
-        <v>0.579942421128791</v>
+        <v>0.8458070645276061</v>
       </c>
       <c r="F5">
-        <v>0.3661731004369383</v>
+        <v>0.8976245082376442</v>
       </c>
       <c r="G5">
-        <v>0.8183881806241382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.8946293774987211</v>
+      </c>
+      <c r="H5">
+        <v>0.9949900324543949</v>
+      </c>
+      <c r="I5">
+        <v>0.9879851935733541</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.9910031465280227</v>
+      </c>
+      <c r="M5">
+        <v>0.9979862410475798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0.9882987934188884</v>
@@ -596,18 +704,36 @@
         <v>0.9353706577404073</v>
       </c>
       <c r="E6">
-        <v>0.2021096109439324</v>
+        <v>0.8037821780753684</v>
       </c>
       <c r="F6">
-        <v>0.1346881166658824</v>
+        <v>0.2318593185906747</v>
       </c>
       <c r="G6">
-        <v>0.486472684592763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.2438058737706402</v>
+      </c>
+      <c r="H6">
+        <v>0.9889699723630185</v>
+      </c>
+      <c r="I6">
+        <v>0.8928901588172865</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.989563907925332</v>
+      </c>
+      <c r="L6">
+        <v>0.5213618977030849</v>
+      </c>
+      <c r="M6">
+        <v>0.9077710910848198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.9902390595933319</v>
@@ -619,18 +745,36 @@
         <v>0.9541233198316702</v>
       </c>
       <c r="E7">
-        <v>0.4478924250658591</v>
+        <v>0.8771570671892149</v>
       </c>
       <c r="F7">
-        <v>0.2626176250857183</v>
+        <v>0.7298215124029725</v>
       </c>
       <c r="G7">
-        <v>0.7621556370158575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.8671384357398539</v>
+      </c>
+      <c r="H7">
+        <v>0.9969849061927153</v>
+      </c>
+      <c r="I7">
+        <v>0.9879801300629772</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.9791548465660049</v>
+      </c>
+      <c r="M7">
+        <v>0.9969748763408438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.9895744141875347</v>
@@ -642,18 +786,36 @@
         <v>0.946113239703759</v>
       </c>
       <c r="E8">
-        <v>0.5366317478973898</v>
+        <v>0.927091024968923</v>
       </c>
       <c r="F8">
-        <v>0.3087525889236702</v>
+        <v>0.8371722780637721</v>
       </c>
       <c r="G8">
-        <v>0.8128622026377823</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.8694761852187834</v>
+      </c>
+      <c r="H8">
+        <v>0.9949900332118886</v>
+      </c>
+      <c r="I8">
+        <v>0.9889800967258328</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.9954925701163908</v>
+      </c>
+      <c r="M8">
+        <v>0.9994949639279781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0.9831119451661402</v>
@@ -665,18 +827,36 @@
         <v>0.9198250867324674</v>
       </c>
       <c r="E9">
-        <v>0.177459087235598</v>
+        <v>0.7099506469144216</v>
       </c>
       <c r="F9">
-        <v>0.1102140953009997</v>
+        <v>0.7603724627618725</v>
       </c>
       <c r="G9">
-        <v>0.552625769037515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.7682180172125026</v>
+      </c>
+      <c r="H9">
+        <v>0.9800512740475964</v>
+      </c>
+      <c r="I9">
+        <v>0.8569972224726013</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.8710084066629651</v>
+      </c>
+      <c r="L9">
+        <v>0.9132098353674063</v>
+      </c>
+      <c r="M9">
+        <v>0.9759062399007249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0.9818064591743954</v>
@@ -688,18 +868,36 @@
         <v>0.9119457651467839</v>
       </c>
       <c r="E10">
-        <v>0.1555948807474036</v>
+        <v>0.7959911343639392</v>
       </c>
       <c r="F10">
-        <v>0.137108143607064</v>
+        <v>0.1943314970914197</v>
       </c>
       <c r="G10">
-        <v>0.4030475139283348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.2088456195417628</v>
+      </c>
+      <c r="H10">
+        <v>0.9750413224847623</v>
+      </c>
+      <c r="I10">
+        <v>0.8421020174407552</v>
+      </c>
+      <c r="J10">
+        <v>0.9989949688154972</v>
+      </c>
+      <c r="K10">
+        <v>0.9353326799966368</v>
+      </c>
+      <c r="L10">
+        <v>0.4612196226814487</v>
+      </c>
+      <c r="M10">
+        <v>0.8210752202807182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0.9902260738857117</v>
@@ -711,18 +909,36 @@
         <v>0.9457463847312346</v>
       </c>
       <c r="E11">
-        <v>0.5303484544680854</v>
+        <v>0.9095631810725452</v>
       </c>
       <c r="F11">
-        <v>0.2990205638528494</v>
+        <v>0.8343376943135711</v>
       </c>
       <c r="G11">
-        <v>0.8234485414315941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.8728397055685824</v>
+      </c>
+      <c r="H11">
+        <v>0.9959849377578998</v>
+      </c>
+      <c r="I11">
+        <v>0.9899750027900275</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.9964937918477913</v>
+      </c>
+      <c r="M11">
+        <v>0.9994949639279781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>0.9902260738857117</v>
@@ -734,18 +950,36 @@
         <v>0.948388792220628</v>
       </c>
       <c r="E12">
-        <v>0.2030672589634677</v>
+        <v>0.7688783164700903</v>
       </c>
       <c r="F12">
-        <v>0.1376723656226329</v>
+        <v>0.7333365444732852</v>
       </c>
       <c r="G12">
-        <v>0.5106015290239241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.7413278201816323</v>
+      </c>
+      <c r="H12">
+        <v>0.9979899373772181</v>
+      </c>
+      <c r="I12">
+        <v>0.9366703892674455</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.7697611450577474</v>
+      </c>
+      <c r="M12">
+        <v>0.9864693466754915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>0.9749551969845612</v>
@@ -757,18 +991,36 @@
         <v>0.9141044340594249</v>
       </c>
       <c r="E13">
-        <v>0.5754343676668838</v>
+        <v>0.8082933272542698</v>
       </c>
       <c r="F13">
-        <v>0.3657279479854579</v>
+        <v>0.8910810817555748</v>
       </c>
       <c r="G13">
-        <v>0.8048895563113564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.8976913471808539</v>
+      </c>
+      <c r="H13">
+        <v>0.9949900324543949</v>
+      </c>
+      <c r="I13">
+        <v>0.9879902564496101</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.9905120047532794</v>
+      </c>
+      <c r="M13">
+        <v>0.9979862410475798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>0.9781893341646561</v>
@@ -780,18 +1032,36 @@
         <v>0.8806622128503073</v>
       </c>
       <c r="E14">
-        <v>0.5818361393247479</v>
+        <v>0.8656989948281494</v>
       </c>
       <c r="F14">
-        <v>0.3733358243577278</v>
+        <v>0.8251132399515914</v>
       </c>
       <c r="G14">
-        <v>0.8188482996787162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.8732043375340449</v>
+      </c>
+      <c r="H14">
+        <v>0.9959849377578998</v>
+      </c>
+      <c r="I14">
+        <v>0.9879902564496101</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.9910095817548106</v>
+      </c>
+      <c r="M14">
+        <v>0.9974812049755579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>0.977537674466479</v>
@@ -803,18 +1073,36 @@
         <v>0.9188322550885202</v>
       </c>
       <c r="E15">
-        <v>0.5866779394683256</v>
+        <v>0.8819270061583735</v>
       </c>
       <c r="F15">
-        <v>0.36473233224054</v>
+        <v>0.8936063404023444</v>
       </c>
       <c r="G15">
-        <v>0.8278041635512536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.8975003672049056</v>
+      </c>
+      <c r="H15">
+        <v>0.996984905938939</v>
+      </c>
+      <c r="I15">
+        <v>0.9889800969796092</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.9954926040074555</v>
+      </c>
+      <c r="M15">
+        <v>0.9994949639279781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0.9775133103027135</v>
@@ -826,18 +1114,36 @@
         <v>0.919922509695107</v>
       </c>
       <c r="E16">
-        <v>0.5589622189455199</v>
+        <v>0.8175564188671556</v>
       </c>
       <c r="F16">
-        <v>0.3675190356138121</v>
+        <v>0.8913556671530006</v>
       </c>
       <c r="G16">
-        <v>0.7965366514610348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.896071531713473</v>
+      </c>
+      <c r="H16">
+        <v>0.9959849377578998</v>
+      </c>
+      <c r="I16">
+        <v>0.9869902872560227</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.9910031085517392</v>
+      </c>
+      <c r="M16">
+        <v>0.9954712849723176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0.9762099909063592</v>
@@ -849,18 +1155,36 @@
         <v>0.9030478185519237</v>
       </c>
       <c r="E17">
-        <v>0.5776170541218953</v>
+        <v>0.8499422859820525</v>
       </c>
       <c r="F17">
-        <v>0.358945860812031</v>
+        <v>0.8838045803716199</v>
       </c>
       <c r="G17">
-        <v>0.8189469190230423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.8886179438991413</v>
+      </c>
+      <c r="H17">
+        <v>0.9949900324543949</v>
+      </c>
+      <c r="I17">
+        <v>0.9859852565765154</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.9924979039147687</v>
+      </c>
+      <c r="M17">
+        <v>0.9984887307331141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0.9826536527735479</v>
@@ -872,18 +1196,36 @@
         <v>0.8916441537426624</v>
       </c>
       <c r="E18">
-        <v>0.5533052206537522</v>
+        <v>0.8770271872506328</v>
       </c>
       <c r="F18">
-        <v>0.3548787865093821</v>
+        <v>0.8779018841624758</v>
       </c>
       <c r="G18">
-        <v>0.7572920135034434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.8834554439403466</v>
+      </c>
+      <c r="H18">
+        <v>0.9909800382708285</v>
+      </c>
+      <c r="I18">
+        <v>0.9820258930342189</v>
+      </c>
+      <c r="J18">
+        <v>0.9989949688154972</v>
+      </c>
+      <c r="K18">
+        <v>0.9994991681092422</v>
+      </c>
+      <c r="L18">
+        <v>0.9820991698285614</v>
+      </c>
+      <c r="M18">
+        <v>0.9889547511858646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0.9826536527735479</v>
@@ -895,18 +1237,36 @@
         <v>0.8953178926067022</v>
       </c>
       <c r="E19">
-        <v>0.5588626721890961</v>
+        <v>0.8768550691469998</v>
       </c>
       <c r="F19">
-        <v>0.3525600964160794</v>
+        <v>0.8508903074873378</v>
       </c>
       <c r="G19">
-        <v>0.7599548411638132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.8680461681491798</v>
+      </c>
+      <c r="H19">
+        <v>0.9919749415569085</v>
+      </c>
+      <c r="I19">
+        <v>0.9820258930342189</v>
+      </c>
+      <c r="J19">
+        <v>0.9989949688154972</v>
+      </c>
+      <c r="K19">
+        <v>0.9994991681092422</v>
+      </c>
+      <c r="L19">
+        <v>0.9825875052645905</v>
+      </c>
+      <c r="M19">
+        <v>0.9874552597156795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>0.977491725601766</v>
@@ -918,18 +1278,36 @@
         <v>0.9085055342778219</v>
       </c>
       <c r="E20">
-        <v>0.5846767476242687</v>
+        <v>0.8645813140912288</v>
       </c>
       <c r="F20">
-        <v>0.3815466551038826</v>
+        <v>0.87151062844456</v>
       </c>
       <c r="G20">
-        <v>0.8226083433253757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.8734395905440364</v>
+      </c>
+      <c r="H20">
+        <v>0.9959849377578998</v>
+      </c>
+      <c r="I20">
+        <v>0.9889699721092422</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.9934978545990564</v>
+      </c>
+      <c r="M20">
+        <v>0.9984887307331141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>0.9807021095694465</v>
@@ -941,18 +1319,36 @@
         <v>0.8957382475455092</v>
       </c>
       <c r="E21">
-        <v>0.5784792863616903</v>
+        <v>0.8922679090186507</v>
       </c>
       <c r="F21">
-        <v>0.3696297054447314</v>
+        <v>0.8357553019581813</v>
       </c>
       <c r="G21">
-        <v>0.7794214255514822</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.8824089944134015</v>
+      </c>
+      <c r="H21">
+        <v>0.9969849061927153</v>
+      </c>
+      <c r="I21">
+        <v>0.9889952876341128</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0.9994991681092422</v>
+      </c>
+      <c r="L21">
+        <v>0.9860446583858323</v>
+      </c>
+      <c r="M21">
+        <v>0.992456540393565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>0.9794467046962975</v>
@@ -964,18 +1360,36 @@
         <v>0.8994724932277544</v>
       </c>
       <c r="E22">
-        <v>0.5654871402773485</v>
+        <v>0.9023656622612812</v>
       </c>
       <c r="F22">
-        <v>0.3568308618673685</v>
+        <v>0.8896662469235279</v>
       </c>
       <c r="G22">
-        <v>0.7972983373105283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.8944011847516915</v>
+      </c>
+      <c r="H22">
+        <v>0.9949900324543949</v>
+      </c>
+      <c r="I22">
+        <v>0.9859852568302918</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.99050955581115</v>
+      </c>
+      <c r="M22">
+        <v>0.9979849786547088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>0.9800712767181176</v>
@@ -987,18 +1401,36 @@
         <v>0.9044117999415718</v>
       </c>
       <c r="E23">
-        <v>0.570059315448129</v>
+        <v>0.8488364497484351</v>
       </c>
       <c r="F23">
-        <v>0.3674970205785505</v>
+        <v>0.8795165799249182</v>
       </c>
       <c r="G23">
-        <v>0.7722542570615428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.8861009886067123</v>
+      </c>
+      <c r="H23">
+        <v>0.9949799075859455</v>
+      </c>
+      <c r="I23">
+        <v>0.9830106691921541</v>
+      </c>
+      <c r="J23">
+        <v>0.9989949688154972</v>
+      </c>
+      <c r="K23">
+        <v>0.9994991681092422</v>
+      </c>
+      <c r="L23">
+        <v>0.9850628149288599</v>
+      </c>
+      <c r="M23">
+        <v>0.9899493050693813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>0.9749309342472831</v>
@@ -1010,18 +1442,36 @@
         <v>0.9084315926630612</v>
       </c>
       <c r="E24">
-        <v>0.5792288570665121</v>
+        <v>0.8411231449794936</v>
       </c>
       <c r="F24">
-        <v>0.3708138616906246</v>
+        <v>0.8875157693290857</v>
       </c>
       <c r="G24">
-        <v>0.8181288362036352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.8910440544224368</v>
+      </c>
+      <c r="H24">
+        <v>0.9949900324543949</v>
+      </c>
+      <c r="I24">
+        <v>0.9869852239987825</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.9910133817775947</v>
+      </c>
+      <c r="M24">
+        <v>0.9979862410475798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>0.9794467046962975</v>
@@ -1033,18 +1483,36 @@
         <v>0.8962269349556877</v>
       </c>
       <c r="E25">
-        <v>0.5678134410001314</v>
+        <v>0.91242668393079</v>
       </c>
       <c r="F25">
-        <v>0.3607369623057315</v>
+        <v>0.8893215626338993</v>
       </c>
       <c r="G25">
-        <v>0.7980090993515201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.8949340787890347</v>
+      </c>
+      <c r="H25">
+        <v>0.9949900324543949</v>
+      </c>
+      <c r="I25">
+        <v>0.9849903512717324</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.99050955581115</v>
+      </c>
+      <c r="M25">
+        <v>0.9979849786547088</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>0.9749309342472831</v>
@@ -1056,13 +1524,31 @@
         <v>0.9073959744568759</v>
       </c>
       <c r="E26">
-        <v>0.5776383054672205</v>
+        <v>0.8287044915058335</v>
       </c>
       <c r="F26">
-        <v>0.3649532915140853</v>
+        <v>0.8878189309840415</v>
       </c>
       <c r="G26">
-        <v>0.8178234214811093</v>
+        <v>0.889668501912522</v>
+      </c>
+      <c r="H26">
+        <v>0.9949900324543949</v>
+      </c>
+      <c r="I26">
+        <v>0.9869852239987825</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.9925004755767315</v>
+      </c>
+      <c r="M26">
+        <v>0.9979849786547088</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
+++ b/experiments/init/results/sbm_modularity_any3_bestparam_byari_individual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>dataset2sbm_dolphins</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>dataset2sbm_news_3cl3_0.1</t>
+  </si>
+  <si>
+    <t>dataset2sbm_news_5cl1_0.1</t>
+  </si>
+  <si>
+    <t>dataset2sbm_news_5cl2_0.1</t>
   </si>
   <si>
     <t>Abs</t>
@@ -482,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,10 +531,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0.9844415544489108</v>
@@ -566,10 +578,16 @@
       <c r="M2">
         <v>0.8879907959164275</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.2166170108970156</v>
+      </c>
+      <c r="O2">
+        <v>0.3696945266526065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0.9850681935557108</v>
@@ -607,10 +625,16 @@
       <c r="M3">
         <v>0.9979849096464595</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.9293153900243694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0.9780180877419905</v>
@@ -648,10 +672,16 @@
       <c r="M4">
         <v>0.9939560215028076</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.9924524981751627</v>
+      </c>
+      <c r="O4">
+        <v>0.8374903901625355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0.9755825939454601</v>
@@ -689,10 +719,16 @@
       <c r="M5">
         <v>0.9979862410475798</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.9974861993934612</v>
+      </c>
+      <c r="O5">
+        <v>0.9359106962763838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0.9882987934188884</v>
@@ -730,10 +766,16 @@
       <c r="M6">
         <v>0.9077710910848198</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.3557396869385259</v>
+      </c>
+      <c r="O6">
+        <v>0.3703412113964903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0.9902390595933319</v>
@@ -771,10 +813,16 @@
       <c r="M7">
         <v>0.9969748763408438</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.9924839701134789</v>
+      </c>
+      <c r="O7">
+        <v>0.7692755772673915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0.9895744141875347</v>
@@ -812,10 +860,16 @@
       <c r="M8">
         <v>0.9994949639279781</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0.7673836459380111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0.9831119451661402</v>
@@ -853,10 +907,16 @@
       <c r="M9">
         <v>0.9759062399007249</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.7274361423688696</v>
+      </c>
+      <c r="O9">
+        <v>0.5575671841867714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>0.9818064591743954</v>
@@ -894,10 +954,16 @@
       <c r="M10">
         <v>0.8210752202807182</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.2172561956627717</v>
+      </c>
+      <c r="O10">
+        <v>0.3459518370026959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>0.9902260738857117</v>
@@ -935,10 +1001,16 @@
       <c r="M11">
         <v>0.9994949639279781</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0.7982202680010411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>0.9902260738857117</v>
@@ -976,10 +1048,16 @@
       <c r="M12">
         <v>0.9864693466754915</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.7548059964915449</v>
+      </c>
+      <c r="O12">
+        <v>0.5068243753092442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>0.9749551969845612</v>
@@ -1017,10 +1095,16 @@
       <c r="M13">
         <v>0.9979862410475798</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.9974861993934612</v>
+      </c>
+      <c r="O13">
+        <v>0.9426886791652394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>0.9781893341646561</v>
@@ -1058,10 +1142,16 @@
       <c r="M14">
         <v>0.9974812049755579</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.9974861993934612</v>
+      </c>
+      <c r="O14">
+        <v>0.9631959289785731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>0.977537674466479</v>
@@ -1099,10 +1189,16 @@
       <c r="M15">
         <v>0.9994949639279781</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0.9608902774309538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>0.9775133103027135</v>
@@ -1140,10 +1236,16 @@
       <c r="M16">
         <v>0.9954712849723176</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.9974861993934612</v>
+      </c>
+      <c r="O16">
+        <v>0.9515198860019898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>0.9762099909063592</v>
@@ -1181,10 +1283,16 @@
       <c r="M17">
         <v>0.9984887307331141</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.9974861993934612</v>
+      </c>
+      <c r="O17">
+        <v>0.9540234738393318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>0.9826536527735479</v>
@@ -1222,10 +1330,16 @@
       <c r="M18">
         <v>0.9889547511858646</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.994985056314458</v>
+      </c>
+      <c r="O18">
+        <v>0.9490868403765157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>0.9826536527735479</v>
@@ -1263,10 +1377,16 @@
       <c r="M19">
         <v>0.9874552597156795</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.994985056314458</v>
+      </c>
+      <c r="O19">
+        <v>0.9311206369557572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>0.977491725601766</v>
@@ -1304,10 +1424,16 @@
       <c r="M20">
         <v>0.9984887307331141</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0.9584854196949674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>0.9807021095694465</v>
@@ -1345,10 +1471,16 @@
       <c r="M21">
         <v>0.992456540393565</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.994985056314458</v>
+      </c>
+      <c r="O21">
+        <v>0.9267663605135655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>0.9794467046962975</v>
@@ -1386,10 +1518,16 @@
       <c r="M22">
         <v>0.9979849786547088</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.9974861993934612</v>
+      </c>
+      <c r="O22">
+        <v>0.9336052325155323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>0.9800712767181176</v>
@@ -1427,10 +1565,16 @@
       <c r="M23">
         <v>0.9899493050693813</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.994985056314458</v>
+      </c>
+      <c r="O23">
+        <v>0.9560274783529447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>0.9749309342472831</v>
@@ -1468,10 +1612,16 @@
       <c r="M24">
         <v>0.9979862410475798</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.9974861993934612</v>
+      </c>
+      <c r="O24">
+        <v>0.9359106962763838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>0.9794467046962975</v>
@@ -1509,10 +1659,16 @@
       <c r="M25">
         <v>0.9979849786547088</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25">
+        <v>0.9974861993934612</v>
+      </c>
+      <c r="O25">
+        <v>0.9381169351730735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>0.9749309342472831</v>
@@ -1549,6 +1705,12 @@
       </c>
       <c r="M26">
         <v>0.9979849786547088</v>
+      </c>
+      <c r="N26">
+        <v>0.9974861993934612</v>
+      </c>
+      <c r="O26">
+        <v>0.9609710927180566</v>
       </c>
     </row>
   </sheetData>
